--- a/outputs-HGR-r202/f__Enterococcaceae.xlsx
+++ b/outputs-HGR-r202/f__Enterococcaceae.xlsx
@@ -1352,7 +1352,7 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>g__Enterococcus_D(reject)</t>
+          <t>g__Enterococcus_D</t>
         </is>
       </c>
     </row>
@@ -1387,7 +1387,7 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>g__Enterococcus_D(reject)</t>
+          <t>g__Enterococcus_D</t>
         </is>
       </c>
     </row>
@@ -2864,61 +2864,61 @@
     <row r="70">
       <c r="A70" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT26238.fa</t>
+          <t>even_MAG-GUT2025.fa</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>0.002915910404774026</v>
+        <v>0.2677179357021708</v>
       </c>
       <c r="C70" t="n">
-        <v>9.343404763283134e-05</v>
+        <v>0.3362664786458258</v>
       </c>
       <c r="D70" t="n">
-        <v>0.970647976737519</v>
+        <v>0.2151813959714483</v>
       </c>
       <c r="E70" t="n">
-        <v>0.01611786494393027</v>
+        <v>0.04631696976980888</v>
       </c>
       <c r="F70" t="n">
-        <v>0.01022481386614381</v>
+        <v>0.1345172199107464</v>
       </c>
       <c r="G70" t="n">
-        <v>0.970647976737519</v>
+        <v>0.3362664786458258</v>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>g__Enterococcus_B</t>
+          <t>g__Enterococcus_A</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>g__Enterococcus_B</t>
+          <t>g__Enterococcus_A(reject)</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT26973.fa</t>
+          <t>even_MAG-GUT26238.fa</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>0.003269659753409868</v>
+        <v>0.002915910404774026</v>
       </c>
       <c r="C71" t="n">
-        <v>0.0005887681767771461</v>
+        <v>9.343404763283134e-05</v>
       </c>
       <c r="D71" t="n">
-        <v>0.9598529955911526</v>
+        <v>0.970647976737519</v>
       </c>
       <c r="E71" t="n">
-        <v>0.008845058626298747</v>
+        <v>0.01611786494393027</v>
       </c>
       <c r="F71" t="n">
-        <v>0.02744351785236151</v>
+        <v>0.01022481386614381</v>
       </c>
       <c r="G71" t="n">
-        <v>0.9598529955911526</v>
+        <v>0.970647976737519</v>
       </c>
       <c r="H71" t="inlineStr">
         <is>
@@ -2934,61 +2934,61 @@
     <row r="72">
       <c r="A72" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT3231.fa</t>
+          <t>even_MAG-GUT26973.fa</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>0.3045923607854293</v>
+        <v>0.003269659753409868</v>
       </c>
       <c r="C72" t="n">
-        <v>0.1272408158353528</v>
+        <v>0.0005887681767771461</v>
       </c>
       <c r="D72" t="n">
-        <v>0.2055528079392174</v>
+        <v>0.9598529955911526</v>
       </c>
       <c r="E72" t="n">
-        <v>0.1384789648460864</v>
+        <v>0.008845058626298747</v>
       </c>
       <c r="F72" t="n">
-        <v>0.2241350505939142</v>
+        <v>0.02744351785236151</v>
       </c>
       <c r="G72" t="n">
-        <v>0.3045923607854293</v>
+        <v>0.9598529955911526</v>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>g__Enterococcus</t>
+          <t>g__Enterococcus_B</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>g__Enterococcus(reject)</t>
+          <t>g__Enterococcus_B</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT3233.fa</t>
+          <t>even_MAG-GUT3231.fa</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>0.313855926132341</v>
+        <v>0.3045923607854293</v>
       </c>
       <c r="C73" t="n">
-        <v>0.2338111786265904</v>
+        <v>0.1272408158353528</v>
       </c>
       <c r="D73" t="n">
-        <v>0.1792744628508558</v>
+        <v>0.2055528079392174</v>
       </c>
       <c r="E73" t="n">
-        <v>0.06250172502859193</v>
+        <v>0.1384789648460864</v>
       </c>
       <c r="F73" t="n">
-        <v>0.2105567073616209</v>
+        <v>0.2241350505939142</v>
       </c>
       <c r="G73" t="n">
-        <v>0.313855926132341</v>
+        <v>0.3045923607854293</v>
       </c>
       <c r="H73" t="inlineStr">
         <is>
@@ -3004,26 +3004,26 @@
     <row r="74">
       <c r="A74" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT3477.fa</t>
+          <t>even_MAG-GUT3233.fa</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>0.3010255114909634</v>
+        <v>0.313855926132341</v>
       </c>
       <c r="C74" t="n">
-        <v>0.2138453171217498</v>
+        <v>0.2338111786265904</v>
       </c>
       <c r="D74" t="n">
-        <v>0.1639610008440705</v>
+        <v>0.1792744628508558</v>
       </c>
       <c r="E74" t="n">
-        <v>0.1482985116771456</v>
+        <v>0.06250172502859193</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1728696588660706</v>
+        <v>0.2105567073616209</v>
       </c>
       <c r="G74" t="n">
-        <v>0.3010255114909634</v>
+        <v>0.313855926132341</v>
       </c>
       <c r="H74" t="inlineStr">
         <is>
@@ -3039,26 +3039,26 @@
     <row r="75">
       <c r="A75" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT3479.fa</t>
+          <t>even_MAG-GUT3477.fa</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>0.3572848607950898</v>
+        <v>0.3010255114909634</v>
       </c>
       <c r="C75" t="n">
-        <v>0.1611555096298393</v>
+        <v>0.2138453171217498</v>
       </c>
       <c r="D75" t="n">
-        <v>0.2797385131458375</v>
+        <v>0.1639610008440705</v>
       </c>
       <c r="E75" t="n">
-        <v>0.06456964999103668</v>
+        <v>0.1482985116771456</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1372514664381968</v>
+        <v>0.1728696588660706</v>
       </c>
       <c r="G75" t="n">
-        <v>0.3572848607950898</v>
+        <v>0.3010255114909634</v>
       </c>
       <c r="H75" t="inlineStr">
         <is>
@@ -3074,61 +3074,61 @@
     <row r="76">
       <c r="A76" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT3484.fa</t>
+          <t>even_MAG-GUT3479.fa</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>0.004082519712113482</v>
+        <v>0.3572848607950898</v>
       </c>
       <c r="C76" t="n">
-        <v>0.3812967691735256</v>
+        <v>0.1611555096298393</v>
       </c>
       <c r="D76" t="n">
-        <v>0.02427370636054511</v>
+        <v>0.2797385131458375</v>
       </c>
       <c r="E76" t="n">
-        <v>0.01180214485909031</v>
+        <v>0.06456964999103668</v>
       </c>
       <c r="F76" t="n">
-        <v>0.5785448598947256</v>
+        <v>0.1372514664381968</v>
       </c>
       <c r="G76" t="n">
-        <v>0.5785448598947256</v>
+        <v>0.3572848607950898</v>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>g__Enterococcus_D</t>
+          <t>g__Enterococcus</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>g__Enterococcus_D(reject)</t>
+          <t>g__Enterococcus(reject)</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT3493.fa</t>
+          <t>even_MAG-GUT3484.fa</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>0.003290483511428099</v>
+        <v>0.004082519712113482</v>
       </c>
       <c r="C77" t="n">
-        <v>0.2943691322056655</v>
+        <v>0.3812967691735256</v>
       </c>
       <c r="D77" t="n">
-        <v>0.007984749865548509</v>
+        <v>0.02427370636054511</v>
       </c>
       <c r="E77" t="n">
-        <v>0.002979356676805285</v>
+        <v>0.01180214485909031</v>
       </c>
       <c r="F77" t="n">
-        <v>0.6913762777405527</v>
+        <v>0.5785448598947256</v>
       </c>
       <c r="G77" t="n">
-        <v>0.6913762777405527</v>
+        <v>0.5785448598947256</v>
       </c>
       <c r="H77" t="inlineStr">
         <is>
@@ -3137,7 +3137,7 @@
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>g__Enterococcus_D(reject)</t>
+          <t>g__Enterococcus_D</t>
         </is>
       </c>
     </row>
@@ -3207,68 +3207,68 @@
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>g__Enterococcus_D(reject)</t>
+          <t>g__Enterococcus_D</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT3553.fa</t>
+          <t>even_MAG-GUT3561.fa</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>0.005704658854795167</v>
+        <v>0.3147557238409517</v>
       </c>
       <c r="C80" t="n">
-        <v>0.2523895846000665</v>
+        <v>0.07743023774378975</v>
       </c>
       <c r="D80" t="n">
-        <v>0.1152166602465874</v>
+        <v>0.2464314941688517</v>
       </c>
       <c r="E80" t="n">
-        <v>0.01194488942184362</v>
+        <v>0.1289806279382382</v>
       </c>
       <c r="F80" t="n">
-        <v>0.6147442068767074</v>
+        <v>0.2324019163081684</v>
       </c>
       <c r="G80" t="n">
-        <v>0.6147442068767074</v>
+        <v>0.3147557238409517</v>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>g__Enterococcus_D</t>
+          <t>g__Enterococcus</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>g__Enterococcus_D(reject)</t>
+          <t>g__Enterococcus(reject)</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT3561.fa</t>
+          <t>even_MAG-GUT43425.fa</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>0.3147557238409517</v>
+        <v>0.3598237337920027</v>
       </c>
       <c r="C81" t="n">
-        <v>0.07743023774378975</v>
+        <v>0.2357190687317648</v>
       </c>
       <c r="D81" t="n">
-        <v>0.2464314941688517</v>
+        <v>0.1673971598401932</v>
       </c>
       <c r="E81" t="n">
-        <v>0.1289806279382382</v>
+        <v>0.04413072677524604</v>
       </c>
       <c r="F81" t="n">
-        <v>0.2324019163081684</v>
+        <v>0.1929293108607933</v>
       </c>
       <c r="G81" t="n">
-        <v>0.3147557238409517</v>
+        <v>0.3598237337920027</v>
       </c>
       <c r="H81" t="inlineStr">
         <is>
@@ -3284,166 +3284,166 @@
     <row r="82">
       <c r="A82" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT43425.fa</t>
+          <t>even_MAG-GUT43446.fa</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>0.3598237337920027</v>
+        <v>0.2313535199132337</v>
       </c>
       <c r="C82" t="n">
-        <v>0.2357190687317648</v>
+        <v>0.3786262290580055</v>
       </c>
       <c r="D82" t="n">
-        <v>0.1673971598401932</v>
+        <v>0.1307558285123503</v>
       </c>
       <c r="E82" t="n">
-        <v>0.04413072677524604</v>
+        <v>0.03935989485619037</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1929293108607933</v>
+        <v>0.2199045276602201</v>
       </c>
       <c r="G82" t="n">
-        <v>0.3598237337920027</v>
+        <v>0.3786262290580055</v>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>g__Enterococcus</t>
+          <t>g__Enterococcus_A</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>g__Enterococcus(reject)</t>
+          <t>g__Enterococcus_A(reject)</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT43446.fa</t>
+          <t>even_MAG-GUT43457.fa</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>0.2313535199132337</v>
+        <v>0.3163473944888543</v>
       </c>
       <c r="C83" t="n">
-        <v>0.3786262290580055</v>
+        <v>0.1978720043101867</v>
       </c>
       <c r="D83" t="n">
-        <v>0.1307558285123503</v>
+        <v>0.1244706798036692</v>
       </c>
       <c r="E83" t="n">
-        <v>0.03935989485619037</v>
+        <v>0.01980961997800091</v>
       </c>
       <c r="F83" t="n">
-        <v>0.2199045276602201</v>
+        <v>0.3415003014192887</v>
       </c>
       <c r="G83" t="n">
-        <v>0.3786262290580055</v>
+        <v>0.3415003014192887</v>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>g__Enterococcus_A</t>
+          <t>g__Enterococcus_D</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>g__Enterococcus_A(reject)</t>
+          <t>g__Enterococcus_D(reject)</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT43457.fa</t>
+          <t>even_MAG-GUT43462.fa</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>0.3163473944888543</v>
+        <v>0.3285358494344929</v>
       </c>
       <c r="C84" t="n">
-        <v>0.1978720043101867</v>
+        <v>0.2149654870244674</v>
       </c>
       <c r="D84" t="n">
-        <v>0.1244706798036692</v>
+        <v>0.1267673207154431</v>
       </c>
       <c r="E84" t="n">
-        <v>0.01980961997800091</v>
+        <v>0.04242295162951585</v>
       </c>
       <c r="F84" t="n">
-        <v>0.3415003014192887</v>
+        <v>0.2873083911960805</v>
       </c>
       <c r="G84" t="n">
-        <v>0.3415003014192887</v>
+        <v>0.3285358494344929</v>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>g__Enterococcus_D</t>
+          <t>g__Enterococcus</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>g__Enterococcus_D(reject)</t>
+          <t>g__Enterococcus(reject)</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT43462.fa</t>
+          <t>even_MAG-GUT43463.fa</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>0.3285358494344929</v>
+        <v>0.2713180071655997</v>
       </c>
       <c r="C85" t="n">
-        <v>0.2149654870244674</v>
+        <v>0.5273102200996922</v>
       </c>
       <c r="D85" t="n">
-        <v>0.1267673207154431</v>
+        <v>0.06050481442781408</v>
       </c>
       <c r="E85" t="n">
-        <v>0.04242295162951585</v>
+        <v>0.01749924722987461</v>
       </c>
       <c r="F85" t="n">
-        <v>0.2873083911960805</v>
+        <v>0.1233677110770195</v>
       </c>
       <c r="G85" t="n">
-        <v>0.3285358494344929</v>
+        <v>0.5273102200996922</v>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>g__Enterococcus</t>
+          <t>g__Enterococcus_A</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>g__Enterococcus(reject)</t>
+          <t>g__Enterococcus_A(reject)</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT43463.fa</t>
+          <t>even_MAG-GUT43483.fa</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>0.2713180071655997</v>
+        <v>0.3223869184030344</v>
       </c>
       <c r="C86" t="n">
-        <v>0.5273102200996922</v>
+        <v>0.3328217923509745</v>
       </c>
       <c r="D86" t="n">
-        <v>0.06050481442781408</v>
+        <v>0.1490111199566727</v>
       </c>
       <c r="E86" t="n">
-        <v>0.01749924722987461</v>
+        <v>0.03263280200202433</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1233677110770195</v>
+        <v>0.1631473672872942</v>
       </c>
       <c r="G86" t="n">
-        <v>0.5273102200996922</v>
+        <v>0.3328217923509745</v>
       </c>
       <c r="H86" t="inlineStr">
         <is>
@@ -3459,61 +3459,61 @@
     <row r="87">
       <c r="A87" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT43483.fa</t>
+          <t>even_MAG-GUT43573.fa</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>0.3223869184030344</v>
+        <v>0.3163986400840704</v>
       </c>
       <c r="C87" t="n">
-        <v>0.3328217923509745</v>
+        <v>0.2985200627120609</v>
       </c>
       <c r="D87" t="n">
-        <v>0.1490111199566727</v>
+        <v>0.1769374192538135</v>
       </c>
       <c r="E87" t="n">
-        <v>0.03263280200202433</v>
+        <v>0.09830739724658753</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1631473672872942</v>
+        <v>0.1098364807034676</v>
       </c>
       <c r="G87" t="n">
-        <v>0.3328217923509745</v>
+        <v>0.3163986400840704</v>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>g__Enterococcus_A</t>
+          <t>g__Enterococcus</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>g__Enterococcus_A(reject)</t>
+          <t>g__Enterococcus(reject)</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT43573.fa</t>
+          <t>even_MAG-GUT43577.fa</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>0.3163986400840704</v>
+        <v>0.3570493349491577</v>
       </c>
       <c r="C88" t="n">
-        <v>0.2985200627120609</v>
+        <v>0.2619587366082032</v>
       </c>
       <c r="D88" t="n">
-        <v>0.1769374192538135</v>
+        <v>0.1607308017750111</v>
       </c>
       <c r="E88" t="n">
-        <v>0.09830739724658753</v>
+        <v>0.03832200278621258</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1098364807034676</v>
+        <v>0.1819391238814156</v>
       </c>
       <c r="G88" t="n">
-        <v>0.3163986400840704</v>
+        <v>0.3570493349491577</v>
       </c>
       <c r="H88" t="inlineStr">
         <is>
@@ -3529,26 +3529,26 @@
     <row r="89">
       <c r="A89" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT43577.fa</t>
+          <t>even_MAG-GUT43620.fa</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>0.3570493349491577</v>
+        <v>0.2983466473500487</v>
       </c>
       <c r="C89" t="n">
-        <v>0.2619587366082032</v>
+        <v>0.1284510079249685</v>
       </c>
       <c r="D89" t="n">
-        <v>0.1607308017750111</v>
+        <v>0.2274605907869494</v>
       </c>
       <c r="E89" t="n">
-        <v>0.03832200278621258</v>
+        <v>0.1638122597736001</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1819391238814156</v>
+        <v>0.1819294941644333</v>
       </c>
       <c r="G89" t="n">
-        <v>0.3570493349491577</v>
+        <v>0.2983466473500487</v>
       </c>
       <c r="H89" t="inlineStr">
         <is>
@@ -3564,26 +3564,26 @@
     <row r="90">
       <c r="A90" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT43620.fa</t>
+          <t>even_MAG-GUT43751.fa</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>0.2983466473500487</v>
+        <v>0.3358792424868872</v>
       </c>
       <c r="C90" t="n">
-        <v>0.1284510079249685</v>
+        <v>0.1743258009966784</v>
       </c>
       <c r="D90" t="n">
-        <v>0.2274605907869494</v>
+        <v>0.2363756731124956</v>
       </c>
       <c r="E90" t="n">
-        <v>0.1638122597736001</v>
+        <v>0.1000102167121436</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1819294941644333</v>
+        <v>0.1534090666917954</v>
       </c>
       <c r="G90" t="n">
-        <v>0.2983466473500487</v>
+        <v>0.3358792424868872</v>
       </c>
       <c r="H90" t="inlineStr">
         <is>
@@ -3599,26 +3599,26 @@
     <row r="91">
       <c r="A91" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT43751.fa</t>
+          <t>even_MAG-GUT43943.fa</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>0.3358792424868872</v>
+        <v>0.3476187353243195</v>
       </c>
       <c r="C91" t="n">
-        <v>0.1743258009966784</v>
+        <v>0.3188483683187767</v>
       </c>
       <c r="D91" t="n">
-        <v>0.2363756731124956</v>
+        <v>0.08366047896465938</v>
       </c>
       <c r="E91" t="n">
-        <v>0.1000102167121436</v>
+        <v>0.06047042016143004</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1534090666917954</v>
+        <v>0.1894019972308145</v>
       </c>
       <c r="G91" t="n">
-        <v>0.3358792424868872</v>
+        <v>0.3476187353243195</v>
       </c>
       <c r="H91" t="inlineStr">
         <is>
@@ -3634,61 +3634,61 @@
     <row r="92">
       <c r="A92" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT43943.fa</t>
+          <t>even_MAG-GUT44002.fa</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>0.3476187353243195</v>
+        <v>0.001152558473813007</v>
       </c>
       <c r="C92" t="n">
-        <v>0.3188483683187767</v>
+        <v>1.620913537376421e-05</v>
       </c>
       <c r="D92" t="n">
-        <v>0.08366047896465938</v>
+        <v>0.9675409678785749</v>
       </c>
       <c r="E92" t="n">
-        <v>0.06047042016143004</v>
+        <v>0.001779231095358377</v>
       </c>
       <c r="F92" t="n">
-        <v>0.1894019972308145</v>
+        <v>0.02951103341688006</v>
       </c>
       <c r="G92" t="n">
-        <v>0.3476187353243195</v>
+        <v>0.9675409678785749</v>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>g__Enterococcus</t>
+          <t>g__Enterococcus_B</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>g__Enterococcus(reject)</t>
+          <t>g__Enterococcus_B</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT44002.fa</t>
+          <t>even_MAG-GUT44177.fa</t>
         </is>
       </c>
       <c r="B93" t="n">
-        <v>0.001152558473813007</v>
+        <v>0.2930348161041059</v>
       </c>
       <c r="C93" t="n">
-        <v>1.620913537376421e-05</v>
+        <v>0.04836342096557563</v>
       </c>
       <c r="D93" t="n">
-        <v>0.9675409678785749</v>
+        <v>0.3434250942035542</v>
       </c>
       <c r="E93" t="n">
-        <v>0.001779231095358377</v>
+        <v>0.109834055604495</v>
       </c>
       <c r="F93" t="n">
-        <v>0.02951103341688006</v>
+        <v>0.2053426131222693</v>
       </c>
       <c r="G93" t="n">
-        <v>0.9675409678785749</v>
+        <v>0.3434250942035542</v>
       </c>
       <c r="H93" t="inlineStr">
         <is>
@@ -3697,68 +3697,68 @@
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>g__Enterococcus_B</t>
+          <t>g__Enterococcus_B(reject)</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT44177.fa</t>
+          <t>even_MAG-GUT44539.fa</t>
         </is>
       </c>
       <c r="B94" t="n">
-        <v>0.2930348161041059</v>
+        <v>0.3007055627029915</v>
       </c>
       <c r="C94" t="n">
-        <v>0.04836342096557563</v>
+        <v>0.1621171204385991</v>
       </c>
       <c r="D94" t="n">
-        <v>0.3434250942035542</v>
+        <v>0.2401450691837926</v>
       </c>
       <c r="E94" t="n">
-        <v>0.109834055604495</v>
+        <v>0.1029460641978469</v>
       </c>
       <c r="F94" t="n">
-        <v>0.2053426131222693</v>
+        <v>0.1940861834767698</v>
       </c>
       <c r="G94" t="n">
-        <v>0.3434250942035542</v>
+        <v>0.3007055627029915</v>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>g__Enterococcus_B</t>
+          <t>g__Enterococcus</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>g__Enterococcus_B(reject)</t>
+          <t>g__Enterococcus(reject)</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT44539.fa</t>
+          <t>even_MAG-GUT44544.fa</t>
         </is>
       </c>
       <c r="B95" t="n">
-        <v>0.3007055627029915</v>
+        <v>0.3107705256192402</v>
       </c>
       <c r="C95" t="n">
-        <v>0.1621171204385991</v>
+        <v>0.2668111566563984</v>
       </c>
       <c r="D95" t="n">
-        <v>0.2401450691837926</v>
+        <v>0.1478030269553131</v>
       </c>
       <c r="E95" t="n">
-        <v>0.1029460641978469</v>
+        <v>0.09319452612324855</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1940861834767698</v>
+        <v>0.1814207646457998</v>
       </c>
       <c r="G95" t="n">
-        <v>0.3007055627029915</v>
+        <v>0.3107705256192402</v>
       </c>
       <c r="H95" t="inlineStr">
         <is>
@@ -3774,26 +3774,26 @@
     <row r="96">
       <c r="A96" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT44544.fa</t>
+          <t>even_MAG-GUT44617.fa</t>
         </is>
       </c>
       <c r="B96" t="n">
-        <v>0.3107705256192402</v>
+        <v>0.3055268373169287</v>
       </c>
       <c r="C96" t="n">
-        <v>0.2668111566563984</v>
+        <v>0.08766821987925209</v>
       </c>
       <c r="D96" t="n">
-        <v>0.1478030269553131</v>
+        <v>0.2507147817929776</v>
       </c>
       <c r="E96" t="n">
-        <v>0.09319452612324855</v>
+        <v>0.1435363359194215</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1814207646457998</v>
+        <v>0.2125538250914202</v>
       </c>
       <c r="G96" t="n">
-        <v>0.3107705256192402</v>
+        <v>0.3055268373169287</v>
       </c>
       <c r="H96" t="inlineStr">
         <is>
@@ -3809,61 +3809,61 @@
     <row r="97">
       <c r="A97" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT44617.fa</t>
+          <t>even_MAG-GUT44666.fa</t>
         </is>
       </c>
       <c r="B97" t="n">
-        <v>0.3055268373169287</v>
+        <v>0.001152558473813007</v>
       </c>
       <c r="C97" t="n">
-        <v>0.08766821987925209</v>
+        <v>1.620913537376421e-05</v>
       </c>
       <c r="D97" t="n">
-        <v>0.2507147817929776</v>
+        <v>0.9675409678785749</v>
       </c>
       <c r="E97" t="n">
-        <v>0.1435363359194215</v>
+        <v>0.001779231095358377</v>
       </c>
       <c r="F97" t="n">
-        <v>0.2125538250914202</v>
+        <v>0.02951103341688006</v>
       </c>
       <c r="G97" t="n">
-        <v>0.3055268373169287</v>
+        <v>0.9675409678785749</v>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>g__Enterococcus</t>
+          <t>g__Enterococcus_B</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>g__Enterococcus(reject)</t>
+          <t>g__Enterococcus_B</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT44666.fa</t>
+          <t>even_MAG-GUT45882.fa</t>
         </is>
       </c>
       <c r="B98" t="n">
-        <v>0.001152558473813007</v>
+        <v>0.296276855180259</v>
       </c>
       <c r="C98" t="n">
-        <v>1.620913537376421e-05</v>
+        <v>0.1229872094796404</v>
       </c>
       <c r="D98" t="n">
-        <v>0.9675409678785749</v>
+        <v>0.3628112587363621</v>
       </c>
       <c r="E98" t="n">
-        <v>0.001779231095358377</v>
+        <v>0.1144141575317883</v>
       </c>
       <c r="F98" t="n">
-        <v>0.02951103341688006</v>
+        <v>0.1035105190719503</v>
       </c>
       <c r="G98" t="n">
-        <v>0.9675409678785749</v>
+        <v>0.3628112587363621</v>
       </c>
       <c r="H98" t="inlineStr">
         <is>
@@ -3872,173 +3872,173 @@
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>g__Enterococcus_B</t>
+          <t>g__Enterococcus_B(reject)</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT45882.fa</t>
+          <t>even_MAG-GUT46437.fa</t>
         </is>
       </c>
       <c r="B99" t="n">
-        <v>0.296276855180259</v>
+        <v>0.3545103186470697</v>
       </c>
       <c r="C99" t="n">
-        <v>0.1229872094796404</v>
+        <v>0.2650716761536628</v>
       </c>
       <c r="D99" t="n">
-        <v>0.3628112587363621</v>
+        <v>0.1302797582885677</v>
       </c>
       <c r="E99" t="n">
-        <v>0.1144141575317883</v>
+        <v>0.03566185841131819</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1035105190719503</v>
+        <v>0.2144763884993817</v>
       </c>
       <c r="G99" t="n">
-        <v>0.3628112587363621</v>
+        <v>0.3545103186470697</v>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>g__Enterococcus_B</t>
+          <t>g__Enterococcus</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>g__Enterococcus_B(reject)</t>
+          <t>g__Enterococcus(reject)</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT46437.fa</t>
+          <t>even_MAG-GUT46441.fa</t>
         </is>
       </c>
       <c r="B100" t="n">
-        <v>0.3545103186470697</v>
+        <v>0.3274894332734864</v>
       </c>
       <c r="C100" t="n">
-        <v>0.2650716761536628</v>
+        <v>0.3862010504591773</v>
       </c>
       <c r="D100" t="n">
-        <v>0.1302797582885677</v>
+        <v>0.1156270709360746</v>
       </c>
       <c r="E100" t="n">
-        <v>0.03566185841131819</v>
+        <v>0.01350695586577348</v>
       </c>
       <c r="F100" t="n">
-        <v>0.2144763884993817</v>
+        <v>0.1571754894654883</v>
       </c>
       <c r="G100" t="n">
-        <v>0.3545103186470697</v>
+        <v>0.3862010504591773</v>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>g__Enterococcus</t>
+          <t>g__Enterococcus_A</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>g__Enterococcus(reject)</t>
+          <t>g__Enterococcus_A(reject)</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT46441.fa</t>
+          <t>even_MAG-GUT46868.fa</t>
         </is>
       </c>
       <c r="B101" t="n">
-        <v>0.3274894332734864</v>
+        <v>0.3226988581116109</v>
       </c>
       <c r="C101" t="n">
-        <v>0.3862010504591773</v>
+        <v>0.1388436727255591</v>
       </c>
       <c r="D101" t="n">
-        <v>0.1156270709360746</v>
+        <v>0.2158970066164363</v>
       </c>
       <c r="E101" t="n">
-        <v>0.01350695586577348</v>
+        <v>0.1234973355265611</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1571754894654883</v>
+        <v>0.1990631270198326</v>
       </c>
       <c r="G101" t="n">
-        <v>0.3862010504591773</v>
+        <v>0.3226988581116109</v>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>g__Enterococcus_A</t>
+          <t>g__Enterococcus</t>
         </is>
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>g__Enterococcus_A(reject)</t>
+          <t>g__Enterococcus(reject)</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT46868.fa</t>
+          <t>even_MAG-GUT46962.fa</t>
         </is>
       </c>
       <c r="B102" t="n">
-        <v>0.3226988581116109</v>
+        <v>0.2889413811614263</v>
       </c>
       <c r="C102" t="n">
-        <v>0.1388436727255591</v>
+        <v>0.2998578915420148</v>
       </c>
       <c r="D102" t="n">
-        <v>0.2158970066164363</v>
+        <v>0.1255152666783741</v>
       </c>
       <c r="E102" t="n">
-        <v>0.1234973355265611</v>
+        <v>0.08472936571364097</v>
       </c>
       <c r="F102" t="n">
-        <v>0.1990631270198326</v>
+        <v>0.2009560949045438</v>
       </c>
       <c r="G102" t="n">
-        <v>0.3226988581116109</v>
+        <v>0.2998578915420148</v>
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>g__Enterococcus</t>
+          <t>g__Enterococcus_A</t>
         </is>
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>g__Enterococcus(reject)</t>
+          <t>g__Enterococcus_A(reject)</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT46962.fa</t>
+          <t>even_MAG-GUT47531.fa</t>
         </is>
       </c>
       <c r="B103" t="n">
-        <v>0.2889413811614263</v>
+        <v>0.2694504831392761</v>
       </c>
       <c r="C103" t="n">
-        <v>0.2998578915420148</v>
+        <v>0.2813022517755012</v>
       </c>
       <c r="D103" t="n">
-        <v>0.1255152666783741</v>
+        <v>0.1542831029948386</v>
       </c>
       <c r="E103" t="n">
-        <v>0.08472936571364097</v>
+        <v>0.02732666031761301</v>
       </c>
       <c r="F103" t="n">
-        <v>0.2009560949045438</v>
+        <v>0.2676375017727713</v>
       </c>
       <c r="G103" t="n">
-        <v>0.2998578915420148</v>
+        <v>0.2813022517755012</v>
       </c>
       <c r="H103" t="inlineStr">
         <is>
@@ -4054,96 +4054,96 @@
     <row r="104">
       <c r="A104" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT47531.fa</t>
+          <t>even_MAG-GUT48488.fa</t>
         </is>
       </c>
       <c r="B104" t="n">
-        <v>0.2694504831392761</v>
+        <v>0.2742699070883431</v>
       </c>
       <c r="C104" t="n">
-        <v>0.2813022517755012</v>
+        <v>0.09905210651023134</v>
       </c>
       <c r="D104" t="n">
-        <v>0.1542831029948386</v>
+        <v>0.3257743857683671</v>
       </c>
       <c r="E104" t="n">
-        <v>0.02732666031761301</v>
+        <v>0.1165436642320256</v>
       </c>
       <c r="F104" t="n">
-        <v>0.2676375017727713</v>
+        <v>0.1843599364010329</v>
       </c>
       <c r="G104" t="n">
-        <v>0.2813022517755012</v>
+        <v>0.3257743857683671</v>
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>g__Enterococcus_A</t>
+          <t>g__Enterococcus_B</t>
         </is>
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>g__Enterococcus_A(reject)</t>
+          <t>g__Enterococcus_B(reject)</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT48488.fa</t>
+          <t>even_MAG-GUT48498.fa</t>
         </is>
       </c>
       <c r="B105" t="n">
-        <v>0.2742699070883431</v>
+        <v>0.3281874749541047</v>
       </c>
       <c r="C105" t="n">
-        <v>0.09905210651023134</v>
+        <v>0.2315250159970835</v>
       </c>
       <c r="D105" t="n">
-        <v>0.3257743857683671</v>
+        <v>0.1559083078904145</v>
       </c>
       <c r="E105" t="n">
-        <v>0.1165436642320256</v>
+        <v>0.06125949074521305</v>
       </c>
       <c r="F105" t="n">
-        <v>0.1843599364010329</v>
+        <v>0.2231197104131842</v>
       </c>
       <c r="G105" t="n">
-        <v>0.3257743857683671</v>
+        <v>0.3281874749541047</v>
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>g__Enterococcus_B</t>
+          <t>g__Enterococcus</t>
         </is>
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>g__Enterococcus_B(reject)</t>
+          <t>g__Enterococcus(reject)</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT48498.fa</t>
+          <t>even_MAG-GUT48566.fa</t>
         </is>
       </c>
       <c r="B106" t="n">
-        <v>0.3281874749541047</v>
+        <v>0.3359498615864174</v>
       </c>
       <c r="C106" t="n">
-        <v>0.2315250159970835</v>
+        <v>0.3290730351124104</v>
       </c>
       <c r="D106" t="n">
-        <v>0.1559083078904145</v>
+        <v>0.03702881034618078</v>
       </c>
       <c r="E106" t="n">
-        <v>0.06125949074521305</v>
+        <v>0.01444989654563725</v>
       </c>
       <c r="F106" t="n">
-        <v>0.2231197104131842</v>
+        <v>0.2834983964093542</v>
       </c>
       <c r="G106" t="n">
-        <v>0.3281874749541047</v>
+        <v>0.3359498615864174</v>
       </c>
       <c r="H106" t="inlineStr">
         <is>
@@ -4159,26 +4159,26 @@
     <row r="107">
       <c r="A107" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT48566.fa</t>
+          <t>even_MAG-GUT48585.fa</t>
         </is>
       </c>
       <c r="B107" t="n">
-        <v>0.3359498615864174</v>
+        <v>0.344482290832015</v>
       </c>
       <c r="C107" t="n">
-        <v>0.3290730351124104</v>
+        <v>0.2662749307498412</v>
       </c>
       <c r="D107" t="n">
-        <v>0.03702881034618078</v>
+        <v>0.1418421450791753</v>
       </c>
       <c r="E107" t="n">
-        <v>0.01444989654563725</v>
+        <v>0.03741826693753553</v>
       </c>
       <c r="F107" t="n">
-        <v>0.2834983964093542</v>
+        <v>0.2099823664014331</v>
       </c>
       <c r="G107" t="n">
-        <v>0.3359498615864174</v>
+        <v>0.344482290832015</v>
       </c>
       <c r="H107" t="inlineStr">
         <is>
@@ -4194,26 +4194,26 @@
     <row r="108">
       <c r="A108" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT48585.fa</t>
+          <t>even_MAG-GUT48612.fa</t>
         </is>
       </c>
       <c r="B108" t="n">
-        <v>0.344482290832015</v>
+        <v>0.3278479106794228</v>
       </c>
       <c r="C108" t="n">
-        <v>0.2662749307498412</v>
+        <v>0.1578537235418729</v>
       </c>
       <c r="D108" t="n">
-        <v>0.1418421450791753</v>
+        <v>0.1696959608441443</v>
       </c>
       <c r="E108" t="n">
-        <v>0.03741826693753553</v>
+        <v>0.02964114712740555</v>
       </c>
       <c r="F108" t="n">
-        <v>0.2099823664014331</v>
+        <v>0.3149612578071545</v>
       </c>
       <c r="G108" t="n">
-        <v>0.344482290832015</v>
+        <v>0.3278479106794228</v>
       </c>
       <c r="H108" t="inlineStr">
         <is>
@@ -4229,166 +4229,166 @@
     <row r="109">
       <c r="A109" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT48612.fa</t>
+          <t>even_MAG-GUT48629.fa</t>
         </is>
       </c>
       <c r="B109" t="n">
-        <v>0.3278479106794228</v>
+        <v>0.007547564080752334</v>
       </c>
       <c r="C109" t="n">
-        <v>0.1578537235418729</v>
+        <v>0.001630953912081497</v>
       </c>
       <c r="D109" t="n">
-        <v>0.1696959608441443</v>
+        <v>0.8938830265420539</v>
       </c>
       <c r="E109" t="n">
-        <v>0.02964114712740555</v>
+        <v>0.009231833795379701</v>
       </c>
       <c r="F109" t="n">
-        <v>0.3149612578071545</v>
+        <v>0.0877066216697325</v>
       </c>
       <c r="G109" t="n">
-        <v>0.3278479106794228</v>
+        <v>0.8938830265420539</v>
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>g__Enterococcus</t>
+          <t>g__Enterococcus_B</t>
         </is>
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>g__Enterococcus(reject)</t>
+          <t>g__Enterococcus_B</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT48629.fa</t>
+          <t>even_MAG-GUT48673.fa</t>
         </is>
       </c>
       <c r="B110" t="n">
-        <v>0.007547564080752334</v>
+        <v>0.263271721562148</v>
       </c>
       <c r="C110" t="n">
-        <v>0.001630953912081497</v>
+        <v>0.4161780035332164</v>
       </c>
       <c r="D110" t="n">
-        <v>0.8938830265420539</v>
+        <v>0.1314465649705172</v>
       </c>
       <c r="E110" t="n">
-        <v>0.009231833795379701</v>
+        <v>0.04997954625936563</v>
       </c>
       <c r="F110" t="n">
-        <v>0.0877066216697325</v>
+        <v>0.1391241636747527</v>
       </c>
       <c r="G110" t="n">
-        <v>0.8938830265420539</v>
+        <v>0.4161780035332164</v>
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>g__Enterococcus_B</t>
+          <t>g__Enterococcus_A</t>
         </is>
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>g__Enterococcus_B</t>
+          <t>g__Enterococcus_A(reject)</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT48673.fa</t>
+          <t>even_MAG-GUT48682.fa</t>
         </is>
       </c>
       <c r="B111" t="n">
-        <v>0.263271721562148</v>
+        <v>0.002687835450076442</v>
       </c>
       <c r="C111" t="n">
-        <v>0.4161780035332164</v>
+        <v>0.000338732772986957</v>
       </c>
       <c r="D111" t="n">
-        <v>0.1314465649705172</v>
+        <v>0.9585976722437887</v>
       </c>
       <c r="E111" t="n">
-        <v>0.04997954625936563</v>
+        <v>0.001608425643387677</v>
       </c>
       <c r="F111" t="n">
-        <v>0.1391241636747527</v>
+        <v>0.03676733388976024</v>
       </c>
       <c r="G111" t="n">
-        <v>0.4161780035332164</v>
+        <v>0.9585976722437887</v>
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>g__Enterococcus_A</t>
+          <t>g__Enterococcus_B</t>
         </is>
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>g__Enterococcus_A(reject)</t>
+          <t>g__Enterococcus_B</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT48682.fa</t>
+          <t>even_MAG-GUT48686.fa</t>
         </is>
       </c>
       <c r="B112" t="n">
-        <v>0.002687835450076442</v>
+        <v>0.3011473289319971</v>
       </c>
       <c r="C112" t="n">
-        <v>0.000338732772986957</v>
+        <v>0.40737685315513</v>
       </c>
       <c r="D112" t="n">
-        <v>0.9585976722437887</v>
+        <v>0.09414310171251043</v>
       </c>
       <c r="E112" t="n">
-        <v>0.001608425643387677</v>
+        <v>0.02244878444399029</v>
       </c>
       <c r="F112" t="n">
-        <v>0.03676733388976024</v>
+        <v>0.174883931756372</v>
       </c>
       <c r="G112" t="n">
-        <v>0.9585976722437887</v>
+        <v>0.40737685315513</v>
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>g__Enterococcus_B</t>
+          <t>g__Enterococcus_A</t>
         </is>
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>g__Enterococcus_B</t>
+          <t>g__Enterococcus_A(reject)</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT48686.fa</t>
+          <t>even_MAG-GUT48704.fa</t>
         </is>
       </c>
       <c r="B113" t="n">
-        <v>0.3011473289319971</v>
+        <v>0.3557909395089756</v>
       </c>
       <c r="C113" t="n">
-        <v>0.40737685315513</v>
+        <v>0.3994508306328671</v>
       </c>
       <c r="D113" t="n">
-        <v>0.09414310171251043</v>
+        <v>0.08532171464575068</v>
       </c>
       <c r="E113" t="n">
-        <v>0.02244878444399029</v>
+        <v>0.02987426625148174</v>
       </c>
       <c r="F113" t="n">
-        <v>0.174883931756372</v>
+        <v>0.1295622489609248</v>
       </c>
       <c r="G113" t="n">
-        <v>0.40737685315513</v>
+        <v>0.3994508306328671</v>
       </c>
       <c r="H113" t="inlineStr">
         <is>
@@ -4404,26 +4404,26 @@
     <row r="114">
       <c r="A114" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT48704.fa</t>
+          <t>even_MAG-GUT48723.fa</t>
         </is>
       </c>
       <c r="B114" t="n">
-        <v>0.3557909395089756</v>
+        <v>0.3349959325736975</v>
       </c>
       <c r="C114" t="n">
-        <v>0.3994508306328671</v>
+        <v>0.3582968853802493</v>
       </c>
       <c r="D114" t="n">
-        <v>0.08532171464575068</v>
+        <v>0.08893117718457406</v>
       </c>
       <c r="E114" t="n">
-        <v>0.02987426625148174</v>
+        <v>0.08332330149363799</v>
       </c>
       <c r="F114" t="n">
-        <v>0.1295622489609248</v>
+        <v>0.1344527033678412</v>
       </c>
       <c r="G114" t="n">
-        <v>0.3994508306328671</v>
+        <v>0.3582968853802493</v>
       </c>
       <c r="H114" t="inlineStr">
         <is>
@@ -4439,26 +4439,26 @@
     <row r="115">
       <c r="A115" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT48723.fa</t>
+          <t>even_MAG-GUT48749.fa</t>
         </is>
       </c>
       <c r="B115" t="n">
-        <v>0.3349959325736975</v>
+        <v>0.3369421983941718</v>
       </c>
       <c r="C115" t="n">
-        <v>0.3582968853802493</v>
+        <v>0.3494330634331107</v>
       </c>
       <c r="D115" t="n">
-        <v>0.08893117718457406</v>
+        <v>0.1224652455574994</v>
       </c>
       <c r="E115" t="n">
-        <v>0.08332330149363799</v>
+        <v>0.04971143340410553</v>
       </c>
       <c r="F115" t="n">
-        <v>0.1344527033678412</v>
+        <v>0.1414480592111125</v>
       </c>
       <c r="G115" t="n">
-        <v>0.3582968853802493</v>
+        <v>0.3494330634331107</v>
       </c>
       <c r="H115" t="inlineStr">
         <is>
@@ -4474,271 +4474,271 @@
     <row r="116">
       <c r="A116" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT48749.fa</t>
+          <t>even_MAG-GUT48754.fa</t>
         </is>
       </c>
       <c r="B116" t="n">
-        <v>0.3369421983941718</v>
+        <v>0.2917978452733608</v>
       </c>
       <c r="C116" t="n">
-        <v>0.3494330634331107</v>
+        <v>0.1911981398603701</v>
       </c>
       <c r="D116" t="n">
-        <v>0.1224652455574994</v>
+        <v>0.2481015953822312</v>
       </c>
       <c r="E116" t="n">
-        <v>0.04971143340410553</v>
+        <v>0.0804359670735933</v>
       </c>
       <c r="F116" t="n">
-        <v>0.1414480592111125</v>
+        <v>0.1884664524104445</v>
       </c>
       <c r="G116" t="n">
-        <v>0.3494330634331107</v>
+        <v>0.2917978452733608</v>
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>g__Enterococcus_A</t>
+          <t>g__Enterococcus</t>
         </is>
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>g__Enterococcus_A(reject)</t>
+          <t>g__Enterococcus(reject)</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT48754.fa</t>
+          <t>even_MAG-GUT48798.fa</t>
         </is>
       </c>
       <c r="B117" t="n">
-        <v>0.2917978452733608</v>
+        <v>0.3512615784493566</v>
       </c>
       <c r="C117" t="n">
-        <v>0.1911981398603701</v>
+        <v>0.4446849358611357</v>
       </c>
       <c r="D117" t="n">
-        <v>0.2481015953822312</v>
+        <v>0.07541046895709844</v>
       </c>
       <c r="E117" t="n">
-        <v>0.0804359670735933</v>
+        <v>0.01804446630062053</v>
       </c>
       <c r="F117" t="n">
-        <v>0.1884664524104445</v>
+        <v>0.1105985504317887</v>
       </c>
       <c r="G117" t="n">
-        <v>0.2917978452733608</v>
+        <v>0.4446849358611357</v>
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>g__Enterococcus</t>
+          <t>g__Enterococcus_A</t>
         </is>
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>g__Enterococcus(reject)</t>
+          <t>g__Enterococcus_A(reject)</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT48798.fa</t>
+          <t>even_MAG-GUT48804.fa</t>
         </is>
       </c>
       <c r="B118" t="n">
-        <v>0.3512615784493566</v>
+        <v>0.3411994711246601</v>
       </c>
       <c r="C118" t="n">
-        <v>0.4446849358611357</v>
+        <v>0.1244562164068349</v>
       </c>
       <c r="D118" t="n">
-        <v>0.07541046895709844</v>
+        <v>0.2268243453272385</v>
       </c>
       <c r="E118" t="n">
-        <v>0.01804446630062053</v>
+        <v>0.07705940281366022</v>
       </c>
       <c r="F118" t="n">
-        <v>0.1105985504317887</v>
+        <v>0.2304605643276063</v>
       </c>
       <c r="G118" t="n">
-        <v>0.4446849358611357</v>
+        <v>0.3411994711246601</v>
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>g__Enterococcus_A</t>
+          <t>g__Enterococcus</t>
         </is>
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>g__Enterococcus_A(reject)</t>
+          <t>g__Enterococcus(reject)</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT48804.fa</t>
+          <t>even_MAG-GUT48829.fa</t>
         </is>
       </c>
       <c r="B119" t="n">
-        <v>0.3411994711246601</v>
+        <v>0.2611747982287775</v>
       </c>
       <c r="C119" t="n">
-        <v>0.1244562164068349</v>
+        <v>0.1034485001236061</v>
       </c>
       <c r="D119" t="n">
-        <v>0.2268243453272385</v>
+        <v>0.3892105612195872</v>
       </c>
       <c r="E119" t="n">
-        <v>0.07705940281366022</v>
+        <v>0.04674168064374833</v>
       </c>
       <c r="F119" t="n">
-        <v>0.2304605643276063</v>
+        <v>0.1994244597842809</v>
       </c>
       <c r="G119" t="n">
-        <v>0.3411994711246601</v>
+        <v>0.3892105612195872</v>
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>g__Enterococcus</t>
+          <t>g__Enterococcus_B</t>
         </is>
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>g__Enterococcus(reject)</t>
+          <t>g__Enterococcus_B(reject)</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT48829.fa</t>
+          <t>even_MAG-GUT48834.fa</t>
         </is>
       </c>
       <c r="B120" t="n">
-        <v>0.2611747982287775</v>
+        <v>0.3885523417777066</v>
       </c>
       <c r="C120" t="n">
-        <v>0.1034485001236061</v>
+        <v>0.1752180772939906</v>
       </c>
       <c r="D120" t="n">
-        <v>0.3892105612195872</v>
+        <v>0.1989956388009857</v>
       </c>
       <c r="E120" t="n">
-        <v>0.04674168064374833</v>
+        <v>0.05151982883078717</v>
       </c>
       <c r="F120" t="n">
-        <v>0.1994244597842809</v>
+        <v>0.1857141132965299</v>
       </c>
       <c r="G120" t="n">
-        <v>0.3892105612195872</v>
+        <v>0.3885523417777066</v>
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>g__Enterococcus_B</t>
+          <t>g__Enterococcus</t>
         </is>
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>g__Enterococcus_B(reject)</t>
+          <t>g__Enterococcus</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT48834.fa</t>
+          <t>even_MAG-GUT48887.fa</t>
         </is>
       </c>
       <c r="B121" t="n">
-        <v>0.3885523417777066</v>
+        <v>0.001175103441288904</v>
       </c>
       <c r="C121" t="n">
-        <v>0.1752180772939906</v>
+        <v>0.0003704231011199392</v>
       </c>
       <c r="D121" t="n">
-        <v>0.1989956388009857</v>
+        <v>0.9721010873462234</v>
       </c>
       <c r="E121" t="n">
-        <v>0.05151982883078717</v>
+        <v>0.000836507204488546</v>
       </c>
       <c r="F121" t="n">
-        <v>0.1857141132965299</v>
+        <v>0.02551687890687925</v>
       </c>
       <c r="G121" t="n">
-        <v>0.3885523417777066</v>
+        <v>0.9721010873462234</v>
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>g__Enterococcus</t>
+          <t>g__Enterococcus_B</t>
         </is>
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>g__Enterococcus(reject)</t>
+          <t>g__Enterococcus_B</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT48887.fa</t>
+          <t>even_MAG-GUT48968.fa</t>
         </is>
       </c>
       <c r="B122" t="n">
-        <v>0.001175103441288904</v>
+        <v>0.3529166431160994</v>
       </c>
       <c r="C122" t="n">
-        <v>0.0003704231011199392</v>
+        <v>0.2797750603014507</v>
       </c>
       <c r="D122" t="n">
-        <v>0.9721010873462234</v>
+        <v>0.1484033648823517</v>
       </c>
       <c r="E122" t="n">
-        <v>0.000836507204488546</v>
+        <v>0.03351918520924114</v>
       </c>
       <c r="F122" t="n">
-        <v>0.02551687890687925</v>
+        <v>0.1853857464908569</v>
       </c>
       <c r="G122" t="n">
-        <v>0.9721010873462234</v>
+        <v>0.3529166431160994</v>
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>g__Enterococcus_B</t>
+          <t>g__Enterococcus</t>
         </is>
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>g__Enterococcus_B</t>
+          <t>g__Enterococcus(reject)</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT48968.fa</t>
+          <t>even_MAG-GUT48971.fa</t>
         </is>
       </c>
       <c r="B123" t="n">
-        <v>0.3529166431160994</v>
+        <v>0.3533524321646254</v>
       </c>
       <c r="C123" t="n">
-        <v>0.2797750603014507</v>
+        <v>0.08646185240232702</v>
       </c>
       <c r="D123" t="n">
-        <v>0.1484033648823517</v>
+        <v>0.2936178966174859</v>
       </c>
       <c r="E123" t="n">
-        <v>0.03351918520924114</v>
+        <v>0.03383045604173267</v>
       </c>
       <c r="F123" t="n">
-        <v>0.1853857464908569</v>
+        <v>0.232737362773829</v>
       </c>
       <c r="G123" t="n">
-        <v>0.3529166431160994</v>
+        <v>0.3533524321646254</v>
       </c>
       <c r="H123" t="inlineStr">
         <is>
@@ -4754,26 +4754,26 @@
     <row r="124">
       <c r="A124" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT48971.fa</t>
+          <t>even_MAG-GUT48976.fa</t>
         </is>
       </c>
       <c r="B124" t="n">
-        <v>0.3533524321646254</v>
+        <v>0.2793795784951114</v>
       </c>
       <c r="C124" t="n">
-        <v>0.08646185240232702</v>
+        <v>0.2452486992775266</v>
       </c>
       <c r="D124" t="n">
-        <v>0.2936178966174859</v>
+        <v>0.1724878357041438</v>
       </c>
       <c r="E124" t="n">
-        <v>0.03383045604173267</v>
+        <v>0.04736885377877996</v>
       </c>
       <c r="F124" t="n">
-        <v>0.232737362773829</v>
+        <v>0.2555150327444383</v>
       </c>
       <c r="G124" t="n">
-        <v>0.3533524321646254</v>
+        <v>0.2793795784951114</v>
       </c>
       <c r="H124" t="inlineStr">
         <is>
@@ -4789,96 +4789,96 @@
     <row r="125">
       <c r="A125" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT48976.fa</t>
+          <t>even_MAG-GUT49002.fa</t>
         </is>
       </c>
       <c r="B125" t="n">
-        <v>0.2793795784951114</v>
+        <v>0.002647619224405608</v>
       </c>
       <c r="C125" t="n">
-        <v>0.2452486992775266</v>
+        <v>0.000104274254990935</v>
       </c>
       <c r="D125" t="n">
-        <v>0.1724878357041438</v>
+        <v>0.9544166663804701</v>
       </c>
       <c r="E125" t="n">
-        <v>0.04736885377877996</v>
+        <v>0.001166471854719756</v>
       </c>
       <c r="F125" t="n">
-        <v>0.2555150327444383</v>
+        <v>0.0416649682854137</v>
       </c>
       <c r="G125" t="n">
-        <v>0.2793795784951114</v>
+        <v>0.9544166663804701</v>
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>g__Enterococcus</t>
+          <t>g__Enterococcus_B</t>
         </is>
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>g__Enterococcus(reject)</t>
+          <t>g__Enterococcus_B</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT49002.fa</t>
+          <t>even_MAG-GUT49004.fa</t>
         </is>
       </c>
       <c r="B126" t="n">
-        <v>0.002647619224405608</v>
+        <v>0.3303515574761435</v>
       </c>
       <c r="C126" t="n">
-        <v>0.000104274254990935</v>
+        <v>0.2137092809408598</v>
       </c>
       <c r="D126" t="n">
-        <v>0.9544166663804701</v>
+        <v>0.09137678426010978</v>
       </c>
       <c r="E126" t="n">
-        <v>0.001166471854719756</v>
+        <v>0.07688127080284567</v>
       </c>
       <c r="F126" t="n">
-        <v>0.0416649682854137</v>
+        <v>0.2876811065200413</v>
       </c>
       <c r="G126" t="n">
-        <v>0.9544166663804701</v>
+        <v>0.3303515574761435</v>
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>g__Enterococcus_B</t>
+          <t>g__Enterococcus</t>
         </is>
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>g__Enterococcus_B</t>
+          <t>g__Enterococcus(reject)</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT49004.fa</t>
+          <t>even_MAG-GUT49015.fa</t>
         </is>
       </c>
       <c r="B127" t="n">
-        <v>0.3303515574761435</v>
+        <v>0.3792067141436044</v>
       </c>
       <c r="C127" t="n">
-        <v>0.2137092809408598</v>
+        <v>0.2761730546096963</v>
       </c>
       <c r="D127" t="n">
-        <v>0.09137678426010978</v>
+        <v>0.1061362689360817</v>
       </c>
       <c r="E127" t="n">
-        <v>0.07688127080284567</v>
+        <v>0.04939453909408902</v>
       </c>
       <c r="F127" t="n">
-        <v>0.2876811065200413</v>
+        <v>0.1890894232165285</v>
       </c>
       <c r="G127" t="n">
-        <v>0.3303515574761435</v>
+        <v>0.3792067141436044</v>
       </c>
       <c r="H127" t="inlineStr">
         <is>
@@ -4894,96 +4894,96 @@
     <row r="128">
       <c r="A128" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT49015.fa</t>
+          <t>even_MAG-GUT49023.fa</t>
         </is>
       </c>
       <c r="B128" t="n">
-        <v>0.3792067141436044</v>
+        <v>0.2783675038321584</v>
       </c>
       <c r="C128" t="n">
-        <v>0.2761730546096963</v>
+        <v>0.1382092798303593</v>
       </c>
       <c r="D128" t="n">
-        <v>0.1061362689360817</v>
+        <v>0.3489329869642729</v>
       </c>
       <c r="E128" t="n">
-        <v>0.04939453909408902</v>
+        <v>0.04476401105349465</v>
       </c>
       <c r="F128" t="n">
-        <v>0.1890894232165285</v>
+        <v>0.1897262183197147</v>
       </c>
       <c r="G128" t="n">
-        <v>0.3792067141436044</v>
+        <v>0.3489329869642729</v>
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>g__Enterococcus</t>
+          <t>g__Enterococcus_B</t>
         </is>
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>g__Enterococcus(reject)</t>
+          <t>g__Enterococcus_B(reject)</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT49023.fa</t>
+          <t>even_MAG-GUT49063.fa</t>
         </is>
       </c>
       <c r="B129" t="n">
-        <v>0.2783675038321584</v>
+        <v>0.2812351176524411</v>
       </c>
       <c r="C129" t="n">
-        <v>0.1382092798303593</v>
+        <v>0.5003806897750537</v>
       </c>
       <c r="D129" t="n">
-        <v>0.3489329869642729</v>
+        <v>0.03058826051869989</v>
       </c>
       <c r="E129" t="n">
-        <v>0.04476401105349465</v>
+        <v>0.01443504467747047</v>
       </c>
       <c r="F129" t="n">
-        <v>0.1897262183197147</v>
+        <v>0.173360887376335</v>
       </c>
       <c r="G129" t="n">
-        <v>0.3489329869642729</v>
+        <v>0.5003806897750537</v>
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>g__Enterococcus_B</t>
+          <t>g__Enterococcus_A</t>
         </is>
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>g__Enterococcus_B(reject)</t>
+          <t>g__Enterococcus_A(reject)</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT49063.fa</t>
+          <t>even_MAG-GUT49069.fa</t>
         </is>
       </c>
       <c r="B130" t="n">
-        <v>0.2812351176524411</v>
+        <v>0.3086792034925274</v>
       </c>
       <c r="C130" t="n">
-        <v>0.5003806897750537</v>
+        <v>0.4118344299190337</v>
       </c>
       <c r="D130" t="n">
-        <v>0.03058826051869989</v>
+        <v>0.1198605885640034</v>
       </c>
       <c r="E130" t="n">
-        <v>0.01443504467747047</v>
+        <v>0.02107001919324583</v>
       </c>
       <c r="F130" t="n">
-        <v>0.173360887376335</v>
+        <v>0.1385557588311895</v>
       </c>
       <c r="G130" t="n">
-        <v>0.5003806897750537</v>
+        <v>0.4118344299190337</v>
       </c>
       <c r="H130" t="inlineStr">
         <is>
@@ -4999,61 +4999,61 @@
     <row r="131">
       <c r="A131" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT49069.fa</t>
+          <t>even_MAG-GUT49070.fa</t>
         </is>
       </c>
       <c r="B131" t="n">
-        <v>0.3086792034925274</v>
+        <v>0.3508228707743934</v>
       </c>
       <c r="C131" t="n">
-        <v>0.4118344299190337</v>
+        <v>0.2862965068011214</v>
       </c>
       <c r="D131" t="n">
-        <v>0.1198605885640034</v>
+        <v>0.1054235358869986</v>
       </c>
       <c r="E131" t="n">
-        <v>0.02107001919324583</v>
+        <v>0.05483201009382371</v>
       </c>
       <c r="F131" t="n">
-        <v>0.1385557588311895</v>
+        <v>0.2026250764436629</v>
       </c>
       <c r="G131" t="n">
-        <v>0.4118344299190337</v>
+        <v>0.3508228707743934</v>
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>g__Enterococcus_A</t>
+          <t>g__Enterococcus</t>
         </is>
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>g__Enterococcus_A(reject)</t>
+          <t>g__Enterococcus(reject)</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT49070.fa</t>
+          <t>even_MAG-GUT49075.fa</t>
         </is>
       </c>
       <c r="B132" t="n">
-        <v>0.3508228707743934</v>
+        <v>0.3370058193971783</v>
       </c>
       <c r="C132" t="n">
-        <v>0.2862965068011214</v>
+        <v>0.1683874199282439</v>
       </c>
       <c r="D132" t="n">
-        <v>0.1054235358869986</v>
+        <v>0.2647888416371298</v>
       </c>
       <c r="E132" t="n">
-        <v>0.05483201009382371</v>
+        <v>0.1080638765528155</v>
       </c>
       <c r="F132" t="n">
-        <v>0.2026250764436629</v>
+        <v>0.1217540424846325</v>
       </c>
       <c r="G132" t="n">
-        <v>0.3508228707743934</v>
+        <v>0.3370058193971783</v>
       </c>
       <c r="H132" t="inlineStr">
         <is>
@@ -5069,26 +5069,26 @@
     <row r="133">
       <c r="A133" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT49075.fa</t>
+          <t>even_MAG-GUT49083.fa</t>
         </is>
       </c>
       <c r="B133" t="n">
-        <v>0.3370058193971783</v>
+        <v>0.3388044091155614</v>
       </c>
       <c r="C133" t="n">
-        <v>0.1683874199282439</v>
+        <v>0.1470943753181737</v>
       </c>
       <c r="D133" t="n">
-        <v>0.2647888416371298</v>
+        <v>0.1516443133639217</v>
       </c>
       <c r="E133" t="n">
-        <v>0.1080638765528155</v>
+        <v>0.0545171352671296</v>
       </c>
       <c r="F133" t="n">
-        <v>0.1217540424846325</v>
+        <v>0.3079397669352137</v>
       </c>
       <c r="G133" t="n">
-        <v>0.3370058193971783</v>
+        <v>0.3388044091155614</v>
       </c>
       <c r="H133" t="inlineStr">
         <is>
@@ -5104,26 +5104,26 @@
     <row r="134">
       <c r="A134" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT49083.fa</t>
+          <t>even_MAG-GUT49101.fa</t>
         </is>
       </c>
       <c r="B134" t="n">
-        <v>0.3388044091155614</v>
+        <v>0.341613614225335</v>
       </c>
       <c r="C134" t="n">
-        <v>0.1470943753181737</v>
+        <v>0.1087332870778123</v>
       </c>
       <c r="D134" t="n">
-        <v>0.1516443133639217</v>
+        <v>0.2802320808849775</v>
       </c>
       <c r="E134" t="n">
-        <v>0.0545171352671296</v>
+        <v>0.02819652915361389</v>
       </c>
       <c r="F134" t="n">
-        <v>0.3079397669352137</v>
+        <v>0.2412244886582612</v>
       </c>
       <c r="G134" t="n">
-        <v>0.3388044091155614</v>
+        <v>0.341613614225335</v>
       </c>
       <c r="H134" t="inlineStr">
         <is>
@@ -5139,166 +5139,166 @@
     <row r="135">
       <c r="A135" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT49101.fa</t>
+          <t>even_MAG-GUT49118.fa</t>
         </is>
       </c>
       <c r="B135" t="n">
-        <v>0.341613614225335</v>
+        <v>0.2174905865639</v>
       </c>
       <c r="C135" t="n">
-        <v>0.1087332870778123</v>
+        <v>0.5018146654257354</v>
       </c>
       <c r="D135" t="n">
-        <v>0.2802320808849775</v>
+        <v>0.1739474735832358</v>
       </c>
       <c r="E135" t="n">
-        <v>0.02819652915361389</v>
+        <v>0.006479251947322284</v>
       </c>
       <c r="F135" t="n">
-        <v>0.2412244886582612</v>
+        <v>0.1002680224798065</v>
       </c>
       <c r="G135" t="n">
-        <v>0.341613614225335</v>
+        <v>0.5018146654257354</v>
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>g__Enterococcus</t>
+          <t>g__Enterococcus_A</t>
         </is>
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>g__Enterococcus(reject)</t>
+          <t>g__Enterococcus_A(reject)</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT49118.fa</t>
+          <t>even_MAG-GUT49170.fa</t>
         </is>
       </c>
       <c r="B136" t="n">
-        <v>0.2174905865639</v>
+        <v>0.3103497570947083</v>
       </c>
       <c r="C136" t="n">
-        <v>0.5018146654257354</v>
+        <v>0.2922061176543458</v>
       </c>
       <c r="D136" t="n">
-        <v>0.1739474735832358</v>
+        <v>0.08199875677200232</v>
       </c>
       <c r="E136" t="n">
-        <v>0.006479251947322284</v>
+        <v>0.1030754938242893</v>
       </c>
       <c r="F136" t="n">
-        <v>0.1002680224798065</v>
+        <v>0.2123698746546543</v>
       </c>
       <c r="G136" t="n">
-        <v>0.5018146654257354</v>
+        <v>0.3103497570947083</v>
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>g__Enterococcus_A</t>
+          <t>g__Enterococcus</t>
         </is>
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>g__Enterococcus_A(reject)</t>
+          <t>g__Enterococcus(reject)</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT49170.fa</t>
+          <t>even_MAG-GUT49226.fa</t>
         </is>
       </c>
       <c r="B137" t="n">
-        <v>0.3103497570947083</v>
+        <v>0.1770423701064379</v>
       </c>
       <c r="C137" t="n">
-        <v>0.2922061176543458</v>
+        <v>0.6155738873021223</v>
       </c>
       <c r="D137" t="n">
-        <v>0.08199875677200232</v>
+        <v>0.08288938511054633</v>
       </c>
       <c r="E137" t="n">
-        <v>0.1030754938242893</v>
+        <v>0.04143217983188627</v>
       </c>
       <c r="F137" t="n">
-        <v>0.2123698746546543</v>
+        <v>0.08306217764900728</v>
       </c>
       <c r="G137" t="n">
-        <v>0.3103497570947083</v>
+        <v>0.6155738873021223</v>
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>g__Enterococcus</t>
+          <t>g__Enterococcus_A</t>
         </is>
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>g__Enterococcus(reject)</t>
+          <t>g__Enterococcus_A(reject)</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT49226.fa</t>
+          <t>even_MAG-GUT49236.fa</t>
         </is>
       </c>
       <c r="B138" t="n">
-        <v>0.1770423701064379</v>
+        <v>0.3152618888592244</v>
       </c>
       <c r="C138" t="n">
-        <v>0.6155738873021223</v>
+        <v>0.275712932721298</v>
       </c>
       <c r="D138" t="n">
-        <v>0.08288938511054633</v>
+        <v>0.1280397205592477</v>
       </c>
       <c r="E138" t="n">
-        <v>0.04143217983188627</v>
+        <v>0.02505128182312937</v>
       </c>
       <c r="F138" t="n">
-        <v>0.08306217764900728</v>
+        <v>0.2559341760371005</v>
       </c>
       <c r="G138" t="n">
-        <v>0.6155738873021223</v>
+        <v>0.3152618888592244</v>
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>g__Enterococcus_A</t>
+          <t>g__Enterococcus</t>
         </is>
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>g__Enterococcus_A(reject)</t>
+          <t>g__Enterococcus(reject)</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT49236.fa</t>
+          <t>even_MAG-GUT49289.fa</t>
         </is>
       </c>
       <c r="B139" t="n">
-        <v>0.3152618888592244</v>
+        <v>0.3635353448956904</v>
       </c>
       <c r="C139" t="n">
-        <v>0.275712932721298</v>
+        <v>0.1508907594910578</v>
       </c>
       <c r="D139" t="n">
-        <v>0.1280397205592477</v>
+        <v>0.2211244462725891</v>
       </c>
       <c r="E139" t="n">
-        <v>0.02505128182312937</v>
+        <v>0.01966479927642069</v>
       </c>
       <c r="F139" t="n">
-        <v>0.2559341760371005</v>
+        <v>0.2447846500642419</v>
       </c>
       <c r="G139" t="n">
-        <v>0.3152618888592244</v>
+        <v>0.3635353448956904</v>
       </c>
       <c r="H139" t="inlineStr">
         <is>
@@ -5314,96 +5314,96 @@
     <row r="140">
       <c r="A140" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT49289.fa</t>
+          <t>even_MAG-GUT49297.fa</t>
         </is>
       </c>
       <c r="B140" t="n">
-        <v>0.3635353448956904</v>
+        <v>0.286463125162763</v>
       </c>
       <c r="C140" t="n">
-        <v>0.1508907594910578</v>
+        <v>0.2040897166690177</v>
       </c>
       <c r="D140" t="n">
-        <v>0.2211244462725891</v>
+        <v>0.3037902955399197</v>
       </c>
       <c r="E140" t="n">
-        <v>0.01966479927642069</v>
+        <v>0.111942771618652</v>
       </c>
       <c r="F140" t="n">
-        <v>0.2447846500642419</v>
+        <v>0.0937140910096475</v>
       </c>
       <c r="G140" t="n">
-        <v>0.3635353448956904</v>
+        <v>0.3037902955399197</v>
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>g__Enterococcus</t>
+          <t>g__Enterococcus_B</t>
         </is>
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>g__Enterococcus(reject)</t>
+          <t>g__Enterococcus_B(reject)</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT49297.fa</t>
+          <t>even_MAG-GUT49302.fa</t>
         </is>
       </c>
       <c r="B141" t="n">
-        <v>0.286463125162763</v>
+        <v>0.367346248638818</v>
       </c>
       <c r="C141" t="n">
-        <v>0.2040897166690177</v>
+        <v>0.2808555072758848</v>
       </c>
       <c r="D141" t="n">
-        <v>0.3037902955399197</v>
+        <v>0.1407154142157334</v>
       </c>
       <c r="E141" t="n">
-        <v>0.111942771618652</v>
+        <v>0.04536769698503028</v>
       </c>
       <c r="F141" t="n">
-        <v>0.0937140910096475</v>
+        <v>0.1657151328845335</v>
       </c>
       <c r="G141" t="n">
-        <v>0.3037902955399197</v>
+        <v>0.367346248638818</v>
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>g__Enterococcus_B</t>
+          <t>g__Enterococcus</t>
         </is>
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>g__Enterococcus_B(reject)</t>
+          <t>g__Enterococcus(reject)</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT49302.fa</t>
+          <t>even_MAG-GUT49315.fa</t>
         </is>
       </c>
       <c r="B142" t="n">
-        <v>0.367346248638818</v>
+        <v>0.3431015974332898</v>
       </c>
       <c r="C142" t="n">
-        <v>0.2808555072758848</v>
+        <v>0.1726846969849924</v>
       </c>
       <c r="D142" t="n">
-        <v>0.1407154142157334</v>
+        <v>0.1715921596349823</v>
       </c>
       <c r="E142" t="n">
-        <v>0.04536769698503028</v>
+        <v>0.1034956225101029</v>
       </c>
       <c r="F142" t="n">
-        <v>0.1657151328845335</v>
+        <v>0.2091259234366327</v>
       </c>
       <c r="G142" t="n">
-        <v>0.367346248638818</v>
+        <v>0.3431015974332898</v>
       </c>
       <c r="H142" t="inlineStr">
         <is>
@@ -5419,446 +5419,446 @@
     <row r="143">
       <c r="A143" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT49315.fa</t>
+          <t>even_MAG-GUT49326.fa</t>
         </is>
       </c>
       <c r="B143" t="n">
-        <v>0.3431015974332898</v>
+        <v>0.3076321717421431</v>
       </c>
       <c r="C143" t="n">
-        <v>0.1726846969849924</v>
+        <v>0.3317756781647319</v>
       </c>
       <c r="D143" t="n">
-        <v>0.1715921596349823</v>
+        <v>0.1556755132721935</v>
       </c>
       <c r="E143" t="n">
-        <v>0.1034956225101029</v>
+        <v>0.05222362827746467</v>
       </c>
       <c r="F143" t="n">
-        <v>0.2091259234366327</v>
+        <v>0.1526930085434667</v>
       </c>
       <c r="G143" t="n">
-        <v>0.3431015974332898</v>
+        <v>0.3317756781647319</v>
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>g__Enterococcus</t>
+          <t>g__Enterococcus_A</t>
         </is>
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>g__Enterococcus(reject)</t>
+          <t>g__Enterococcus_A(reject)</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT49326.fa</t>
+          <t>even_MAG-GUT49329.fa</t>
         </is>
       </c>
       <c r="B144" t="n">
-        <v>0.3076321717421431</v>
+        <v>0.3431015974332898</v>
       </c>
       <c r="C144" t="n">
-        <v>0.3317756781647319</v>
+        <v>0.1726846969849924</v>
       </c>
       <c r="D144" t="n">
-        <v>0.1556755132721935</v>
+        <v>0.1715921596349823</v>
       </c>
       <c r="E144" t="n">
-        <v>0.05222362827746467</v>
+        <v>0.1034956225101029</v>
       </c>
       <c r="F144" t="n">
-        <v>0.1526930085434667</v>
+        <v>0.2091259234366327</v>
       </c>
       <c r="G144" t="n">
-        <v>0.3317756781647319</v>
+        <v>0.3431015974332898</v>
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>g__Enterococcus_A</t>
+          <t>g__Enterococcus</t>
         </is>
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>g__Enterococcus_A(reject)</t>
+          <t>g__Enterococcus(reject)</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT49329.fa</t>
+          <t>even_MAG-GUT49356.fa</t>
         </is>
       </c>
       <c r="B145" t="n">
-        <v>0.3431015974332898</v>
+        <v>0.2635464172576102</v>
       </c>
       <c r="C145" t="n">
-        <v>0.1726846969849924</v>
+        <v>0.3339050019984174</v>
       </c>
       <c r="D145" t="n">
-        <v>0.1715921596349823</v>
+        <v>0.1544595051972524</v>
       </c>
       <c r="E145" t="n">
-        <v>0.1034956225101029</v>
+        <v>0.03553356217119749</v>
       </c>
       <c r="F145" t="n">
-        <v>0.2091259234366327</v>
+        <v>0.2125555133755225</v>
       </c>
       <c r="G145" t="n">
-        <v>0.3431015974332898</v>
+        <v>0.3339050019984174</v>
       </c>
       <c r="H145" t="inlineStr">
         <is>
-          <t>g__Enterococcus</t>
+          <t>g__Enterococcus_A</t>
         </is>
       </c>
       <c r="I145" t="inlineStr">
         <is>
-          <t>g__Enterococcus(reject)</t>
+          <t>g__Enterococcus_A(reject)</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT49356.fa</t>
+          <t>even_MAG-GUT49359.fa</t>
         </is>
       </c>
       <c r="B146" t="n">
-        <v>0.2635464172576102</v>
+        <v>0.320737435366818</v>
       </c>
       <c r="C146" t="n">
-        <v>0.3339050019984174</v>
+        <v>0.2558106935960658</v>
       </c>
       <c r="D146" t="n">
-        <v>0.1544595051972524</v>
+        <v>0.148937693457618</v>
       </c>
       <c r="E146" t="n">
-        <v>0.03553356217119749</v>
+        <v>0.06917682211883788</v>
       </c>
       <c r="F146" t="n">
-        <v>0.2125555133755225</v>
+        <v>0.2053373554606605</v>
       </c>
       <c r="G146" t="n">
-        <v>0.3339050019984174</v>
+        <v>0.320737435366818</v>
       </c>
       <c r="H146" t="inlineStr">
         <is>
-          <t>g__Enterococcus_A</t>
+          <t>g__Enterococcus</t>
         </is>
       </c>
       <c r="I146" t="inlineStr">
         <is>
-          <t>g__Enterococcus_A(reject)</t>
+          <t>g__Enterococcus(reject)</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT49359.fa</t>
+          <t>even_MAG-GUT49379.fa</t>
         </is>
       </c>
       <c r="B147" t="n">
-        <v>0.320737435366818</v>
+        <v>0.003217399906054783</v>
       </c>
       <c r="C147" t="n">
-        <v>0.2558106935960658</v>
+        <v>0.001601189861855621</v>
       </c>
       <c r="D147" t="n">
-        <v>0.148937693457618</v>
+        <v>0.9426418815520536</v>
       </c>
       <c r="E147" t="n">
-        <v>0.06917682211883788</v>
+        <v>0.001215655576447233</v>
       </c>
       <c r="F147" t="n">
-        <v>0.2053373554606605</v>
+        <v>0.05132387310358882</v>
       </c>
       <c r="G147" t="n">
-        <v>0.320737435366818</v>
+        <v>0.9426418815520536</v>
       </c>
       <c r="H147" t="inlineStr">
         <is>
-          <t>g__Enterococcus</t>
+          <t>g__Enterococcus_B</t>
         </is>
       </c>
       <c r="I147" t="inlineStr">
         <is>
-          <t>g__Enterococcus(reject)</t>
+          <t>g__Enterococcus_B</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT49379.fa</t>
+          <t>even_MAG-GUT49393.fa</t>
         </is>
       </c>
       <c r="B148" t="n">
-        <v>0.003217399906054783</v>
+        <v>0.3173043489701106</v>
       </c>
       <c r="C148" t="n">
-        <v>0.001601189861855621</v>
+        <v>0.3465330367658007</v>
       </c>
       <c r="D148" t="n">
-        <v>0.9426418815520536</v>
+        <v>0.1571195402138435</v>
       </c>
       <c r="E148" t="n">
-        <v>0.001215655576447233</v>
+        <v>0.05609218844200545</v>
       </c>
       <c r="F148" t="n">
-        <v>0.05132387310358882</v>
+        <v>0.1229508856082399</v>
       </c>
       <c r="G148" t="n">
-        <v>0.9426418815520536</v>
+        <v>0.3465330367658007</v>
       </c>
       <c r="H148" t="inlineStr">
         <is>
-          <t>g__Enterococcus_B</t>
+          <t>g__Enterococcus_A</t>
         </is>
       </c>
       <c r="I148" t="inlineStr">
         <is>
-          <t>g__Enterococcus_B</t>
+          <t>g__Enterococcus_A(reject)</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT49393.fa</t>
+          <t>even_MAG-GUT49403.fa</t>
         </is>
       </c>
       <c r="B149" t="n">
-        <v>0.3173043489701106</v>
+        <v>0.3662230877745892</v>
       </c>
       <c r="C149" t="n">
-        <v>0.3465330367658007</v>
+        <v>0.2349906746078759</v>
       </c>
       <c r="D149" t="n">
-        <v>0.1571195402138435</v>
+        <v>0.1137127603145406</v>
       </c>
       <c r="E149" t="n">
-        <v>0.05609218844200545</v>
+        <v>0.04144180168625206</v>
       </c>
       <c r="F149" t="n">
-        <v>0.1229508856082399</v>
+        <v>0.2436316756167422</v>
       </c>
       <c r="G149" t="n">
-        <v>0.3465330367658007</v>
+        <v>0.3662230877745892</v>
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>g__Enterococcus_A</t>
+          <t>g__Enterococcus</t>
         </is>
       </c>
       <c r="I149" t="inlineStr">
         <is>
-          <t>g__Enterococcus_A(reject)</t>
+          <t>g__Enterococcus(reject)</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT49403.fa</t>
+          <t>even_MAG-GUT49409.fa</t>
         </is>
       </c>
       <c r="B150" t="n">
-        <v>0.3662230877745892</v>
+        <v>0.2704879685445948</v>
       </c>
       <c r="C150" t="n">
-        <v>0.2349906746078759</v>
+        <v>0.4394673598712531</v>
       </c>
       <c r="D150" t="n">
-        <v>0.1137127603145406</v>
+        <v>0.05035013857018941</v>
       </c>
       <c r="E150" t="n">
-        <v>0.04144180168625206</v>
+        <v>0.0266171097792305</v>
       </c>
       <c r="F150" t="n">
-        <v>0.2436316756167422</v>
+        <v>0.2130774232347323</v>
       </c>
       <c r="G150" t="n">
-        <v>0.3662230877745892</v>
+        <v>0.4394673598712531</v>
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>g__Enterococcus</t>
+          <t>g__Enterococcus_A</t>
         </is>
       </c>
       <c r="I150" t="inlineStr">
         <is>
-          <t>g__Enterococcus(reject)</t>
+          <t>g__Enterococcus_A(reject)</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT49409.fa</t>
+          <t>even_MAG-GUT49456.fa</t>
         </is>
       </c>
       <c r="B151" t="n">
-        <v>0.2704879685445948</v>
+        <v>0.2951703133812109</v>
       </c>
       <c r="C151" t="n">
-        <v>0.4394673598712531</v>
+        <v>0.2848552581319893</v>
       </c>
       <c r="D151" t="n">
-        <v>0.05035013857018941</v>
+        <v>0.2169960497984583</v>
       </c>
       <c r="E151" t="n">
-        <v>0.0266171097792305</v>
+        <v>0.04906616929841835</v>
       </c>
       <c r="F151" t="n">
-        <v>0.2130774232347323</v>
+        <v>0.1539122093899229</v>
       </c>
       <c r="G151" t="n">
-        <v>0.4394673598712531</v>
+        <v>0.2951703133812109</v>
       </c>
       <c r="H151" t="inlineStr">
         <is>
-          <t>g__Enterococcus_A</t>
+          <t>g__Enterococcus</t>
         </is>
       </c>
       <c r="I151" t="inlineStr">
         <is>
-          <t>g__Enterococcus_A(reject)</t>
+          <t>g__Enterococcus(reject)</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT49456.fa</t>
+          <t>even_MAG-GUT49458.fa</t>
         </is>
       </c>
       <c r="B152" t="n">
-        <v>0.2951703133812109</v>
+        <v>0.3293361844664396</v>
       </c>
       <c r="C152" t="n">
-        <v>0.2848552581319893</v>
+        <v>0.3989361009358826</v>
       </c>
       <c r="D152" t="n">
-        <v>0.2169960497984583</v>
+        <v>0.06922907751934938</v>
       </c>
       <c r="E152" t="n">
-        <v>0.04906616929841835</v>
+        <v>0.04181730827998758</v>
       </c>
       <c r="F152" t="n">
-        <v>0.1539122093899229</v>
+        <v>0.1606813287983407</v>
       </c>
       <c r="G152" t="n">
-        <v>0.2951703133812109</v>
+        <v>0.3989361009358826</v>
       </c>
       <c r="H152" t="inlineStr">
         <is>
-          <t>g__Enterococcus</t>
+          <t>g__Enterococcus_A</t>
         </is>
       </c>
       <c r="I152" t="inlineStr">
         <is>
-          <t>g__Enterococcus(reject)</t>
+          <t>g__Enterococcus_A(reject)</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT49458.fa</t>
+          <t>even_MAG-GUT49469.fa</t>
         </is>
       </c>
       <c r="B153" t="n">
-        <v>0.3293361844664396</v>
+        <v>0.349456248524778</v>
       </c>
       <c r="C153" t="n">
-        <v>0.3989361009358826</v>
+        <v>0.1906977459321118</v>
       </c>
       <c r="D153" t="n">
-        <v>0.06922907751934938</v>
+        <v>0.1684588897315165</v>
       </c>
       <c r="E153" t="n">
-        <v>0.04181730827998758</v>
+        <v>0.06254103135728495</v>
       </c>
       <c r="F153" t="n">
-        <v>0.1606813287983407</v>
+        <v>0.2288460844543087</v>
       </c>
       <c r="G153" t="n">
-        <v>0.3989361009358826</v>
+        <v>0.349456248524778</v>
       </c>
       <c r="H153" t="inlineStr">
         <is>
-          <t>g__Enterococcus_A</t>
+          <t>g__Enterococcus</t>
         </is>
       </c>
       <c r="I153" t="inlineStr">
         <is>
-          <t>g__Enterococcus_A(reject)</t>
+          <t>g__Enterococcus(reject)</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT49469.fa</t>
+          <t>even_MAG-GUT49499.fa</t>
         </is>
       </c>
       <c r="B154" t="n">
-        <v>0.349456248524778</v>
+        <v>0.1240764027268661</v>
       </c>
       <c r="C154" t="n">
-        <v>0.1906977459321118</v>
+        <v>0.6751135550800732</v>
       </c>
       <c r="D154" t="n">
-        <v>0.1684588897315165</v>
+        <v>0.01635474353724653</v>
       </c>
       <c r="E154" t="n">
-        <v>0.06254103135728495</v>
+        <v>0.009913342151715883</v>
       </c>
       <c r="F154" t="n">
-        <v>0.2288460844543087</v>
+        <v>0.1745419565040984</v>
       </c>
       <c r="G154" t="n">
-        <v>0.349456248524778</v>
+        <v>0.6751135550800732</v>
       </c>
       <c r="H154" t="inlineStr">
         <is>
-          <t>g__Enterococcus</t>
+          <t>g__Enterococcus_A</t>
         </is>
       </c>
       <c r="I154" t="inlineStr">
         <is>
-          <t>g__Enterococcus(reject)</t>
+          <t>g__Enterococcus_A(reject)</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT49499.fa</t>
+          <t>even_MAG-GUT49512.fa</t>
         </is>
       </c>
       <c r="B155" t="n">
-        <v>0.1240764027268661</v>
+        <v>0.2616166017276966</v>
       </c>
       <c r="C155" t="n">
-        <v>0.6751135550800732</v>
+        <v>0.3348749429609948</v>
       </c>
       <c r="D155" t="n">
-        <v>0.01635474353724653</v>
+        <v>0.1776869663618029</v>
       </c>
       <c r="E155" t="n">
-        <v>0.009913342151715883</v>
+        <v>0.01952009156474795</v>
       </c>
       <c r="F155" t="n">
-        <v>0.1745419565040984</v>
+        <v>0.2063013973847576</v>
       </c>
       <c r="G155" t="n">
-        <v>0.6751135550800732</v>
+        <v>0.3348749429609948</v>
       </c>
       <c r="H155" t="inlineStr">
         <is>
@@ -5874,61 +5874,61 @@
     <row r="156">
       <c r="A156" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT49512.fa</t>
+          <t>even_MAG-GUT49529.fa</t>
         </is>
       </c>
       <c r="B156" t="n">
-        <v>0.2616166017276966</v>
+        <v>0.321411163350737</v>
       </c>
       <c r="C156" t="n">
-        <v>0.3348749429609948</v>
+        <v>0.1465413177875449</v>
       </c>
       <c r="D156" t="n">
-        <v>0.1776869663618029</v>
+        <v>0.3015917939767186</v>
       </c>
       <c r="E156" t="n">
-        <v>0.01952009156474795</v>
+        <v>0.0445843960163369</v>
       </c>
       <c r="F156" t="n">
-        <v>0.2063013973847576</v>
+        <v>0.1858713288686627</v>
       </c>
       <c r="G156" t="n">
-        <v>0.3348749429609948</v>
+        <v>0.321411163350737</v>
       </c>
       <c r="H156" t="inlineStr">
         <is>
-          <t>g__Enterococcus_A</t>
+          <t>g__Enterococcus</t>
         </is>
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t>g__Enterococcus_A(reject)</t>
+          <t>g__Enterococcus(reject)</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT49529.fa</t>
+          <t>even_MAG-GUT49535.fa</t>
         </is>
       </c>
       <c r="B157" t="n">
-        <v>0.321411163350737</v>
+        <v>0.3337820288574253</v>
       </c>
       <c r="C157" t="n">
-        <v>0.1465413177875449</v>
+        <v>0.2559808789853761</v>
       </c>
       <c r="D157" t="n">
-        <v>0.3015917939767186</v>
+        <v>0.1794177945091268</v>
       </c>
       <c r="E157" t="n">
-        <v>0.0445843960163369</v>
+        <v>0.04388940325020842</v>
       </c>
       <c r="F157" t="n">
-        <v>0.1858713288686627</v>
+        <v>0.1869298943978632</v>
       </c>
       <c r="G157" t="n">
-        <v>0.321411163350737</v>
+        <v>0.3337820288574253</v>
       </c>
       <c r="H157" t="inlineStr">
         <is>
@@ -5944,26 +5944,26 @@
     <row r="158">
       <c r="A158" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT49535.fa</t>
+          <t>even_MAG-GUT49539.fa</t>
         </is>
       </c>
       <c r="B158" t="n">
-        <v>0.3337820288574253</v>
+        <v>0.3431015974332898</v>
       </c>
       <c r="C158" t="n">
-        <v>0.2559808789853761</v>
+        <v>0.1726846969849924</v>
       </c>
       <c r="D158" t="n">
-        <v>0.1794177945091268</v>
+        <v>0.1715921596349823</v>
       </c>
       <c r="E158" t="n">
-        <v>0.04388940325020842</v>
+        <v>0.1034956225101029</v>
       </c>
       <c r="F158" t="n">
-        <v>0.1869298943978632</v>
+        <v>0.2091259234366327</v>
       </c>
       <c r="G158" t="n">
-        <v>0.3337820288574253</v>
+        <v>0.3431015974332898</v>
       </c>
       <c r="H158" t="inlineStr">
         <is>
@@ -5979,26 +5979,26 @@
     <row r="159">
       <c r="A159" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT49539.fa</t>
+          <t>even_MAG-GUT49541.fa</t>
         </is>
       </c>
       <c r="B159" t="n">
-        <v>0.3431015974332898</v>
+        <v>0.370096192920807</v>
       </c>
       <c r="C159" t="n">
-        <v>0.1726846969849924</v>
+        <v>0.2260741054877399</v>
       </c>
       <c r="D159" t="n">
-        <v>0.1715921596349823</v>
+        <v>0.1599250987948859</v>
       </c>
       <c r="E159" t="n">
-        <v>0.1034956225101029</v>
+        <v>0.0424571291562426</v>
       </c>
       <c r="F159" t="n">
-        <v>0.2091259234366327</v>
+        <v>0.2014474736403246</v>
       </c>
       <c r="G159" t="n">
-        <v>0.3431015974332898</v>
+        <v>0.370096192920807</v>
       </c>
       <c r="H159" t="inlineStr">
         <is>
@@ -6014,96 +6014,96 @@
     <row r="160">
       <c r="A160" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT49541.fa</t>
+          <t>even_MAG-GUT49567.fa</t>
         </is>
       </c>
       <c r="B160" t="n">
-        <v>0.370096192920807</v>
+        <v>0.005601418874176525</v>
       </c>
       <c r="C160" t="n">
-        <v>0.2260741054877399</v>
+        <v>0.01130534308026096</v>
       </c>
       <c r="D160" t="n">
-        <v>0.1599250987948859</v>
+        <v>0.8780378397854707</v>
       </c>
       <c r="E160" t="n">
-        <v>0.0424571291562426</v>
+        <v>0.009651272157862266</v>
       </c>
       <c r="F160" t="n">
-        <v>0.2014474736403246</v>
+        <v>0.09540412610222954</v>
       </c>
       <c r="G160" t="n">
-        <v>0.370096192920807</v>
+        <v>0.8780378397854707</v>
       </c>
       <c r="H160" t="inlineStr">
         <is>
-          <t>g__Enterococcus</t>
+          <t>g__Enterococcus_B</t>
         </is>
       </c>
       <c r="I160" t="inlineStr">
         <is>
-          <t>g__Enterococcus(reject)</t>
+          <t>g__Enterococcus_B</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT49567.fa</t>
+          <t>even_MAG-GUT49593.fa</t>
         </is>
       </c>
       <c r="B161" t="n">
-        <v>0.005601418874176525</v>
+        <v>0.3121009518035143</v>
       </c>
       <c r="C161" t="n">
-        <v>0.01130534308026096</v>
+        <v>0.3146685597898164</v>
       </c>
       <c r="D161" t="n">
-        <v>0.8780378397854707</v>
+        <v>0.1390691624905684</v>
       </c>
       <c r="E161" t="n">
-        <v>0.009651272157862266</v>
+        <v>0.05290843247023898</v>
       </c>
       <c r="F161" t="n">
-        <v>0.09540412610222954</v>
+        <v>0.1812528934458618</v>
       </c>
       <c r="G161" t="n">
-        <v>0.8780378397854707</v>
+        <v>0.3146685597898164</v>
       </c>
       <c r="H161" t="inlineStr">
         <is>
-          <t>g__Enterococcus_B</t>
+          <t>g__Enterococcus_A</t>
         </is>
       </c>
       <c r="I161" t="inlineStr">
         <is>
-          <t>g__Enterococcus_B</t>
+          <t>g__Enterococcus_A(reject)</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT49593.fa</t>
+          <t>even_MAG-GUT49599.fa</t>
         </is>
       </c>
       <c r="B162" t="n">
-        <v>0.3121009518035143</v>
+        <v>0.262224839764027</v>
       </c>
       <c r="C162" t="n">
-        <v>0.3146685597898164</v>
+        <v>0.32097487418419</v>
       </c>
       <c r="D162" t="n">
-        <v>0.1390691624905684</v>
+        <v>0.07626163083899413</v>
       </c>
       <c r="E162" t="n">
-        <v>0.05290843247023898</v>
+        <v>0.07374720889032572</v>
       </c>
       <c r="F162" t="n">
-        <v>0.1812528934458618</v>
+        <v>0.2667914463224633</v>
       </c>
       <c r="G162" t="n">
-        <v>0.3146685597898164</v>
+        <v>0.32097487418419</v>
       </c>
       <c r="H162" t="inlineStr">
         <is>
@@ -6119,166 +6119,166 @@
     <row r="163">
       <c r="A163" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT49599.fa</t>
+          <t>even_MAG-GUT49609.fa</t>
         </is>
       </c>
       <c r="B163" t="n">
-        <v>0.262224839764027</v>
+        <v>0.3105760465086646</v>
       </c>
       <c r="C163" t="n">
-        <v>0.32097487418419</v>
+        <v>0.102377307918886</v>
       </c>
       <c r="D163" t="n">
-        <v>0.07626163083899413</v>
+        <v>0.2711802090469799</v>
       </c>
       <c r="E163" t="n">
-        <v>0.07374720889032572</v>
+        <v>0.1022652409519649</v>
       </c>
       <c r="F163" t="n">
-        <v>0.2667914463224633</v>
+        <v>0.2136011955735046</v>
       </c>
       <c r="G163" t="n">
-        <v>0.32097487418419</v>
+        <v>0.3105760465086646</v>
       </c>
       <c r="H163" t="inlineStr">
         <is>
-          <t>g__Enterococcus_A</t>
+          <t>g__Enterococcus</t>
         </is>
       </c>
       <c r="I163" t="inlineStr">
         <is>
-          <t>g__Enterococcus_A(reject)</t>
+          <t>g__Enterococcus(reject)</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT49609.fa</t>
+          <t>even_MAG-GUT49616.fa</t>
         </is>
       </c>
       <c r="B164" t="n">
-        <v>0.3105760465086646</v>
+        <v>0.3276657065760395</v>
       </c>
       <c r="C164" t="n">
-        <v>0.102377307918886</v>
+        <v>0.3364106161547767</v>
       </c>
       <c r="D164" t="n">
-        <v>0.2711802090469799</v>
+        <v>0.1277791344907354</v>
       </c>
       <c r="E164" t="n">
-        <v>0.1022652409519649</v>
+        <v>0.07083087366514969</v>
       </c>
       <c r="F164" t="n">
-        <v>0.2136011955735046</v>
+        <v>0.1373136691132988</v>
       </c>
       <c r="G164" t="n">
-        <v>0.3105760465086646</v>
+        <v>0.3364106161547767</v>
       </c>
       <c r="H164" t="inlineStr">
         <is>
-          <t>g__Enterococcus</t>
+          <t>g__Enterococcus_A</t>
         </is>
       </c>
       <c r="I164" t="inlineStr">
         <is>
-          <t>g__Enterococcus(reject)</t>
+          <t>g__Enterococcus_A(reject)</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT49616.fa</t>
+          <t>even_MAG-GUT51.fa</t>
         </is>
       </c>
       <c r="B165" t="n">
-        <v>0.3276657065760395</v>
+        <v>0.0185999859383637</v>
       </c>
       <c r="C165" t="n">
-        <v>0.3364106161547767</v>
+        <v>0.01340127467432569</v>
       </c>
       <c r="D165" t="n">
-        <v>0.1277791344907354</v>
+        <v>0.8979672815463214</v>
       </c>
       <c r="E165" t="n">
-        <v>0.07083087366514969</v>
+        <v>0.02907297392482007</v>
       </c>
       <c r="F165" t="n">
-        <v>0.1373136691132988</v>
+        <v>0.04095848391616898</v>
       </c>
       <c r="G165" t="n">
-        <v>0.3364106161547767</v>
+        <v>0.8979672815463214</v>
       </c>
       <c r="H165" t="inlineStr">
         <is>
-          <t>g__Enterococcus_A</t>
+          <t>g__Enterococcus_B</t>
         </is>
       </c>
       <c r="I165" t="inlineStr">
         <is>
-          <t>g__Enterococcus_A(reject)</t>
+          <t>g__Enterococcus_B</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT51.fa</t>
+          <t>even_MAG-GUT57264.fa</t>
         </is>
       </c>
       <c r="B166" t="n">
-        <v>0.0185999859383637</v>
+        <v>0.3023614920558899</v>
       </c>
       <c r="C166" t="n">
-        <v>0.01340127467432569</v>
+        <v>0.3306451484433042</v>
       </c>
       <c r="D166" t="n">
-        <v>0.8979672815463214</v>
+        <v>0.1308501809110174</v>
       </c>
       <c r="E166" t="n">
-        <v>0.02907297392482007</v>
+        <v>0.009804988444655074</v>
       </c>
       <c r="F166" t="n">
-        <v>0.04095848391616898</v>
+        <v>0.2263381901451334</v>
       </c>
       <c r="G166" t="n">
-        <v>0.8979672815463214</v>
+        <v>0.3306451484433042</v>
       </c>
       <c r="H166" t="inlineStr">
         <is>
-          <t>g__Enterococcus_B</t>
+          <t>g__Enterococcus_A</t>
         </is>
       </c>
       <c r="I166" t="inlineStr">
         <is>
-          <t>g__Enterococcus_B</t>
+          <t>g__Enterococcus_A(reject)</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT57264.fa</t>
+          <t>even_MAG-GUT57442.fa</t>
         </is>
       </c>
       <c r="B167" t="n">
-        <v>0.3023614920558899</v>
+        <v>0.3118738034812227</v>
       </c>
       <c r="C167" t="n">
-        <v>0.3306451484433042</v>
+        <v>0.3526082481660303</v>
       </c>
       <c r="D167" t="n">
-        <v>0.1308501809110174</v>
+        <v>0.114993379937595</v>
       </c>
       <c r="E167" t="n">
-        <v>0.009804988444655074</v>
+        <v>0.07981088348764873</v>
       </c>
       <c r="F167" t="n">
-        <v>0.2263381901451334</v>
+        <v>0.1407136849275033</v>
       </c>
       <c r="G167" t="n">
-        <v>0.3306451484433042</v>
+        <v>0.3526082481660303</v>
       </c>
       <c r="H167" t="inlineStr">
         <is>
@@ -6294,61 +6294,61 @@
     <row r="168">
       <c r="A168" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT57442.fa</t>
+          <t>even_MAG-GUT6222.fa</t>
         </is>
       </c>
       <c r="B168" t="n">
-        <v>0.3118738034812227</v>
+        <v>0.335612900655702</v>
       </c>
       <c r="C168" t="n">
-        <v>0.3526082481660303</v>
+        <v>0.2556852250972906</v>
       </c>
       <c r="D168" t="n">
-        <v>0.114993379937595</v>
+        <v>0.222040098826755</v>
       </c>
       <c r="E168" t="n">
-        <v>0.07981088348764873</v>
+        <v>0.02995174408736612</v>
       </c>
       <c r="F168" t="n">
-        <v>0.1407136849275033</v>
+        <v>0.1567100313328863</v>
       </c>
       <c r="G168" t="n">
-        <v>0.3526082481660303</v>
+        <v>0.335612900655702</v>
       </c>
       <c r="H168" t="inlineStr">
         <is>
-          <t>g__Enterococcus_A</t>
+          <t>g__Enterococcus</t>
         </is>
       </c>
       <c r="I168" t="inlineStr">
         <is>
-          <t>g__Enterococcus_A(reject)</t>
+          <t>g__Enterococcus(reject)</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT6222.fa</t>
+          <t>even_MAG-GUT6229.fa</t>
         </is>
       </c>
       <c r="B169" t="n">
-        <v>0.335612900655702</v>
+        <v>0.3181054415515887</v>
       </c>
       <c r="C169" t="n">
-        <v>0.2556852250972906</v>
+        <v>0.2499184547198558</v>
       </c>
       <c r="D169" t="n">
-        <v>0.222040098826755</v>
+        <v>0.2130980068301272</v>
       </c>
       <c r="E169" t="n">
-        <v>0.02995174408736612</v>
+        <v>0.04875871549166622</v>
       </c>
       <c r="F169" t="n">
-        <v>0.1567100313328863</v>
+        <v>0.170119381406762</v>
       </c>
       <c r="G169" t="n">
-        <v>0.335612900655702</v>
+        <v>0.3181054415515887</v>
       </c>
       <c r="H169" t="inlineStr">
         <is>
@@ -6364,26 +6364,26 @@
     <row r="170">
       <c r="A170" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT6229.fa</t>
+          <t>even_MAG-GUT6233.fa</t>
         </is>
       </c>
       <c r="B170" t="n">
-        <v>0.3181054415515887</v>
+        <v>0.3593127274003313</v>
       </c>
       <c r="C170" t="n">
-        <v>0.2499184547198558</v>
+        <v>0.2656047493268875</v>
       </c>
       <c r="D170" t="n">
-        <v>0.2130980068301272</v>
+        <v>0.1320615869992632</v>
       </c>
       <c r="E170" t="n">
-        <v>0.04875871549166622</v>
+        <v>0.05092671291183199</v>
       </c>
       <c r="F170" t="n">
-        <v>0.170119381406762</v>
+        <v>0.1920942233616859</v>
       </c>
       <c r="G170" t="n">
-        <v>0.3181054415515887</v>
+        <v>0.3593127274003313</v>
       </c>
       <c r="H170" t="inlineStr">
         <is>
@@ -6399,26 +6399,26 @@
     <row r="171">
       <c r="A171" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT6233.fa</t>
+          <t>even_MAG-GUT6238.fa</t>
         </is>
       </c>
       <c r="B171" t="n">
-        <v>0.3593127274003313</v>
+        <v>0.3480987986386501</v>
       </c>
       <c r="C171" t="n">
-        <v>0.2656047493268875</v>
+        <v>0.1811639337465855</v>
       </c>
       <c r="D171" t="n">
-        <v>0.1320615869992632</v>
+        <v>0.1897402806482051</v>
       </c>
       <c r="E171" t="n">
-        <v>0.05092671291183199</v>
+        <v>0.08418432510891974</v>
       </c>
       <c r="F171" t="n">
-        <v>0.1920942233616859</v>
+        <v>0.1968126618576397</v>
       </c>
       <c r="G171" t="n">
-        <v>0.3593127274003313</v>
+        <v>0.3480987986386501</v>
       </c>
       <c r="H171" t="inlineStr">
         <is>
@@ -6434,26 +6434,26 @@
     <row r="172">
       <c r="A172" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT6238.fa</t>
+          <t>even_MAG-GUT6241.fa</t>
         </is>
       </c>
       <c r="B172" t="n">
-        <v>0.3480987986386501</v>
+        <v>0.3601838133029244</v>
       </c>
       <c r="C172" t="n">
-        <v>0.1811639337465855</v>
+        <v>0.1725719793289144</v>
       </c>
       <c r="D172" t="n">
-        <v>0.1897402806482051</v>
+        <v>0.2658298667033586</v>
       </c>
       <c r="E172" t="n">
-        <v>0.08418432510891974</v>
+        <v>0.0698111720096881</v>
       </c>
       <c r="F172" t="n">
-        <v>0.1968126618576397</v>
+        <v>0.1316031686551146</v>
       </c>
       <c r="G172" t="n">
-        <v>0.3480987986386501</v>
+        <v>0.3601838133029244</v>
       </c>
       <c r="H172" t="inlineStr">
         <is>
@@ -6469,26 +6469,26 @@
     <row r="173">
       <c r="A173" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT6241.fa</t>
+          <t>even_MAG-GUT6274.fa</t>
         </is>
       </c>
       <c r="B173" t="n">
-        <v>0.3601838133029244</v>
+        <v>0.3181054415515887</v>
       </c>
       <c r="C173" t="n">
-        <v>0.1725719793289144</v>
+        <v>0.2499184547198558</v>
       </c>
       <c r="D173" t="n">
-        <v>0.2658298667033586</v>
+        <v>0.2130980068301272</v>
       </c>
       <c r="E173" t="n">
-        <v>0.0698111720096881</v>
+        <v>0.04875871549166622</v>
       </c>
       <c r="F173" t="n">
-        <v>0.1316031686551146</v>
+        <v>0.170119381406762</v>
       </c>
       <c r="G173" t="n">
-        <v>0.3601838133029244</v>
+        <v>0.3181054415515887</v>
       </c>
       <c r="H173" t="inlineStr">
         <is>
@@ -6504,26 +6504,26 @@
     <row r="174">
       <c r="A174" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT6274.fa</t>
+          <t>even_MAG-GUT6291.fa</t>
         </is>
       </c>
       <c r="B174" t="n">
-        <v>0.3181054415515887</v>
+        <v>0.3375994249873501</v>
       </c>
       <c r="C174" t="n">
-        <v>0.2499184547198558</v>
+        <v>0.1553514182471558</v>
       </c>
       <c r="D174" t="n">
-        <v>0.2130980068301272</v>
+        <v>0.2688504849641025</v>
       </c>
       <c r="E174" t="n">
-        <v>0.04875871549166622</v>
+        <v>0.0607135247829606</v>
       </c>
       <c r="F174" t="n">
-        <v>0.170119381406762</v>
+        <v>0.177485147018431</v>
       </c>
       <c r="G174" t="n">
-        <v>0.3181054415515887</v>
+        <v>0.3375994249873501</v>
       </c>
       <c r="H174" t="inlineStr">
         <is>
@@ -6539,271 +6539,271 @@
     <row r="175">
       <c r="A175" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT6291.fa</t>
+          <t>even_MAG-GUT67625.fa</t>
         </is>
       </c>
       <c r="B175" t="n">
-        <v>0.3375994249873501</v>
+        <v>0.02410207006129143</v>
       </c>
       <c r="C175" t="n">
-        <v>0.1553514182471558</v>
+        <v>0.191503002543778</v>
       </c>
       <c r="D175" t="n">
-        <v>0.2688504849641025</v>
+        <v>0.1148519131429859</v>
       </c>
       <c r="E175" t="n">
-        <v>0.0607135247829606</v>
+        <v>0.04079899762842116</v>
       </c>
       <c r="F175" t="n">
-        <v>0.177485147018431</v>
+        <v>0.6287440166235236</v>
       </c>
       <c r="G175" t="n">
-        <v>0.3375994249873501</v>
+        <v>0.6287440166235236</v>
       </c>
       <c r="H175" t="inlineStr">
         <is>
-          <t>g__Enterococcus</t>
+          <t>g__Enterococcus_D</t>
         </is>
       </c>
       <c r="I175" t="inlineStr">
         <is>
-          <t>g__Enterococcus(reject)</t>
+          <t>g__Enterococcus_D</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT67625.fa</t>
+          <t>even_MAG-GUT67985.fa</t>
         </is>
       </c>
       <c r="B176" t="n">
-        <v>0.02410207006129143</v>
+        <v>0.001973433579951885</v>
       </c>
       <c r="C176" t="n">
-        <v>0.191503002543778</v>
+        <v>0.000252501616279825</v>
       </c>
       <c r="D176" t="n">
-        <v>0.1148519131429859</v>
+        <v>0.9792813397317202</v>
       </c>
       <c r="E176" t="n">
-        <v>0.04079899762842116</v>
+        <v>0.003244633441154633</v>
       </c>
       <c r="F176" t="n">
-        <v>0.6287440166235236</v>
+        <v>0.01524809163089337</v>
       </c>
       <c r="G176" t="n">
-        <v>0.6287440166235236</v>
+        <v>0.9792813397317202</v>
       </c>
       <c r="H176" t="inlineStr">
         <is>
-          <t>g__Enterococcus_D</t>
+          <t>g__Enterococcus_B</t>
         </is>
       </c>
       <c r="I176" t="inlineStr">
         <is>
-          <t>g__Enterococcus_D(reject)</t>
+          <t>g__Enterococcus_B</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT67985.fa</t>
+          <t>even_MAG-GUT68043.fa</t>
         </is>
       </c>
       <c r="B177" t="n">
-        <v>0.001973433579951885</v>
+        <v>0.2525019144374343</v>
       </c>
       <c r="C177" t="n">
-        <v>0.000252501616279825</v>
+        <v>0.3950977948953934</v>
       </c>
       <c r="D177" t="n">
-        <v>0.9792813397317202</v>
+        <v>0.0733967740993292</v>
       </c>
       <c r="E177" t="n">
-        <v>0.003244633441154633</v>
+        <v>0.03087331378244881</v>
       </c>
       <c r="F177" t="n">
-        <v>0.01524809163089337</v>
+        <v>0.248130202785394</v>
       </c>
       <c r="G177" t="n">
-        <v>0.9792813397317202</v>
+        <v>0.3950977948953934</v>
       </c>
       <c r="H177" t="inlineStr">
         <is>
-          <t>g__Enterococcus_B</t>
+          <t>g__Enterococcus_A</t>
         </is>
       </c>
       <c r="I177" t="inlineStr">
         <is>
-          <t>g__Enterococcus_B</t>
+          <t>g__Enterococcus_A(reject)</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT68043.fa</t>
+          <t>even_MAG-GUT68111.fa</t>
         </is>
       </c>
       <c r="B178" t="n">
-        <v>0.2525019144374343</v>
+        <v>0.003159863910498704</v>
       </c>
       <c r="C178" t="n">
-        <v>0.3950977948953934</v>
+        <v>7.584223839456696e-05</v>
       </c>
       <c r="D178" t="n">
-        <v>0.0733967740993292</v>
+        <v>0.9671761658820516</v>
       </c>
       <c r="E178" t="n">
-        <v>0.03087331378244881</v>
+        <v>0.004123738045517984</v>
       </c>
       <c r="F178" t="n">
-        <v>0.248130202785394</v>
+        <v>0.025464389923537</v>
       </c>
       <c r="G178" t="n">
-        <v>0.3950977948953934</v>
+        <v>0.9671761658820516</v>
       </c>
       <c r="H178" t="inlineStr">
         <is>
-          <t>g__Enterococcus_A</t>
+          <t>g__Enterococcus_B</t>
         </is>
       </c>
       <c r="I178" t="inlineStr">
         <is>
-          <t>g__Enterococcus_A(reject)</t>
+          <t>g__Enterococcus_B</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT68111.fa</t>
+          <t>even_MAG-GUT68629.fa</t>
         </is>
       </c>
       <c r="B179" t="n">
-        <v>0.003159863910498704</v>
+        <v>0.1966061492534474</v>
       </c>
       <c r="C179" t="n">
-        <v>7.584223839456696e-05</v>
+        <v>0.6077714851412771</v>
       </c>
       <c r="D179" t="n">
-        <v>0.9671761658820516</v>
+        <v>0.07486075898826573</v>
       </c>
       <c r="E179" t="n">
-        <v>0.004123738045517984</v>
+        <v>0.05355068572835655</v>
       </c>
       <c r="F179" t="n">
-        <v>0.025464389923537</v>
+        <v>0.06721092088865341</v>
       </c>
       <c r="G179" t="n">
-        <v>0.9671761658820516</v>
+        <v>0.6077714851412771</v>
       </c>
       <c r="H179" t="inlineStr">
         <is>
-          <t>g__Enterococcus_B</t>
+          <t>g__Enterococcus_A</t>
         </is>
       </c>
       <c r="I179" t="inlineStr">
         <is>
-          <t>g__Enterococcus_B</t>
+          <t>g__Enterococcus_A(reject)</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT68629.fa</t>
+          <t>even_MAG-GUT68640.fa</t>
         </is>
       </c>
       <c r="B180" t="n">
-        <v>0.1966061492534474</v>
+        <v>0.003520862251615706</v>
       </c>
       <c r="C180" t="n">
-        <v>0.6077714851412771</v>
+        <v>0.0003145186969030235</v>
       </c>
       <c r="D180" t="n">
-        <v>0.07486075898826573</v>
+        <v>0.9451285538904851</v>
       </c>
       <c r="E180" t="n">
-        <v>0.05355068572835655</v>
+        <v>0.006907787212029231</v>
       </c>
       <c r="F180" t="n">
-        <v>0.06721092088865341</v>
+        <v>0.04412827794896684</v>
       </c>
       <c r="G180" t="n">
-        <v>0.6077714851412771</v>
+        <v>0.9451285538904851</v>
       </c>
       <c r="H180" t="inlineStr">
         <is>
-          <t>g__Enterococcus_A</t>
+          <t>g__Enterococcus_B</t>
         </is>
       </c>
       <c r="I180" t="inlineStr">
         <is>
-          <t>g__Enterococcus_A(reject)</t>
+          <t>g__Enterococcus_B</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT68640.fa</t>
+          <t>even_MAG-GUT69501.fa</t>
         </is>
       </c>
       <c r="B181" t="n">
-        <v>0.003520862251615706</v>
+        <v>0.3392694349138431</v>
       </c>
       <c r="C181" t="n">
-        <v>0.0003145186969030235</v>
+        <v>0.1962442113481131</v>
       </c>
       <c r="D181" t="n">
-        <v>0.9451285538904851</v>
+        <v>0.2080232302434488</v>
       </c>
       <c r="E181" t="n">
-        <v>0.006907787212029231</v>
+        <v>0.08369163527289149</v>
       </c>
       <c r="F181" t="n">
-        <v>0.04412827794896684</v>
+        <v>0.1727714882217034</v>
       </c>
       <c r="G181" t="n">
-        <v>0.9451285538904851</v>
+        <v>0.3392694349138431</v>
       </c>
       <c r="H181" t="inlineStr">
         <is>
-          <t>g__Enterococcus_B</t>
+          <t>g__Enterococcus</t>
         </is>
       </c>
       <c r="I181" t="inlineStr">
         <is>
-          <t>g__Enterococcus_B</t>
+          <t>g__Enterococcus(reject)</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT69501.fa</t>
+          <t>even_MAG-GUT7062.fa</t>
         </is>
       </c>
       <c r="B182" t="n">
-        <v>0.3392694349138431</v>
+        <v>0.3640557023289368</v>
       </c>
       <c r="C182" t="n">
-        <v>0.1962442113481131</v>
+        <v>0.2240325379441133</v>
       </c>
       <c r="D182" t="n">
-        <v>0.2080232302434488</v>
+        <v>0.196528817950805</v>
       </c>
       <c r="E182" t="n">
-        <v>0.08369163527289149</v>
+        <v>0.0405351796677866</v>
       </c>
       <c r="F182" t="n">
-        <v>0.1727714882217034</v>
+        <v>0.1748477621083583</v>
       </c>
       <c r="G182" t="n">
-        <v>0.3392694349138431</v>
+        <v>0.3640557023289368</v>
       </c>
       <c r="H182" t="inlineStr">
         <is>
@@ -6819,96 +6819,96 @@
     <row r="183">
       <c r="A183" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT7062.fa</t>
+          <t>even_MAG-GUT7086.fa</t>
         </is>
       </c>
       <c r="B183" t="n">
-        <v>0.3640557023289368</v>
+        <v>0.001734244904519572</v>
       </c>
       <c r="C183" t="n">
-        <v>0.2240325379441133</v>
+        <v>9.023217347278437e-05</v>
       </c>
       <c r="D183" t="n">
-        <v>0.196528817950805</v>
+        <v>0.9659920840409448</v>
       </c>
       <c r="E183" t="n">
-        <v>0.0405351796677866</v>
+        <v>0.01077278632268872</v>
       </c>
       <c r="F183" t="n">
-        <v>0.1748477621083583</v>
+        <v>0.02141065255837418</v>
       </c>
       <c r="G183" t="n">
-        <v>0.3640557023289368</v>
+        <v>0.9659920840409448</v>
       </c>
       <c r="H183" t="inlineStr">
         <is>
-          <t>g__Enterococcus</t>
+          <t>g__Enterococcus_B</t>
         </is>
       </c>
       <c r="I183" t="inlineStr">
         <is>
-          <t>g__Enterococcus(reject)</t>
+          <t>g__Enterococcus_B</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT7086.fa</t>
+          <t>even_MAG-GUT7090.fa</t>
         </is>
       </c>
       <c r="B184" t="n">
-        <v>0.001734244904519572</v>
+        <v>0.3165416787459956</v>
       </c>
       <c r="C184" t="n">
-        <v>9.023217347278437e-05</v>
+        <v>0.1283226385748932</v>
       </c>
       <c r="D184" t="n">
-        <v>0.9659920840409448</v>
+        <v>0.199411408910428</v>
       </c>
       <c r="E184" t="n">
-        <v>0.01077278632268872</v>
+        <v>0.05219087015323807</v>
       </c>
       <c r="F184" t="n">
-        <v>0.02141065255837418</v>
+        <v>0.3035334036154452</v>
       </c>
       <c r="G184" t="n">
-        <v>0.9659920840409448</v>
+        <v>0.3165416787459956</v>
       </c>
       <c r="H184" t="inlineStr">
         <is>
-          <t>g__Enterococcus_B</t>
+          <t>g__Enterococcus</t>
         </is>
       </c>
       <c r="I184" t="inlineStr">
         <is>
-          <t>g__Enterococcus_B</t>
+          <t>g__Enterococcus(reject)</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT7090.fa</t>
+          <t>even_MAG-GUT7102.fa</t>
         </is>
       </c>
       <c r="B185" t="n">
-        <v>0.3165416787459956</v>
+        <v>0.3550306712934223</v>
       </c>
       <c r="C185" t="n">
-        <v>0.1283226385748932</v>
+        <v>0.2113401416247266</v>
       </c>
       <c r="D185" t="n">
-        <v>0.199411408910428</v>
+        <v>0.1567195408204166</v>
       </c>
       <c r="E185" t="n">
-        <v>0.05219087015323807</v>
+        <v>0.0665297063732276</v>
       </c>
       <c r="F185" t="n">
-        <v>0.3035334036154452</v>
+        <v>0.2103799398882068</v>
       </c>
       <c r="G185" t="n">
-        <v>0.3165416787459956</v>
+        <v>0.3550306712934223</v>
       </c>
       <c r="H185" t="inlineStr">
         <is>
@@ -6924,26 +6924,26 @@
     <row r="186">
       <c r="A186" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT7102.fa</t>
+          <t>even_MAG-GUT7118.fa</t>
         </is>
       </c>
       <c r="B186" t="n">
-        <v>0.3550306712934223</v>
+        <v>0.3477082314247892</v>
       </c>
       <c r="C186" t="n">
-        <v>0.2113401416247266</v>
+        <v>0.2199017749230307</v>
       </c>
       <c r="D186" t="n">
-        <v>0.1567195408204166</v>
+        <v>0.08367042162582437</v>
       </c>
       <c r="E186" t="n">
-        <v>0.0665297063732276</v>
+        <v>0.07056091795126691</v>
       </c>
       <c r="F186" t="n">
-        <v>0.2103799398882068</v>
+        <v>0.2781586540750888</v>
       </c>
       <c r="G186" t="n">
-        <v>0.3550306712934223</v>
+        <v>0.3477082314247892</v>
       </c>
       <c r="H186" t="inlineStr">
         <is>
@@ -6959,61 +6959,61 @@
     <row r="187">
       <c r="A187" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT7118.fa</t>
+          <t>even_MAG-GUT7121.fa</t>
         </is>
       </c>
       <c r="B187" t="n">
-        <v>0.3477082314247892</v>
+        <v>0.3297410578160347</v>
       </c>
       <c r="C187" t="n">
-        <v>0.2199017749230307</v>
+        <v>0.3615121756831745</v>
       </c>
       <c r="D187" t="n">
-        <v>0.08367042162582437</v>
+        <v>0.09378616475837823</v>
       </c>
       <c r="E187" t="n">
-        <v>0.07056091795126691</v>
+        <v>0.03356736829111871</v>
       </c>
       <c r="F187" t="n">
-        <v>0.2781586540750888</v>
+        <v>0.181393233451294</v>
       </c>
       <c r="G187" t="n">
-        <v>0.3477082314247892</v>
+        <v>0.3615121756831745</v>
       </c>
       <c r="H187" t="inlineStr">
         <is>
-          <t>g__Enterococcus</t>
+          <t>g__Enterococcus_A</t>
         </is>
       </c>
       <c r="I187" t="inlineStr">
         <is>
-          <t>g__Enterococcus(reject)</t>
+          <t>g__Enterococcus_A(reject)</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT7121.fa</t>
+          <t>even_MAG-GUT7125.fa</t>
         </is>
       </c>
       <c r="B188" t="n">
-        <v>0.3297410578160347</v>
+        <v>0.3301722663346711</v>
       </c>
       <c r="C188" t="n">
-        <v>0.3615121756831745</v>
+        <v>0.3614237228273001</v>
       </c>
       <c r="D188" t="n">
-        <v>0.09378616475837823</v>
+        <v>0.09393252758521067</v>
       </c>
       <c r="E188" t="n">
-        <v>0.03356736829111871</v>
+        <v>0.03366834402112387</v>
       </c>
       <c r="F188" t="n">
-        <v>0.181393233451294</v>
+        <v>0.1808031392316941</v>
       </c>
       <c r="G188" t="n">
-        <v>0.3615121756831745</v>
+        <v>0.3614237228273001</v>
       </c>
       <c r="H188" t="inlineStr">
         <is>
@@ -7029,166 +7029,166 @@
     <row r="189">
       <c r="A189" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT7125.fa</t>
+          <t>even_MAG-GUT7175.fa</t>
         </is>
       </c>
       <c r="B189" t="n">
-        <v>0.3301722663346711</v>
+        <v>0.3126565721576848</v>
       </c>
       <c r="C189" t="n">
-        <v>0.3614237228273001</v>
+        <v>0.131765538901657</v>
       </c>
       <c r="D189" t="n">
-        <v>0.09393252758521067</v>
+        <v>0.3685892414793457</v>
       </c>
       <c r="E189" t="n">
-        <v>0.03366834402112387</v>
+        <v>0.0329063220026952</v>
       </c>
       <c r="F189" t="n">
-        <v>0.1808031392316941</v>
+        <v>0.1540823254586173</v>
       </c>
       <c r="G189" t="n">
-        <v>0.3614237228273001</v>
+        <v>0.3685892414793457</v>
       </c>
       <c r="H189" t="inlineStr">
         <is>
-          <t>g__Enterococcus_A</t>
+          <t>g__Enterococcus_B</t>
         </is>
       </c>
       <c r="I189" t="inlineStr">
         <is>
-          <t>g__Enterococcus_A(reject)</t>
+          <t>g__Enterococcus_B(reject)</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT7175.fa</t>
+          <t>even_MAG-GUT7213.fa</t>
         </is>
       </c>
       <c r="B190" t="n">
-        <v>0.3126565721576848</v>
+        <v>0.3144780720359385</v>
       </c>
       <c r="C190" t="n">
-        <v>0.131765538901657</v>
+        <v>0.09095521684269392</v>
       </c>
       <c r="D190" t="n">
-        <v>0.3685892414793457</v>
+        <v>0.2675015752637119</v>
       </c>
       <c r="E190" t="n">
-        <v>0.0329063220026952</v>
+        <v>0.07322259855725326</v>
       </c>
       <c r="F190" t="n">
-        <v>0.1540823254586173</v>
+        <v>0.2538425373004025</v>
       </c>
       <c r="G190" t="n">
-        <v>0.3685892414793457</v>
+        <v>0.3144780720359385</v>
       </c>
       <c r="H190" t="inlineStr">
         <is>
-          <t>g__Enterococcus_B</t>
+          <t>g__Enterococcus</t>
         </is>
       </c>
       <c r="I190" t="inlineStr">
         <is>
-          <t>g__Enterococcus_B(reject)</t>
+          <t>g__Enterococcus(reject)</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT7213.fa</t>
+          <t>even_MAG-GUT7214.fa</t>
         </is>
       </c>
       <c r="B191" t="n">
-        <v>0.3144780720359385</v>
+        <v>0.3135808469175131</v>
       </c>
       <c r="C191" t="n">
-        <v>0.09095521684269392</v>
+        <v>0.3159359186423217</v>
       </c>
       <c r="D191" t="n">
-        <v>0.2675015752637119</v>
+        <v>0.1148403303433771</v>
       </c>
       <c r="E191" t="n">
-        <v>0.07322259855725326</v>
+        <v>0.07213194334039312</v>
       </c>
       <c r="F191" t="n">
-        <v>0.2538425373004025</v>
+        <v>0.183510960756395</v>
       </c>
       <c r="G191" t="n">
-        <v>0.3144780720359385</v>
+        <v>0.3159359186423217</v>
       </c>
       <c r="H191" t="inlineStr">
         <is>
-          <t>g__Enterococcus</t>
+          <t>g__Enterococcus_A</t>
         </is>
       </c>
       <c r="I191" t="inlineStr">
         <is>
-          <t>g__Enterococcus(reject)</t>
+          <t>g__Enterococcus_A(reject)</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT7214.fa</t>
+          <t>even_MAG-GUT7216.fa</t>
         </is>
       </c>
       <c r="B192" t="n">
-        <v>0.3135808469175131</v>
+        <v>0.3099281892004351</v>
       </c>
       <c r="C192" t="n">
-        <v>0.3159359186423217</v>
+        <v>0.2815025525403656</v>
       </c>
       <c r="D192" t="n">
-        <v>0.1148403303433771</v>
+        <v>0.1655328784446921</v>
       </c>
       <c r="E192" t="n">
-        <v>0.07213194334039312</v>
+        <v>0.09773445067693141</v>
       </c>
       <c r="F192" t="n">
-        <v>0.183510960756395</v>
+        <v>0.1453019291375757</v>
       </c>
       <c r="G192" t="n">
-        <v>0.3159359186423217</v>
+        <v>0.3099281892004351</v>
       </c>
       <c r="H192" t="inlineStr">
         <is>
-          <t>g__Enterococcus_A</t>
+          <t>g__Enterococcus</t>
         </is>
       </c>
       <c r="I192" t="inlineStr">
         <is>
-          <t>g__Enterococcus_A(reject)</t>
+          <t>g__Enterococcus(reject)</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT7216.fa</t>
+          <t>even_MAG-GUT7222.fa</t>
         </is>
       </c>
       <c r="B193" t="n">
-        <v>0.3099281892004351</v>
+        <v>0.358733754347655</v>
       </c>
       <c r="C193" t="n">
-        <v>0.2815025525403656</v>
+        <v>0.2265091429764093</v>
       </c>
       <c r="D193" t="n">
-        <v>0.1655328784446921</v>
+        <v>0.2027291155089977</v>
       </c>
       <c r="E193" t="n">
-        <v>0.09773445067693141</v>
+        <v>0.04697771242644719</v>
       </c>
       <c r="F193" t="n">
-        <v>0.1453019291375757</v>
+        <v>0.1650502747404908</v>
       </c>
       <c r="G193" t="n">
-        <v>0.3099281892004351</v>
+        <v>0.358733754347655</v>
       </c>
       <c r="H193" t="inlineStr">
         <is>
@@ -7204,26 +7204,26 @@
     <row r="194">
       <c r="A194" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT7222.fa</t>
+          <t>even_MAG-GUT7253.fa</t>
         </is>
       </c>
       <c r="B194" t="n">
-        <v>0.358733754347655</v>
+        <v>0.3614574608309737</v>
       </c>
       <c r="C194" t="n">
-        <v>0.2265091429764093</v>
+        <v>0.2168393423703678</v>
       </c>
       <c r="D194" t="n">
-        <v>0.2027291155089977</v>
+        <v>0.1634378993309963</v>
       </c>
       <c r="E194" t="n">
-        <v>0.04697771242644719</v>
+        <v>0.104369083646188</v>
       </c>
       <c r="F194" t="n">
-        <v>0.1650502747404908</v>
+        <v>0.1538962138214744</v>
       </c>
       <c r="G194" t="n">
-        <v>0.358733754347655</v>
+        <v>0.3614574608309737</v>
       </c>
       <c r="H194" t="inlineStr">
         <is>
@@ -7239,26 +7239,26 @@
     <row r="195">
       <c r="A195" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT7253.fa</t>
+          <t>even_MAG-GUT7278.fa</t>
         </is>
       </c>
       <c r="B195" t="n">
-        <v>0.3614574608309737</v>
+        <v>0.3323046676328471</v>
       </c>
       <c r="C195" t="n">
-        <v>0.2168393423703678</v>
+        <v>0.229963237594265</v>
       </c>
       <c r="D195" t="n">
-        <v>0.1634378993309963</v>
+        <v>0.1272563770205587</v>
       </c>
       <c r="E195" t="n">
-        <v>0.104369083646188</v>
+        <v>0.1496175624172027</v>
       </c>
       <c r="F195" t="n">
-        <v>0.1538962138214744</v>
+        <v>0.1608581553351265</v>
       </c>
       <c r="G195" t="n">
-        <v>0.3614574608309737</v>
+        <v>0.3323046676328471</v>
       </c>
       <c r="H195" t="inlineStr">
         <is>
@@ -7274,61 +7274,61 @@
     <row r="196">
       <c r="A196" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT7278.fa</t>
+          <t>even_MAG-GUT87407.fa</t>
         </is>
       </c>
       <c r="B196" t="n">
-        <v>0.3323046676328471</v>
+        <v>0.002734329683048541</v>
       </c>
       <c r="C196" t="n">
-        <v>0.229963237594265</v>
+        <v>0.000778084353791357</v>
       </c>
       <c r="D196" t="n">
-        <v>0.1272563770205587</v>
+        <v>0.9191426589810744</v>
       </c>
       <c r="E196" t="n">
-        <v>0.1496175624172027</v>
+        <v>0.008645905639428386</v>
       </c>
       <c r="F196" t="n">
-        <v>0.1608581553351265</v>
+        <v>0.06869902134265721</v>
       </c>
       <c r="G196" t="n">
-        <v>0.3323046676328471</v>
+        <v>0.9191426589810744</v>
       </c>
       <c r="H196" t="inlineStr">
         <is>
-          <t>g__Enterococcus</t>
+          <t>g__Enterococcus_B</t>
         </is>
       </c>
       <c r="I196" t="inlineStr">
         <is>
-          <t>g__Enterococcus(reject)</t>
+          <t>g__Enterococcus_B</t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT87407.fa</t>
+          <t>even_MAG-GUT87621.fa</t>
         </is>
       </c>
       <c r="B197" t="n">
-        <v>0.002734329683048541</v>
+        <v>0.00419005301920055</v>
       </c>
       <c r="C197" t="n">
-        <v>0.000778084353791357</v>
+        <v>0.000743753495514997</v>
       </c>
       <c r="D197" t="n">
-        <v>0.9191426589810744</v>
+        <v>0.924623809830305</v>
       </c>
       <c r="E197" t="n">
-        <v>0.008645905639428386</v>
+        <v>0.005815221810877425</v>
       </c>
       <c r="F197" t="n">
-        <v>0.06869902134265721</v>
+        <v>0.064627161844102</v>
       </c>
       <c r="G197" t="n">
-        <v>0.9191426589810744</v>
+        <v>0.924623809830305</v>
       </c>
       <c r="H197" t="inlineStr">
         <is>
@@ -7344,26 +7344,26 @@
     <row r="198">
       <c r="A198" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT87621.fa</t>
+          <t>even_MAG-GUT87674.fa</t>
         </is>
       </c>
       <c r="B198" t="n">
-        <v>0.00419005301920055</v>
+        <v>0.002734329683048541</v>
       </c>
       <c r="C198" t="n">
-        <v>0.000743753495514997</v>
+        <v>0.000778084353791357</v>
       </c>
       <c r="D198" t="n">
-        <v>0.924623809830305</v>
+        <v>0.9191426589810744</v>
       </c>
       <c r="E198" t="n">
-        <v>0.005815221810877425</v>
+        <v>0.008645905639428386</v>
       </c>
       <c r="F198" t="n">
-        <v>0.064627161844102</v>
+        <v>0.06869902134265721</v>
       </c>
       <c r="G198" t="n">
-        <v>0.924623809830305</v>
+        <v>0.9191426589810744</v>
       </c>
       <c r="H198" t="inlineStr">
         <is>
@@ -7379,26 +7379,26 @@
     <row r="199">
       <c r="A199" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT87674.fa</t>
+          <t>even_MAG-GUT87941.fa</t>
         </is>
       </c>
       <c r="B199" t="n">
-        <v>0.002734329683048541</v>
+        <v>0.001102230098385582</v>
       </c>
       <c r="C199" t="n">
-        <v>0.000778084353791357</v>
+        <v>2.918841133932905e-05</v>
       </c>
       <c r="D199" t="n">
-        <v>0.9191426589810744</v>
+        <v>0.9613754872453421</v>
       </c>
       <c r="E199" t="n">
-        <v>0.008645905639428386</v>
+        <v>0.001505462176523002</v>
       </c>
       <c r="F199" t="n">
-        <v>0.06869902134265721</v>
+        <v>0.03598763206841004</v>
       </c>
       <c r="G199" t="n">
-        <v>0.9191426589810744</v>
+        <v>0.9613754872453421</v>
       </c>
       <c r="H199" t="inlineStr">
         <is>
@@ -7414,26 +7414,26 @@
     <row r="200">
       <c r="A200" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT87941.fa</t>
+          <t>even_MAG-GUT88714.fa</t>
         </is>
       </c>
       <c r="B200" t="n">
-        <v>0.001102230098385582</v>
+        <v>0.001231022072074105</v>
       </c>
       <c r="C200" t="n">
-        <v>2.918841133932905e-05</v>
+        <v>0.0001528472989840861</v>
       </c>
       <c r="D200" t="n">
-        <v>0.9613754872453421</v>
+        <v>0.9612565659236267</v>
       </c>
       <c r="E200" t="n">
-        <v>0.001505462176523002</v>
+        <v>0.001467429376734743</v>
       </c>
       <c r="F200" t="n">
-        <v>0.03598763206841004</v>
+        <v>0.03589213532858031</v>
       </c>
       <c r="G200" t="n">
-        <v>0.9613754872453421</v>
+        <v>0.9612565659236267</v>
       </c>
       <c r="H200" t="inlineStr">
         <is>
@@ -7449,26 +7449,26 @@
     <row r="201">
       <c r="A201" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT88714.fa</t>
+          <t>even_MAG-GUT88733.fa</t>
         </is>
       </c>
       <c r="B201" t="n">
-        <v>0.001231022072074105</v>
+        <v>0.002458425466627176</v>
       </c>
       <c r="C201" t="n">
-        <v>0.0001528472989840861</v>
+        <v>0.00230655535707038</v>
       </c>
       <c r="D201" t="n">
-        <v>0.9612565659236267</v>
+        <v>0.955581242556529</v>
       </c>
       <c r="E201" t="n">
-        <v>0.001467429376734743</v>
+        <v>0.00474913453192265</v>
       </c>
       <c r="F201" t="n">
-        <v>0.03589213532858031</v>
+        <v>0.03490464208785098</v>
       </c>
       <c r="G201" t="n">
-        <v>0.9612565659236267</v>
+        <v>0.955581242556529</v>
       </c>
       <c r="H201" t="inlineStr">
         <is>
@@ -7484,26 +7484,26 @@
     <row r="202">
       <c r="A202" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT88733.fa</t>
+          <t>even_MAG-GUT88737.fa</t>
         </is>
       </c>
       <c r="B202" t="n">
-        <v>0.002458425466627176</v>
+        <v>0.003511571898765424</v>
       </c>
       <c r="C202" t="n">
-        <v>0.00230655535707038</v>
+        <v>0.0006058999655792794</v>
       </c>
       <c r="D202" t="n">
-        <v>0.955581242556529</v>
+        <v>0.9700369579987868</v>
       </c>
       <c r="E202" t="n">
-        <v>0.00474913453192265</v>
+        <v>0.002878564481097847</v>
       </c>
       <c r="F202" t="n">
-        <v>0.03490464208785098</v>
+        <v>0.0229670056557707</v>
       </c>
       <c r="G202" t="n">
-        <v>0.955581242556529</v>
+        <v>0.9700369579987868</v>
       </c>
       <c r="H202" t="inlineStr">
         <is>
@@ -7519,26 +7519,26 @@
     <row r="203">
       <c r="A203" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT88737.fa</t>
+          <t>even_MAG-GUT88876.fa</t>
         </is>
       </c>
       <c r="B203" t="n">
-        <v>0.003511571898765424</v>
+        <v>0.001231022072074105</v>
       </c>
       <c r="C203" t="n">
-        <v>0.0006058999655792794</v>
+        <v>0.0001528472989840861</v>
       </c>
       <c r="D203" t="n">
-        <v>0.9700369579987868</v>
+        <v>0.9612565659236267</v>
       </c>
       <c r="E203" t="n">
-        <v>0.002878564481097847</v>
+        <v>0.001467429376734743</v>
       </c>
       <c r="F203" t="n">
-        <v>0.0229670056557707</v>
+        <v>0.03589213532858031</v>
       </c>
       <c r="G203" t="n">
-        <v>0.9700369579987868</v>
+        <v>0.9612565659236267</v>
       </c>
       <c r="H203" t="inlineStr">
         <is>
@@ -7554,26 +7554,26 @@
     <row r="204">
       <c r="A204" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT88876.fa</t>
+          <t>even_MAG-GUT89068.fa</t>
         </is>
       </c>
       <c r="B204" t="n">
-        <v>0.001231022072074105</v>
+        <v>0.0006792576770844907</v>
       </c>
       <c r="C204" t="n">
-        <v>0.0001528472989840861</v>
+        <v>1.306906360521474e-05</v>
       </c>
       <c r="D204" t="n">
-        <v>0.9612565659236267</v>
+        <v>0.9700901228499685</v>
       </c>
       <c r="E204" t="n">
-        <v>0.001467429376734743</v>
+        <v>0.001117338585278137</v>
       </c>
       <c r="F204" t="n">
-        <v>0.03589213532858031</v>
+        <v>0.02810021182406354</v>
       </c>
       <c r="G204" t="n">
-        <v>0.9612565659236267</v>
+        <v>0.9700901228499685</v>
       </c>
       <c r="H204" t="inlineStr">
         <is>
@@ -7589,26 +7589,26 @@
     <row r="205">
       <c r="A205" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT89068.fa</t>
+          <t>even_MAG-GUT89179.fa</t>
         </is>
       </c>
       <c r="B205" t="n">
-        <v>0.0006792576770844907</v>
+        <v>0.001477596093691705</v>
       </c>
       <c r="C205" t="n">
-        <v>1.306906360521474e-05</v>
+        <v>4.615331008784953e-05</v>
       </c>
       <c r="D205" t="n">
-        <v>0.9700901228499685</v>
+        <v>0.9404420965166757</v>
       </c>
       <c r="E205" t="n">
-        <v>0.001117338585278137</v>
+        <v>0.001142161777330926</v>
       </c>
       <c r="F205" t="n">
-        <v>0.02810021182406354</v>
+        <v>0.05689199230221382</v>
       </c>
       <c r="G205" t="n">
-        <v>0.9700901228499685</v>
+        <v>0.9404420965166757</v>
       </c>
       <c r="H205" t="inlineStr">
         <is>
@@ -7624,7 +7624,7 @@
     <row r="206">
       <c r="A206" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT89179.fa</t>
+          <t>even_MAG-GUT89204.fa</t>
         </is>
       </c>
       <c r="B206" t="n">
@@ -7659,26 +7659,26 @@
     <row r="207">
       <c r="A207" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT89204.fa</t>
+          <t>even_MAG-GUT89292.fa</t>
         </is>
       </c>
       <c r="B207" t="n">
-        <v>0.001477596093691705</v>
+        <v>0.002006046178240303</v>
       </c>
       <c r="C207" t="n">
-        <v>4.615331008784953e-05</v>
+        <v>6.212724887974237e-05</v>
       </c>
       <c r="D207" t="n">
-        <v>0.9404420965166757</v>
+        <v>0.977982917338281</v>
       </c>
       <c r="E207" t="n">
-        <v>0.001142161777330926</v>
+        <v>0.001330952319858816</v>
       </c>
       <c r="F207" t="n">
-        <v>0.05689199230221382</v>
+        <v>0.01861795691474019</v>
       </c>
       <c r="G207" t="n">
-        <v>0.9404420965166757</v>
+        <v>0.977982917338281</v>
       </c>
       <c r="H207" t="inlineStr">
         <is>
@@ -7694,26 +7694,26 @@
     <row r="208">
       <c r="A208" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT89292.fa</t>
+          <t>even_MAG-GUT89317.fa</t>
         </is>
       </c>
       <c r="B208" t="n">
-        <v>0.002006046178240303</v>
+        <v>0.003094478830518119</v>
       </c>
       <c r="C208" t="n">
-        <v>6.212724887974237e-05</v>
+        <v>0.000162817935640119</v>
       </c>
       <c r="D208" t="n">
-        <v>0.977982917338281</v>
+        <v>0.9717758351949369</v>
       </c>
       <c r="E208" t="n">
-        <v>0.001330952319858816</v>
+        <v>0.001551129596260353</v>
       </c>
       <c r="F208" t="n">
-        <v>0.01861795691474019</v>
+        <v>0.02341573844264463</v>
       </c>
       <c r="G208" t="n">
-        <v>0.977982917338281</v>
+        <v>0.9717758351949369</v>
       </c>
       <c r="H208" t="inlineStr">
         <is>
@@ -7729,26 +7729,26 @@
     <row r="209">
       <c r="A209" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT89317.fa</t>
+          <t>even_MAG-GUT89355.fa</t>
         </is>
       </c>
       <c r="B209" t="n">
-        <v>0.003094478830518119</v>
+        <v>0.002835809839362336</v>
       </c>
       <c r="C209" t="n">
-        <v>0.000162817935640119</v>
+        <v>0.0001191211712498782</v>
       </c>
       <c r="D209" t="n">
-        <v>0.9717758351949369</v>
+        <v>0.9266658680980339</v>
       </c>
       <c r="E209" t="n">
-        <v>0.001551129596260353</v>
+        <v>0.0008170374875774219</v>
       </c>
       <c r="F209" t="n">
-        <v>0.02341573844264463</v>
+        <v>0.06956216340377654</v>
       </c>
       <c r="G209" t="n">
-        <v>0.9717758351949369</v>
+        <v>0.9266658680980339</v>
       </c>
       <c r="H209" t="inlineStr">
         <is>
@@ -7764,26 +7764,26 @@
     <row r="210">
       <c r="A210" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT89355.fa</t>
+          <t>even_MAG-GUT89363.fa</t>
         </is>
       </c>
       <c r="B210" t="n">
-        <v>0.002835809839362336</v>
+        <v>0.001294459898558463</v>
       </c>
       <c r="C210" t="n">
-        <v>0.0001191211712498782</v>
+        <v>0.0001660560222813737</v>
       </c>
       <c r="D210" t="n">
-        <v>0.9266658680980339</v>
+        <v>0.9662635538471043</v>
       </c>
       <c r="E210" t="n">
-        <v>0.0008170374875774219</v>
+        <v>0.001449559538934482</v>
       </c>
       <c r="F210" t="n">
-        <v>0.06956216340377654</v>
+        <v>0.03082637069312154</v>
       </c>
       <c r="G210" t="n">
-        <v>0.9266658680980339</v>
+        <v>0.9662635538471043</v>
       </c>
       <c r="H210" t="inlineStr">
         <is>
@@ -7799,26 +7799,26 @@
     <row r="211">
       <c r="A211" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT89363.fa</t>
+          <t>even_MAG-GUT89413.fa</t>
         </is>
       </c>
       <c r="B211" t="n">
-        <v>0.001294459898558463</v>
+        <v>0.0009157192294042226</v>
       </c>
       <c r="C211" t="n">
-        <v>0.0001660560222813737</v>
+        <v>1.401400311735325e-05</v>
       </c>
       <c r="D211" t="n">
-        <v>0.9662635538471043</v>
+        <v>0.9752604244077607</v>
       </c>
       <c r="E211" t="n">
-        <v>0.001449559538934482</v>
+        <v>0.001207329567941483</v>
       </c>
       <c r="F211" t="n">
-        <v>0.03082637069312154</v>
+        <v>0.02260251279177621</v>
       </c>
       <c r="G211" t="n">
-        <v>0.9662635538471043</v>
+        <v>0.9752604244077607</v>
       </c>
       <c r="H211" t="inlineStr">
         <is>
@@ -7834,26 +7834,26 @@
     <row r="212">
       <c r="A212" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT89413.fa</t>
+          <t>even_MAG-GUT89720.fa</t>
         </is>
       </c>
       <c r="B212" t="n">
-        <v>0.0009157192294042226</v>
+        <v>0.002767522153318908</v>
       </c>
       <c r="C212" t="n">
-        <v>1.401400311735325e-05</v>
+        <v>0.0003687938436000556</v>
       </c>
       <c r="D212" t="n">
-        <v>0.9752604244077607</v>
+        <v>0.9499183765506946</v>
       </c>
       <c r="E212" t="n">
-        <v>0.001207329567941483</v>
+        <v>0.003450160238820838</v>
       </c>
       <c r="F212" t="n">
-        <v>0.02260251279177621</v>
+        <v>0.04349514721356551</v>
       </c>
       <c r="G212" t="n">
-        <v>0.9752604244077607</v>
+        <v>0.9499183765506946</v>
       </c>
       <c r="H212" t="inlineStr">
         <is>
@@ -7869,26 +7869,26 @@
     <row r="213">
       <c r="A213" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT89720.fa</t>
+          <t>even_MAG-GUT89992.fa</t>
         </is>
       </c>
       <c r="B213" t="n">
-        <v>0.002767522153318908</v>
+        <v>0.0006792576770844907</v>
       </c>
       <c r="C213" t="n">
-        <v>0.0003687938436000556</v>
+        <v>1.306906360521474e-05</v>
       </c>
       <c r="D213" t="n">
-        <v>0.9499183765506946</v>
+        <v>0.9700901228499685</v>
       </c>
       <c r="E213" t="n">
-        <v>0.003450160238820838</v>
+        <v>0.001117338585278137</v>
       </c>
       <c r="F213" t="n">
-        <v>0.04349514721356551</v>
+        <v>0.02810021182406354</v>
       </c>
       <c r="G213" t="n">
-        <v>0.9499183765506946</v>
+        <v>0.9700901228499685</v>
       </c>
       <c r="H213" t="inlineStr">
         <is>
@@ -7904,26 +7904,26 @@
     <row r="214">
       <c r="A214" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT89992.fa</t>
+          <t>even_MAG-GUT90064.fa</t>
         </is>
       </c>
       <c r="B214" t="n">
-        <v>0.0006792576770844907</v>
+        <v>0.003063231069988054</v>
       </c>
       <c r="C214" t="n">
-        <v>1.306906360521474e-05</v>
+        <v>0.008029982895872777</v>
       </c>
       <c r="D214" t="n">
-        <v>0.9700901228499685</v>
+        <v>0.8255428265668238</v>
       </c>
       <c r="E214" t="n">
-        <v>0.001117338585278137</v>
+        <v>0.002951520204933363</v>
       </c>
       <c r="F214" t="n">
-        <v>0.02810021182406354</v>
+        <v>0.1604124392623821</v>
       </c>
       <c r="G214" t="n">
-        <v>0.9700901228499685</v>
+        <v>0.8255428265668238</v>
       </c>
       <c r="H214" t="inlineStr">
         <is>
@@ -7939,26 +7939,26 @@
     <row r="215">
       <c r="A215" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT90064.fa</t>
+          <t>even_MAG-GUT90077.fa</t>
         </is>
       </c>
       <c r="B215" t="n">
-        <v>0.003063231069988054</v>
+        <v>0.001231022072074105</v>
       </c>
       <c r="C215" t="n">
-        <v>0.008029982895872777</v>
+        <v>0.0001528472989840861</v>
       </c>
       <c r="D215" t="n">
-        <v>0.8255428265668238</v>
+        <v>0.9612565659236267</v>
       </c>
       <c r="E215" t="n">
-        <v>0.002951520204933363</v>
+        <v>0.001467429376734743</v>
       </c>
       <c r="F215" t="n">
-        <v>0.1604124392623821</v>
+        <v>0.03589213532858031</v>
       </c>
       <c r="G215" t="n">
-        <v>0.8255428265668238</v>
+        <v>0.9612565659236267</v>
       </c>
       <c r="H215" t="inlineStr">
         <is>
@@ -7974,26 +7974,26 @@
     <row r="216">
       <c r="A216" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT90077.fa</t>
+          <t>even_MAG-GUT90107.fa</t>
         </is>
       </c>
       <c r="B216" t="n">
-        <v>0.001231022072074105</v>
+        <v>0.002835809839362336</v>
       </c>
       <c r="C216" t="n">
-        <v>0.0001528472989840861</v>
+        <v>0.0001191211712498782</v>
       </c>
       <c r="D216" t="n">
-        <v>0.9612565659236267</v>
+        <v>0.9266658680980339</v>
       </c>
       <c r="E216" t="n">
-        <v>0.001467429376734743</v>
+        <v>0.0008170374875774219</v>
       </c>
       <c r="F216" t="n">
-        <v>0.03589213532858031</v>
+        <v>0.06956216340377654</v>
       </c>
       <c r="G216" t="n">
-        <v>0.9612565659236267</v>
+        <v>0.9266658680980339</v>
       </c>
       <c r="H216" t="inlineStr">
         <is>
@@ -8009,26 +8009,26 @@
     <row r="217">
       <c r="A217" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT90107.fa</t>
+          <t>even_MAG-GUT90127.fa</t>
         </is>
       </c>
       <c r="B217" t="n">
-        <v>0.002835809839362336</v>
+        <v>0.001418088222756885</v>
       </c>
       <c r="C217" t="n">
-        <v>0.0001191211712498782</v>
+        <v>8.932114352837418e-05</v>
       </c>
       <c r="D217" t="n">
-        <v>0.9266658680980339</v>
+        <v>0.980208190010634</v>
       </c>
       <c r="E217" t="n">
-        <v>0.0008170374875774219</v>
+        <v>0.002593230087084532</v>
       </c>
       <c r="F217" t="n">
-        <v>0.06956216340377654</v>
+        <v>0.01569117053599611</v>
       </c>
       <c r="G217" t="n">
-        <v>0.9266658680980339</v>
+        <v>0.980208190010634</v>
       </c>
       <c r="H217" t="inlineStr">
         <is>
@@ -8044,26 +8044,26 @@
     <row r="218">
       <c r="A218" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT90127.fa</t>
+          <t>even_MAG-GUT90167.fa</t>
         </is>
       </c>
       <c r="B218" t="n">
-        <v>0.001418088222756885</v>
+        <v>0.002835809839362336</v>
       </c>
       <c r="C218" t="n">
-        <v>8.932114352837418e-05</v>
+        <v>0.0001191211712498782</v>
       </c>
       <c r="D218" t="n">
-        <v>0.980208190010634</v>
+        <v>0.9266658680980339</v>
       </c>
       <c r="E218" t="n">
-        <v>0.002593230087084532</v>
+        <v>0.0008170374875774219</v>
       </c>
       <c r="F218" t="n">
-        <v>0.01569117053599611</v>
+        <v>0.06956216340377654</v>
       </c>
       <c r="G218" t="n">
-        <v>0.980208190010634</v>
+        <v>0.9266658680980339</v>
       </c>
       <c r="H218" t="inlineStr">
         <is>
@@ -8079,7 +8079,7 @@
     <row r="219">
       <c r="A219" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT90167.fa</t>
+          <t>even_MAG-GUT90189.fa</t>
         </is>
       </c>
       <c r="B219" t="n">
@@ -8114,26 +8114,26 @@
     <row r="220">
       <c r="A220" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT90189.fa</t>
+          <t>even_MAG-GUT90251.fa</t>
         </is>
       </c>
       <c r="B220" t="n">
-        <v>0.002835809839362336</v>
+        <v>0.001231022072074105</v>
       </c>
       <c r="C220" t="n">
-        <v>0.0001191211712498782</v>
+        <v>0.0001528472989840861</v>
       </c>
       <c r="D220" t="n">
-        <v>0.9266658680980339</v>
+        <v>0.9612565659236267</v>
       </c>
       <c r="E220" t="n">
-        <v>0.0008170374875774219</v>
+        <v>0.001467429376734743</v>
       </c>
       <c r="F220" t="n">
-        <v>0.06956216340377654</v>
+        <v>0.03589213532858031</v>
       </c>
       <c r="G220" t="n">
-        <v>0.9266658680980339</v>
+        <v>0.9612565659236267</v>
       </c>
       <c r="H220" t="inlineStr">
         <is>
@@ -8149,26 +8149,26 @@
     <row r="221">
       <c r="A221" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT90251.fa</t>
+          <t>even_MAG-GUT90266.fa</t>
         </is>
       </c>
       <c r="B221" t="n">
-        <v>0.001231022072074105</v>
+        <v>0.01202360771532265</v>
       </c>
       <c r="C221" t="n">
-        <v>0.0001528472989840861</v>
+        <v>0.05561832040084884</v>
       </c>
       <c r="D221" t="n">
-        <v>0.9612565659236267</v>
+        <v>0.9096748581611716</v>
       </c>
       <c r="E221" t="n">
-        <v>0.001467429376734743</v>
+        <v>0.005167297492030466</v>
       </c>
       <c r="F221" t="n">
-        <v>0.03589213532858031</v>
+        <v>0.01751591623062653</v>
       </c>
       <c r="G221" t="n">
-        <v>0.9612565659236267</v>
+        <v>0.9096748581611716</v>
       </c>
       <c r="H221" t="inlineStr">
         <is>
@@ -8184,26 +8184,26 @@
     <row r="222">
       <c r="A222" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT90266.fa</t>
+          <t>even_MAG-GUT90291.fa</t>
         </is>
       </c>
       <c r="B222" t="n">
-        <v>0.01202360771532265</v>
+        <v>0.003094478830518119</v>
       </c>
       <c r="C222" t="n">
-        <v>0.05561832040084884</v>
+        <v>0.000162817935640119</v>
       </c>
       <c r="D222" t="n">
-        <v>0.9096748581611716</v>
+        <v>0.9717758351949369</v>
       </c>
       <c r="E222" t="n">
-        <v>0.005167297492030466</v>
+        <v>0.001551129596260353</v>
       </c>
       <c r="F222" t="n">
-        <v>0.01751591623062653</v>
+        <v>0.02341573844264463</v>
       </c>
       <c r="G222" t="n">
-        <v>0.9096748581611716</v>
+        <v>0.9717758351949369</v>
       </c>
       <c r="H222" t="inlineStr">
         <is>
@@ -8219,26 +8219,26 @@
     <row r="223">
       <c r="A223" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT90291.fa</t>
+          <t>even_MAG-GUT90368.fa</t>
         </is>
       </c>
       <c r="B223" t="n">
-        <v>0.003094478830518119</v>
+        <v>0.00164345500161009</v>
       </c>
       <c r="C223" t="n">
-        <v>0.000162817935640119</v>
+        <v>0.001067266704597116</v>
       </c>
       <c r="D223" t="n">
-        <v>0.9717758351949369</v>
+        <v>0.951829657597979</v>
       </c>
       <c r="E223" t="n">
-        <v>0.001551129596260353</v>
+        <v>0.004459857295544936</v>
       </c>
       <c r="F223" t="n">
-        <v>0.02341573844264463</v>
+        <v>0.04099976340026893</v>
       </c>
       <c r="G223" t="n">
-        <v>0.9717758351949369</v>
+        <v>0.951829657597979</v>
       </c>
       <c r="H223" t="inlineStr">
         <is>
@@ -8254,26 +8254,26 @@
     <row r="224">
       <c r="A224" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT90368.fa</t>
+          <t>even_MAG-GUT90390.fa</t>
         </is>
       </c>
       <c r="B224" t="n">
-        <v>0.00164345500161009</v>
+        <v>0.0006792576770844907</v>
       </c>
       <c r="C224" t="n">
-        <v>0.001067266704597116</v>
+        <v>1.306906360521474e-05</v>
       </c>
       <c r="D224" t="n">
-        <v>0.951829657597979</v>
+        <v>0.9700901228499685</v>
       </c>
       <c r="E224" t="n">
-        <v>0.004459857295544936</v>
+        <v>0.001117338585278137</v>
       </c>
       <c r="F224" t="n">
-        <v>0.04099976340026893</v>
+        <v>0.02810021182406354</v>
       </c>
       <c r="G224" t="n">
-        <v>0.951829657597979</v>
+        <v>0.9700901228499685</v>
       </c>
       <c r="H224" t="inlineStr">
         <is>
@@ -8289,26 +8289,26 @@
     <row r="225">
       <c r="A225" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT90390.fa</t>
+          <t>even_MAG-GUT90429.fa</t>
         </is>
       </c>
       <c r="B225" t="n">
-        <v>0.0006792576770844907</v>
+        <v>0.007707355881526282</v>
       </c>
       <c r="C225" t="n">
-        <v>1.306906360521474e-05</v>
+        <v>0.05443116188875064</v>
       </c>
       <c r="D225" t="n">
-        <v>0.9700901228499685</v>
+        <v>0.9166952494840259</v>
       </c>
       <c r="E225" t="n">
-        <v>0.001117338585278137</v>
+        <v>0.001156815115556874</v>
       </c>
       <c r="F225" t="n">
-        <v>0.02810021182406354</v>
+        <v>0.02000941763014029</v>
       </c>
       <c r="G225" t="n">
-        <v>0.9700901228499685</v>
+        <v>0.9166952494840259</v>
       </c>
       <c r="H225" t="inlineStr">
         <is>
@@ -8324,26 +8324,26 @@
     <row r="226">
       <c r="A226" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT90429.fa</t>
+          <t>even_MAG-GUT90505.fa</t>
         </is>
       </c>
       <c r="B226" t="n">
-        <v>0.007707355881526282</v>
+        <v>0.001477596093691705</v>
       </c>
       <c r="C226" t="n">
-        <v>0.05443116188875064</v>
+        <v>4.615331008784953e-05</v>
       </c>
       <c r="D226" t="n">
-        <v>0.9166952494840259</v>
+        <v>0.9404420965166757</v>
       </c>
       <c r="E226" t="n">
-        <v>0.001156815115556874</v>
+        <v>0.001142161777330926</v>
       </c>
       <c r="F226" t="n">
-        <v>0.02000941763014029</v>
+        <v>0.05689199230221382</v>
       </c>
       <c r="G226" t="n">
-        <v>0.9166952494840259</v>
+        <v>0.9404420965166757</v>
       </c>
       <c r="H226" t="inlineStr">
         <is>
@@ -8359,26 +8359,26 @@
     <row r="227">
       <c r="A227" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT90505.fa</t>
+          <t>even_MAG-GUT90598.fa</t>
         </is>
       </c>
       <c r="B227" t="n">
-        <v>0.001477596093691705</v>
+        <v>0.001231022072074105</v>
       </c>
       <c r="C227" t="n">
-        <v>4.615331008784953e-05</v>
+        <v>0.0001528472989840861</v>
       </c>
       <c r="D227" t="n">
-        <v>0.9404420965166757</v>
+        <v>0.9612565659236267</v>
       </c>
       <c r="E227" t="n">
-        <v>0.001142161777330926</v>
+        <v>0.001467429376734743</v>
       </c>
       <c r="F227" t="n">
-        <v>0.05689199230221382</v>
+        <v>0.03589213532858031</v>
       </c>
       <c r="G227" t="n">
-        <v>0.9404420965166757</v>
+        <v>0.9612565659236267</v>
       </c>
       <c r="H227" t="inlineStr">
         <is>
@@ -8394,7 +8394,7 @@
     <row r="228">
       <c r="A228" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT90598.fa</t>
+          <t>even_MAG-GUT90630.fa</t>
         </is>
       </c>
       <c r="B228" t="n">
@@ -8429,26 +8429,26 @@
     <row r="229">
       <c r="A229" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT90630.fa</t>
+          <t>even_MAG-GUT90636.fa</t>
         </is>
       </c>
       <c r="B229" t="n">
-        <v>0.001231022072074105</v>
+        <v>0.0005986950032942441</v>
       </c>
       <c r="C229" t="n">
-        <v>0.0001528472989840861</v>
+        <v>2.59134197283382e-05</v>
       </c>
       <c r="D229" t="n">
-        <v>0.9612565659236267</v>
+        <v>0.9620111911232893</v>
       </c>
       <c r="E229" t="n">
-        <v>0.001467429376734743</v>
+        <v>0.0007703004945140167</v>
       </c>
       <c r="F229" t="n">
-        <v>0.03589213532858031</v>
+        <v>0.03659389995917414</v>
       </c>
       <c r="G229" t="n">
-        <v>0.9612565659236267</v>
+        <v>0.9620111911232893</v>
       </c>
       <c r="H229" t="inlineStr">
         <is>
@@ -8464,26 +8464,26 @@
     <row r="230">
       <c r="A230" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT90636.fa</t>
+          <t>even_MAG-GUT90777.fa</t>
         </is>
       </c>
       <c r="B230" t="n">
-        <v>0.0005986950032942441</v>
+        <v>0.001425343081527109</v>
       </c>
       <c r="C230" t="n">
-        <v>2.59134197283382e-05</v>
+        <v>9.024298366409468e-05</v>
       </c>
       <c r="D230" t="n">
-        <v>0.9620111911232893</v>
+        <v>0.9799944437217877</v>
       </c>
       <c r="E230" t="n">
-        <v>0.0007703004945140167</v>
+        <v>0.002668438508842924</v>
       </c>
       <c r="F230" t="n">
-        <v>0.03659389995917414</v>
+        <v>0.01582153170417823</v>
       </c>
       <c r="G230" t="n">
-        <v>0.9620111911232893</v>
+        <v>0.9799944437217877</v>
       </c>
       <c r="H230" t="inlineStr">
         <is>
@@ -8499,26 +8499,26 @@
     <row r="231">
       <c r="A231" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT90777.fa</t>
+          <t>even_MAG-GUT90901.fa</t>
         </is>
       </c>
       <c r="B231" t="n">
-        <v>0.001425343081527109</v>
+        <v>0.003789522844021615</v>
       </c>
       <c r="C231" t="n">
-        <v>9.024298366409468e-05</v>
+        <v>0.0002030860874579185</v>
       </c>
       <c r="D231" t="n">
-        <v>0.9799944437217877</v>
+        <v>0.9593311403415642</v>
       </c>
       <c r="E231" t="n">
-        <v>0.002668438508842924</v>
+        <v>0.005488676074467539</v>
       </c>
       <c r="F231" t="n">
-        <v>0.01582153170417823</v>
+        <v>0.03118757465248876</v>
       </c>
       <c r="G231" t="n">
-        <v>0.9799944437217877</v>
+        <v>0.9593311403415642</v>
       </c>
       <c r="H231" t="inlineStr">
         <is>
@@ -8534,26 +8534,26 @@
     <row r="232">
       <c r="A232" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT90901.fa</t>
+          <t>even_MAG-GUT90946.fa</t>
         </is>
       </c>
       <c r="B232" t="n">
-        <v>0.003789522844021615</v>
+        <v>0.001477596093691705</v>
       </c>
       <c r="C232" t="n">
-        <v>0.0002030860874579185</v>
+        <v>4.615331008784953e-05</v>
       </c>
       <c r="D232" t="n">
-        <v>0.9593311403415642</v>
+        <v>0.9404420965166757</v>
       </c>
       <c r="E232" t="n">
-        <v>0.005488676074467539</v>
+        <v>0.001142161777330926</v>
       </c>
       <c r="F232" t="n">
-        <v>0.03118757465248876</v>
+        <v>0.05689199230221382</v>
       </c>
       <c r="G232" t="n">
-        <v>0.9593311403415642</v>
+        <v>0.9404420965166757</v>
       </c>
       <c r="H232" t="inlineStr">
         <is>
@@ -8569,7 +8569,7 @@
     <row r="233">
       <c r="A233" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT90946.fa</t>
+          <t>even_MAG-GUT90975.fa</t>
         </is>
       </c>
       <c r="B233" t="n">
@@ -8604,26 +8604,26 @@
     <row r="234">
       <c r="A234" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT90975.fa</t>
+          <t>even_MAG-GUT91032.fa</t>
         </is>
       </c>
       <c r="B234" t="n">
-        <v>0.001477596093691705</v>
+        <v>0.0007861758753534894</v>
       </c>
       <c r="C234" t="n">
-        <v>4.615331008784953e-05</v>
+        <v>0.0001912177905079591</v>
       </c>
       <c r="D234" t="n">
-        <v>0.9404420965166757</v>
+        <v>0.9796412502080286</v>
       </c>
       <c r="E234" t="n">
-        <v>0.001142161777330926</v>
+        <v>0.0007454607138607101</v>
       </c>
       <c r="F234" t="n">
-        <v>0.05689199230221382</v>
+        <v>0.01863589541224924</v>
       </c>
       <c r="G234" t="n">
-        <v>0.9404420965166757</v>
+        <v>0.9796412502080286</v>
       </c>
       <c r="H234" t="inlineStr">
         <is>
@@ -8639,26 +8639,26 @@
     <row r="235">
       <c r="A235" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT91032.fa</t>
+          <t>even_MAG-GUT91072.fa</t>
         </is>
       </c>
       <c r="B235" t="n">
-        <v>0.0007861758753534894</v>
+        <v>0.0009157192294042226</v>
       </c>
       <c r="C235" t="n">
-        <v>0.0001912177905079591</v>
+        <v>1.401400311735325e-05</v>
       </c>
       <c r="D235" t="n">
-        <v>0.9796412502080286</v>
+        <v>0.9752604244077607</v>
       </c>
       <c r="E235" t="n">
-        <v>0.0007454607138607101</v>
+        <v>0.001207329567941483</v>
       </c>
       <c r="F235" t="n">
-        <v>0.01863589541224924</v>
+        <v>0.02260251279177621</v>
       </c>
       <c r="G235" t="n">
-        <v>0.9796412502080286</v>
+        <v>0.9752604244077607</v>
       </c>
       <c r="H235" t="inlineStr">
         <is>
@@ -8674,26 +8674,26 @@
     <row r="236">
       <c r="A236" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT91072.fa</t>
+          <t>even_MAG-GUT91119.fa</t>
         </is>
       </c>
       <c r="B236" t="n">
-        <v>0.0009157192294042226</v>
+        <v>0.001477596093691705</v>
       </c>
       <c r="C236" t="n">
-        <v>1.401400311735325e-05</v>
+        <v>4.615331008784953e-05</v>
       </c>
       <c r="D236" t="n">
-        <v>0.9752604244077607</v>
+        <v>0.9404420965166757</v>
       </c>
       <c r="E236" t="n">
-        <v>0.001207329567941483</v>
+        <v>0.001142161777330926</v>
       </c>
       <c r="F236" t="n">
-        <v>0.02260251279177621</v>
+        <v>0.05689199230221382</v>
       </c>
       <c r="G236" t="n">
-        <v>0.9752604244077607</v>
+        <v>0.9404420965166757</v>
       </c>
       <c r="H236" t="inlineStr">
         <is>
@@ -8709,26 +8709,26 @@
     <row r="237">
       <c r="A237" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT91119.fa</t>
+          <t>even_MAG-GUT91131.fa</t>
         </is>
       </c>
       <c r="B237" t="n">
-        <v>0.001477596093691705</v>
+        <v>0.0006792576770844907</v>
       </c>
       <c r="C237" t="n">
-        <v>4.615331008784953e-05</v>
+        <v>1.306906360521474e-05</v>
       </c>
       <c r="D237" t="n">
-        <v>0.9404420965166757</v>
+        <v>0.9700901228499685</v>
       </c>
       <c r="E237" t="n">
-        <v>0.001142161777330926</v>
+        <v>0.001117338585278137</v>
       </c>
       <c r="F237" t="n">
-        <v>0.05689199230221382</v>
+        <v>0.02810021182406354</v>
       </c>
       <c r="G237" t="n">
-        <v>0.9404420965166757</v>
+        <v>0.9700901228499685</v>
       </c>
       <c r="H237" t="inlineStr">
         <is>
@@ -8744,26 +8744,26 @@
     <row r="238">
       <c r="A238" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT91131.fa</t>
+          <t>even_MAG-GUT91135.fa</t>
         </is>
       </c>
       <c r="B238" t="n">
-        <v>0.0006792576770844907</v>
+        <v>0.001477596093691705</v>
       </c>
       <c r="C238" t="n">
-        <v>1.306906360521474e-05</v>
+        <v>4.615331008784953e-05</v>
       </c>
       <c r="D238" t="n">
-        <v>0.9700901228499685</v>
+        <v>0.9404420965166757</v>
       </c>
       <c r="E238" t="n">
-        <v>0.001117338585278137</v>
+        <v>0.001142161777330926</v>
       </c>
       <c r="F238" t="n">
-        <v>0.02810021182406354</v>
+        <v>0.05689199230221382</v>
       </c>
       <c r="G238" t="n">
-        <v>0.9700901228499685</v>
+        <v>0.9404420965166757</v>
       </c>
       <c r="H238" t="inlineStr">
         <is>
@@ -8779,61 +8779,61 @@
     <row r="239">
       <c r="A239" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT91135.fa</t>
+          <t>even_MAG-GUT91192.fa</t>
         </is>
       </c>
       <c r="B239" t="n">
-        <v>0.001477596093691705</v>
+        <v>0.3405396871716766</v>
       </c>
       <c r="C239" t="n">
-        <v>4.615331008784953e-05</v>
+        <v>0.282738633748307</v>
       </c>
       <c r="D239" t="n">
-        <v>0.9404420965166757</v>
+        <v>0.1065454464565967</v>
       </c>
       <c r="E239" t="n">
-        <v>0.001142161777330926</v>
+        <v>0.02557088773982102</v>
       </c>
       <c r="F239" t="n">
-        <v>0.05689199230221382</v>
+        <v>0.2446053448835987</v>
       </c>
       <c r="G239" t="n">
-        <v>0.9404420965166757</v>
+        <v>0.3405396871716766</v>
       </c>
       <c r="H239" t="inlineStr">
         <is>
-          <t>g__Enterococcus_B</t>
+          <t>g__Enterococcus</t>
         </is>
       </c>
       <c r="I239" t="inlineStr">
         <is>
-          <t>g__Enterococcus_B</t>
+          <t>g__Enterococcus(reject)</t>
         </is>
       </c>
     </row>
     <row r="240">
       <c r="A240" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT91192.fa</t>
+          <t>even_MAG-GUT91196.fa</t>
         </is>
       </c>
       <c r="B240" t="n">
-        <v>0.3405396871716766</v>
+        <v>0.3557676023566622</v>
       </c>
       <c r="C240" t="n">
-        <v>0.282738633748307</v>
+        <v>0.2610233760660602</v>
       </c>
       <c r="D240" t="n">
-        <v>0.1065454464565967</v>
+        <v>0.1472489014035283</v>
       </c>
       <c r="E240" t="n">
-        <v>0.02557088773982102</v>
+        <v>0.05144402452955804</v>
       </c>
       <c r="F240" t="n">
-        <v>0.2446053448835987</v>
+        <v>0.1845160956441915</v>
       </c>
       <c r="G240" t="n">
-        <v>0.3405396871716766</v>
+        <v>0.3557676023566622</v>
       </c>
       <c r="H240" t="inlineStr">
         <is>
@@ -8849,96 +8849,96 @@
     <row r="241">
       <c r="A241" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT91196.fa</t>
+          <t>even_MAG-GUT91251.fa</t>
         </is>
       </c>
       <c r="B241" t="n">
-        <v>0.3557676023566622</v>
+        <v>0.2544635606208671</v>
       </c>
       <c r="C241" t="n">
-        <v>0.2610233760660602</v>
+        <v>0.03350112057215261</v>
       </c>
       <c r="D241" t="n">
-        <v>0.1472489014035283</v>
+        <v>0.3226901447305785</v>
       </c>
       <c r="E241" t="n">
-        <v>0.05144402452955804</v>
+        <v>0.1728538374176815</v>
       </c>
       <c r="F241" t="n">
-        <v>0.1845160956441915</v>
+        <v>0.2164913366587203</v>
       </c>
       <c r="G241" t="n">
-        <v>0.3557676023566622</v>
+        <v>0.3226901447305785</v>
       </c>
       <c r="H241" t="inlineStr">
         <is>
-          <t>g__Enterococcus</t>
+          <t>g__Enterococcus_B</t>
         </is>
       </c>
       <c r="I241" t="inlineStr">
         <is>
-          <t>g__Enterococcus(reject)</t>
+          <t>g__Enterococcus_B(reject)</t>
         </is>
       </c>
     </row>
     <row r="242">
       <c r="A242" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT91251.fa</t>
+          <t>even_MAG-GUT91262.fa</t>
         </is>
       </c>
       <c r="B242" t="n">
-        <v>0.2544635606208671</v>
+        <v>0.345498365272443</v>
       </c>
       <c r="C242" t="n">
-        <v>0.03350112057215261</v>
+        <v>0.2904994115436917</v>
       </c>
       <c r="D242" t="n">
-        <v>0.3226901447305785</v>
+        <v>0.1984342447230259</v>
       </c>
       <c r="E242" t="n">
-        <v>0.1728538374176815</v>
+        <v>0.03308288745564777</v>
       </c>
       <c r="F242" t="n">
-        <v>0.2164913366587203</v>
+        <v>0.1324850910051915</v>
       </c>
       <c r="G242" t="n">
-        <v>0.3226901447305785</v>
+        <v>0.345498365272443</v>
       </c>
       <c r="H242" t="inlineStr">
         <is>
-          <t>g__Enterococcus_B</t>
+          <t>g__Enterococcus</t>
         </is>
       </c>
       <c r="I242" t="inlineStr">
         <is>
-          <t>g__Enterococcus_B(reject)</t>
+          <t>g__Enterococcus(reject)</t>
         </is>
       </c>
     </row>
     <row r="243">
       <c r="A243" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT91262.fa</t>
+          <t>even_MAG-GUT91264.fa</t>
         </is>
       </c>
       <c r="B243" t="n">
-        <v>0.345498365272443</v>
+        <v>0.3248018121761274</v>
       </c>
       <c r="C243" t="n">
-        <v>0.2904994115436917</v>
+        <v>0.1063398274444728</v>
       </c>
       <c r="D243" t="n">
-        <v>0.1984342447230259</v>
+        <v>0.2972208223706859</v>
       </c>
       <c r="E243" t="n">
-        <v>0.03308288745564777</v>
+        <v>0.06093777675237882</v>
       </c>
       <c r="F243" t="n">
-        <v>0.1324850910051915</v>
+        <v>0.2106997612563351</v>
       </c>
       <c r="G243" t="n">
-        <v>0.345498365272443</v>
+        <v>0.3248018121761274</v>
       </c>
       <c r="H243" t="inlineStr">
         <is>
@@ -8954,26 +8954,26 @@
     <row r="244">
       <c r="A244" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT91264.fa</t>
+          <t>even_MAG-GUT91267.fa</t>
         </is>
       </c>
       <c r="B244" t="n">
-        <v>0.3248018121761274</v>
+        <v>0.345498365272443</v>
       </c>
       <c r="C244" t="n">
-        <v>0.1063398274444728</v>
+        <v>0.2904994115436917</v>
       </c>
       <c r="D244" t="n">
-        <v>0.2972208223706859</v>
+        <v>0.1984342447230259</v>
       </c>
       <c r="E244" t="n">
-        <v>0.06093777675237882</v>
+        <v>0.03308288745564777</v>
       </c>
       <c r="F244" t="n">
-        <v>0.2106997612563351</v>
+        <v>0.1324850910051915</v>
       </c>
       <c r="G244" t="n">
-        <v>0.3248018121761274</v>
+        <v>0.345498365272443</v>
       </c>
       <c r="H244" t="inlineStr">
         <is>
@@ -8989,26 +8989,26 @@
     <row r="245">
       <c r="A245" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT91267.fa</t>
+          <t>even_MAG-GUT91272.fa</t>
         </is>
       </c>
       <c r="B245" t="n">
-        <v>0.345498365272443</v>
+        <v>0.3274541417009296</v>
       </c>
       <c r="C245" t="n">
-        <v>0.2904994115436917</v>
+        <v>0.09187180769424272</v>
       </c>
       <c r="D245" t="n">
-        <v>0.1984342447230259</v>
+        <v>0.2387246330114336</v>
       </c>
       <c r="E245" t="n">
-        <v>0.03308288745564777</v>
+        <v>0.1527795089500817</v>
       </c>
       <c r="F245" t="n">
-        <v>0.1324850910051915</v>
+        <v>0.1891699086433123</v>
       </c>
       <c r="G245" t="n">
-        <v>0.345498365272443</v>
+        <v>0.3274541417009296</v>
       </c>
       <c r="H245" t="inlineStr">
         <is>
@@ -9024,26 +9024,26 @@
     <row r="246">
       <c r="A246" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT91272.fa</t>
+          <t>even_MAG-GUT91297.fa</t>
         </is>
       </c>
       <c r="B246" t="n">
-        <v>0.3274541417009296</v>
+        <v>0.3462857088843014</v>
       </c>
       <c r="C246" t="n">
-        <v>0.09187180769424272</v>
+        <v>0.2999849770182924</v>
       </c>
       <c r="D246" t="n">
-        <v>0.2387246330114336</v>
+        <v>0.1000895100732207</v>
       </c>
       <c r="E246" t="n">
-        <v>0.1527795089500817</v>
+        <v>0.06233683397937714</v>
       </c>
       <c r="F246" t="n">
-        <v>0.1891699086433123</v>
+        <v>0.1913029700448082</v>
       </c>
       <c r="G246" t="n">
-        <v>0.3274541417009296</v>
+        <v>0.3462857088843014</v>
       </c>
       <c r="H246" t="inlineStr">
         <is>
@@ -9059,96 +9059,96 @@
     <row r="247">
       <c r="A247" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT91297.fa</t>
+          <t>even_MAG-GUT91303.fa</t>
         </is>
       </c>
       <c r="B247" t="n">
-        <v>0.3462857088843014</v>
+        <v>0.2805152062979628</v>
       </c>
       <c r="C247" t="n">
-        <v>0.2999849770182924</v>
+        <v>0.5104258620985468</v>
       </c>
       <c r="D247" t="n">
-        <v>0.1000895100732207</v>
+        <v>0.05934599813038414</v>
       </c>
       <c r="E247" t="n">
-        <v>0.06233683397937714</v>
+        <v>0.05280324740878611</v>
       </c>
       <c r="F247" t="n">
-        <v>0.1913029700448082</v>
+        <v>0.09690968606432017</v>
       </c>
       <c r="G247" t="n">
-        <v>0.3462857088843014</v>
+        <v>0.5104258620985468</v>
       </c>
       <c r="H247" t="inlineStr">
         <is>
-          <t>g__Enterococcus</t>
+          <t>g__Enterococcus_A</t>
         </is>
       </c>
       <c r="I247" t="inlineStr">
         <is>
-          <t>g__Enterococcus(reject)</t>
+          <t>g__Enterococcus_A(reject)</t>
         </is>
       </c>
     </row>
     <row r="248">
       <c r="A248" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT91303.fa</t>
+          <t>even_MAG-GUT91320.fa</t>
         </is>
       </c>
       <c r="B248" t="n">
-        <v>0.2805152062979628</v>
+        <v>0.3538661150600053</v>
       </c>
       <c r="C248" t="n">
-        <v>0.5104258620985468</v>
+        <v>0.1963570358535988</v>
       </c>
       <c r="D248" t="n">
-        <v>0.05934599813038414</v>
+        <v>0.2120669983725314</v>
       </c>
       <c r="E248" t="n">
-        <v>0.05280324740878611</v>
+        <v>0.06059128340145224</v>
       </c>
       <c r="F248" t="n">
-        <v>0.09690968606432017</v>
+        <v>0.1771185673124123</v>
       </c>
       <c r="G248" t="n">
-        <v>0.5104258620985468</v>
+        <v>0.3538661150600053</v>
       </c>
       <c r="H248" t="inlineStr">
         <is>
-          <t>g__Enterococcus_A</t>
+          <t>g__Enterococcus</t>
         </is>
       </c>
       <c r="I248" t="inlineStr">
         <is>
-          <t>g__Enterococcus_A(reject)</t>
+          <t>g__Enterococcus(reject)</t>
         </is>
       </c>
     </row>
     <row r="249">
       <c r="A249" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT91320.fa</t>
+          <t>even_MAG-GUT91330.fa</t>
         </is>
       </c>
       <c r="B249" t="n">
-        <v>0.3538661150600053</v>
+        <v>0.3270757449398889</v>
       </c>
       <c r="C249" t="n">
-        <v>0.1963570358535988</v>
+        <v>0.08994001506699296</v>
       </c>
       <c r="D249" t="n">
-        <v>0.2120669983725314</v>
+        <v>0.2312541937744305</v>
       </c>
       <c r="E249" t="n">
-        <v>0.06059128340145224</v>
+        <v>0.1627649714315229</v>
       </c>
       <c r="F249" t="n">
-        <v>0.1771185673124123</v>
+        <v>0.1889650747871648</v>
       </c>
       <c r="G249" t="n">
-        <v>0.3538661150600053</v>
+        <v>0.3270757449398889</v>
       </c>
       <c r="H249" t="inlineStr">
         <is>
@@ -9164,26 +9164,26 @@
     <row r="250">
       <c r="A250" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT91330.fa</t>
+          <t>even_MAG-GUT91385.fa</t>
         </is>
       </c>
       <c r="B250" t="n">
-        <v>0.3270757449398889</v>
+        <v>0.3280823857943934</v>
       </c>
       <c r="C250" t="n">
-        <v>0.08994001506699296</v>
+        <v>0.2587679755021149</v>
       </c>
       <c r="D250" t="n">
-        <v>0.2312541937744305</v>
+        <v>0.186961871657374</v>
       </c>
       <c r="E250" t="n">
-        <v>0.1627649714315229</v>
+        <v>0.05187923267414186</v>
       </c>
       <c r="F250" t="n">
-        <v>0.1889650747871648</v>
+        <v>0.1743085343719758</v>
       </c>
       <c r="G250" t="n">
-        <v>0.3270757449398889</v>
+        <v>0.3280823857943934</v>
       </c>
       <c r="H250" t="inlineStr">
         <is>
@@ -9199,26 +9199,26 @@
     <row r="251">
       <c r="A251" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT91385.fa</t>
+          <t>even_MAG-GUT91468.fa</t>
         </is>
       </c>
       <c r="B251" t="n">
-        <v>0.3280823857943934</v>
+        <v>0.3627084873243941</v>
       </c>
       <c r="C251" t="n">
-        <v>0.2587679755021149</v>
+        <v>0.1480996670426859</v>
       </c>
       <c r="D251" t="n">
-        <v>0.186961871657374</v>
+        <v>0.1837436126525459</v>
       </c>
       <c r="E251" t="n">
-        <v>0.05187923267414186</v>
+        <v>0.08074451177623504</v>
       </c>
       <c r="F251" t="n">
-        <v>0.1743085343719758</v>
+        <v>0.2247037212041391</v>
       </c>
       <c r="G251" t="n">
-        <v>0.3280823857943934</v>
+        <v>0.3627084873243941</v>
       </c>
       <c r="H251" t="inlineStr">
         <is>
@@ -9234,96 +9234,96 @@
     <row r="252">
       <c r="A252" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT91468.fa</t>
+          <t>even_MAG-GUT91470.fa</t>
         </is>
       </c>
       <c r="B252" t="n">
-        <v>0.3627084873243941</v>
+        <v>0.2995667531005538</v>
       </c>
       <c r="C252" t="n">
-        <v>0.1480996670426859</v>
+        <v>0.4075214837309008</v>
       </c>
       <c r="D252" t="n">
-        <v>0.1837436126525459</v>
+        <v>0.1072409954518502</v>
       </c>
       <c r="E252" t="n">
-        <v>0.08074451177623504</v>
+        <v>0.0389967672690017</v>
       </c>
       <c r="F252" t="n">
-        <v>0.2247037212041391</v>
+        <v>0.1466740004476934</v>
       </c>
       <c r="G252" t="n">
-        <v>0.3627084873243941</v>
+        <v>0.4075214837309008</v>
       </c>
       <c r="H252" t="inlineStr">
         <is>
-          <t>g__Enterococcus</t>
+          <t>g__Enterococcus_A</t>
         </is>
       </c>
       <c r="I252" t="inlineStr">
         <is>
-          <t>g__Enterococcus(reject)</t>
+          <t>g__Enterococcus_A(reject)</t>
         </is>
       </c>
     </row>
     <row r="253">
       <c r="A253" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT91470.fa</t>
+          <t>even_MAG-GUT91486.fa</t>
         </is>
       </c>
       <c r="B253" t="n">
-        <v>0.2995667531005538</v>
+        <v>0.3627084873243941</v>
       </c>
       <c r="C253" t="n">
-        <v>0.4075214837309008</v>
+        <v>0.1480996670426859</v>
       </c>
       <c r="D253" t="n">
-        <v>0.1072409954518502</v>
+        <v>0.1837436126525459</v>
       </c>
       <c r="E253" t="n">
-        <v>0.0389967672690017</v>
+        <v>0.08074451177623504</v>
       </c>
       <c r="F253" t="n">
-        <v>0.1466740004476934</v>
+        <v>0.2247037212041391</v>
       </c>
       <c r="G253" t="n">
-        <v>0.4075214837309008</v>
+        <v>0.3627084873243941</v>
       </c>
       <c r="H253" t="inlineStr">
         <is>
-          <t>g__Enterococcus_A</t>
+          <t>g__Enterococcus</t>
         </is>
       </c>
       <c r="I253" t="inlineStr">
         <is>
-          <t>g__Enterococcus_A(reject)</t>
+          <t>g__Enterococcus(reject)</t>
         </is>
       </c>
     </row>
     <row r="254">
       <c r="A254" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT91486.fa</t>
+          <t>even_MAG-GUT91490.fa</t>
         </is>
       </c>
       <c r="B254" t="n">
-        <v>0.3627084873243941</v>
+        <v>0.3628333072073044</v>
       </c>
       <c r="C254" t="n">
-        <v>0.1480996670426859</v>
+        <v>0.1486153047845539</v>
       </c>
       <c r="D254" t="n">
-        <v>0.1837436126525459</v>
+        <v>0.1831519313796405</v>
       </c>
       <c r="E254" t="n">
-        <v>0.08074451177623504</v>
+        <v>0.08083472047695973</v>
       </c>
       <c r="F254" t="n">
-        <v>0.2247037212041391</v>
+        <v>0.2245647361515414</v>
       </c>
       <c r="G254" t="n">
-        <v>0.3627084873243941</v>
+        <v>0.3628333072073044</v>
       </c>
       <c r="H254" t="inlineStr">
         <is>
@@ -9339,26 +9339,26 @@
     <row r="255">
       <c r="A255" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT91490.fa</t>
+          <t>even_MAG-GUT91491.fa</t>
         </is>
       </c>
       <c r="B255" t="n">
-        <v>0.3628333072073044</v>
+        <v>0.3360687768472373</v>
       </c>
       <c r="C255" t="n">
-        <v>0.1486153047845539</v>
+        <v>0.1704687415550123</v>
       </c>
       <c r="D255" t="n">
-        <v>0.1831519313796405</v>
+        <v>0.1374233822368498</v>
       </c>
       <c r="E255" t="n">
-        <v>0.08083472047695973</v>
+        <v>0.09069805047286619</v>
       </c>
       <c r="F255" t="n">
-        <v>0.2245647361515414</v>
+        <v>0.2653410488880343</v>
       </c>
       <c r="G255" t="n">
-        <v>0.3628333072073044</v>
+        <v>0.3360687768472373</v>
       </c>
       <c r="H255" t="inlineStr">
         <is>
@@ -9374,26 +9374,26 @@
     <row r="256">
       <c r="A256" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT91491.fa</t>
+          <t>even_MAG-GUT91492.fa</t>
         </is>
       </c>
       <c r="B256" t="n">
-        <v>0.3360687768472373</v>
+        <v>0.3400659939171921</v>
       </c>
       <c r="C256" t="n">
-        <v>0.1704687415550123</v>
+        <v>0.2977550027070275</v>
       </c>
       <c r="D256" t="n">
-        <v>0.1374233822368498</v>
+        <v>0.1677443234918623</v>
       </c>
       <c r="E256" t="n">
-        <v>0.09069805047286619</v>
+        <v>0.01825321752892045</v>
       </c>
       <c r="F256" t="n">
-        <v>0.2653410488880343</v>
+        <v>0.1761814623549977</v>
       </c>
       <c r="G256" t="n">
-        <v>0.3360687768472373</v>
+        <v>0.3400659939171921</v>
       </c>
       <c r="H256" t="inlineStr">
         <is>
@@ -9409,26 +9409,26 @@
     <row r="257">
       <c r="A257" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT91492.fa</t>
+          <t>even_MAG-GUT91496.fa</t>
         </is>
       </c>
       <c r="B257" t="n">
-        <v>0.3400659939171921</v>
+        <v>0.336766784171901</v>
       </c>
       <c r="C257" t="n">
-        <v>0.2977550027070275</v>
+        <v>0.1846678580586522</v>
       </c>
       <c r="D257" t="n">
-        <v>0.1677443234918623</v>
+        <v>0.1408669537626592</v>
       </c>
       <c r="E257" t="n">
-        <v>0.01825321752892045</v>
+        <v>0.08034366462470238</v>
       </c>
       <c r="F257" t="n">
-        <v>0.1761814623549977</v>
+        <v>0.2573547393820853</v>
       </c>
       <c r="G257" t="n">
-        <v>0.3400659939171921</v>
+        <v>0.336766784171901</v>
       </c>
       <c r="H257" t="inlineStr">
         <is>
@@ -9444,26 +9444,26 @@
     <row r="258">
       <c r="A258" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT91496.fa</t>
+          <t>even_MAG-GUT91520.fa</t>
         </is>
       </c>
       <c r="B258" t="n">
-        <v>0.336766784171901</v>
+        <v>0.335602067064862</v>
       </c>
       <c r="C258" t="n">
-        <v>0.1846678580586522</v>
+        <v>0.2836357410270023</v>
       </c>
       <c r="D258" t="n">
-        <v>0.1408669537626592</v>
+        <v>0.1681565458983281</v>
       </c>
       <c r="E258" t="n">
-        <v>0.08034366462470238</v>
+        <v>0.02509306323616994</v>
       </c>
       <c r="F258" t="n">
-        <v>0.2573547393820853</v>
+        <v>0.1875125827736377</v>
       </c>
       <c r="G258" t="n">
-        <v>0.336766784171901</v>
+        <v>0.335602067064862</v>
       </c>
       <c r="H258" t="inlineStr">
         <is>
@@ -9479,26 +9479,26 @@
     <row r="259">
       <c r="A259" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT91520.fa</t>
+          <t>even_MAG-GUT91536.fa</t>
         </is>
       </c>
       <c r="B259" t="n">
-        <v>0.335602067064862</v>
+        <v>0.3599065985805239</v>
       </c>
       <c r="C259" t="n">
-        <v>0.2836357410270023</v>
+        <v>0.2120494709292454</v>
       </c>
       <c r="D259" t="n">
-        <v>0.1681565458983281</v>
+        <v>0.2065840279037806</v>
       </c>
       <c r="E259" t="n">
-        <v>0.02509306323616994</v>
+        <v>0.05052865270184096</v>
       </c>
       <c r="F259" t="n">
-        <v>0.1875125827736377</v>
+        <v>0.1709312498846093</v>
       </c>
       <c r="G259" t="n">
-        <v>0.335602067064862</v>
+        <v>0.3599065985805239</v>
       </c>
       <c r="H259" t="inlineStr">
         <is>
@@ -9514,26 +9514,26 @@
     <row r="260">
       <c r="A260" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT91536.fa</t>
+          <t>even_MAG-GUT91546.fa</t>
         </is>
       </c>
       <c r="B260" t="n">
-        <v>0.3599065985805239</v>
+        <v>0.341924400014099</v>
       </c>
       <c r="C260" t="n">
-        <v>0.2120494709292454</v>
+        <v>0.310293787203885</v>
       </c>
       <c r="D260" t="n">
-        <v>0.2065840279037806</v>
+        <v>0.1314721304199599</v>
       </c>
       <c r="E260" t="n">
-        <v>0.05052865270184096</v>
+        <v>0.06403957641796598</v>
       </c>
       <c r="F260" t="n">
-        <v>0.1709312498846093</v>
+        <v>0.1522701059440901</v>
       </c>
       <c r="G260" t="n">
-        <v>0.3599065985805239</v>
+        <v>0.341924400014099</v>
       </c>
       <c r="H260" t="inlineStr">
         <is>
@@ -9549,26 +9549,26 @@
     <row r="261">
       <c r="A261" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT91546.fa</t>
+          <t>even_MAG-GUT91568.fa</t>
         </is>
       </c>
       <c r="B261" t="n">
-        <v>0.341924400014099</v>
+        <v>0.3281850461513032</v>
       </c>
       <c r="C261" t="n">
-        <v>0.310293787203885</v>
+        <v>0.2336105466783659</v>
       </c>
       <c r="D261" t="n">
-        <v>0.1314721304199599</v>
+        <v>0.1365816052370878</v>
       </c>
       <c r="E261" t="n">
-        <v>0.06403957641796598</v>
+        <v>0.07159362195730602</v>
       </c>
       <c r="F261" t="n">
-        <v>0.1522701059440901</v>
+        <v>0.2300291799759371</v>
       </c>
       <c r="G261" t="n">
-        <v>0.341924400014099</v>
+        <v>0.3281850461513032</v>
       </c>
       <c r="H261" t="inlineStr">
         <is>
@@ -9584,26 +9584,26 @@
     <row r="262">
       <c r="A262" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT91568.fa</t>
+          <t>even_MAG-GUT91712.fa</t>
         </is>
       </c>
       <c r="B262" t="n">
-        <v>0.3281850461513032</v>
+        <v>0.328459507041836</v>
       </c>
       <c r="C262" t="n">
-        <v>0.2336105466783659</v>
+        <v>0.1007202495648915</v>
       </c>
       <c r="D262" t="n">
-        <v>0.1365816052370878</v>
+        <v>0.2958200695165604</v>
       </c>
       <c r="E262" t="n">
-        <v>0.07159362195730602</v>
+        <v>0.09308395170292511</v>
       </c>
       <c r="F262" t="n">
-        <v>0.2300291799759371</v>
+        <v>0.1819162221737871</v>
       </c>
       <c r="G262" t="n">
-        <v>0.3281850461513032</v>
+        <v>0.328459507041836</v>
       </c>
       <c r="H262" t="inlineStr">
         <is>
@@ -9619,26 +9619,26 @@
     <row r="263">
       <c r="A263" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT91712.fa</t>
+          <t>even_MAG-GUT91717.fa</t>
         </is>
       </c>
       <c r="B263" t="n">
-        <v>0.328459507041836</v>
+        <v>0.3369061831326963</v>
       </c>
       <c r="C263" t="n">
-        <v>0.1007202495648915</v>
+        <v>0.219559537750966</v>
       </c>
       <c r="D263" t="n">
-        <v>0.2958200695165604</v>
+        <v>0.2159649497371735</v>
       </c>
       <c r="E263" t="n">
-        <v>0.09308395170292511</v>
+        <v>0.01991843187880534</v>
       </c>
       <c r="F263" t="n">
-        <v>0.1819162221737871</v>
+        <v>0.2076508975003589</v>
       </c>
       <c r="G263" t="n">
-        <v>0.328459507041836</v>
+        <v>0.3369061831326963</v>
       </c>
       <c r="H263" t="inlineStr">
         <is>
@@ -9654,61 +9654,61 @@
     <row r="264">
       <c r="A264" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT91717.fa</t>
+          <t>even_MAG-GUT91736.fa</t>
         </is>
       </c>
       <c r="B264" t="n">
-        <v>0.3369061831326963</v>
+        <v>0.2961648829094539</v>
       </c>
       <c r="C264" t="n">
-        <v>0.219559537750966</v>
+        <v>0.03611243527510283</v>
       </c>
       <c r="D264" t="n">
-        <v>0.2159649497371735</v>
+        <v>0.322058741123924</v>
       </c>
       <c r="E264" t="n">
-        <v>0.01991843187880534</v>
+        <v>0.1572240007616577</v>
       </c>
       <c r="F264" t="n">
-        <v>0.2076508975003589</v>
+        <v>0.1884399399298615</v>
       </c>
       <c r="G264" t="n">
-        <v>0.3369061831326963</v>
+        <v>0.322058741123924</v>
       </c>
       <c r="H264" t="inlineStr">
         <is>
-          <t>g__Enterococcus</t>
+          <t>g__Enterococcus_B</t>
         </is>
       </c>
       <c r="I264" t="inlineStr">
         <is>
-          <t>g__Enterococcus(reject)</t>
+          <t>g__Enterococcus_B(reject)</t>
         </is>
       </c>
     </row>
     <row r="265">
       <c r="A265" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT91736.fa</t>
+          <t>even_MAG-GUT91762.fa</t>
         </is>
       </c>
       <c r="B265" t="n">
-        <v>0.2961648829094539</v>
+        <v>0.3143654173089766</v>
       </c>
       <c r="C265" t="n">
-        <v>0.03611243527510283</v>
+        <v>0.1059208889176902</v>
       </c>
       <c r="D265" t="n">
-        <v>0.322058741123924</v>
+        <v>0.3307805703023468</v>
       </c>
       <c r="E265" t="n">
-        <v>0.1572240007616577</v>
+        <v>0.08066894446621767</v>
       </c>
       <c r="F265" t="n">
-        <v>0.1884399399298615</v>
+        <v>0.1682641790047687</v>
       </c>
       <c r="G265" t="n">
-        <v>0.322058741123924</v>
+        <v>0.3307805703023468</v>
       </c>
       <c r="H265" t="inlineStr">
         <is>
@@ -9724,61 +9724,61 @@
     <row r="266">
       <c r="A266" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT91762.fa</t>
+          <t>even_MAG-GUT91779.fa</t>
         </is>
       </c>
       <c r="B266" t="n">
-        <v>0.3143654173089766</v>
+        <v>0.3007490386394523</v>
       </c>
       <c r="C266" t="n">
-        <v>0.1059208889176902</v>
+        <v>0.2820559820317269</v>
       </c>
       <c r="D266" t="n">
-        <v>0.3307805703023468</v>
+        <v>0.2504642770956883</v>
       </c>
       <c r="E266" t="n">
-        <v>0.08066894446621767</v>
+        <v>0.06737565508069446</v>
       </c>
       <c r="F266" t="n">
-        <v>0.1682641790047687</v>
+        <v>0.09935504715243822</v>
       </c>
       <c r="G266" t="n">
-        <v>0.3307805703023468</v>
+        <v>0.3007490386394523</v>
       </c>
       <c r="H266" t="inlineStr">
         <is>
-          <t>g__Enterococcus_B</t>
+          <t>g__Enterococcus</t>
         </is>
       </c>
       <c r="I266" t="inlineStr">
         <is>
-          <t>g__Enterococcus_B(reject)</t>
+          <t>g__Enterococcus(reject)</t>
         </is>
       </c>
     </row>
     <row r="267">
       <c r="A267" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT91779.fa</t>
+          <t>even_MAG-GUT91815.fa</t>
         </is>
       </c>
       <c r="B267" t="n">
-        <v>0.3007490386394523</v>
+        <v>0.3243167106283766</v>
       </c>
       <c r="C267" t="n">
-        <v>0.2820559820317269</v>
+        <v>0.1751290988415199</v>
       </c>
       <c r="D267" t="n">
-        <v>0.2504642770956883</v>
+        <v>0.1799138924003484</v>
       </c>
       <c r="E267" t="n">
-        <v>0.06737565508069446</v>
+        <v>0.1530226152351514</v>
       </c>
       <c r="F267" t="n">
-        <v>0.09935504715243822</v>
+        <v>0.1676176828946035</v>
       </c>
       <c r="G267" t="n">
-        <v>0.3007490386394523</v>
+        <v>0.3243167106283766</v>
       </c>
       <c r="H267" t="inlineStr">
         <is>
@@ -9794,7 +9794,7 @@
     <row r="268">
       <c r="A268" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT91815.fa</t>
+          <t>even_MAG-GUT91818.fa</t>
         </is>
       </c>
       <c r="B268" t="n">
@@ -9829,26 +9829,26 @@
     <row r="269">
       <c r="A269" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT91818.fa</t>
+          <t>even_MAG-GUT91821.fa</t>
         </is>
       </c>
       <c r="B269" t="n">
-        <v>0.3243167106283766</v>
+        <v>0.3407315446001268</v>
       </c>
       <c r="C269" t="n">
-        <v>0.1751290988415199</v>
+        <v>0.2524014849635573</v>
       </c>
       <c r="D269" t="n">
-        <v>0.1799138924003484</v>
+        <v>0.1230478130748307</v>
       </c>
       <c r="E269" t="n">
-        <v>0.1530226152351514</v>
+        <v>0.03591843871154537</v>
       </c>
       <c r="F269" t="n">
-        <v>0.1676176828946035</v>
+        <v>0.2479007186499398</v>
       </c>
       <c r="G269" t="n">
-        <v>0.3243167106283766</v>
+        <v>0.3407315446001268</v>
       </c>
       <c r="H269" t="inlineStr">
         <is>
@@ -9864,26 +9864,26 @@
     <row r="270">
       <c r="A270" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT91821.fa</t>
+          <t>even_MAG-GUT91823.fa</t>
         </is>
       </c>
       <c r="B270" t="n">
-        <v>0.3407315446001268</v>
+        <v>0.343455665267608</v>
       </c>
       <c r="C270" t="n">
-        <v>0.2524014849635573</v>
+        <v>0.2946665320120742</v>
       </c>
       <c r="D270" t="n">
-        <v>0.1230478130748307</v>
+        <v>0.1292695584805451</v>
       </c>
       <c r="E270" t="n">
-        <v>0.03591843871154537</v>
+        <v>0.02472704288212613</v>
       </c>
       <c r="F270" t="n">
-        <v>0.2479007186499398</v>
+        <v>0.2078812013576465</v>
       </c>
       <c r="G270" t="n">
-        <v>0.3407315446001268</v>
+        <v>0.343455665267608</v>
       </c>
       <c r="H270" t="inlineStr">
         <is>
@@ -9899,96 +9899,96 @@
     <row r="271">
       <c r="A271" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT91823.fa</t>
+          <t>even_MAG-GUT91833.fa</t>
         </is>
       </c>
       <c r="B271" t="n">
-        <v>0.343455665267608</v>
+        <v>0.2638104297041051</v>
       </c>
       <c r="C271" t="n">
-        <v>0.2946665320120742</v>
+        <v>0.138693456217487</v>
       </c>
       <c r="D271" t="n">
-        <v>0.1292695584805451</v>
+        <v>0.2838511937636248</v>
       </c>
       <c r="E271" t="n">
-        <v>0.02472704288212613</v>
+        <v>0.1017334139914078</v>
       </c>
       <c r="F271" t="n">
-        <v>0.2078812013576465</v>
+        <v>0.2119115063233752</v>
       </c>
       <c r="G271" t="n">
-        <v>0.343455665267608</v>
+        <v>0.2838511937636248</v>
       </c>
       <c r="H271" t="inlineStr">
         <is>
-          <t>g__Enterococcus</t>
+          <t>g__Enterococcus_B</t>
         </is>
       </c>
       <c r="I271" t="inlineStr">
         <is>
-          <t>g__Enterococcus(reject)</t>
+          <t>g__Enterococcus_B(reject)</t>
         </is>
       </c>
     </row>
     <row r="272">
       <c r="A272" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT91833.fa</t>
+          <t>even_MAG-GUT91860.fa</t>
         </is>
       </c>
       <c r="B272" t="n">
-        <v>0.2638104297041051</v>
+        <v>0.2943352295969983</v>
       </c>
       <c r="C272" t="n">
-        <v>0.138693456217487</v>
+        <v>0.2541566116959629</v>
       </c>
       <c r="D272" t="n">
-        <v>0.2838511937636248</v>
+        <v>0.2227793924604529</v>
       </c>
       <c r="E272" t="n">
-        <v>0.1017334139914078</v>
+        <v>0.07794110430756555</v>
       </c>
       <c r="F272" t="n">
-        <v>0.2119115063233752</v>
+        <v>0.1507876619390203</v>
       </c>
       <c r="G272" t="n">
-        <v>0.2838511937636248</v>
+        <v>0.2943352295969983</v>
       </c>
       <c r="H272" t="inlineStr">
         <is>
-          <t>g__Enterococcus_B</t>
+          <t>g__Enterococcus</t>
         </is>
       </c>
       <c r="I272" t="inlineStr">
         <is>
-          <t>g__Enterococcus_B(reject)</t>
+          <t>g__Enterococcus(reject)</t>
         </is>
       </c>
     </row>
     <row r="273">
       <c r="A273" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT91860.fa</t>
+          <t>even_MAG-GUT91882.fa</t>
         </is>
       </c>
       <c r="B273" t="n">
-        <v>0.2943352295969983</v>
+        <v>0.3398117072330977</v>
       </c>
       <c r="C273" t="n">
-        <v>0.2541566116959629</v>
+        <v>0.3185077648134475</v>
       </c>
       <c r="D273" t="n">
-        <v>0.2227793924604529</v>
+        <v>0.1153405374200087</v>
       </c>
       <c r="E273" t="n">
-        <v>0.07794110430756555</v>
+        <v>0.06368485370244596</v>
       </c>
       <c r="F273" t="n">
-        <v>0.1507876619390203</v>
+        <v>0.1626551368310001</v>
       </c>
       <c r="G273" t="n">
-        <v>0.2943352295969983</v>
+        <v>0.3398117072330977</v>
       </c>
       <c r="H273" t="inlineStr">
         <is>
@@ -10004,26 +10004,26 @@
     <row r="274">
       <c r="A274" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT91882.fa</t>
+          <t>even_MAG-GUT91886.fa</t>
         </is>
       </c>
       <c r="B274" t="n">
-        <v>0.3398117072330977</v>
+        <v>0.3381242870611215</v>
       </c>
       <c r="C274" t="n">
-        <v>0.3185077648134475</v>
+        <v>0.159056084556051</v>
       </c>
       <c r="D274" t="n">
-        <v>0.1153405374200087</v>
+        <v>0.233759682796218</v>
       </c>
       <c r="E274" t="n">
-        <v>0.06368485370244596</v>
+        <v>0.0559851600364689</v>
       </c>
       <c r="F274" t="n">
-        <v>0.1626551368310001</v>
+        <v>0.2130747855501406</v>
       </c>
       <c r="G274" t="n">
-        <v>0.3398117072330977</v>
+        <v>0.3381242870611215</v>
       </c>
       <c r="H274" t="inlineStr">
         <is>
@@ -10039,26 +10039,26 @@
     <row r="275">
       <c r="A275" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT91886.fa</t>
+          <t>even_MAG-GUT91911.fa</t>
         </is>
       </c>
       <c r="B275" t="n">
-        <v>0.3381242870611215</v>
+        <v>0.2855417895845825</v>
       </c>
       <c r="C275" t="n">
-        <v>0.159056084556051</v>
+        <v>0.2478411256186345</v>
       </c>
       <c r="D275" t="n">
-        <v>0.233759682796218</v>
+        <v>0.2406841398562604</v>
       </c>
       <c r="E275" t="n">
-        <v>0.0559851600364689</v>
+        <v>0.05692068493966938</v>
       </c>
       <c r="F275" t="n">
-        <v>0.2130747855501406</v>
+        <v>0.1690122600008533</v>
       </c>
       <c r="G275" t="n">
-        <v>0.3381242870611215</v>
+        <v>0.2855417895845825</v>
       </c>
       <c r="H275" t="inlineStr">
         <is>
@@ -10074,26 +10074,26 @@
     <row r="276">
       <c r="A276" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT91911.fa</t>
+          <t>even_MAG-GUT91912.fa</t>
         </is>
       </c>
       <c r="B276" t="n">
-        <v>0.2855417895845825</v>
+        <v>0.3282577413436809</v>
       </c>
       <c r="C276" t="n">
-        <v>0.2478411256186345</v>
+        <v>0.1798125871712864</v>
       </c>
       <c r="D276" t="n">
-        <v>0.2406841398562604</v>
+        <v>0.2455956578432058</v>
       </c>
       <c r="E276" t="n">
-        <v>0.05692068493966938</v>
+        <v>0.09879574822102447</v>
       </c>
       <c r="F276" t="n">
-        <v>0.1690122600008533</v>
+        <v>0.1475382654208024</v>
       </c>
       <c r="G276" t="n">
-        <v>0.2855417895845825</v>
+        <v>0.3282577413436809</v>
       </c>
       <c r="H276" t="inlineStr">
         <is>
@@ -10109,26 +10109,26 @@
     <row r="277">
       <c r="A277" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT91912.fa</t>
+          <t>even_MAG-GUT91923.fa</t>
         </is>
       </c>
       <c r="B277" t="n">
-        <v>0.3282577413436809</v>
+        <v>0.3244770211625431</v>
       </c>
       <c r="C277" t="n">
-        <v>0.1798125871712864</v>
+        <v>0.3181639006223937</v>
       </c>
       <c r="D277" t="n">
-        <v>0.2455956578432058</v>
+        <v>0.1315645196506919</v>
       </c>
       <c r="E277" t="n">
-        <v>0.09879574822102447</v>
+        <v>0.09175952626902543</v>
       </c>
       <c r="F277" t="n">
-        <v>0.1475382654208024</v>
+        <v>0.1340350322953459</v>
       </c>
       <c r="G277" t="n">
-        <v>0.3282577413436809</v>
+        <v>0.3244770211625431</v>
       </c>
       <c r="H277" t="inlineStr">
         <is>
@@ -10144,26 +10144,26 @@
     <row r="278">
       <c r="A278" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT91923.fa</t>
+          <t>even_MAG-GUT91926.fa</t>
         </is>
       </c>
       <c r="B278" t="n">
-        <v>0.3244770211625431</v>
+        <v>0.3321151010862958</v>
       </c>
       <c r="C278" t="n">
-        <v>0.3181639006223937</v>
+        <v>0.2032251602558041</v>
       </c>
       <c r="D278" t="n">
-        <v>0.1315645196506919</v>
+        <v>0.1732318212320152</v>
       </c>
       <c r="E278" t="n">
-        <v>0.09175952626902543</v>
+        <v>0.04440861410124722</v>
       </c>
       <c r="F278" t="n">
-        <v>0.1340350322953459</v>
+        <v>0.2470193033246377</v>
       </c>
       <c r="G278" t="n">
-        <v>0.3244770211625431</v>
+        <v>0.3321151010862958</v>
       </c>
       <c r="H278" t="inlineStr">
         <is>
@@ -10179,26 +10179,26 @@
     <row r="279">
       <c r="A279" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT91926.fa</t>
+          <t>even_MAG-GUT91932.fa</t>
         </is>
       </c>
       <c r="B279" t="n">
-        <v>0.3321151010862958</v>
+        <v>0.3517039413856188</v>
       </c>
       <c r="C279" t="n">
-        <v>0.2032251602558041</v>
+        <v>0.3324698429017995</v>
       </c>
       <c r="D279" t="n">
-        <v>0.1732318212320152</v>
+        <v>0.1280027514090626</v>
       </c>
       <c r="E279" t="n">
-        <v>0.04440861410124722</v>
+        <v>0.03867280078977905</v>
       </c>
       <c r="F279" t="n">
-        <v>0.2470193033246377</v>
+        <v>0.14915066351374</v>
       </c>
       <c r="G279" t="n">
-        <v>0.3321151010862958</v>
+        <v>0.3517039413856188</v>
       </c>
       <c r="H279" t="inlineStr">
         <is>
@@ -10214,26 +10214,26 @@
     <row r="280">
       <c r="A280" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT91932.fa</t>
+          <t>even_MAG-GUT91941.fa</t>
         </is>
       </c>
       <c r="B280" t="n">
-        <v>0.3517039413856188</v>
+        <v>0.3586215206807555</v>
       </c>
       <c r="C280" t="n">
-        <v>0.3324698429017995</v>
+        <v>0.2343657099341808</v>
       </c>
       <c r="D280" t="n">
-        <v>0.1280027514090626</v>
+        <v>0.1644920702914891</v>
       </c>
       <c r="E280" t="n">
-        <v>0.03867280078977905</v>
+        <v>0.0330769185006221</v>
       </c>
       <c r="F280" t="n">
-        <v>0.14915066351374</v>
+        <v>0.2094437805929524</v>
       </c>
       <c r="G280" t="n">
-        <v>0.3517039413856188</v>
+        <v>0.3586215206807555</v>
       </c>
       <c r="H280" t="inlineStr">
         <is>
@@ -10249,26 +10249,26 @@
     <row r="281">
       <c r="A281" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT91941.fa</t>
+          <t>even_MAG-GUT91954.fa</t>
         </is>
       </c>
       <c r="B281" t="n">
-        <v>0.3586215206807555</v>
+        <v>0.3682830751439161</v>
       </c>
       <c r="C281" t="n">
-        <v>0.2343657099341808</v>
+        <v>0.09393980567643108</v>
       </c>
       <c r="D281" t="n">
-        <v>0.1644920702914891</v>
+        <v>0.268835165920688</v>
       </c>
       <c r="E281" t="n">
-        <v>0.0330769185006221</v>
+        <v>0.05570210085535574</v>
       </c>
       <c r="F281" t="n">
-        <v>0.2094437805929524</v>
+        <v>0.2132398524036092</v>
       </c>
       <c r="G281" t="n">
-        <v>0.3586215206807555</v>
+        <v>0.3682830751439161</v>
       </c>
       <c r="H281" t="inlineStr">
         <is>

--- a/outputs-HGR-r202/f__Enterococcaceae.xlsx
+++ b/outputs-HGR-r202/f__Enterococcaceae.xlsx
@@ -2,7 +2,6 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <workbookProtection/>
   <bookViews>
     <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
@@ -10,7 +9,7 @@
     <sheet name="f__Enterococcaceae_pred-t-p" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="125725" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -20,10 +19,7 @@
   <fonts count="2">
     <font>
       <name val="Calibri"/>
-      <family val="2"/>
-      <color theme="1"/>
       <sz val="11"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b val="1"/>
@@ -37,7 +33,21 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left/>
       <right/>
@@ -54,18 +64,19 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf borderId="2" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="1" fillId="0" fontId="0" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="2" fillId="0" fontId="0" numFmtId="22" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="3" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -426,7 +437,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H298"/>
+  <dimension ref="A1:G298"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -435,49 +446,44 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="A1" s="3" t="inlineStr">
         <is>
           <t>Row</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="3" t="inlineStr">
         <is>
           <t>1-g__Enterococcus</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="3" t="inlineStr">
         <is>
           <t>2-g__Enterococcus_A</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="3" t="inlineStr">
         <is>
           <t>3-g__Enterococcus_B</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="E1" s="3" t="inlineStr">
         <is>
           <t>4-g__Enterococcus_C</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>5-g__Enterococcus_D</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>max</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>prediction</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="inlineStr">
+      <c r="A2" s="3" t="inlineStr">
         <is>
           <t>even_MAG-GUT1029.fa</t>
         </is>
@@ -497,17 +503,14 @@
       <c r="F2" t="n">
         <v>0.1722024376053274</v>
       </c>
-      <c r="G2" t="n">
-        <v>0.3519254294299934</v>
-      </c>
-      <c r="H2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>g__Enterococcus</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="inlineStr">
+      <c r="A3" s="3" t="inlineStr">
         <is>
           <t>even_MAG-GUT1036.fa</t>
         </is>
@@ -527,17 +530,14 @@
       <c r="F3" t="n">
         <v>0.0821707362881456</v>
       </c>
-      <c r="G3" t="n">
-        <v>0.3381923486103705</v>
-      </c>
-      <c r="H3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>g__Enterococcus_A</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="inlineStr">
+      <c r="A4" s="3" t="inlineStr">
         <is>
           <t>even_MAG-GUT1037.fa</t>
         </is>
@@ -557,17 +557,14 @@
       <c r="F4" t="n">
         <v>0.1974320097466022</v>
       </c>
-      <c r="G4" t="n">
-        <v>0.3222920866279966</v>
-      </c>
-      <c r="H4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>g__Enterococcus</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="inlineStr">
+      <c r="A5" s="3" t="inlineStr">
         <is>
           <t>even_MAG-GUT1047.fa</t>
         </is>
@@ -587,17 +584,14 @@
       <c r="F5" t="n">
         <v>0.1974320097466022</v>
       </c>
-      <c r="G5" t="n">
-        <v>0.3222920866279966</v>
-      </c>
-      <c r="H5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>g__Enterococcus</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="3" t="inlineStr">
         <is>
           <t>even_MAG-GUT1052.fa</t>
         </is>
@@ -617,17 +611,14 @@
       <c r="F6" t="n">
         <v>0.1438065758283079</v>
       </c>
-      <c r="G6" t="n">
-        <v>0.3209374760468734</v>
-      </c>
-      <c r="H6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>g__Enterococcus</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="inlineStr">
+      <c r="A7" s="3" t="inlineStr">
         <is>
           <t>even_MAG-GUT1055.fa</t>
         </is>
@@ -647,17 +638,14 @@
       <c r="F7" t="n">
         <v>0.2307456423904968</v>
       </c>
-      <c r="G7" t="n">
-        <v>0.3274483735210871</v>
-      </c>
-      <c r="H7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>g__Enterococcus</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
+      <c r="A8" s="3" t="inlineStr">
         <is>
           <t>even_MAG-GUT1062.fa</t>
         </is>
@@ -677,17 +665,14 @@
       <c r="F8" t="n">
         <v>0.1697375190270014</v>
       </c>
-      <c r="G8" t="n">
-        <v>0.3543234459157115</v>
-      </c>
-      <c r="H8" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>g__Enterococcus</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="1" t="inlineStr">
+      <c r="A9" s="3" t="inlineStr">
         <is>
           <t>even_MAG-GUT1077.fa</t>
         </is>
@@ -707,17 +692,14 @@
       <c r="F9" t="n">
         <v>0.2143542048785873</v>
       </c>
-      <c r="G9" t="n">
-        <v>0.3205649993666649</v>
-      </c>
-      <c r="H9" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>g__Enterococcus</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="inlineStr">
+      <c r="A10" s="3" t="inlineStr">
         <is>
           <t>even_MAG-GUT1088.fa</t>
         </is>
@@ -737,17 +719,14 @@
       <c r="F10" t="n">
         <v>0.1500953378789681</v>
       </c>
-      <c r="G10" t="n">
-        <v>0.3039068511210548</v>
-      </c>
-      <c r="H10" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>g__Enterococcus</t>
         </is>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="1" t="inlineStr">
+      <c r="A11" s="3" t="inlineStr">
         <is>
           <t>even_MAG-GUT1103.fa</t>
         </is>
@@ -767,17 +746,14 @@
       <c r="F11" t="n">
         <v>0.2493294856188804</v>
       </c>
-      <c r="G11" t="n">
-        <v>0.3381934150092067</v>
-      </c>
-      <c r="H11" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>g__Enterococcus</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
+      <c r="A12" s="3" t="inlineStr">
         <is>
           <t>even_MAG-GUT1160.fa</t>
         </is>
@@ -797,17 +773,14 @@
       <c r="F12" t="n">
         <v>0.1009419709020183</v>
       </c>
-      <c r="G12" t="n">
-        <v>0.3622617015591919</v>
-      </c>
-      <c r="H12" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>g__Enterococcus</t>
         </is>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="1" t="inlineStr">
+      <c r="A13" s="3" t="inlineStr">
         <is>
           <t>even_MAG-GUT1169.fa</t>
         </is>
@@ -827,17 +800,14 @@
       <c r="F13" t="n">
         <v>0.1509564303403516</v>
       </c>
-      <c r="G13" t="n">
-        <v>0.3629090743998891</v>
-      </c>
-      <c r="H13" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>g__Enterococcus</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
+      <c r="A14" s="3" t="inlineStr">
         <is>
           <t>even_MAG-GUT1171.fa</t>
         </is>
@@ -857,17 +827,14 @@
       <c r="F14" t="n">
         <v>0.1497889375833376</v>
       </c>
-      <c r="G14" t="n">
-        <v>0.3782973620644484</v>
-      </c>
-      <c r="H14" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>g__Enterococcus</t>
         </is>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="1" t="inlineStr">
+      <c r="A15" s="3" t="inlineStr">
         <is>
           <t>even_MAG-GUT1173.fa</t>
         </is>
@@ -887,17 +854,14 @@
       <c r="F15" t="n">
         <v>0.1519400385649293</v>
       </c>
-      <c r="G15" t="n">
-        <v>0.3480558136528761</v>
-      </c>
-      <c r="H15" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>g__Enterococcus</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="inlineStr">
+      <c r="A16" s="3" t="inlineStr">
         <is>
           <t>even_MAG-GUT1177.fa</t>
         </is>
@@ -917,17 +881,14 @@
       <c r="F16" t="n">
         <v>0.1282048422797501</v>
       </c>
-      <c r="G16" t="n">
-        <v>0.3705556479582339</v>
-      </c>
-      <c r="H16" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>g__Enterococcus</t>
         </is>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="1" t="inlineStr">
+      <c r="A17" s="3" t="inlineStr">
         <is>
           <t>even_MAG-GUT1196.fa</t>
         </is>
@@ -947,17 +908,14 @@
       <c r="F17" t="n">
         <v>0.1851301166594866</v>
       </c>
-      <c r="G17" t="n">
-        <v>0.3375497466628972</v>
-      </c>
-      <c r="H17" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t>g__Enterococcus</t>
         </is>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="1" t="inlineStr">
+      <c r="A18" s="3" t="inlineStr">
         <is>
           <t>even_MAG-GUT1197.fa</t>
         </is>
@@ -977,17 +935,14 @@
       <c r="F18" t="n">
         <v>0.1437190904942348</v>
       </c>
-      <c r="G18" t="n">
-        <v>0.3785279366181467</v>
-      </c>
-      <c r="H18" t="inlineStr">
+      <c r="G18" t="inlineStr">
         <is>
           <t>g__Enterococcus</t>
         </is>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="1" t="inlineStr">
+      <c r="A19" s="3" t="inlineStr">
         <is>
           <t>even_MAG-GUT1228.fa</t>
         </is>
@@ -1007,17 +962,14 @@
       <c r="F19" t="n">
         <v>0.1437190904942348</v>
       </c>
-      <c r="G19" t="n">
-        <v>0.3785279366181467</v>
-      </c>
-      <c r="H19" t="inlineStr">
+      <c r="G19" t="inlineStr">
         <is>
           <t>g__Enterococcus</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="inlineStr">
+      <c r="A20" s="3" t="inlineStr">
         <is>
           <t>even_MAG-GUT1236.fa</t>
         </is>
@@ -1037,17 +989,14 @@
       <c r="F20" t="n">
         <v>0.2201467871582032</v>
       </c>
-      <c r="G20" t="n">
-        <v>0.3270337012065453</v>
-      </c>
-      <c r="H20" t="inlineStr">
+      <c r="G20" t="inlineStr">
         <is>
           <t>g__Enterococcus</t>
         </is>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="1" t="inlineStr">
+      <c r="A21" s="3" t="inlineStr">
         <is>
           <t>even_MAG-GUT1242.fa</t>
         </is>
@@ -1067,17 +1016,14 @@
       <c r="F21" t="n">
         <v>0.1224623273112391</v>
       </c>
-      <c r="G21" t="n">
-        <v>0.3798376582100505</v>
-      </c>
-      <c r="H21" t="inlineStr">
+      <c r="G21" t="inlineStr">
         <is>
           <t>g__Enterococcus_A</t>
         </is>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="inlineStr">
+      <c r="A22" s="3" t="inlineStr">
         <is>
           <t>even_MAG-GUT1244.fa</t>
         </is>
@@ -1097,17 +1043,14 @@
       <c r="F22" t="n">
         <v>0.1943896131254691</v>
       </c>
-      <c r="G22" t="n">
-        <v>0.3040739259751025</v>
-      </c>
-      <c r="H22" t="inlineStr">
+      <c r="G22" t="inlineStr">
         <is>
           <t>g__Enterococcus</t>
         </is>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="1" t="inlineStr">
+      <c r="A23" s="3" t="inlineStr">
         <is>
           <t>even_MAG-GUT1255.fa</t>
         </is>
@@ -1127,17 +1070,14 @@
       <c r="F23" t="n">
         <v>0.1943896131254691</v>
       </c>
-      <c r="G23" t="n">
-        <v>0.3040739259751025</v>
-      </c>
-      <c r="H23" t="inlineStr">
+      <c r="G23" t="inlineStr">
         <is>
           <t>g__Enterococcus</t>
         </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="1" t="inlineStr">
+      <c r="A24" s="3" t="inlineStr">
         <is>
           <t>even_MAG-GUT1266.fa</t>
         </is>
@@ -1157,17 +1097,14 @@
       <c r="F24" t="n">
         <v>0.1775558793681231</v>
       </c>
-      <c r="G24" t="n">
-        <v>0.2876227448941485</v>
-      </c>
-      <c r="H24" t="inlineStr">
+      <c r="G24" t="inlineStr">
         <is>
           <t>g__Enterococcus</t>
         </is>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="1" t="inlineStr">
+      <c r="A25" s="3" t="inlineStr">
         <is>
           <t>even_MAG-GUT1270.fa</t>
         </is>
@@ -1187,17 +1124,14 @@
       <c r="F25" t="n">
         <v>0.8327175416818537</v>
       </c>
-      <c r="G25" t="n">
-        <v>0.8327175416818537</v>
-      </c>
-      <c r="H25" t="inlineStr">
+      <c r="G25" t="inlineStr">
         <is>
           <t>g__Enterococcus_D</t>
         </is>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="1" t="inlineStr">
+      <c r="A26" s="3" t="inlineStr">
         <is>
           <t>even_MAG-GUT1276.fa</t>
         </is>
@@ -1217,17 +1151,14 @@
       <c r="F26" t="n">
         <v>0.6957249977664599</v>
       </c>
-      <c r="G26" t="n">
-        <v>0.6957249977664599</v>
-      </c>
-      <c r="H26" t="inlineStr">
+      <c r="G26" t="inlineStr">
         <is>
           <t>g__Enterococcus_D</t>
         </is>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="1" t="inlineStr">
+      <c r="A27" s="3" t="inlineStr">
         <is>
           <t>even_MAG-GUT1288.fa</t>
         </is>
@@ -1247,17 +1178,14 @@
       <c r="F27" t="n">
         <v>0.7195159344898404</v>
       </c>
-      <c r="G27" t="n">
-        <v>0.7195159344898404</v>
-      </c>
-      <c r="H27" t="inlineStr">
+      <c r="G27" t="inlineStr">
         <is>
           <t>g__Enterococcus_D</t>
         </is>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="1" t="inlineStr">
+      <c r="A28" s="3" t="inlineStr">
         <is>
           <t>even_MAG-GUT1297.fa</t>
         </is>
@@ -1277,17 +1205,14 @@
       <c r="F28" t="n">
         <v>0.7326471355917883</v>
       </c>
-      <c r="G28" t="n">
-        <v>0.7326471355917883</v>
-      </c>
-      <c r="H28" t="inlineStr">
+      <c r="G28" t="inlineStr">
         <is>
           <t>g__Enterococcus_D</t>
         </is>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="1" t="inlineStr">
+      <c r="A29" s="3" t="inlineStr">
         <is>
           <t>even_MAG-GUT1315.fa</t>
         </is>
@@ -1307,17 +1232,14 @@
       <c r="F29" t="n">
         <v>0.06002331987643469</v>
       </c>
-      <c r="G29" t="n">
-        <v>0.9220970867616138</v>
-      </c>
-      <c r="H29" t="inlineStr">
+      <c r="G29" t="inlineStr">
         <is>
           <t>g__Enterococcus_B</t>
         </is>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="1" t="inlineStr">
+      <c r="A30" s="3" t="inlineStr">
         <is>
           <t>even_MAG-GUT1318.fa</t>
         </is>
@@ -1337,17 +1259,14 @@
       <c r="F30" t="n">
         <v>0.2249238373244642</v>
       </c>
-      <c r="G30" t="n">
-        <v>0.3317554310209347</v>
-      </c>
-      <c r="H30" t="inlineStr">
+      <c r="G30" t="inlineStr">
         <is>
           <t>g__Enterococcus</t>
         </is>
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="1" t="inlineStr">
+      <c r="A31" s="3" t="inlineStr">
         <is>
           <t>even_MAG-GUT1319.fa</t>
         </is>
@@ -1367,17 +1286,14 @@
       <c r="F31" t="n">
         <v>0.2300769711475555</v>
       </c>
-      <c r="G31" t="n">
-        <v>0.3858522258832387</v>
-      </c>
-      <c r="H31" t="inlineStr">
+      <c r="G31" t="inlineStr">
         <is>
           <t>g__Enterococcus_A</t>
         </is>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="1" t="inlineStr">
+      <c r="A32" s="3" t="inlineStr">
         <is>
           <t>even_MAG-GUT1328.fa</t>
         </is>
@@ -1397,17 +1313,14 @@
       <c r="F32" t="n">
         <v>0.1282048422797501</v>
       </c>
-      <c r="G32" t="n">
-        <v>0.3705556479582339</v>
-      </c>
-      <c r="H32" t="inlineStr">
+      <c r="G32" t="inlineStr">
         <is>
           <t>g__Enterococcus</t>
         </is>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="1" t="inlineStr">
+      <c r="A33" s="3" t="inlineStr">
         <is>
           <t>even_MAG-GUT1336.fa</t>
         </is>
@@ -1427,17 +1340,14 @@
       <c r="F33" t="n">
         <v>0.08298243397162591</v>
       </c>
-      <c r="G33" t="n">
-        <v>0.9064808513219396</v>
-      </c>
-      <c r="H33" t="inlineStr">
+      <c r="G33" t="inlineStr">
         <is>
           <t>g__Enterococcus_B</t>
         </is>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="1" t="inlineStr">
+      <c r="A34" s="3" t="inlineStr">
         <is>
           <t>even_MAG-GUT1362.fa</t>
         </is>
@@ -1457,17 +1367,14 @@
       <c r="F34" t="n">
         <v>0.2115142696398301</v>
       </c>
-      <c r="G34" t="n">
-        <v>0.3413792533700526</v>
-      </c>
-      <c r="H34" t="inlineStr">
+      <c r="G34" t="inlineStr">
         <is>
           <t>g__Enterococcus</t>
         </is>
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="1" t="inlineStr">
+      <c r="A35" s="3" t="inlineStr">
         <is>
           <t>even_MAG-GUT1368.fa</t>
         </is>
@@ -1487,17 +1394,14 @@
       <c r="F35" t="n">
         <v>0.1697764468684718</v>
       </c>
-      <c r="G35" t="n">
-        <v>0.33460495136729</v>
-      </c>
-      <c r="H35" t="inlineStr">
+      <c r="G35" t="inlineStr">
         <is>
           <t>g__Enterococcus</t>
         </is>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="1" t="inlineStr">
+      <c r="A36" s="3" t="inlineStr">
         <is>
           <t>even_MAG-GUT1370.fa</t>
         </is>
@@ -1517,17 +1421,14 @@
       <c r="F36" t="n">
         <v>0.02357585520431492</v>
       </c>
-      <c r="G36" t="n">
-        <v>0.9707672222474781</v>
-      </c>
-      <c r="H36" t="inlineStr">
+      <c r="G36" t="inlineStr">
         <is>
           <t>g__Enterococcus_B</t>
         </is>
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="1" t="inlineStr">
+      <c r="A37" s="3" t="inlineStr">
         <is>
           <t>even_MAG-GUT1391.fa</t>
         </is>
@@ -1547,17 +1448,14 @@
       <c r="F37" t="n">
         <v>0.1214024107806201</v>
       </c>
-      <c r="G37" t="n">
-        <v>0.7965488295139113</v>
-      </c>
-      <c r="H37" t="inlineStr">
+      <c r="G37" t="inlineStr">
         <is>
           <t>g__Enterococcus_B</t>
         </is>
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="1" t="inlineStr">
+      <c r="A38" s="3" t="inlineStr">
         <is>
           <t>even_MAG-GUT1393.fa</t>
         </is>
@@ -1577,17 +1475,14 @@
       <c r="F38" t="n">
         <v>0.03151557312125072</v>
       </c>
-      <c r="G38" t="n">
-        <v>0.9659900827988236</v>
-      </c>
-      <c r="H38" t="inlineStr">
+      <c r="G38" t="inlineStr">
         <is>
           <t>g__Enterococcus_B</t>
         </is>
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="1" t="inlineStr">
+      <c r="A39" s="3" t="inlineStr">
         <is>
           <t>even_MAG-GUT1396.fa</t>
         </is>
@@ -1607,17 +1502,14 @@
       <c r="F39" t="n">
         <v>0.2731483658287277</v>
       </c>
-      <c r="G39" t="n">
-        <v>0.3401817324613789</v>
-      </c>
-      <c r="H39" t="inlineStr">
+      <c r="G39" t="inlineStr">
         <is>
           <t>g__Enterococcus</t>
         </is>
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="1" t="inlineStr">
+      <c r="A40" s="3" t="inlineStr">
         <is>
           <t>even_MAG-GUT1457.fa</t>
         </is>
@@ -1637,17 +1529,14 @@
       <c r="F40" t="n">
         <v>0.03315109962910329</v>
       </c>
-      <c r="G40" t="n">
-        <v>0.9542926640441556</v>
-      </c>
-      <c r="H40" t="inlineStr">
+      <c r="G40" t="inlineStr">
         <is>
           <t>g__Enterococcus_B</t>
         </is>
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="1" t="inlineStr">
+      <c r="A41" s="3" t="inlineStr">
         <is>
           <t>even_MAG-GUT1477.fa</t>
         </is>
@@ -1667,17 +1556,14 @@
       <c r="F41" t="n">
         <v>0.1445108927588368</v>
       </c>
-      <c r="G41" t="n">
-        <v>0.3232885072099378</v>
-      </c>
-      <c r="H41" t="inlineStr">
+      <c r="G41" t="inlineStr">
         <is>
           <t>g__Enterococcus</t>
         </is>
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="1" t="inlineStr">
+      <c r="A42" s="3" t="inlineStr">
         <is>
           <t>even_MAG-GUT1479.fa</t>
         </is>
@@ -1697,17 +1583,14 @@
       <c r="F42" t="n">
         <v>0.01914253344590412</v>
       </c>
-      <c r="G42" t="n">
-        <v>0.973984721964575</v>
-      </c>
-      <c r="H42" t="inlineStr">
+      <c r="G42" t="inlineStr">
         <is>
           <t>g__Enterococcus_B</t>
         </is>
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="1" t="inlineStr">
+      <c r="A43" s="3" t="inlineStr">
         <is>
           <t>even_MAG-GUT1498.fa</t>
         </is>
@@ -1727,17 +1610,14 @@
       <c r="F43" t="n">
         <v>0.1831985064094305</v>
       </c>
-      <c r="G43" t="n">
-        <v>0.3329545258979156</v>
-      </c>
-      <c r="H43" t="inlineStr">
+      <c r="G43" t="inlineStr">
         <is>
           <t>g__Enterococcus</t>
         </is>
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="1" t="inlineStr">
+      <c r="A44" s="3" t="inlineStr">
         <is>
           <t>even_MAG-GUT1511.fa</t>
         </is>
@@ -1757,17 +1637,14 @@
       <c r="F44" t="n">
         <v>0.2003150577820729</v>
       </c>
-      <c r="G44" t="n">
-        <v>0.3336475344336658</v>
-      </c>
-      <c r="H44" t="inlineStr">
+      <c r="G44" t="inlineStr">
         <is>
           <t>g__Enterococcus</t>
         </is>
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="1" t="inlineStr">
+      <c r="A45" s="3" t="inlineStr">
         <is>
           <t>even_MAG-GUT1522.fa</t>
         </is>
@@ -1787,17 +1664,14 @@
       <c r="F45" t="n">
         <v>0.218658953686526</v>
       </c>
-      <c r="G45" t="n">
-        <v>0.3256208495460178</v>
-      </c>
-      <c r="H45" t="inlineStr">
+      <c r="G45" t="inlineStr">
         <is>
           <t>g__Enterococcus</t>
         </is>
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="1" t="inlineStr">
+      <c r="A46" s="3" t="inlineStr">
         <is>
           <t>even_MAG-GUT1541.fa</t>
         </is>
@@ -1817,17 +1691,14 @@
       <c r="F46" t="n">
         <v>0.01710609876088546</v>
       </c>
-      <c r="G46" t="n">
-        <v>0.9809143507942252</v>
-      </c>
-      <c r="H46" t="inlineStr">
+      <c r="G46" t="inlineStr">
         <is>
           <t>g__Enterococcus_B</t>
         </is>
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="1" t="inlineStr">
+      <c r="A47" s="3" t="inlineStr">
         <is>
           <t>even_MAG-GUT1565.fa</t>
         </is>
@@ -1847,17 +1718,14 @@
       <c r="F47" t="n">
         <v>0.2003150577820729</v>
       </c>
-      <c r="G47" t="n">
-        <v>0.3336475344336658</v>
-      </c>
-      <c r="H47" t="inlineStr">
+      <c r="G47" t="inlineStr">
         <is>
           <t>g__Enterococcus</t>
         </is>
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="1" t="inlineStr">
+      <c r="A48" s="3" t="inlineStr">
         <is>
           <t>even_MAG-GUT17288.fa</t>
         </is>
@@ -1877,17 +1745,14 @@
       <c r="F48" t="n">
         <v>0.1779922644741959</v>
       </c>
-      <c r="G48" t="n">
-        <v>0.8113320978644941</v>
-      </c>
-      <c r="H48" t="inlineStr">
+      <c r="G48" t="inlineStr">
         <is>
           <t>g__Enterococcus_B</t>
         </is>
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="1" t="inlineStr">
+      <c r="A49" s="3" t="inlineStr">
         <is>
           <t>even_MAG-GUT17314.fa</t>
         </is>
@@ -1907,17 +1772,14 @@
       <c r="F49" t="n">
         <v>0.161395690096437</v>
       </c>
-      <c r="G49" t="n">
-        <v>0.3448647002073614</v>
-      </c>
-      <c r="H49" t="inlineStr">
+      <c r="G49" t="inlineStr">
         <is>
           <t>g__Enterococcus</t>
         </is>
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="1" t="inlineStr">
+      <c r="A50" s="3" t="inlineStr">
         <is>
           <t>even_MAG-GUT17776.fa</t>
         </is>
@@ -1937,17 +1799,14 @@
       <c r="F50" t="n">
         <v>0.1745125951617547</v>
       </c>
-      <c r="G50" t="n">
-        <v>0.3106894575328607</v>
-      </c>
-      <c r="H50" t="inlineStr">
+      <c r="G50" t="inlineStr">
         <is>
           <t>g__Enterococcus</t>
         </is>
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="1" t="inlineStr">
+      <c r="A51" s="3" t="inlineStr">
         <is>
           <t>even_MAG-GUT17782.fa</t>
         </is>
@@ -1967,17 +1826,14 @@
       <c r="F51" t="n">
         <v>0.07246777632699693</v>
       </c>
-      <c r="G51" t="n">
-        <v>0.9202291976336868</v>
-      </c>
-      <c r="H51" t="inlineStr">
+      <c r="G51" t="inlineStr">
         <is>
           <t>g__Enterococcus_B</t>
         </is>
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="1" t="inlineStr">
+      <c r="A52" s="3" t="inlineStr">
         <is>
           <t>even_MAG-GUT1871.fa</t>
         </is>
@@ -1997,17 +1853,14 @@
       <c r="F52" t="n">
         <v>0.1859021421805076</v>
       </c>
-      <c r="G52" t="n">
-        <v>0.3466997742479728</v>
-      </c>
-      <c r="H52" t="inlineStr">
+      <c r="G52" t="inlineStr">
         <is>
           <t>g__Enterococcus</t>
         </is>
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="1" t="inlineStr">
+      <c r="A53" s="3" t="inlineStr">
         <is>
           <t>even_MAG-GUT1875.fa</t>
         </is>
@@ -2027,17 +1880,14 @@
       <c r="F53" t="n">
         <v>0.1303238134668976</v>
       </c>
-      <c r="G53" t="n">
-        <v>0.391093109250476</v>
-      </c>
-      <c r="H53" t="inlineStr">
+      <c r="G53" t="inlineStr">
         <is>
           <t>g__Enterococcus_A</t>
         </is>
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="1" t="inlineStr">
+      <c r="A54" s="3" t="inlineStr">
         <is>
           <t>even_MAG-GUT1876.fa</t>
         </is>
@@ -2057,17 +1907,14 @@
       <c r="F54" t="n">
         <v>0.2332008702579641</v>
       </c>
-      <c r="G54" t="n">
-        <v>0.3216364547720061</v>
-      </c>
-      <c r="H54" t="inlineStr">
+      <c r="G54" t="inlineStr">
         <is>
           <t>g__Enterococcus_A</t>
         </is>
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="1" t="inlineStr">
+      <c r="A55" s="3" t="inlineStr">
         <is>
           <t>even_MAG-GUT1880.fa</t>
         </is>
@@ -2087,17 +1934,14 @@
       <c r="F55" t="n">
         <v>0.1578204465504942</v>
       </c>
-      <c r="G55" t="n">
-        <v>0.3325550602770441</v>
-      </c>
-      <c r="H55" t="inlineStr">
+      <c r="G55" t="inlineStr">
         <is>
           <t>g__Enterococcus</t>
         </is>
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="1" t="inlineStr">
+      <c r="A56" s="3" t="inlineStr">
         <is>
           <t>even_MAG-GUT1885.fa</t>
         </is>
@@ -2117,17 +1961,14 @@
       <c r="F56" t="n">
         <v>0.2188478729368288</v>
       </c>
-      <c r="G56" t="n">
-        <v>0.3658243446342961</v>
-      </c>
-      <c r="H56" t="inlineStr">
+      <c r="G56" t="inlineStr">
         <is>
           <t>g__Enterococcus</t>
         </is>
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="1" t="inlineStr">
+      <c r="A57" s="3" t="inlineStr">
         <is>
           <t>even_MAG-GUT1887.fa</t>
         </is>
@@ -2147,17 +1988,14 @@
       <c r="F57" t="n">
         <v>0.1913079101151264</v>
       </c>
-      <c r="G57" t="n">
-        <v>0.338374923123968</v>
-      </c>
-      <c r="H57" t="inlineStr">
+      <c r="G57" t="inlineStr">
         <is>
           <t>g__Enterococcus</t>
         </is>
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="1" t="inlineStr">
+      <c r="A58" s="3" t="inlineStr">
         <is>
           <t>even_MAG-GUT1888.fa</t>
         </is>
@@ -2177,17 +2015,14 @@
       <c r="F58" t="n">
         <v>0.1367040016756877</v>
       </c>
-      <c r="G58" t="n">
-        <v>0.3674691770610249</v>
-      </c>
-      <c r="H58" t="inlineStr">
+      <c r="G58" t="inlineStr">
         <is>
           <t>g__Enterococcus</t>
         </is>
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="1" t="inlineStr">
+      <c r="A59" s="3" t="inlineStr">
         <is>
           <t>even_MAG-GUT1892.fa</t>
         </is>
@@ -2207,17 +2042,14 @@
       <c r="F59" t="n">
         <v>0.2188478729368288</v>
       </c>
-      <c r="G59" t="n">
-        <v>0.3658243446342961</v>
-      </c>
-      <c r="H59" t="inlineStr">
+      <c r="G59" t="inlineStr">
         <is>
           <t>g__Enterococcus</t>
         </is>
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="1" t="inlineStr">
+      <c r="A60" s="3" t="inlineStr">
         <is>
           <t>even_MAG-GUT1895.fa</t>
         </is>
@@ -2237,17 +2069,14 @@
       <c r="F60" t="n">
         <v>0.1801354396578459</v>
       </c>
-      <c r="G60" t="n">
-        <v>0.3552679725447894</v>
-      </c>
-      <c r="H60" t="inlineStr">
+      <c r="G60" t="inlineStr">
         <is>
           <t>g__Enterococcus</t>
         </is>
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="1" t="inlineStr">
+      <c r="A61" s="3" t="inlineStr">
         <is>
           <t>even_MAG-GUT1898.fa</t>
         </is>
@@ -2267,17 +2096,14 @@
       <c r="F61" t="n">
         <v>0.1850055161414217</v>
       </c>
-      <c r="G61" t="n">
-        <v>0.3475383158463107</v>
-      </c>
-      <c r="H61" t="inlineStr">
+      <c r="G61" t="inlineStr">
         <is>
           <t>g__Enterococcus</t>
         </is>
       </c>
     </row>
     <row r="62">
-      <c r="A62" s="1" t="inlineStr">
+      <c r="A62" s="3" t="inlineStr">
         <is>
           <t>even_MAG-GUT1900.fa</t>
         </is>
@@ -2297,17 +2123,14 @@
       <c r="F62" t="n">
         <v>0.2682791573974003</v>
       </c>
-      <c r="G62" t="n">
-        <v>0.3224193926872231</v>
-      </c>
-      <c r="H62" t="inlineStr">
+      <c r="G62" t="inlineStr">
         <is>
           <t>g__Enterococcus</t>
         </is>
       </c>
     </row>
     <row r="63">
-      <c r="A63" s="1" t="inlineStr">
+      <c r="A63" s="3" t="inlineStr">
         <is>
           <t>even_MAG-GUT1904.fa</t>
         </is>
@@ -2327,17 +2150,14 @@
       <c r="F63" t="n">
         <v>0.1724669283153657</v>
       </c>
-      <c r="G63" t="n">
-        <v>0.3518891736204718</v>
-      </c>
-      <c r="H63" t="inlineStr">
+      <c r="G63" t="inlineStr">
         <is>
           <t>g__Enterococcus</t>
         </is>
       </c>
     </row>
     <row r="64">
-      <c r="A64" s="1" t="inlineStr">
+      <c r="A64" s="3" t="inlineStr">
         <is>
           <t>even_MAG-GUT1906.fa</t>
         </is>
@@ -2357,17 +2177,14 @@
       <c r="F64" t="n">
         <v>0.2117565019623049</v>
       </c>
-      <c r="G64" t="n">
-        <v>0.3102854559934511</v>
-      </c>
-      <c r="H64" t="inlineStr">
+      <c r="G64" t="inlineStr">
         <is>
           <t>g__Enterococcus</t>
         </is>
       </c>
     </row>
     <row r="65">
-      <c r="A65" s="1" t="inlineStr">
+      <c r="A65" s="3" t="inlineStr">
         <is>
           <t>even_MAG-GUT1908.fa</t>
         </is>
@@ -2387,17 +2204,14 @@
       <c r="F65" t="n">
         <v>0.1711674105868385</v>
       </c>
-      <c r="G65" t="n">
-        <v>0.3668101609268501</v>
-      </c>
-      <c r="H65" t="inlineStr">
+      <c r="G65" t="inlineStr">
         <is>
           <t>g__Enterococcus</t>
         </is>
       </c>
     </row>
     <row r="66">
-      <c r="A66" s="1" t="inlineStr">
+      <c r="A66" s="3" t="inlineStr">
         <is>
           <t>even_MAG-GUT1911.fa</t>
         </is>
@@ -2417,17 +2231,14 @@
       <c r="F66" t="n">
         <v>0.2188478729368288</v>
       </c>
-      <c r="G66" t="n">
-        <v>0.3658243446342961</v>
-      </c>
-      <c r="H66" t="inlineStr">
+      <c r="G66" t="inlineStr">
         <is>
           <t>g__Enterococcus</t>
         </is>
       </c>
     </row>
     <row r="67">
-      <c r="A67" s="1" t="inlineStr">
+      <c r="A67" s="3" t="inlineStr">
         <is>
           <t>even_MAG-GUT1914.fa</t>
         </is>
@@ -2447,17 +2258,14 @@
       <c r="F67" t="n">
         <v>0.2203482024816796</v>
       </c>
-      <c r="G67" t="n">
-        <v>0.366202294387536</v>
-      </c>
-      <c r="H67" t="inlineStr">
+      <c r="G67" t="inlineStr">
         <is>
           <t>g__Enterococcus</t>
         </is>
       </c>
     </row>
     <row r="68">
-      <c r="A68" s="1" t="inlineStr">
+      <c r="A68" s="3" t="inlineStr">
         <is>
           <t>even_MAG-GUT1946.fa</t>
         </is>
@@ -2477,17 +2285,14 @@
       <c r="F68" t="n">
         <v>0.1881858142638633</v>
       </c>
-      <c r="G68" t="n">
-        <v>0.338699373892368</v>
-      </c>
-      <c r="H68" t="inlineStr">
+      <c r="G68" t="inlineStr">
         <is>
           <t>g__Enterococcus</t>
         </is>
       </c>
     </row>
     <row r="69">
-      <c r="A69" s="1" t="inlineStr">
+      <c r="A69" s="3" t="inlineStr">
         <is>
           <t>even_MAG-GUT1959.fa</t>
         </is>
@@ -2507,17 +2312,14 @@
       <c r="F69" t="n">
         <v>0.2297295644961077</v>
       </c>
-      <c r="G69" t="n">
-        <v>0.3521464974994388</v>
-      </c>
-      <c r="H69" t="inlineStr">
+      <c r="G69" t="inlineStr">
         <is>
           <t>g__Enterococcus</t>
         </is>
       </c>
     </row>
     <row r="70">
-      <c r="A70" s="1" t="inlineStr">
+      <c r="A70" s="3" t="inlineStr">
         <is>
           <t>even_MAG-GUT2025.fa</t>
         </is>
@@ -2537,17 +2339,14 @@
       <c r="F70" t="n">
         <v>0.1345172199107464</v>
       </c>
-      <c r="G70" t="n">
-        <v>0.3362664786458258</v>
-      </c>
-      <c r="H70" t="inlineStr">
+      <c r="G70" t="inlineStr">
         <is>
           <t>g__Enterococcus_A</t>
         </is>
       </c>
     </row>
     <row r="71">
-      <c r="A71" s="1" t="inlineStr">
+      <c r="A71" s="3" t="inlineStr">
         <is>
           <t>even_MAG-GUT26238.fa</t>
         </is>
@@ -2567,17 +2366,14 @@
       <c r="F71" t="n">
         <v>0.01022481386614381</v>
       </c>
-      <c r="G71" t="n">
-        <v>0.970647976737519</v>
-      </c>
-      <c r="H71" t="inlineStr">
+      <c r="G71" t="inlineStr">
         <is>
           <t>g__Enterococcus_B</t>
         </is>
       </c>
     </row>
     <row r="72">
-      <c r="A72" s="1" t="inlineStr">
+      <c r="A72" s="3" t="inlineStr">
         <is>
           <t>even_MAG-GUT26973.fa</t>
         </is>
@@ -2597,17 +2393,14 @@
       <c r="F72" t="n">
         <v>0.02744351785236151</v>
       </c>
-      <c r="G72" t="n">
-        <v>0.9598529955911526</v>
-      </c>
-      <c r="H72" t="inlineStr">
+      <c r="G72" t="inlineStr">
         <is>
           <t>g__Enterococcus_B</t>
         </is>
       </c>
     </row>
     <row r="73">
-      <c r="A73" s="1" t="inlineStr">
+      <c r="A73" s="3" t="inlineStr">
         <is>
           <t>even_MAG-GUT3231.fa</t>
         </is>
@@ -2627,17 +2420,14 @@
       <c r="F73" t="n">
         <v>0.2241350505939142</v>
       </c>
-      <c r="G73" t="n">
-        <v>0.3045923607854293</v>
-      </c>
-      <c r="H73" t="inlineStr">
+      <c r="G73" t="inlineStr">
         <is>
           <t>g__Enterococcus</t>
         </is>
       </c>
     </row>
     <row r="74">
-      <c r="A74" s="1" t="inlineStr">
+      <c r="A74" s="3" t="inlineStr">
         <is>
           <t>even_MAG-GUT3233.fa</t>
         </is>
@@ -2657,17 +2447,14 @@
       <c r="F74" t="n">
         <v>0.2105567073616209</v>
       </c>
-      <c r="G74" t="n">
-        <v>0.313855926132341</v>
-      </c>
-      <c r="H74" t="inlineStr">
+      <c r="G74" t="inlineStr">
         <is>
           <t>g__Enterococcus</t>
         </is>
       </c>
     </row>
     <row r="75">
-      <c r="A75" s="1" t="inlineStr">
+      <c r="A75" s="3" t="inlineStr">
         <is>
           <t>even_MAG-GUT3477.fa</t>
         </is>
@@ -2687,17 +2474,14 @@
       <c r="F75" t="n">
         <v>0.1728696588660706</v>
       </c>
-      <c r="G75" t="n">
-        <v>0.3010255114909634</v>
-      </c>
-      <c r="H75" t="inlineStr">
+      <c r="G75" t="inlineStr">
         <is>
           <t>g__Enterococcus</t>
         </is>
       </c>
     </row>
     <row r="76">
-      <c r="A76" s="1" t="inlineStr">
+      <c r="A76" s="3" t="inlineStr">
         <is>
           <t>even_MAG-GUT3479.fa</t>
         </is>
@@ -2717,17 +2501,14 @@
       <c r="F76" t="n">
         <v>0.1372514664381968</v>
       </c>
-      <c r="G76" t="n">
-        <v>0.3572848607950898</v>
-      </c>
-      <c r="H76" t="inlineStr">
+      <c r="G76" t="inlineStr">
         <is>
           <t>g__Enterococcus</t>
         </is>
       </c>
     </row>
     <row r="77">
-      <c r="A77" s="1" t="inlineStr">
+      <c r="A77" s="3" t="inlineStr">
         <is>
           <t>even_MAG-GUT3484.fa</t>
         </is>
@@ -2747,17 +2528,14 @@
       <c r="F77" t="n">
         <v>0.5785448598947256</v>
       </c>
-      <c r="G77" t="n">
-        <v>0.5785448598947256</v>
-      </c>
-      <c r="H77" t="inlineStr">
+      <c r="G77" t="inlineStr">
         <is>
           <t>g__Enterococcus_D</t>
         </is>
       </c>
     </row>
     <row r="78">
-      <c r="A78" s="1" t="inlineStr">
+      <c r="A78" s="3" t="inlineStr">
         <is>
           <t>even_MAG-GUT3493.fa</t>
         </is>
@@ -2777,17 +2555,14 @@
       <c r="F78" t="n">
         <v>0.6913762777405527</v>
       </c>
-      <c r="G78" t="n">
-        <v>0.6913762777405527</v>
-      </c>
-      <c r="H78" t="inlineStr">
+      <c r="G78" t="inlineStr">
         <is>
           <t>g__Enterococcus_D</t>
         </is>
       </c>
     </row>
     <row r="79">
-      <c r="A79" s="1" t="inlineStr">
+      <c r="A79" s="3" t="inlineStr">
         <is>
           <t>even_MAG-GUT3499.fa</t>
         </is>
@@ -2807,17 +2582,14 @@
       <c r="F79" t="n">
         <v>0.3810969392272346</v>
       </c>
-      <c r="G79" t="n">
-        <v>0.3810969392272346</v>
-      </c>
-      <c r="H79" t="inlineStr">
+      <c r="G79" t="inlineStr">
         <is>
           <t>g__Enterococcus_D</t>
         </is>
       </c>
     </row>
     <row r="80">
-      <c r="A80" s="1" t="inlineStr">
+      <c r="A80" s="3" t="inlineStr">
         <is>
           <t>even_MAG-GUT3508.fa</t>
         </is>
@@ -2837,17 +2609,14 @@
       <c r="F80" t="n">
         <v>0.629564325230751</v>
       </c>
-      <c r="G80" t="n">
-        <v>0.629564325230751</v>
-      </c>
-      <c r="H80" t="inlineStr">
+      <c r="G80" t="inlineStr">
         <is>
           <t>g__Enterococcus_D</t>
         </is>
       </c>
     </row>
     <row r="81">
-      <c r="A81" s="1" t="inlineStr">
+      <c r="A81" s="3" t="inlineStr">
         <is>
           <t>even_MAG-GUT3548.fa</t>
         </is>
@@ -2867,17 +2636,14 @@
       <c r="F81" t="n">
         <v>0.2663023215050965</v>
       </c>
-      <c r="G81" t="n">
-        <v>0.2848097675419464</v>
-      </c>
-      <c r="H81" t="inlineStr">
+      <c r="G81" t="inlineStr">
         <is>
           <t>g__Enterococcus_A</t>
         </is>
       </c>
     </row>
     <row r="82">
-      <c r="A82" s="1" t="inlineStr">
+      <c r="A82" s="3" t="inlineStr">
         <is>
           <t>even_MAG-GUT3553.fa</t>
         </is>
@@ -2897,17 +2663,14 @@
       <c r="F82" t="n">
         <v>0.6147442068767074</v>
       </c>
-      <c r="G82" t="n">
-        <v>0.6147442068767074</v>
-      </c>
-      <c r="H82" t="inlineStr">
+      <c r="G82" t="inlineStr">
         <is>
           <t>g__Enterococcus_D</t>
         </is>
       </c>
     </row>
     <row r="83">
-      <c r="A83" s="1" t="inlineStr">
+      <c r="A83" s="3" t="inlineStr">
         <is>
           <t>even_MAG-GUT3561.fa</t>
         </is>
@@ -2927,17 +2690,14 @@
       <c r="F83" t="n">
         <v>0.2324019163081684</v>
       </c>
-      <c r="G83" t="n">
-        <v>0.3147557238409517</v>
-      </c>
-      <c r="H83" t="inlineStr">
+      <c r="G83" t="inlineStr">
         <is>
           <t>g__Enterococcus</t>
         </is>
       </c>
     </row>
     <row r="84">
-      <c r="A84" s="1" t="inlineStr">
+      <c r="A84" s="3" t="inlineStr">
         <is>
           <t>even_MAG-GUT41.fa</t>
         </is>
@@ -2957,17 +2717,14 @@
       <c r="F84" t="n">
         <v>0.1644021414202126</v>
       </c>
-      <c r="G84" t="n">
-        <v>0.3125308452422995</v>
-      </c>
-      <c r="H84" t="inlineStr">
+      <c r="G84" t="inlineStr">
         <is>
           <t>g__Enterococcus</t>
         </is>
       </c>
     </row>
     <row r="85">
-      <c r="A85" s="1" t="inlineStr">
+      <c r="A85" s="3" t="inlineStr">
         <is>
           <t>even_MAG-GUT43425.fa</t>
         </is>
@@ -2987,17 +2744,14 @@
       <c r="F85" t="n">
         <v>0.1929293108607933</v>
       </c>
-      <c r="G85" t="n">
-        <v>0.3598237337920027</v>
-      </c>
-      <c r="H85" t="inlineStr">
+      <c r="G85" t="inlineStr">
         <is>
           <t>g__Enterococcus</t>
         </is>
       </c>
     </row>
     <row r="86">
-      <c r="A86" s="1" t="inlineStr">
+      <c r="A86" s="3" t="inlineStr">
         <is>
           <t>even_MAG-GUT43446.fa</t>
         </is>
@@ -3017,17 +2771,14 @@
       <c r="F86" t="n">
         <v>0.2199045276602201</v>
       </c>
-      <c r="G86" t="n">
-        <v>0.3786262290580055</v>
-      </c>
-      <c r="H86" t="inlineStr">
+      <c r="G86" t="inlineStr">
         <is>
           <t>g__Enterococcus_A</t>
         </is>
       </c>
     </row>
     <row r="87">
-      <c r="A87" s="1" t="inlineStr">
+      <c r="A87" s="3" t="inlineStr">
         <is>
           <t>even_MAG-GUT43457.fa</t>
         </is>
@@ -3047,17 +2798,14 @@
       <c r="F87" t="n">
         <v>0.3415003014192887</v>
       </c>
-      <c r="G87" t="n">
-        <v>0.3415003014192887</v>
-      </c>
-      <c r="H87" t="inlineStr">
+      <c r="G87" t="inlineStr">
         <is>
           <t>g__Enterococcus_D</t>
         </is>
       </c>
     </row>
     <row r="88">
-      <c r="A88" s="1" t="inlineStr">
+      <c r="A88" s="3" t="inlineStr">
         <is>
           <t>even_MAG-GUT43462.fa</t>
         </is>
@@ -3077,17 +2825,14 @@
       <c r="F88" t="n">
         <v>0.2873083911960805</v>
       </c>
-      <c r="G88" t="n">
-        <v>0.3285358494344929</v>
-      </c>
-      <c r="H88" t="inlineStr">
+      <c r="G88" t="inlineStr">
         <is>
           <t>g__Enterococcus</t>
         </is>
       </c>
     </row>
     <row r="89">
-      <c r="A89" s="1" t="inlineStr">
+      <c r="A89" s="3" t="inlineStr">
         <is>
           <t>even_MAG-GUT43463.fa</t>
         </is>
@@ -3107,17 +2852,14 @@
       <c r="F89" t="n">
         <v>0.1233677110770195</v>
       </c>
-      <c r="G89" t="n">
-        <v>0.5273102200996922</v>
-      </c>
-      <c r="H89" t="inlineStr">
+      <c r="G89" t="inlineStr">
         <is>
           <t>g__Enterococcus_A</t>
         </is>
       </c>
     </row>
     <row r="90">
-      <c r="A90" s="1" t="inlineStr">
+      <c r="A90" s="3" t="inlineStr">
         <is>
           <t>even_MAG-GUT43483.fa</t>
         </is>
@@ -3137,17 +2879,14 @@
       <c r="F90" t="n">
         <v>0.1631473672872942</v>
       </c>
-      <c r="G90" t="n">
-        <v>0.3328217923509745</v>
-      </c>
-      <c r="H90" t="inlineStr">
+      <c r="G90" t="inlineStr">
         <is>
           <t>g__Enterococcus_A</t>
         </is>
       </c>
     </row>
     <row r="91">
-      <c r="A91" s="1" t="inlineStr">
+      <c r="A91" s="3" t="inlineStr">
         <is>
           <t>even_MAG-GUT43573.fa</t>
         </is>
@@ -3167,17 +2906,14 @@
       <c r="F91" t="n">
         <v>0.1098364807034676</v>
       </c>
-      <c r="G91" t="n">
-        <v>0.3163986400840704</v>
-      </c>
-      <c r="H91" t="inlineStr">
+      <c r="G91" t="inlineStr">
         <is>
           <t>g__Enterococcus</t>
         </is>
       </c>
     </row>
     <row r="92">
-      <c r="A92" s="1" t="inlineStr">
+      <c r="A92" s="3" t="inlineStr">
         <is>
           <t>even_MAG-GUT43577.fa</t>
         </is>
@@ -3197,17 +2933,14 @@
       <c r="F92" t="n">
         <v>0.1819391238814156</v>
       </c>
-      <c r="G92" t="n">
-        <v>0.3570493349491577</v>
-      </c>
-      <c r="H92" t="inlineStr">
+      <c r="G92" t="inlineStr">
         <is>
           <t>g__Enterococcus</t>
         </is>
       </c>
     </row>
     <row r="93">
-      <c r="A93" s="1" t="inlineStr">
+      <c r="A93" s="3" t="inlineStr">
         <is>
           <t>even_MAG-GUT43620.fa</t>
         </is>
@@ -3227,17 +2960,14 @@
       <c r="F93" t="n">
         <v>0.1819294941644333</v>
       </c>
-      <c r="G93" t="n">
-        <v>0.2983466473500487</v>
-      </c>
-      <c r="H93" t="inlineStr">
+      <c r="G93" t="inlineStr">
         <is>
           <t>g__Enterococcus</t>
         </is>
       </c>
     </row>
     <row r="94">
-      <c r="A94" s="1" t="inlineStr">
+      <c r="A94" s="3" t="inlineStr">
         <is>
           <t>even_MAG-GUT43751.fa</t>
         </is>
@@ -3257,17 +2987,14 @@
       <c r="F94" t="n">
         <v>0.1534090666917954</v>
       </c>
-      <c r="G94" t="n">
-        <v>0.3358792424868872</v>
-      </c>
-      <c r="H94" t="inlineStr">
+      <c r="G94" t="inlineStr">
         <is>
           <t>g__Enterococcus</t>
         </is>
       </c>
     </row>
     <row r="95">
-      <c r="A95" s="1" t="inlineStr">
+      <c r="A95" s="3" t="inlineStr">
         <is>
           <t>even_MAG-GUT43943.fa</t>
         </is>
@@ -3287,17 +3014,14 @@
       <c r="F95" t="n">
         <v>0.1894019972308145</v>
       </c>
-      <c r="G95" t="n">
-        <v>0.3476187353243195</v>
-      </c>
-      <c r="H95" t="inlineStr">
+      <c r="G95" t="inlineStr">
         <is>
           <t>g__Enterococcus</t>
         </is>
       </c>
     </row>
     <row r="96">
-      <c r="A96" s="1" t="inlineStr">
+      <c r="A96" s="3" t="inlineStr">
         <is>
           <t>even_MAG-GUT44002.fa</t>
         </is>
@@ -3317,17 +3041,14 @@
       <c r="F96" t="n">
         <v>0.02951103341688006</v>
       </c>
-      <c r="G96" t="n">
-        <v>0.9675409678785749</v>
-      </c>
-      <c r="H96" t="inlineStr">
+      <c r="G96" t="inlineStr">
         <is>
           <t>g__Enterococcus_B</t>
         </is>
       </c>
     </row>
     <row r="97">
-      <c r="A97" s="1" t="inlineStr">
+      <c r="A97" s="3" t="inlineStr">
         <is>
           <t>even_MAG-GUT44177.fa</t>
         </is>
@@ -3347,17 +3068,14 @@
       <c r="F97" t="n">
         <v>0.2053426131222693</v>
       </c>
-      <c r="G97" t="n">
-        <v>0.3434250942035542</v>
-      </c>
-      <c r="H97" t="inlineStr">
+      <c r="G97" t="inlineStr">
         <is>
           <t>g__Enterococcus_B</t>
         </is>
       </c>
     </row>
     <row r="98">
-      <c r="A98" s="1" t="inlineStr">
+      <c r="A98" s="3" t="inlineStr">
         <is>
           <t>even_MAG-GUT44539.fa</t>
         </is>
@@ -3377,17 +3095,14 @@
       <c r="F98" t="n">
         <v>0.1940861834767698</v>
       </c>
-      <c r="G98" t="n">
-        <v>0.3007055627029915</v>
-      </c>
-      <c r="H98" t="inlineStr">
+      <c r="G98" t="inlineStr">
         <is>
           <t>g__Enterococcus</t>
         </is>
       </c>
     </row>
     <row r="99">
-      <c r="A99" s="1" t="inlineStr">
+      <c r="A99" s="3" t="inlineStr">
         <is>
           <t>even_MAG-GUT44544.fa</t>
         </is>
@@ -3407,17 +3122,14 @@
       <c r="F99" t="n">
         <v>0.1814207646457998</v>
       </c>
-      <c r="G99" t="n">
-        <v>0.3107705256192402</v>
-      </c>
-      <c r="H99" t="inlineStr">
+      <c r="G99" t="inlineStr">
         <is>
           <t>g__Enterococcus</t>
         </is>
       </c>
     </row>
     <row r="100">
-      <c r="A100" s="1" t="inlineStr">
+      <c r="A100" s="3" t="inlineStr">
         <is>
           <t>even_MAG-GUT44617.fa</t>
         </is>
@@ -3437,17 +3149,14 @@
       <c r="F100" t="n">
         <v>0.2125538250914202</v>
       </c>
-      <c r="G100" t="n">
-        <v>0.3055268373169287</v>
-      </c>
-      <c r="H100" t="inlineStr">
+      <c r="G100" t="inlineStr">
         <is>
           <t>g__Enterococcus</t>
         </is>
       </c>
     </row>
     <row r="101">
-      <c r="A101" s="1" t="inlineStr">
+      <c r="A101" s="3" t="inlineStr">
         <is>
           <t>even_MAG-GUT44666.fa</t>
         </is>
@@ -3467,17 +3176,14 @@
       <c r="F101" t="n">
         <v>0.02951103341688006</v>
       </c>
-      <c r="G101" t="n">
-        <v>0.9675409678785749</v>
-      </c>
-      <c r="H101" t="inlineStr">
+      <c r="G101" t="inlineStr">
         <is>
           <t>g__Enterococcus_B</t>
         </is>
       </c>
     </row>
     <row r="102">
-      <c r="A102" s="1" t="inlineStr">
+      <c r="A102" s="3" t="inlineStr">
         <is>
           <t>even_MAG-GUT45882.fa</t>
         </is>
@@ -3497,17 +3203,14 @@
       <c r="F102" t="n">
         <v>0.1035105190719503</v>
       </c>
-      <c r="G102" t="n">
-        <v>0.3628112587363621</v>
-      </c>
-      <c r="H102" t="inlineStr">
+      <c r="G102" t="inlineStr">
         <is>
           <t>g__Enterococcus_B</t>
         </is>
       </c>
     </row>
     <row r="103">
-      <c r="A103" s="1" t="inlineStr">
+      <c r="A103" s="3" t="inlineStr">
         <is>
           <t>even_MAG-GUT46437.fa</t>
         </is>
@@ -3527,17 +3230,14 @@
       <c r="F103" t="n">
         <v>0.2144763884993817</v>
       </c>
-      <c r="G103" t="n">
-        <v>0.3545103186470697</v>
-      </c>
-      <c r="H103" t="inlineStr">
+      <c r="G103" t="inlineStr">
         <is>
           <t>g__Enterococcus</t>
         </is>
       </c>
     </row>
     <row r="104">
-      <c r="A104" s="1" t="inlineStr">
+      <c r="A104" s="3" t="inlineStr">
         <is>
           <t>even_MAG-GUT46441.fa</t>
         </is>
@@ -3557,17 +3257,14 @@
       <c r="F104" t="n">
         <v>0.1571754894654883</v>
       </c>
-      <c r="G104" t="n">
-        <v>0.3862010504591773</v>
-      </c>
-      <c r="H104" t="inlineStr">
+      <c r="G104" t="inlineStr">
         <is>
           <t>g__Enterococcus_A</t>
         </is>
       </c>
     </row>
     <row r="105">
-      <c r="A105" s="1" t="inlineStr">
+      <c r="A105" s="3" t="inlineStr">
         <is>
           <t>even_MAG-GUT46868.fa</t>
         </is>
@@ -3587,17 +3284,14 @@
       <c r="F105" t="n">
         <v>0.1990631270198326</v>
       </c>
-      <c r="G105" t="n">
-        <v>0.3226988581116109</v>
-      </c>
-      <c r="H105" t="inlineStr">
+      <c r="G105" t="inlineStr">
         <is>
           <t>g__Enterococcus</t>
         </is>
       </c>
     </row>
     <row r="106">
-      <c r="A106" s="1" t="inlineStr">
+      <c r="A106" s="3" t="inlineStr">
         <is>
           <t>even_MAG-GUT46962.fa</t>
         </is>
@@ -3617,17 +3311,14 @@
       <c r="F106" t="n">
         <v>0.2009560949045438</v>
       </c>
-      <c r="G106" t="n">
-        <v>0.2998578915420148</v>
-      </c>
-      <c r="H106" t="inlineStr">
+      <c r="G106" t="inlineStr">
         <is>
           <t>g__Enterococcus_A</t>
         </is>
       </c>
     </row>
     <row r="107">
-      <c r="A107" s="1" t="inlineStr">
+      <c r="A107" s="3" t="inlineStr">
         <is>
           <t>even_MAG-GUT47531.fa</t>
         </is>
@@ -3647,17 +3338,14 @@
       <c r="F107" t="n">
         <v>0.2676375017727713</v>
       </c>
-      <c r="G107" t="n">
-        <v>0.2813022517755012</v>
-      </c>
-      <c r="H107" t="inlineStr">
+      <c r="G107" t="inlineStr">
         <is>
           <t>g__Enterococcus_A</t>
         </is>
       </c>
     </row>
     <row r="108">
-      <c r="A108" s="1" t="inlineStr">
+      <c r="A108" s="3" t="inlineStr">
         <is>
           <t>even_MAG-GUT48488.fa</t>
         </is>
@@ -3677,17 +3365,14 @@
       <c r="F108" t="n">
         <v>0.1843599364010329</v>
       </c>
-      <c r="G108" t="n">
-        <v>0.3257743857683671</v>
-      </c>
-      <c r="H108" t="inlineStr">
+      <c r="G108" t="inlineStr">
         <is>
           <t>g__Enterococcus_B</t>
         </is>
       </c>
     </row>
     <row r="109">
-      <c r="A109" s="1" t="inlineStr">
+      <c r="A109" s="3" t="inlineStr">
         <is>
           <t>even_MAG-GUT48498.fa</t>
         </is>
@@ -3707,17 +3392,14 @@
       <c r="F109" t="n">
         <v>0.2231197104131842</v>
       </c>
-      <c r="G109" t="n">
-        <v>0.3281874749541047</v>
-      </c>
-      <c r="H109" t="inlineStr">
+      <c r="G109" t="inlineStr">
         <is>
           <t>g__Enterococcus</t>
         </is>
       </c>
     </row>
     <row r="110">
-      <c r="A110" s="1" t="inlineStr">
+      <c r="A110" s="3" t="inlineStr">
         <is>
           <t>even_MAG-GUT48566.fa</t>
         </is>
@@ -3737,17 +3419,14 @@
       <c r="F110" t="n">
         <v>0.2834983964093542</v>
       </c>
-      <c r="G110" t="n">
-        <v>0.3359498615864174</v>
-      </c>
-      <c r="H110" t="inlineStr">
+      <c r="G110" t="inlineStr">
         <is>
           <t>g__Enterococcus</t>
         </is>
       </c>
     </row>
     <row r="111">
-      <c r="A111" s="1" t="inlineStr">
+      <c r="A111" s="3" t="inlineStr">
         <is>
           <t>even_MAG-GUT48585.fa</t>
         </is>
@@ -3767,17 +3446,14 @@
       <c r="F111" t="n">
         <v>0.2099823664014331</v>
       </c>
-      <c r="G111" t="n">
-        <v>0.344482290832015</v>
-      </c>
-      <c r="H111" t="inlineStr">
+      <c r="G111" t="inlineStr">
         <is>
           <t>g__Enterococcus</t>
         </is>
       </c>
     </row>
     <row r="112">
-      <c r="A112" s="1" t="inlineStr">
+      <c r="A112" s="3" t="inlineStr">
         <is>
           <t>even_MAG-GUT48612.fa</t>
         </is>
@@ -3797,17 +3473,14 @@
       <c r="F112" t="n">
         <v>0.3149612578071545</v>
       </c>
-      <c r="G112" t="n">
-        <v>0.3278479106794228</v>
-      </c>
-      <c r="H112" t="inlineStr">
+      <c r="G112" t="inlineStr">
         <is>
           <t>g__Enterococcus</t>
         </is>
       </c>
     </row>
     <row r="113">
-      <c r="A113" s="1" t="inlineStr">
+      <c r="A113" s="3" t="inlineStr">
         <is>
           <t>even_MAG-GUT48629.fa</t>
         </is>
@@ -3827,17 +3500,14 @@
       <c r="F113" t="n">
         <v>0.0877066216697325</v>
       </c>
-      <c r="G113" t="n">
-        <v>0.8938830265420539</v>
-      </c>
-      <c r="H113" t="inlineStr">
+      <c r="G113" t="inlineStr">
         <is>
           <t>g__Enterococcus_B</t>
         </is>
       </c>
     </row>
     <row r="114">
-      <c r="A114" s="1" t="inlineStr">
+      <c r="A114" s="3" t="inlineStr">
         <is>
           <t>even_MAG-GUT48673.fa</t>
         </is>
@@ -3857,17 +3527,14 @@
       <c r="F114" t="n">
         <v>0.1391241636747527</v>
       </c>
-      <c r="G114" t="n">
-        <v>0.4161780035332164</v>
-      </c>
-      <c r="H114" t="inlineStr">
+      <c r="G114" t="inlineStr">
         <is>
           <t>g__Enterococcus_A</t>
         </is>
       </c>
     </row>
     <row r="115">
-      <c r="A115" s="1" t="inlineStr">
+      <c r="A115" s="3" t="inlineStr">
         <is>
           <t>even_MAG-GUT48682.fa</t>
         </is>
@@ -3887,17 +3554,14 @@
       <c r="F115" t="n">
         <v>0.03676733388976024</v>
       </c>
-      <c r="G115" t="n">
-        <v>0.9585976722437887</v>
-      </c>
-      <c r="H115" t="inlineStr">
+      <c r="G115" t="inlineStr">
         <is>
           <t>g__Enterococcus_B</t>
         </is>
       </c>
     </row>
     <row r="116">
-      <c r="A116" s="1" t="inlineStr">
+      <c r="A116" s="3" t="inlineStr">
         <is>
           <t>even_MAG-GUT48686.fa</t>
         </is>
@@ -3917,17 +3581,14 @@
       <c r="F116" t="n">
         <v>0.174883931756372</v>
       </c>
-      <c r="G116" t="n">
-        <v>0.40737685315513</v>
-      </c>
-      <c r="H116" t="inlineStr">
+      <c r="G116" t="inlineStr">
         <is>
           <t>g__Enterococcus_A</t>
         </is>
       </c>
     </row>
     <row r="117">
-      <c r="A117" s="1" t="inlineStr">
+      <c r="A117" s="3" t="inlineStr">
         <is>
           <t>even_MAG-GUT48704.fa</t>
         </is>
@@ -3947,17 +3608,14 @@
       <c r="F117" t="n">
         <v>0.1295622489609248</v>
       </c>
-      <c r="G117" t="n">
-        <v>0.3994508306328671</v>
-      </c>
-      <c r="H117" t="inlineStr">
+      <c r="G117" t="inlineStr">
         <is>
           <t>g__Enterococcus_A</t>
         </is>
       </c>
     </row>
     <row r="118">
-      <c r="A118" s="1" t="inlineStr">
+      <c r="A118" s="3" t="inlineStr">
         <is>
           <t>even_MAG-GUT48723.fa</t>
         </is>
@@ -3977,17 +3635,14 @@
       <c r="F118" t="n">
         <v>0.1344527033678412</v>
       </c>
-      <c r="G118" t="n">
-        <v>0.3582968853802493</v>
-      </c>
-      <c r="H118" t="inlineStr">
+      <c r="G118" t="inlineStr">
         <is>
           <t>g__Enterococcus_A</t>
         </is>
       </c>
     </row>
     <row r="119">
-      <c r="A119" s="1" t="inlineStr">
+      <c r="A119" s="3" t="inlineStr">
         <is>
           <t>even_MAG-GUT48749.fa</t>
         </is>
@@ -4007,17 +3662,14 @@
       <c r="F119" t="n">
         <v>0.1414480592111125</v>
       </c>
-      <c r="G119" t="n">
-        <v>0.3494330634331107</v>
-      </c>
-      <c r="H119" t="inlineStr">
+      <c r="G119" t="inlineStr">
         <is>
           <t>g__Enterococcus_A</t>
         </is>
       </c>
     </row>
     <row r="120">
-      <c r="A120" s="1" t="inlineStr">
+      <c r="A120" s="3" t="inlineStr">
         <is>
           <t>even_MAG-GUT48754.fa</t>
         </is>
@@ -4037,17 +3689,14 @@
       <c r="F120" t="n">
         <v>0.1884664524104445</v>
       </c>
-      <c r="G120" t="n">
-        <v>0.2917978452733608</v>
-      </c>
-      <c r="H120" t="inlineStr">
+      <c r="G120" t="inlineStr">
         <is>
           <t>g__Enterococcus</t>
         </is>
       </c>
     </row>
     <row r="121">
-      <c r="A121" s="1" t="inlineStr">
+      <c r="A121" s="3" t="inlineStr">
         <is>
           <t>even_MAG-GUT48761.fa</t>
         </is>
@@ -4067,17 +3716,14 @@
       <c r="F121" t="n">
         <v>0.1087954333808229</v>
       </c>
-      <c r="G121" t="n">
-        <v>0.8277252524465446</v>
-      </c>
-      <c r="H121" t="inlineStr">
+      <c r="G121" t="inlineStr">
         <is>
           <t>g__Enterococcus_A</t>
         </is>
       </c>
     </row>
     <row r="122">
-      <c r="A122" s="1" t="inlineStr">
+      <c r="A122" s="3" t="inlineStr">
         <is>
           <t>even_MAG-GUT48798.fa</t>
         </is>
@@ -4097,17 +3743,14 @@
       <c r="F122" t="n">
         <v>0.1105985504317887</v>
       </c>
-      <c r="G122" t="n">
-        <v>0.4446849358611357</v>
-      </c>
-      <c r="H122" t="inlineStr">
+      <c r="G122" t="inlineStr">
         <is>
           <t>g__Enterococcus_A</t>
         </is>
       </c>
     </row>
     <row r="123">
-      <c r="A123" s="1" t="inlineStr">
+      <c r="A123" s="3" t="inlineStr">
         <is>
           <t>even_MAG-GUT48804.fa</t>
         </is>
@@ -4127,17 +3770,14 @@
       <c r="F123" t="n">
         <v>0.2304605643276063</v>
       </c>
-      <c r="G123" t="n">
-        <v>0.3411994711246601</v>
-      </c>
-      <c r="H123" t="inlineStr">
+      <c r="G123" t="inlineStr">
         <is>
           <t>g__Enterococcus</t>
         </is>
       </c>
     </row>
     <row r="124">
-      <c r="A124" s="1" t="inlineStr">
+      <c r="A124" s="3" t="inlineStr">
         <is>
           <t>even_MAG-GUT48829.fa</t>
         </is>
@@ -4157,17 +3797,14 @@
       <c r="F124" t="n">
         <v>0.1994244597842809</v>
       </c>
-      <c r="G124" t="n">
-        <v>0.3892105612195872</v>
-      </c>
-      <c r="H124" t="inlineStr">
+      <c r="G124" t="inlineStr">
         <is>
           <t>g__Enterococcus_B</t>
         </is>
       </c>
     </row>
     <row r="125">
-      <c r="A125" s="1" t="inlineStr">
+      <c r="A125" s="3" t="inlineStr">
         <is>
           <t>even_MAG-GUT48834.fa</t>
         </is>
@@ -4187,17 +3824,14 @@
       <c r="F125" t="n">
         <v>0.1857141132965299</v>
       </c>
-      <c r="G125" t="n">
-        <v>0.3885523417777066</v>
-      </c>
-      <c r="H125" t="inlineStr">
+      <c r="G125" t="inlineStr">
         <is>
           <t>g__Enterococcus</t>
         </is>
       </c>
     </row>
     <row r="126">
-      <c r="A126" s="1" t="inlineStr">
+      <c r="A126" s="3" t="inlineStr">
         <is>
           <t>even_MAG-GUT48887.fa</t>
         </is>
@@ -4217,17 +3851,14 @@
       <c r="F126" t="n">
         <v>0.02551687890687925</v>
       </c>
-      <c r="G126" t="n">
-        <v>0.9721010873462234</v>
-      </c>
-      <c r="H126" t="inlineStr">
+      <c r="G126" t="inlineStr">
         <is>
           <t>g__Enterococcus_B</t>
         </is>
       </c>
     </row>
     <row r="127">
-      <c r="A127" s="1" t="inlineStr">
+      <c r="A127" s="3" t="inlineStr">
         <is>
           <t>even_MAG-GUT48894.fa</t>
         </is>
@@ -4247,17 +3878,14 @@
       <c r="F127" t="n">
         <v>0.1657939541239521</v>
       </c>
-      <c r="G127" t="n">
-        <v>0.3309020851674477</v>
-      </c>
-      <c r="H127" t="inlineStr">
+      <c r="G127" t="inlineStr">
         <is>
           <t>g__Enterococcus_A</t>
         </is>
       </c>
     </row>
     <row r="128">
-      <c r="A128" s="1" t="inlineStr">
+      <c r="A128" s="3" t="inlineStr">
         <is>
           <t>even_MAG-GUT48968.fa</t>
         </is>
@@ -4277,17 +3905,14 @@
       <c r="F128" t="n">
         <v>0.1853857464908569</v>
       </c>
-      <c r="G128" t="n">
-        <v>0.3529166431160994</v>
-      </c>
-      <c r="H128" t="inlineStr">
+      <c r="G128" t="inlineStr">
         <is>
           <t>g__Enterococcus</t>
         </is>
       </c>
     </row>
     <row r="129">
-      <c r="A129" s="1" t="inlineStr">
+      <c r="A129" s="3" t="inlineStr">
         <is>
           <t>even_MAG-GUT48971.fa</t>
         </is>
@@ -4307,17 +3932,14 @@
       <c r="F129" t="n">
         <v>0.232737362773829</v>
       </c>
-      <c r="G129" t="n">
-        <v>0.3533524321646254</v>
-      </c>
-      <c r="H129" t="inlineStr">
+      <c r="G129" t="inlineStr">
         <is>
           <t>g__Enterococcus</t>
         </is>
       </c>
     </row>
     <row r="130">
-      <c r="A130" s="1" t="inlineStr">
+      <c r="A130" s="3" t="inlineStr">
         <is>
           <t>even_MAG-GUT48976.fa</t>
         </is>
@@ -4337,17 +3959,14 @@
       <c r="F130" t="n">
         <v>0.2555150327444383</v>
       </c>
-      <c r="G130" t="n">
-        <v>0.2793795784951114</v>
-      </c>
-      <c r="H130" t="inlineStr">
+      <c r="G130" t="inlineStr">
         <is>
           <t>g__Enterococcus</t>
         </is>
       </c>
     </row>
     <row r="131">
-      <c r="A131" s="1" t="inlineStr">
+      <c r="A131" s="3" t="inlineStr">
         <is>
           <t>even_MAG-GUT49002.fa</t>
         </is>
@@ -4367,17 +3986,14 @@
       <c r="F131" t="n">
         <v>0.0416649682854137</v>
       </c>
-      <c r="G131" t="n">
-        <v>0.9544166663804701</v>
-      </c>
-      <c r="H131" t="inlineStr">
+      <c r="G131" t="inlineStr">
         <is>
           <t>g__Enterococcus_B</t>
         </is>
       </c>
     </row>
     <row r="132">
-      <c r="A132" s="1" t="inlineStr">
+      <c r="A132" s="3" t="inlineStr">
         <is>
           <t>even_MAG-GUT49004.fa</t>
         </is>
@@ -4397,17 +4013,14 @@
       <c r="F132" t="n">
         <v>0.2876811065200413</v>
       </c>
-      <c r="G132" t="n">
-        <v>0.3303515574761435</v>
-      </c>
-      <c r="H132" t="inlineStr">
+      <c r="G132" t="inlineStr">
         <is>
           <t>g__Enterococcus</t>
         </is>
       </c>
     </row>
     <row r="133">
-      <c r="A133" s="1" t="inlineStr">
+      <c r="A133" s="3" t="inlineStr">
         <is>
           <t>even_MAG-GUT49015.fa</t>
         </is>
@@ -4427,17 +4040,14 @@
       <c r="F133" t="n">
         <v>0.1890894232165285</v>
       </c>
-      <c r="G133" t="n">
-        <v>0.3792067141436044</v>
-      </c>
-      <c r="H133" t="inlineStr">
+      <c r="G133" t="inlineStr">
         <is>
           <t>g__Enterococcus</t>
         </is>
       </c>
     </row>
     <row r="134">
-      <c r="A134" s="1" t="inlineStr">
+      <c r="A134" s="3" t="inlineStr">
         <is>
           <t>even_MAG-GUT49023.fa</t>
         </is>
@@ -4457,17 +4067,14 @@
       <c r="F134" t="n">
         <v>0.1897262183197147</v>
       </c>
-      <c r="G134" t="n">
-        <v>0.3489329869642729</v>
-      </c>
-      <c r="H134" t="inlineStr">
+      <c r="G134" t="inlineStr">
         <is>
           <t>g__Enterococcus_B</t>
         </is>
       </c>
     </row>
     <row r="135">
-      <c r="A135" s="1" t="inlineStr">
+      <c r="A135" s="3" t="inlineStr">
         <is>
           <t>even_MAG-GUT49063.fa</t>
         </is>
@@ -4487,17 +4094,14 @@
       <c r="F135" t="n">
         <v>0.173360887376335</v>
       </c>
-      <c r="G135" t="n">
-        <v>0.5003806897750537</v>
-      </c>
-      <c r="H135" t="inlineStr">
+      <c r="G135" t="inlineStr">
         <is>
           <t>g__Enterococcus_A</t>
         </is>
       </c>
     </row>
     <row r="136">
-      <c r="A136" s="1" t="inlineStr">
+      <c r="A136" s="3" t="inlineStr">
         <is>
           <t>even_MAG-GUT49069.fa</t>
         </is>
@@ -4517,17 +4121,14 @@
       <c r="F136" t="n">
         <v>0.1385557588311895</v>
       </c>
-      <c r="G136" t="n">
-        <v>0.4118344299190337</v>
-      </c>
-      <c r="H136" t="inlineStr">
+      <c r="G136" t="inlineStr">
         <is>
           <t>g__Enterococcus_A</t>
         </is>
       </c>
     </row>
     <row r="137">
-      <c r="A137" s="1" t="inlineStr">
+      <c r="A137" s="3" t="inlineStr">
         <is>
           <t>even_MAG-GUT49070.fa</t>
         </is>
@@ -4547,17 +4148,14 @@
       <c r="F137" t="n">
         <v>0.2026250764436629</v>
       </c>
-      <c r="G137" t="n">
-        <v>0.3508228707743934</v>
-      </c>
-      <c r="H137" t="inlineStr">
+      <c r="G137" t="inlineStr">
         <is>
           <t>g__Enterococcus</t>
         </is>
       </c>
     </row>
     <row r="138">
-      <c r="A138" s="1" t="inlineStr">
+      <c r="A138" s="3" t="inlineStr">
         <is>
           <t>even_MAG-GUT49075.fa</t>
         </is>
@@ -4577,17 +4175,14 @@
       <c r="F138" t="n">
         <v>0.1217540424846325</v>
       </c>
-      <c r="G138" t="n">
-        <v>0.3370058193971783</v>
-      </c>
-      <c r="H138" t="inlineStr">
+      <c r="G138" t="inlineStr">
         <is>
           <t>g__Enterococcus</t>
         </is>
       </c>
     </row>
     <row r="139">
-      <c r="A139" s="1" t="inlineStr">
+      <c r="A139" s="3" t="inlineStr">
         <is>
           <t>even_MAG-GUT49083.fa</t>
         </is>
@@ -4607,17 +4202,14 @@
       <c r="F139" t="n">
         <v>0.3079397669352137</v>
       </c>
-      <c r="G139" t="n">
-        <v>0.3388044091155614</v>
-      </c>
-      <c r="H139" t="inlineStr">
+      <c r="G139" t="inlineStr">
         <is>
           <t>g__Enterococcus</t>
         </is>
       </c>
     </row>
     <row r="140">
-      <c r="A140" s="1" t="inlineStr">
+      <c r="A140" s="3" t="inlineStr">
         <is>
           <t>even_MAG-GUT49101.fa</t>
         </is>
@@ -4637,17 +4229,14 @@
       <c r="F140" t="n">
         <v>0.2412244886582612</v>
       </c>
-      <c r="G140" t="n">
-        <v>0.341613614225335</v>
-      </c>
-      <c r="H140" t="inlineStr">
+      <c r="G140" t="inlineStr">
         <is>
           <t>g__Enterococcus</t>
         </is>
       </c>
     </row>
     <row r="141">
-      <c r="A141" s="1" t="inlineStr">
+      <c r="A141" s="3" t="inlineStr">
         <is>
           <t>even_MAG-GUT49118.fa</t>
         </is>
@@ -4667,17 +4256,14 @@
       <c r="F141" t="n">
         <v>0.1002680224798065</v>
       </c>
-      <c r="G141" t="n">
-        <v>0.5018146654257354</v>
-      </c>
-      <c r="H141" t="inlineStr">
+      <c r="G141" t="inlineStr">
         <is>
           <t>g__Enterococcus_A</t>
         </is>
       </c>
     </row>
     <row r="142">
-      <c r="A142" s="1" t="inlineStr">
+      <c r="A142" s="3" t="inlineStr">
         <is>
           <t>even_MAG-GUT49170.fa</t>
         </is>
@@ -4697,17 +4283,14 @@
       <c r="F142" t="n">
         <v>0.2123698746546543</v>
       </c>
-      <c r="G142" t="n">
-        <v>0.3103497570947083</v>
-      </c>
-      <c r="H142" t="inlineStr">
+      <c r="G142" t="inlineStr">
         <is>
           <t>g__Enterococcus</t>
         </is>
       </c>
     </row>
     <row r="143">
-      <c r="A143" s="1" t="inlineStr">
+      <c r="A143" s="3" t="inlineStr">
         <is>
           <t>even_MAG-GUT49176.fa</t>
         </is>
@@ -4727,17 +4310,14 @@
       <c r="F143" t="n">
         <v>0.1649005103228045</v>
       </c>
-      <c r="G143" t="n">
-        <v>0.4916619056780643</v>
-      </c>
-      <c r="H143" t="inlineStr">
+      <c r="G143" t="inlineStr">
         <is>
           <t>g__Enterococcus_A</t>
         </is>
       </c>
     </row>
     <row r="144">
-      <c r="A144" s="1" t="inlineStr">
+      <c r="A144" s="3" t="inlineStr">
         <is>
           <t>even_MAG-GUT49226.fa</t>
         </is>
@@ -4757,17 +4337,14 @@
       <c r="F144" t="n">
         <v>0.08306217764900728</v>
       </c>
-      <c r="G144" t="n">
-        <v>0.6155738873021223</v>
-      </c>
-      <c r="H144" t="inlineStr">
+      <c r="G144" t="inlineStr">
         <is>
           <t>g__Enterococcus_A</t>
         </is>
       </c>
     </row>
     <row r="145">
-      <c r="A145" s="1" t="inlineStr">
+      <c r="A145" s="3" t="inlineStr">
         <is>
           <t>even_MAG-GUT49236.fa</t>
         </is>
@@ -4787,17 +4364,14 @@
       <c r="F145" t="n">
         <v>0.2559341760371005</v>
       </c>
-      <c r="G145" t="n">
-        <v>0.3152618888592244</v>
-      </c>
-      <c r="H145" t="inlineStr">
+      <c r="G145" t="inlineStr">
         <is>
           <t>g__Enterococcus</t>
         </is>
       </c>
     </row>
     <row r="146">
-      <c r="A146" s="1" t="inlineStr">
+      <c r="A146" s="3" t="inlineStr">
         <is>
           <t>even_MAG-GUT49289.fa</t>
         </is>
@@ -4817,17 +4391,14 @@
       <c r="F146" t="n">
         <v>0.2447846500642419</v>
       </c>
-      <c r="G146" t="n">
-        <v>0.3635353448956904</v>
-      </c>
-      <c r="H146" t="inlineStr">
+      <c r="G146" t="inlineStr">
         <is>
           <t>g__Enterococcus</t>
         </is>
       </c>
     </row>
     <row r="147">
-      <c r="A147" s="1" t="inlineStr">
+      <c r="A147" s="3" t="inlineStr">
         <is>
           <t>even_MAG-GUT49297.fa</t>
         </is>
@@ -4847,17 +4418,14 @@
       <c r="F147" t="n">
         <v>0.0937140910096475</v>
       </c>
-      <c r="G147" t="n">
-        <v>0.3037902955399197</v>
-      </c>
-      <c r="H147" t="inlineStr">
+      <c r="G147" t="inlineStr">
         <is>
           <t>g__Enterococcus_B</t>
         </is>
       </c>
     </row>
     <row r="148">
-      <c r="A148" s="1" t="inlineStr">
+      <c r="A148" s="3" t="inlineStr">
         <is>
           <t>even_MAG-GUT49302.fa</t>
         </is>
@@ -4877,17 +4445,14 @@
       <c r="F148" t="n">
         <v>0.1657151328845335</v>
       </c>
-      <c r="G148" t="n">
-        <v>0.367346248638818</v>
-      </c>
-      <c r="H148" t="inlineStr">
+      <c r="G148" t="inlineStr">
         <is>
           <t>g__Enterococcus</t>
         </is>
       </c>
     </row>
     <row r="149">
-      <c r="A149" s="1" t="inlineStr">
+      <c r="A149" s="3" t="inlineStr">
         <is>
           <t>even_MAG-GUT49315.fa</t>
         </is>
@@ -4907,17 +4472,14 @@
       <c r="F149" t="n">
         <v>0.2091259234366327</v>
       </c>
-      <c r="G149" t="n">
-        <v>0.3431015974332898</v>
-      </c>
-      <c r="H149" t="inlineStr">
+      <c r="G149" t="inlineStr">
         <is>
           <t>g__Enterococcus</t>
         </is>
       </c>
     </row>
     <row r="150">
-      <c r="A150" s="1" t="inlineStr">
+      <c r="A150" s="3" t="inlineStr">
         <is>
           <t>even_MAG-GUT49326.fa</t>
         </is>
@@ -4937,17 +4499,14 @@
       <c r="F150" t="n">
         <v>0.1526930085434667</v>
       </c>
-      <c r="G150" t="n">
-        <v>0.3317756781647319</v>
-      </c>
-      <c r="H150" t="inlineStr">
+      <c r="G150" t="inlineStr">
         <is>
           <t>g__Enterococcus_A</t>
         </is>
       </c>
     </row>
     <row r="151">
-      <c r="A151" s="1" t="inlineStr">
+      <c r="A151" s="3" t="inlineStr">
         <is>
           <t>even_MAG-GUT49329.fa</t>
         </is>
@@ -4967,17 +4526,14 @@
       <c r="F151" t="n">
         <v>0.2091259234366327</v>
       </c>
-      <c r="G151" t="n">
-        <v>0.3431015974332898</v>
-      </c>
-      <c r="H151" t="inlineStr">
+      <c r="G151" t="inlineStr">
         <is>
           <t>g__Enterococcus</t>
         </is>
       </c>
     </row>
     <row r="152">
-      <c r="A152" s="1" t="inlineStr">
+      <c r="A152" s="3" t="inlineStr">
         <is>
           <t>even_MAG-GUT49356.fa</t>
         </is>
@@ -4997,17 +4553,14 @@
       <c r="F152" t="n">
         <v>0.2125555133755225</v>
       </c>
-      <c r="G152" t="n">
-        <v>0.3339050019984174</v>
-      </c>
-      <c r="H152" t="inlineStr">
+      <c r="G152" t="inlineStr">
         <is>
           <t>g__Enterococcus_A</t>
         </is>
       </c>
     </row>
     <row r="153">
-      <c r="A153" s="1" t="inlineStr">
+      <c r="A153" s="3" t="inlineStr">
         <is>
           <t>even_MAG-GUT49359.fa</t>
         </is>
@@ -5027,17 +4580,14 @@
       <c r="F153" t="n">
         <v>0.2053373554606605</v>
       </c>
-      <c r="G153" t="n">
-        <v>0.320737435366818</v>
-      </c>
-      <c r="H153" t="inlineStr">
+      <c r="G153" t="inlineStr">
         <is>
           <t>g__Enterococcus</t>
         </is>
       </c>
     </row>
     <row r="154">
-      <c r="A154" s="1" t="inlineStr">
+      <c r="A154" s="3" t="inlineStr">
         <is>
           <t>even_MAG-GUT49379.fa</t>
         </is>
@@ -5057,17 +4607,14 @@
       <c r="F154" t="n">
         <v>0.05132387310358882</v>
       </c>
-      <c r="G154" t="n">
-        <v>0.9426418815520536</v>
-      </c>
-      <c r="H154" t="inlineStr">
+      <c r="G154" t="inlineStr">
         <is>
           <t>g__Enterococcus_B</t>
         </is>
       </c>
     </row>
     <row r="155">
-      <c r="A155" s="1" t="inlineStr">
+      <c r="A155" s="3" t="inlineStr">
         <is>
           <t>even_MAG-GUT49393.fa</t>
         </is>
@@ -5087,17 +4634,14 @@
       <c r="F155" t="n">
         <v>0.1229508856082399</v>
       </c>
-      <c r="G155" t="n">
-        <v>0.3465330367658007</v>
-      </c>
-      <c r="H155" t="inlineStr">
+      <c r="G155" t="inlineStr">
         <is>
           <t>g__Enterococcus_A</t>
         </is>
       </c>
     </row>
     <row r="156">
-      <c r="A156" s="1" t="inlineStr">
+      <c r="A156" s="3" t="inlineStr">
         <is>
           <t>even_MAG-GUT49403.fa</t>
         </is>
@@ -5117,17 +4661,14 @@
       <c r="F156" t="n">
         <v>0.2436316756167422</v>
       </c>
-      <c r="G156" t="n">
-        <v>0.3662230877745892</v>
-      </c>
-      <c r="H156" t="inlineStr">
+      <c r="G156" t="inlineStr">
         <is>
           <t>g__Enterococcus</t>
         </is>
       </c>
     </row>
     <row r="157">
-      <c r="A157" s="1" t="inlineStr">
+      <c r="A157" s="3" t="inlineStr">
         <is>
           <t>even_MAG-GUT49409.fa</t>
         </is>
@@ -5147,17 +4688,14 @@
       <c r="F157" t="n">
         <v>0.2130774232347323</v>
       </c>
-      <c r="G157" t="n">
-        <v>0.4394673598712531</v>
-      </c>
-      <c r="H157" t="inlineStr">
+      <c r="G157" t="inlineStr">
         <is>
           <t>g__Enterococcus_A</t>
         </is>
       </c>
     </row>
     <row r="158">
-      <c r="A158" s="1" t="inlineStr">
+      <c r="A158" s="3" t="inlineStr">
         <is>
           <t>even_MAG-GUT49456.fa</t>
         </is>
@@ -5177,17 +4715,14 @@
       <c r="F158" t="n">
         <v>0.1539122093899229</v>
       </c>
-      <c r="G158" t="n">
-        <v>0.2951703133812109</v>
-      </c>
-      <c r="H158" t="inlineStr">
+      <c r="G158" t="inlineStr">
         <is>
           <t>g__Enterococcus</t>
         </is>
       </c>
     </row>
     <row r="159">
-      <c r="A159" s="1" t="inlineStr">
+      <c r="A159" s="3" t="inlineStr">
         <is>
           <t>even_MAG-GUT49458.fa</t>
         </is>
@@ -5207,17 +4742,14 @@
       <c r="F159" t="n">
         <v>0.1606813287983407</v>
       </c>
-      <c r="G159" t="n">
-        <v>0.3989361009358826</v>
-      </c>
-      <c r="H159" t="inlineStr">
+      <c r="G159" t="inlineStr">
         <is>
           <t>g__Enterococcus_A</t>
         </is>
       </c>
     </row>
     <row r="160">
-      <c r="A160" s="1" t="inlineStr">
+      <c r="A160" s="3" t="inlineStr">
         <is>
           <t>even_MAG-GUT49469.fa</t>
         </is>
@@ -5237,17 +4769,14 @@
       <c r="F160" t="n">
         <v>0.2288460844543087</v>
       </c>
-      <c r="G160" t="n">
-        <v>0.349456248524778</v>
-      </c>
-      <c r="H160" t="inlineStr">
+      <c r="G160" t="inlineStr">
         <is>
           <t>g__Enterococcus</t>
         </is>
       </c>
     </row>
     <row r="161">
-      <c r="A161" s="1" t="inlineStr">
+      <c r="A161" s="3" t="inlineStr">
         <is>
           <t>even_MAG-GUT49499.fa</t>
         </is>
@@ -5267,17 +4796,14 @@
       <c r="F161" t="n">
         <v>0.1745419565040984</v>
       </c>
-      <c r="G161" t="n">
-        <v>0.6751135550800732</v>
-      </c>
-      <c r="H161" t="inlineStr">
+      <c r="G161" t="inlineStr">
         <is>
           <t>g__Enterococcus_A</t>
         </is>
       </c>
     </row>
     <row r="162">
-      <c r="A162" s="1" t="inlineStr">
+      <c r="A162" s="3" t="inlineStr">
         <is>
           <t>even_MAG-GUT49512.fa</t>
         </is>
@@ -5297,17 +4823,14 @@
       <c r="F162" t="n">
         <v>0.2063013973847576</v>
       </c>
-      <c r="G162" t="n">
-        <v>0.3348749429609948</v>
-      </c>
-      <c r="H162" t="inlineStr">
+      <c r="G162" t="inlineStr">
         <is>
           <t>g__Enterococcus_A</t>
         </is>
       </c>
     </row>
     <row r="163">
-      <c r="A163" s="1" t="inlineStr">
+      <c r="A163" s="3" t="inlineStr">
         <is>
           <t>even_MAG-GUT49529.fa</t>
         </is>
@@ -5327,17 +4850,14 @@
       <c r="F163" t="n">
         <v>0.1858713288686627</v>
       </c>
-      <c r="G163" t="n">
-        <v>0.321411163350737</v>
-      </c>
-      <c r="H163" t="inlineStr">
+      <c r="G163" t="inlineStr">
         <is>
           <t>g__Enterococcus</t>
         </is>
       </c>
     </row>
     <row r="164">
-      <c r="A164" s="1" t="inlineStr">
+      <c r="A164" s="3" t="inlineStr">
         <is>
           <t>even_MAG-GUT49535.fa</t>
         </is>
@@ -5357,17 +4877,14 @@
       <c r="F164" t="n">
         <v>0.1869298943978632</v>
       </c>
-      <c r="G164" t="n">
-        <v>0.3337820288574253</v>
-      </c>
-      <c r="H164" t="inlineStr">
+      <c r="G164" t="inlineStr">
         <is>
           <t>g__Enterococcus</t>
         </is>
       </c>
     </row>
     <row r="165">
-      <c r="A165" s="1" t="inlineStr">
+      <c r="A165" s="3" t="inlineStr">
         <is>
           <t>even_MAG-GUT49539.fa</t>
         </is>
@@ -5387,17 +4904,14 @@
       <c r="F165" t="n">
         <v>0.2091259234366327</v>
       </c>
-      <c r="G165" t="n">
-        <v>0.3431015974332898</v>
-      </c>
-      <c r="H165" t="inlineStr">
+      <c r="G165" t="inlineStr">
         <is>
           <t>g__Enterococcus</t>
         </is>
       </c>
     </row>
     <row r="166">
-      <c r="A166" s="1" t="inlineStr">
+      <c r="A166" s="3" t="inlineStr">
         <is>
           <t>even_MAG-GUT49541.fa</t>
         </is>
@@ -5417,17 +4931,14 @@
       <c r="F166" t="n">
         <v>0.2014474736403246</v>
       </c>
-      <c r="G166" t="n">
-        <v>0.370096192920807</v>
-      </c>
-      <c r="H166" t="inlineStr">
+      <c r="G166" t="inlineStr">
         <is>
           <t>g__Enterococcus</t>
         </is>
       </c>
     </row>
     <row r="167">
-      <c r="A167" s="1" t="inlineStr">
+      <c r="A167" s="3" t="inlineStr">
         <is>
           <t>even_MAG-GUT49567.fa</t>
         </is>
@@ -5447,17 +4958,14 @@
       <c r="F167" t="n">
         <v>0.09540412610222954</v>
       </c>
-      <c r="G167" t="n">
-        <v>0.8780378397854707</v>
-      </c>
-      <c r="H167" t="inlineStr">
+      <c r="G167" t="inlineStr">
         <is>
           <t>g__Enterococcus_B</t>
         </is>
       </c>
     </row>
     <row r="168">
-      <c r="A168" s="1" t="inlineStr">
+      <c r="A168" s="3" t="inlineStr">
         <is>
           <t>even_MAG-GUT49574.fa</t>
         </is>
@@ -5477,17 +4985,14 @@
       <c r="F168" t="n">
         <v>0.0732903291157995</v>
       </c>
-      <c r="G168" t="n">
-        <v>0.4301850175641927</v>
-      </c>
-      <c r="H168" t="inlineStr">
+      <c r="G168" t="inlineStr">
         <is>
           <t>g__Enterococcus_A</t>
         </is>
       </c>
     </row>
     <row r="169">
-      <c r="A169" s="1" t="inlineStr">
+      <c r="A169" s="3" t="inlineStr">
         <is>
           <t>even_MAG-GUT49593.fa</t>
         </is>
@@ -5507,17 +5012,14 @@
       <c r="F169" t="n">
         <v>0.1812528934458618</v>
       </c>
-      <c r="G169" t="n">
-        <v>0.3146685597898164</v>
-      </c>
-      <c r="H169" t="inlineStr">
+      <c r="G169" t="inlineStr">
         <is>
           <t>g__Enterococcus_A</t>
         </is>
       </c>
     </row>
     <row r="170">
-      <c r="A170" s="1" t="inlineStr">
+      <c r="A170" s="3" t="inlineStr">
         <is>
           <t>even_MAG-GUT49599.fa</t>
         </is>
@@ -5537,17 +5039,14 @@
       <c r="F170" t="n">
         <v>0.2667914463224633</v>
       </c>
-      <c r="G170" t="n">
-        <v>0.32097487418419</v>
-      </c>
-      <c r="H170" t="inlineStr">
+      <c r="G170" t="inlineStr">
         <is>
           <t>g__Enterococcus_A</t>
         </is>
       </c>
     </row>
     <row r="171">
-      <c r="A171" s="1" t="inlineStr">
+      <c r="A171" s="3" t="inlineStr">
         <is>
           <t>even_MAG-GUT49609.fa</t>
         </is>
@@ -5567,17 +5066,14 @@
       <c r="F171" t="n">
         <v>0.2136011955735046</v>
       </c>
-      <c r="G171" t="n">
-        <v>0.3105760465086646</v>
-      </c>
-      <c r="H171" t="inlineStr">
+      <c r="G171" t="inlineStr">
         <is>
           <t>g__Enterococcus</t>
         </is>
       </c>
     </row>
     <row r="172">
-      <c r="A172" s="1" t="inlineStr">
+      <c r="A172" s="3" t="inlineStr">
         <is>
           <t>even_MAG-GUT49616.fa</t>
         </is>
@@ -5597,17 +5093,14 @@
       <c r="F172" t="n">
         <v>0.1373136691132988</v>
       </c>
-      <c r="G172" t="n">
-        <v>0.3364106161547767</v>
-      </c>
-      <c r="H172" t="inlineStr">
+      <c r="G172" t="inlineStr">
         <is>
           <t>g__Enterococcus_A</t>
         </is>
       </c>
     </row>
     <row r="173">
-      <c r="A173" s="1" t="inlineStr">
+      <c r="A173" s="3" t="inlineStr">
         <is>
           <t>even_MAG-GUT51.fa</t>
         </is>
@@ -5627,17 +5120,14 @@
       <c r="F173" t="n">
         <v>0.04095848391616898</v>
       </c>
-      <c r="G173" t="n">
-        <v>0.8979672815463214</v>
-      </c>
-      <c r="H173" t="inlineStr">
+      <c r="G173" t="inlineStr">
         <is>
           <t>g__Enterococcus_B</t>
         </is>
       </c>
     </row>
     <row r="174">
-      <c r="A174" s="1" t="inlineStr">
+      <c r="A174" s="3" t="inlineStr">
         <is>
           <t>even_MAG-GUT57264.fa</t>
         </is>
@@ -5657,17 +5147,14 @@
       <c r="F174" t="n">
         <v>0.2263381901451334</v>
       </c>
-      <c r="G174" t="n">
-        <v>0.3306451484433042</v>
-      </c>
-      <c r="H174" t="inlineStr">
+      <c r="G174" t="inlineStr">
         <is>
           <t>g__Enterococcus_A</t>
         </is>
       </c>
     </row>
     <row r="175">
-      <c r="A175" s="1" t="inlineStr">
+      <c r="A175" s="3" t="inlineStr">
         <is>
           <t>even_MAG-GUT57442.fa</t>
         </is>
@@ -5687,17 +5174,14 @@
       <c r="F175" t="n">
         <v>0.1407136849275033</v>
       </c>
-      <c r="G175" t="n">
-        <v>0.3526082481660303</v>
-      </c>
-      <c r="H175" t="inlineStr">
+      <c r="G175" t="inlineStr">
         <is>
           <t>g__Enterococcus_A</t>
         </is>
       </c>
     </row>
     <row r="176">
-      <c r="A176" s="1" t="inlineStr">
+      <c r="A176" s="3" t="inlineStr">
         <is>
           <t>even_MAG-GUT61880.fa</t>
         </is>
@@ -5717,17 +5201,14 @@
       <c r="F176" t="n">
         <v>0.23222942027106</v>
       </c>
-      <c r="G176" t="n">
-        <v>0.3105127511738453</v>
-      </c>
-      <c r="H176" t="inlineStr">
+      <c r="G176" t="inlineStr">
         <is>
           <t>g__Enterococcus_A</t>
         </is>
       </c>
     </row>
     <row r="177">
-      <c r="A177" s="1" t="inlineStr">
+      <c r="A177" s="3" t="inlineStr">
         <is>
           <t>even_MAG-GUT6222.fa</t>
         </is>
@@ -5747,17 +5228,14 @@
       <c r="F177" t="n">
         <v>0.1567100313328863</v>
       </c>
-      <c r="G177" t="n">
-        <v>0.335612900655702</v>
-      </c>
-      <c r="H177" t="inlineStr">
+      <c r="G177" t="inlineStr">
         <is>
           <t>g__Enterococcus</t>
         </is>
       </c>
     </row>
     <row r="178">
-      <c r="A178" s="1" t="inlineStr">
+      <c r="A178" s="3" t="inlineStr">
         <is>
           <t>even_MAG-GUT6229.fa</t>
         </is>
@@ -5777,17 +5255,14 @@
       <c r="F178" t="n">
         <v>0.170119381406762</v>
       </c>
-      <c r="G178" t="n">
-        <v>0.3181054415515887</v>
-      </c>
-      <c r="H178" t="inlineStr">
+      <c r="G178" t="inlineStr">
         <is>
           <t>g__Enterococcus</t>
         </is>
       </c>
     </row>
     <row r="179">
-      <c r="A179" s="1" t="inlineStr">
+      <c r="A179" s="3" t="inlineStr">
         <is>
           <t>even_MAG-GUT6233.fa</t>
         </is>
@@ -5807,17 +5282,14 @@
       <c r="F179" t="n">
         <v>0.1920942233616859</v>
       </c>
-      <c r="G179" t="n">
-        <v>0.3593127274003313</v>
-      </c>
-      <c r="H179" t="inlineStr">
+      <c r="G179" t="inlineStr">
         <is>
           <t>g__Enterococcus</t>
         </is>
       </c>
     </row>
     <row r="180">
-      <c r="A180" s="1" t="inlineStr">
+      <c r="A180" s="3" t="inlineStr">
         <is>
           <t>even_MAG-GUT6238.fa</t>
         </is>
@@ -5837,17 +5309,14 @@
       <c r="F180" t="n">
         <v>0.1968126618576397</v>
       </c>
-      <c r="G180" t="n">
-        <v>0.3480987986386501</v>
-      </c>
-      <c r="H180" t="inlineStr">
+      <c r="G180" t="inlineStr">
         <is>
           <t>g__Enterococcus</t>
         </is>
       </c>
     </row>
     <row r="181">
-      <c r="A181" s="1" t="inlineStr">
+      <c r="A181" s="3" t="inlineStr">
         <is>
           <t>even_MAG-GUT6241.fa</t>
         </is>
@@ -5867,17 +5336,14 @@
       <c r="F181" t="n">
         <v>0.1316031686551146</v>
       </c>
-      <c r="G181" t="n">
-        <v>0.3601838133029244</v>
-      </c>
-      <c r="H181" t="inlineStr">
+      <c r="G181" t="inlineStr">
         <is>
           <t>g__Enterococcus</t>
         </is>
       </c>
     </row>
     <row r="182">
-      <c r="A182" s="1" t="inlineStr">
+      <c r="A182" s="3" t="inlineStr">
         <is>
           <t>even_MAG-GUT6274.fa</t>
         </is>
@@ -5897,17 +5363,14 @@
       <c r="F182" t="n">
         <v>0.170119381406762</v>
       </c>
-      <c r="G182" t="n">
-        <v>0.3181054415515887</v>
-      </c>
-      <c r="H182" t="inlineStr">
+      <c r="G182" t="inlineStr">
         <is>
           <t>g__Enterococcus</t>
         </is>
       </c>
     </row>
     <row r="183">
-      <c r="A183" s="1" t="inlineStr">
+      <c r="A183" s="3" t="inlineStr">
         <is>
           <t>even_MAG-GUT6291.fa</t>
         </is>
@@ -5927,17 +5390,14 @@
       <c r="F183" t="n">
         <v>0.177485147018431</v>
       </c>
-      <c r="G183" t="n">
-        <v>0.3375994249873501</v>
-      </c>
-      <c r="H183" t="inlineStr">
+      <c r="G183" t="inlineStr">
         <is>
           <t>g__Enterococcus</t>
         </is>
       </c>
     </row>
     <row r="184">
-      <c r="A184" s="1" t="inlineStr">
+      <c r="A184" s="3" t="inlineStr">
         <is>
           <t>even_MAG-GUT67625.fa</t>
         </is>
@@ -5957,17 +5417,14 @@
       <c r="F184" t="n">
         <v>0.6287440166235236</v>
       </c>
-      <c r="G184" t="n">
-        <v>0.6287440166235236</v>
-      </c>
-      <c r="H184" t="inlineStr">
+      <c r="G184" t="inlineStr">
         <is>
           <t>g__Enterococcus_D</t>
         </is>
       </c>
     </row>
     <row r="185">
-      <c r="A185" s="1" t="inlineStr">
+      <c r="A185" s="3" t="inlineStr">
         <is>
           <t>even_MAG-GUT67985.fa</t>
         </is>
@@ -5987,17 +5444,14 @@
       <c r="F185" t="n">
         <v>0.01524809163089337</v>
       </c>
-      <c r="G185" t="n">
-        <v>0.9792813397317202</v>
-      </c>
-      <c r="H185" t="inlineStr">
+      <c r="G185" t="inlineStr">
         <is>
           <t>g__Enterococcus_B</t>
         </is>
       </c>
     </row>
     <row r="186">
-      <c r="A186" s="1" t="inlineStr">
+      <c r="A186" s="3" t="inlineStr">
         <is>
           <t>even_MAG-GUT68043.fa</t>
         </is>
@@ -6017,17 +5471,14 @@
       <c r="F186" t="n">
         <v>0.248130202785394</v>
       </c>
-      <c r="G186" t="n">
-        <v>0.3950977948953934</v>
-      </c>
-      <c r="H186" t="inlineStr">
+      <c r="G186" t="inlineStr">
         <is>
           <t>g__Enterococcus_A</t>
         </is>
       </c>
     </row>
     <row r="187">
-      <c r="A187" s="1" t="inlineStr">
+      <c r="A187" s="3" t="inlineStr">
         <is>
           <t>even_MAG-GUT68111.fa</t>
         </is>
@@ -6047,17 +5498,14 @@
       <c r="F187" t="n">
         <v>0.025464389923537</v>
       </c>
-      <c r="G187" t="n">
-        <v>0.9671761658820516</v>
-      </c>
-      <c r="H187" t="inlineStr">
+      <c r="G187" t="inlineStr">
         <is>
           <t>g__Enterococcus_B</t>
         </is>
       </c>
     </row>
     <row r="188">
-      <c r="A188" s="1" t="inlineStr">
+      <c r="A188" s="3" t="inlineStr">
         <is>
           <t>even_MAG-GUT68629.fa</t>
         </is>
@@ -6077,17 +5525,14 @@
       <c r="F188" t="n">
         <v>0.06721092088865341</v>
       </c>
-      <c r="G188" t="n">
-        <v>0.6077714851412771</v>
-      </c>
-      <c r="H188" t="inlineStr">
+      <c r="G188" t="inlineStr">
         <is>
           <t>g__Enterococcus_A</t>
         </is>
       </c>
     </row>
     <row r="189">
-      <c r="A189" s="1" t="inlineStr">
+      <c r="A189" s="3" t="inlineStr">
         <is>
           <t>even_MAG-GUT68640.fa</t>
         </is>
@@ -6107,17 +5552,14 @@
       <c r="F189" t="n">
         <v>0.04412827794896684</v>
       </c>
-      <c r="G189" t="n">
-        <v>0.9451285538904851</v>
-      </c>
-      <c r="H189" t="inlineStr">
+      <c r="G189" t="inlineStr">
         <is>
           <t>g__Enterococcus_B</t>
         </is>
       </c>
     </row>
     <row r="190">
-      <c r="A190" s="1" t="inlineStr">
+      <c r="A190" s="3" t="inlineStr">
         <is>
           <t>even_MAG-GUT69501.fa</t>
         </is>
@@ -6137,17 +5579,14 @@
       <c r="F190" t="n">
         <v>0.1727714882217034</v>
       </c>
-      <c r="G190" t="n">
-        <v>0.3392694349138431</v>
-      </c>
-      <c r="H190" t="inlineStr">
+      <c r="G190" t="inlineStr">
         <is>
           <t>g__Enterococcus</t>
         </is>
       </c>
     </row>
     <row r="191">
-      <c r="A191" s="1" t="inlineStr">
+      <c r="A191" s="3" t="inlineStr">
         <is>
           <t>even_MAG-GUT7062.fa</t>
         </is>
@@ -6167,17 +5606,14 @@
       <c r="F191" t="n">
         <v>0.1748477621083583</v>
       </c>
-      <c r="G191" t="n">
-        <v>0.3640557023289368</v>
-      </c>
-      <c r="H191" t="inlineStr">
+      <c r="G191" t="inlineStr">
         <is>
           <t>g__Enterococcus</t>
         </is>
       </c>
     </row>
     <row r="192">
-      <c r="A192" s="1" t="inlineStr">
+      <c r="A192" s="3" t="inlineStr">
         <is>
           <t>even_MAG-GUT7086.fa</t>
         </is>
@@ -6197,17 +5633,14 @@
       <c r="F192" t="n">
         <v>0.02141065255837418</v>
       </c>
-      <c r="G192" t="n">
-        <v>0.9659920840409448</v>
-      </c>
-      <c r="H192" t="inlineStr">
+      <c r="G192" t="inlineStr">
         <is>
           <t>g__Enterococcus_B</t>
         </is>
       </c>
     </row>
     <row r="193">
-      <c r="A193" s="1" t="inlineStr">
+      <c r="A193" s="3" t="inlineStr">
         <is>
           <t>even_MAG-GUT7090.fa</t>
         </is>
@@ -6227,17 +5660,14 @@
       <c r="F193" t="n">
         <v>0.3035334036154452</v>
       </c>
-      <c r="G193" t="n">
-        <v>0.3165416787459956</v>
-      </c>
-      <c r="H193" t="inlineStr">
+      <c r="G193" t="inlineStr">
         <is>
           <t>g__Enterococcus</t>
         </is>
       </c>
     </row>
     <row r="194">
-      <c r="A194" s="1" t="inlineStr">
+      <c r="A194" s="3" t="inlineStr">
         <is>
           <t>even_MAG-GUT7102.fa</t>
         </is>
@@ -6257,17 +5687,14 @@
       <c r="F194" t="n">
         <v>0.2103799398882068</v>
       </c>
-      <c r="G194" t="n">
-        <v>0.3550306712934223</v>
-      </c>
-      <c r="H194" t="inlineStr">
+      <c r="G194" t="inlineStr">
         <is>
           <t>g__Enterococcus</t>
         </is>
       </c>
     </row>
     <row r="195">
-      <c r="A195" s="1" t="inlineStr">
+      <c r="A195" s="3" t="inlineStr">
         <is>
           <t>even_MAG-GUT7118.fa</t>
         </is>
@@ -6287,17 +5714,14 @@
       <c r="F195" t="n">
         <v>0.2781586540750888</v>
       </c>
-      <c r="G195" t="n">
-        <v>0.3477082314247892</v>
-      </c>
-      <c r="H195" t="inlineStr">
+      <c r="G195" t="inlineStr">
         <is>
           <t>g__Enterococcus</t>
         </is>
       </c>
     </row>
     <row r="196">
-      <c r="A196" s="1" t="inlineStr">
+      <c r="A196" s="3" t="inlineStr">
         <is>
           <t>even_MAG-GUT7121.fa</t>
         </is>
@@ -6317,17 +5741,14 @@
       <c r="F196" t="n">
         <v>0.181393233451294</v>
       </c>
-      <c r="G196" t="n">
-        <v>0.3615121756831745</v>
-      </c>
-      <c r="H196" t="inlineStr">
+      <c r="G196" t="inlineStr">
         <is>
           <t>g__Enterococcus_A</t>
         </is>
       </c>
     </row>
     <row r="197">
-      <c r="A197" s="1" t="inlineStr">
+      <c r="A197" s="3" t="inlineStr">
         <is>
           <t>even_MAG-GUT7125.fa</t>
         </is>
@@ -6347,17 +5768,14 @@
       <c r="F197" t="n">
         <v>0.1808031392316941</v>
       </c>
-      <c r="G197" t="n">
-        <v>0.3614237228273001</v>
-      </c>
-      <c r="H197" t="inlineStr">
+      <c r="G197" t="inlineStr">
         <is>
           <t>g__Enterococcus_A</t>
         </is>
       </c>
     </row>
     <row r="198">
-      <c r="A198" s="1" t="inlineStr">
+      <c r="A198" s="3" t="inlineStr">
         <is>
           <t>even_MAG-GUT7175.fa</t>
         </is>
@@ -6377,17 +5795,14 @@
       <c r="F198" t="n">
         <v>0.1540823254586173</v>
       </c>
-      <c r="G198" t="n">
-        <v>0.3685892414793457</v>
-      </c>
-      <c r="H198" t="inlineStr">
+      <c r="G198" t="inlineStr">
         <is>
           <t>g__Enterococcus_B</t>
         </is>
       </c>
     </row>
     <row r="199">
-      <c r="A199" s="1" t="inlineStr">
+      <c r="A199" s="3" t="inlineStr">
         <is>
           <t>even_MAG-GUT7213.fa</t>
         </is>
@@ -6407,17 +5822,14 @@
       <c r="F199" t="n">
         <v>0.2538425373004025</v>
       </c>
-      <c r="G199" t="n">
-        <v>0.3144780720359385</v>
-      </c>
-      <c r="H199" t="inlineStr">
+      <c r="G199" t="inlineStr">
         <is>
           <t>g__Enterococcus</t>
         </is>
       </c>
     </row>
     <row r="200">
-      <c r="A200" s="1" t="inlineStr">
+      <c r="A200" s="3" t="inlineStr">
         <is>
           <t>even_MAG-GUT7214.fa</t>
         </is>
@@ -6437,17 +5849,14 @@
       <c r="F200" t="n">
         <v>0.183510960756395</v>
       </c>
-      <c r="G200" t="n">
-        <v>0.3159359186423217</v>
-      </c>
-      <c r="H200" t="inlineStr">
+      <c r="G200" t="inlineStr">
         <is>
           <t>g__Enterococcus_A</t>
         </is>
       </c>
     </row>
     <row r="201">
-      <c r="A201" s="1" t="inlineStr">
+      <c r="A201" s="3" t="inlineStr">
         <is>
           <t>even_MAG-GUT7216.fa</t>
         </is>
@@ -6467,17 +5876,14 @@
       <c r="F201" t="n">
         <v>0.1453019291375757</v>
       </c>
-      <c r="G201" t="n">
-        <v>0.3099281892004351</v>
-      </c>
-      <c r="H201" t="inlineStr">
+      <c r="G201" t="inlineStr">
         <is>
           <t>g__Enterococcus</t>
         </is>
       </c>
     </row>
     <row r="202">
-      <c r="A202" s="1" t="inlineStr">
+      <c r="A202" s="3" t="inlineStr">
         <is>
           <t>even_MAG-GUT7222.fa</t>
         </is>
@@ -6497,17 +5903,14 @@
       <c r="F202" t="n">
         <v>0.1650502747404908</v>
       </c>
-      <c r="G202" t="n">
-        <v>0.358733754347655</v>
-      </c>
-      <c r="H202" t="inlineStr">
+      <c r="G202" t="inlineStr">
         <is>
           <t>g__Enterococcus</t>
         </is>
       </c>
     </row>
     <row r="203">
-      <c r="A203" s="1" t="inlineStr">
+      <c r="A203" s="3" t="inlineStr">
         <is>
           <t>even_MAG-GUT7253.fa</t>
         </is>
@@ -6527,17 +5930,14 @@
       <c r="F203" t="n">
         <v>0.1538962138214744</v>
       </c>
-      <c r="G203" t="n">
-        <v>0.3614574608309737</v>
-      </c>
-      <c r="H203" t="inlineStr">
+      <c r="G203" t="inlineStr">
         <is>
           <t>g__Enterococcus</t>
         </is>
       </c>
     </row>
     <row r="204">
-      <c r="A204" s="1" t="inlineStr">
+      <c r="A204" s="3" t="inlineStr">
         <is>
           <t>even_MAG-GUT7278.fa</t>
         </is>
@@ -6557,17 +5957,14 @@
       <c r="F204" t="n">
         <v>0.1608581553351265</v>
       </c>
-      <c r="G204" t="n">
-        <v>0.3323046676328471</v>
-      </c>
-      <c r="H204" t="inlineStr">
+      <c r="G204" t="inlineStr">
         <is>
           <t>g__Enterococcus</t>
         </is>
       </c>
     </row>
     <row r="205">
-      <c r="A205" s="1" t="inlineStr">
+      <c r="A205" s="3" t="inlineStr">
         <is>
           <t>even_MAG-GUT87407.fa</t>
         </is>
@@ -6587,17 +5984,14 @@
       <c r="F205" t="n">
         <v>0.06869902134265721</v>
       </c>
-      <c r="G205" t="n">
-        <v>0.9191426589810744</v>
-      </c>
-      <c r="H205" t="inlineStr">
+      <c r="G205" t="inlineStr">
         <is>
           <t>g__Enterococcus_B</t>
         </is>
       </c>
     </row>
     <row r="206">
-      <c r="A206" s="1" t="inlineStr">
+      <c r="A206" s="3" t="inlineStr">
         <is>
           <t>even_MAG-GUT87621.fa</t>
         </is>
@@ -6617,17 +6011,14 @@
       <c r="F206" t="n">
         <v>0.064627161844102</v>
       </c>
-      <c r="G206" t="n">
-        <v>0.924623809830305</v>
-      </c>
-      <c r="H206" t="inlineStr">
+      <c r="G206" t="inlineStr">
         <is>
           <t>g__Enterococcus_B</t>
         </is>
       </c>
     </row>
     <row r="207">
-      <c r="A207" s="1" t="inlineStr">
+      <c r="A207" s="3" t="inlineStr">
         <is>
           <t>even_MAG-GUT87674.fa</t>
         </is>
@@ -6647,17 +6038,14 @@
       <c r="F207" t="n">
         <v>0.06869902134265721</v>
       </c>
-      <c r="G207" t="n">
-        <v>0.9191426589810744</v>
-      </c>
-      <c r="H207" t="inlineStr">
+      <c r="G207" t="inlineStr">
         <is>
           <t>g__Enterococcus_B</t>
         </is>
       </c>
     </row>
     <row r="208">
-      <c r="A208" s="1" t="inlineStr">
+      <c r="A208" s="3" t="inlineStr">
         <is>
           <t>even_MAG-GUT87941.fa</t>
         </is>
@@ -6677,17 +6065,14 @@
       <c r="F208" t="n">
         <v>0.03598763206841004</v>
       </c>
-      <c r="G208" t="n">
-        <v>0.9613754872453421</v>
-      </c>
-      <c r="H208" t="inlineStr">
+      <c r="G208" t="inlineStr">
         <is>
           <t>g__Enterococcus_B</t>
         </is>
       </c>
     </row>
     <row r="209">
-      <c r="A209" s="1" t="inlineStr">
+      <c r="A209" s="3" t="inlineStr">
         <is>
           <t>even_MAG-GUT88714.fa</t>
         </is>
@@ -6707,17 +6092,14 @@
       <c r="F209" t="n">
         <v>0.03589213532858031</v>
       </c>
-      <c r="G209" t="n">
-        <v>0.9612565659236267</v>
-      </c>
-      <c r="H209" t="inlineStr">
+      <c r="G209" t="inlineStr">
         <is>
           <t>g__Enterococcus_B</t>
         </is>
       </c>
     </row>
     <row r="210">
-      <c r="A210" s="1" t="inlineStr">
+      <c r="A210" s="3" t="inlineStr">
         <is>
           <t>even_MAG-GUT88733.fa</t>
         </is>
@@ -6737,17 +6119,14 @@
       <c r="F210" t="n">
         <v>0.03490464208785098</v>
       </c>
-      <c r="G210" t="n">
-        <v>0.955581242556529</v>
-      </c>
-      <c r="H210" t="inlineStr">
+      <c r="G210" t="inlineStr">
         <is>
           <t>g__Enterococcus_B</t>
         </is>
       </c>
     </row>
     <row r="211">
-      <c r="A211" s="1" t="inlineStr">
+      <c r="A211" s="3" t="inlineStr">
         <is>
           <t>even_MAG-GUT88737.fa</t>
         </is>
@@ -6767,17 +6146,14 @@
       <c r="F211" t="n">
         <v>0.0229670056557707</v>
       </c>
-      <c r="G211" t="n">
-        <v>0.9700369579987868</v>
-      </c>
-      <c r="H211" t="inlineStr">
+      <c r="G211" t="inlineStr">
         <is>
           <t>g__Enterococcus_B</t>
         </is>
       </c>
     </row>
     <row r="212">
-      <c r="A212" s="1" t="inlineStr">
+      <c r="A212" s="3" t="inlineStr">
         <is>
           <t>even_MAG-GUT88876.fa</t>
         </is>
@@ -6797,17 +6173,14 @@
       <c r="F212" t="n">
         <v>0.03589213532858031</v>
       </c>
-      <c r="G212" t="n">
-        <v>0.9612565659236267</v>
-      </c>
-      <c r="H212" t="inlineStr">
+      <c r="G212" t="inlineStr">
         <is>
           <t>g__Enterococcus_B</t>
         </is>
       </c>
     </row>
     <row r="213">
-      <c r="A213" s="1" t="inlineStr">
+      <c r="A213" s="3" t="inlineStr">
         <is>
           <t>even_MAG-GUT89068.fa</t>
         </is>
@@ -6827,17 +6200,14 @@
       <c r="F213" t="n">
         <v>0.02810021182406354</v>
       </c>
-      <c r="G213" t="n">
-        <v>0.9700901228499685</v>
-      </c>
-      <c r="H213" t="inlineStr">
+      <c r="G213" t="inlineStr">
         <is>
           <t>g__Enterococcus_B</t>
         </is>
       </c>
     </row>
     <row r="214">
-      <c r="A214" s="1" t="inlineStr">
+      <c r="A214" s="3" t="inlineStr">
         <is>
           <t>even_MAG-GUT89179.fa</t>
         </is>
@@ -6857,17 +6227,14 @@
       <c r="F214" t="n">
         <v>0.05689199230221382</v>
       </c>
-      <c r="G214" t="n">
-        <v>0.9404420965166757</v>
-      </c>
-      <c r="H214" t="inlineStr">
+      <c r="G214" t="inlineStr">
         <is>
           <t>g__Enterococcus_B</t>
         </is>
       </c>
     </row>
     <row r="215">
-      <c r="A215" s="1" t="inlineStr">
+      <c r="A215" s="3" t="inlineStr">
         <is>
           <t>even_MAG-GUT89204.fa</t>
         </is>
@@ -6887,17 +6254,14 @@
       <c r="F215" t="n">
         <v>0.05689199230221382</v>
       </c>
-      <c r="G215" t="n">
-        <v>0.9404420965166757</v>
-      </c>
-      <c r="H215" t="inlineStr">
+      <c r="G215" t="inlineStr">
         <is>
           <t>g__Enterococcus_B</t>
         </is>
       </c>
     </row>
     <row r="216">
-      <c r="A216" s="1" t="inlineStr">
+      <c r="A216" s="3" t="inlineStr">
         <is>
           <t>even_MAG-GUT89292.fa</t>
         </is>
@@ -6917,17 +6281,14 @@
       <c r="F216" t="n">
         <v>0.01861795691474019</v>
       </c>
-      <c r="G216" t="n">
-        <v>0.977982917338281</v>
-      </c>
-      <c r="H216" t="inlineStr">
+      <c r="G216" t="inlineStr">
         <is>
           <t>g__Enterococcus_B</t>
         </is>
       </c>
     </row>
     <row r="217">
-      <c r="A217" s="1" t="inlineStr">
+      <c r="A217" s="3" t="inlineStr">
         <is>
           <t>even_MAG-GUT89317.fa</t>
         </is>
@@ -6947,17 +6308,14 @@
       <c r="F217" t="n">
         <v>0.02341573844264463</v>
       </c>
-      <c r="G217" t="n">
-        <v>0.9717758351949369</v>
-      </c>
-      <c r="H217" t="inlineStr">
+      <c r="G217" t="inlineStr">
         <is>
           <t>g__Enterococcus_B</t>
         </is>
       </c>
     </row>
     <row r="218">
-      <c r="A218" s="1" t="inlineStr">
+      <c r="A218" s="3" t="inlineStr">
         <is>
           <t>even_MAG-GUT89355.fa</t>
         </is>
@@ -6977,17 +6335,14 @@
       <c r="F218" t="n">
         <v>0.06956216340377654</v>
       </c>
-      <c r="G218" t="n">
-        <v>0.9266658680980339</v>
-      </c>
-      <c r="H218" t="inlineStr">
+      <c r="G218" t="inlineStr">
         <is>
           <t>g__Enterococcus_B</t>
         </is>
       </c>
     </row>
     <row r="219">
-      <c r="A219" s="1" t="inlineStr">
+      <c r="A219" s="3" t="inlineStr">
         <is>
           <t>even_MAG-GUT89363.fa</t>
         </is>
@@ -7007,17 +6362,14 @@
       <c r="F219" t="n">
         <v>0.03082637069312154</v>
       </c>
-      <c r="G219" t="n">
-        <v>0.9662635538471043</v>
-      </c>
-      <c r="H219" t="inlineStr">
+      <c r="G219" t="inlineStr">
         <is>
           <t>g__Enterococcus_B</t>
         </is>
       </c>
     </row>
     <row r="220">
-      <c r="A220" s="1" t="inlineStr">
+      <c r="A220" s="3" t="inlineStr">
         <is>
           <t>even_MAG-GUT89413.fa</t>
         </is>
@@ -7037,17 +6389,14 @@
       <c r="F220" t="n">
         <v>0.02260251279177621</v>
       </c>
-      <c r="G220" t="n">
-        <v>0.9752604244077607</v>
-      </c>
-      <c r="H220" t="inlineStr">
+      <c r="G220" t="inlineStr">
         <is>
           <t>g__Enterococcus_B</t>
         </is>
       </c>
     </row>
     <row r="221">
-      <c r="A221" s="1" t="inlineStr">
+      <c r="A221" s="3" t="inlineStr">
         <is>
           <t>even_MAG-GUT89720.fa</t>
         </is>
@@ -7067,17 +6416,14 @@
       <c r="F221" t="n">
         <v>0.04349514721356551</v>
       </c>
-      <c r="G221" t="n">
-        <v>0.9499183765506946</v>
-      </c>
-      <c r="H221" t="inlineStr">
+      <c r="G221" t="inlineStr">
         <is>
           <t>g__Enterococcus_B</t>
         </is>
       </c>
     </row>
     <row r="222">
-      <c r="A222" s="1" t="inlineStr">
+      <c r="A222" s="3" t="inlineStr">
         <is>
           <t>even_MAG-GUT89992.fa</t>
         </is>
@@ -7097,17 +6443,14 @@
       <c r="F222" t="n">
         <v>0.02810021182406354</v>
       </c>
-      <c r="G222" t="n">
-        <v>0.9700901228499685</v>
-      </c>
-      <c r="H222" t="inlineStr">
+      <c r="G222" t="inlineStr">
         <is>
           <t>g__Enterococcus_B</t>
         </is>
       </c>
     </row>
     <row r="223">
-      <c r="A223" s="1" t="inlineStr">
+      <c r="A223" s="3" t="inlineStr">
         <is>
           <t>even_MAG-GUT90064.fa</t>
         </is>
@@ -7127,17 +6470,14 @@
       <c r="F223" t="n">
         <v>0.1604124392623821</v>
       </c>
-      <c r="G223" t="n">
-        <v>0.8255428265668238</v>
-      </c>
-      <c r="H223" t="inlineStr">
+      <c r="G223" t="inlineStr">
         <is>
           <t>g__Enterococcus_B</t>
         </is>
       </c>
     </row>
     <row r="224">
-      <c r="A224" s="1" t="inlineStr">
+      <c r="A224" s="3" t="inlineStr">
         <is>
           <t>even_MAG-GUT90077.fa</t>
         </is>
@@ -7157,17 +6497,14 @@
       <c r="F224" t="n">
         <v>0.03589213532858031</v>
       </c>
-      <c r="G224" t="n">
-        <v>0.9612565659236267</v>
-      </c>
-      <c r="H224" t="inlineStr">
+      <c r="G224" t="inlineStr">
         <is>
           <t>g__Enterococcus_B</t>
         </is>
       </c>
     </row>
     <row r="225">
-      <c r="A225" s="1" t="inlineStr">
+      <c r="A225" s="3" t="inlineStr">
         <is>
           <t>even_MAG-GUT90107.fa</t>
         </is>
@@ -7187,17 +6524,14 @@
       <c r="F225" t="n">
         <v>0.06956216340377654</v>
       </c>
-      <c r="G225" t="n">
-        <v>0.9266658680980339</v>
-      </c>
-      <c r="H225" t="inlineStr">
+      <c r="G225" t="inlineStr">
         <is>
           <t>g__Enterococcus_B</t>
         </is>
       </c>
     </row>
     <row r="226">
-      <c r="A226" s="1" t="inlineStr">
+      <c r="A226" s="3" t="inlineStr">
         <is>
           <t>even_MAG-GUT90127.fa</t>
         </is>
@@ -7217,17 +6551,14 @@
       <c r="F226" t="n">
         <v>0.01569117053599611</v>
       </c>
-      <c r="G226" t="n">
-        <v>0.980208190010634</v>
-      </c>
-      <c r="H226" t="inlineStr">
+      <c r="G226" t="inlineStr">
         <is>
           <t>g__Enterococcus_B</t>
         </is>
       </c>
     </row>
     <row r="227">
-      <c r="A227" s="1" t="inlineStr">
+      <c r="A227" s="3" t="inlineStr">
         <is>
           <t>even_MAG-GUT90167.fa</t>
         </is>
@@ -7247,17 +6578,14 @@
       <c r="F227" t="n">
         <v>0.06956216340377654</v>
       </c>
-      <c r="G227" t="n">
-        <v>0.9266658680980339</v>
-      </c>
-      <c r="H227" t="inlineStr">
+      <c r="G227" t="inlineStr">
         <is>
           <t>g__Enterococcus_B</t>
         </is>
       </c>
     </row>
     <row r="228">
-      <c r="A228" s="1" t="inlineStr">
+      <c r="A228" s="3" t="inlineStr">
         <is>
           <t>even_MAG-GUT90189.fa</t>
         </is>
@@ -7277,17 +6605,14 @@
       <c r="F228" t="n">
         <v>0.06956216340377654</v>
       </c>
-      <c r="G228" t="n">
-        <v>0.9266658680980339</v>
-      </c>
-      <c r="H228" t="inlineStr">
+      <c r="G228" t="inlineStr">
         <is>
           <t>g__Enterococcus_B</t>
         </is>
       </c>
     </row>
     <row r="229">
-      <c r="A229" s="1" t="inlineStr">
+      <c r="A229" s="3" t="inlineStr">
         <is>
           <t>even_MAG-GUT90251.fa</t>
         </is>
@@ -7307,17 +6632,14 @@
       <c r="F229" t="n">
         <v>0.03589213532858031</v>
       </c>
-      <c r="G229" t="n">
-        <v>0.9612565659236267</v>
-      </c>
-      <c r="H229" t="inlineStr">
+      <c r="G229" t="inlineStr">
         <is>
           <t>g__Enterococcus_B</t>
         </is>
       </c>
     </row>
     <row r="230">
-      <c r="A230" s="1" t="inlineStr">
+      <c r="A230" s="3" t="inlineStr">
         <is>
           <t>even_MAG-GUT90266.fa</t>
         </is>
@@ -7337,17 +6659,14 @@
       <c r="F230" t="n">
         <v>0.01751591623062653</v>
       </c>
-      <c r="G230" t="n">
-        <v>0.9096748581611716</v>
-      </c>
-      <c r="H230" t="inlineStr">
+      <c r="G230" t="inlineStr">
         <is>
           <t>g__Enterococcus_B</t>
         </is>
       </c>
     </row>
     <row r="231">
-      <c r="A231" s="1" t="inlineStr">
+      <c r="A231" s="3" t="inlineStr">
         <is>
           <t>even_MAG-GUT90291.fa</t>
         </is>
@@ -7367,17 +6686,14 @@
       <c r="F231" t="n">
         <v>0.02341573844264463</v>
       </c>
-      <c r="G231" t="n">
-        <v>0.9717758351949369</v>
-      </c>
-      <c r="H231" t="inlineStr">
+      <c r="G231" t="inlineStr">
         <is>
           <t>g__Enterococcus_B</t>
         </is>
       </c>
     </row>
     <row r="232">
-      <c r="A232" s="1" t="inlineStr">
+      <c r="A232" s="3" t="inlineStr">
         <is>
           <t>even_MAG-GUT90368.fa</t>
         </is>
@@ -7397,17 +6713,14 @@
       <c r="F232" t="n">
         <v>0.04099976340026893</v>
       </c>
-      <c r="G232" t="n">
-        <v>0.951829657597979</v>
-      </c>
-      <c r="H232" t="inlineStr">
+      <c r="G232" t="inlineStr">
         <is>
           <t>g__Enterococcus_B</t>
         </is>
       </c>
     </row>
     <row r="233">
-      <c r="A233" s="1" t="inlineStr">
+      <c r="A233" s="3" t="inlineStr">
         <is>
           <t>even_MAG-GUT90390.fa</t>
         </is>
@@ -7427,17 +6740,14 @@
       <c r="F233" t="n">
         <v>0.02810021182406354</v>
       </c>
-      <c r="G233" t="n">
-        <v>0.9700901228499685</v>
-      </c>
-      <c r="H233" t="inlineStr">
+      <c r="G233" t="inlineStr">
         <is>
           <t>g__Enterococcus_B</t>
         </is>
       </c>
     </row>
     <row r="234">
-      <c r="A234" s="1" t="inlineStr">
+      <c r="A234" s="3" t="inlineStr">
         <is>
           <t>even_MAG-GUT90429.fa</t>
         </is>
@@ -7457,17 +6767,14 @@
       <c r="F234" t="n">
         <v>0.02000941763014029</v>
       </c>
-      <c r="G234" t="n">
-        <v>0.9166952494840259</v>
-      </c>
-      <c r="H234" t="inlineStr">
+      <c r="G234" t="inlineStr">
         <is>
           <t>g__Enterococcus_B</t>
         </is>
       </c>
     </row>
     <row r="235">
-      <c r="A235" s="1" t="inlineStr">
+      <c r="A235" s="3" t="inlineStr">
         <is>
           <t>even_MAG-GUT90505.fa</t>
         </is>
@@ -7487,17 +6794,14 @@
       <c r="F235" t="n">
         <v>0.05689199230221382</v>
       </c>
-      <c r="G235" t="n">
-        <v>0.9404420965166757</v>
-      </c>
-      <c r="H235" t="inlineStr">
+      <c r="G235" t="inlineStr">
         <is>
           <t>g__Enterococcus_B</t>
         </is>
       </c>
     </row>
     <row r="236">
-      <c r="A236" s="1" t="inlineStr">
+      <c r="A236" s="3" t="inlineStr">
         <is>
           <t>even_MAG-GUT90598.fa</t>
         </is>
@@ -7517,17 +6821,14 @@
       <c r="F236" t="n">
         <v>0.03589213532858031</v>
       </c>
-      <c r="G236" t="n">
-        <v>0.9612565659236267</v>
-      </c>
-      <c r="H236" t="inlineStr">
+      <c r="G236" t="inlineStr">
         <is>
           <t>g__Enterococcus_B</t>
         </is>
       </c>
     </row>
     <row r="237">
-      <c r="A237" s="1" t="inlineStr">
+      <c r="A237" s="3" t="inlineStr">
         <is>
           <t>even_MAG-GUT90630.fa</t>
         </is>
@@ -7547,17 +6848,14 @@
       <c r="F237" t="n">
         <v>0.03589213532858031</v>
       </c>
-      <c r="G237" t="n">
-        <v>0.9612565659236267</v>
-      </c>
-      <c r="H237" t="inlineStr">
+      <c r="G237" t="inlineStr">
         <is>
           <t>g__Enterococcus_B</t>
         </is>
       </c>
     </row>
     <row r="238">
-      <c r="A238" s="1" t="inlineStr">
+      <c r="A238" s="3" t="inlineStr">
         <is>
           <t>even_MAG-GUT90636.fa</t>
         </is>
@@ -7577,17 +6875,14 @@
       <c r="F238" t="n">
         <v>0.03659389995917414</v>
       </c>
-      <c r="G238" t="n">
-        <v>0.9620111911232893</v>
-      </c>
-      <c r="H238" t="inlineStr">
+      <c r="G238" t="inlineStr">
         <is>
           <t>g__Enterococcus_B</t>
         </is>
       </c>
     </row>
     <row r="239">
-      <c r="A239" s="1" t="inlineStr">
+      <c r="A239" s="3" t="inlineStr">
         <is>
           <t>even_MAG-GUT90777.fa</t>
         </is>
@@ -7607,17 +6902,14 @@
       <c r="F239" t="n">
         <v>0.01582153170417823</v>
       </c>
-      <c r="G239" t="n">
-        <v>0.9799944437217877</v>
-      </c>
-      <c r="H239" t="inlineStr">
+      <c r="G239" t="inlineStr">
         <is>
           <t>g__Enterococcus_B</t>
         </is>
       </c>
     </row>
     <row r="240">
-      <c r="A240" s="1" t="inlineStr">
+      <c r="A240" s="3" t="inlineStr">
         <is>
           <t>even_MAG-GUT90901.fa</t>
         </is>
@@ -7637,17 +6929,14 @@
       <c r="F240" t="n">
         <v>0.03118757465248876</v>
       </c>
-      <c r="G240" t="n">
-        <v>0.9593311403415642</v>
-      </c>
-      <c r="H240" t="inlineStr">
+      <c r="G240" t="inlineStr">
         <is>
           <t>g__Enterococcus_B</t>
         </is>
       </c>
     </row>
     <row r="241">
-      <c r="A241" s="1" t="inlineStr">
+      <c r="A241" s="3" t="inlineStr">
         <is>
           <t>even_MAG-GUT90946.fa</t>
         </is>
@@ -7667,17 +6956,14 @@
       <c r="F241" t="n">
         <v>0.05689199230221382</v>
       </c>
-      <c r="G241" t="n">
-        <v>0.9404420965166757</v>
-      </c>
-      <c r="H241" t="inlineStr">
+      <c r="G241" t="inlineStr">
         <is>
           <t>g__Enterococcus_B</t>
         </is>
       </c>
     </row>
     <row r="242">
-      <c r="A242" s="1" t="inlineStr">
+      <c r="A242" s="3" t="inlineStr">
         <is>
           <t>even_MAG-GUT90975.fa</t>
         </is>
@@ -7697,17 +6983,14 @@
       <c r="F242" t="n">
         <v>0.05689199230221382</v>
       </c>
-      <c r="G242" t="n">
-        <v>0.9404420965166757</v>
-      </c>
-      <c r="H242" t="inlineStr">
+      <c r="G242" t="inlineStr">
         <is>
           <t>g__Enterococcus_B</t>
         </is>
       </c>
     </row>
     <row r="243">
-      <c r="A243" s="1" t="inlineStr">
+      <c r="A243" s="3" t="inlineStr">
         <is>
           <t>even_MAG-GUT91032.fa</t>
         </is>
@@ -7727,17 +7010,14 @@
       <c r="F243" t="n">
         <v>0.01863589541224924</v>
       </c>
-      <c r="G243" t="n">
-        <v>0.9796412502080286</v>
-      </c>
-      <c r="H243" t="inlineStr">
+      <c r="G243" t="inlineStr">
         <is>
           <t>g__Enterococcus_B</t>
         </is>
       </c>
     </row>
     <row r="244">
-      <c r="A244" s="1" t="inlineStr">
+      <c r="A244" s="3" t="inlineStr">
         <is>
           <t>even_MAG-GUT91072.fa</t>
         </is>
@@ -7757,17 +7037,14 @@
       <c r="F244" t="n">
         <v>0.02260251279177621</v>
       </c>
-      <c r="G244" t="n">
-        <v>0.9752604244077607</v>
-      </c>
-      <c r="H244" t="inlineStr">
+      <c r="G244" t="inlineStr">
         <is>
           <t>g__Enterococcus_B</t>
         </is>
       </c>
     </row>
     <row r="245">
-      <c r="A245" s="1" t="inlineStr">
+      <c r="A245" s="3" t="inlineStr">
         <is>
           <t>even_MAG-GUT91119.fa</t>
         </is>
@@ -7787,17 +7064,14 @@
       <c r="F245" t="n">
         <v>0.05689199230221382</v>
       </c>
-      <c r="G245" t="n">
-        <v>0.9404420965166757</v>
-      </c>
-      <c r="H245" t="inlineStr">
+      <c r="G245" t="inlineStr">
         <is>
           <t>g__Enterococcus_B</t>
         </is>
       </c>
     </row>
     <row r="246">
-      <c r="A246" s="1" t="inlineStr">
+      <c r="A246" s="3" t="inlineStr">
         <is>
           <t>even_MAG-GUT91131.fa</t>
         </is>
@@ -7817,17 +7091,14 @@
       <c r="F246" t="n">
         <v>0.02810021182406354</v>
       </c>
-      <c r="G246" t="n">
-        <v>0.9700901228499685</v>
-      </c>
-      <c r="H246" t="inlineStr">
+      <c r="G246" t="inlineStr">
         <is>
           <t>g__Enterococcus_B</t>
         </is>
       </c>
     </row>
     <row r="247">
-      <c r="A247" s="1" t="inlineStr">
+      <c r="A247" s="3" t="inlineStr">
         <is>
           <t>even_MAG-GUT91135.fa</t>
         </is>
@@ -7847,17 +7118,14 @@
       <c r="F247" t="n">
         <v>0.05689199230221382</v>
       </c>
-      <c r="G247" t="n">
-        <v>0.9404420965166757</v>
-      </c>
-      <c r="H247" t="inlineStr">
+      <c r="G247" t="inlineStr">
         <is>
           <t>g__Enterococcus_B</t>
         </is>
       </c>
     </row>
     <row r="248">
-      <c r="A248" s="1" t="inlineStr">
+      <c r="A248" s="3" t="inlineStr">
         <is>
           <t>even_MAG-GUT91192.fa</t>
         </is>
@@ -7877,17 +7145,14 @@
       <c r="F248" t="n">
         <v>0.2446053448835987</v>
       </c>
-      <c r="G248" t="n">
-        <v>0.3405396871716766</v>
-      </c>
-      <c r="H248" t="inlineStr">
+      <c r="G248" t="inlineStr">
         <is>
           <t>g__Enterococcus</t>
         </is>
       </c>
     </row>
     <row r="249">
-      <c r="A249" s="1" t="inlineStr">
+      <c r="A249" s="3" t="inlineStr">
         <is>
           <t>even_MAG-GUT91196.fa</t>
         </is>
@@ -7907,17 +7172,14 @@
       <c r="F249" t="n">
         <v>0.1845160956441915</v>
       </c>
-      <c r="G249" t="n">
-        <v>0.3557676023566622</v>
-      </c>
-      <c r="H249" t="inlineStr">
+      <c r="G249" t="inlineStr">
         <is>
           <t>g__Enterococcus</t>
         </is>
       </c>
     </row>
     <row r="250">
-      <c r="A250" s="1" t="inlineStr">
+      <c r="A250" s="3" t="inlineStr">
         <is>
           <t>even_MAG-GUT91251.fa</t>
         </is>
@@ -7937,17 +7199,14 @@
       <c r="F250" t="n">
         <v>0.2164913366587203</v>
       </c>
-      <c r="G250" t="n">
-        <v>0.3226901447305785</v>
-      </c>
-      <c r="H250" t="inlineStr">
+      <c r="G250" t="inlineStr">
         <is>
           <t>g__Enterococcus_B</t>
         </is>
       </c>
     </row>
     <row r="251">
-      <c r="A251" s="1" t="inlineStr">
+      <c r="A251" s="3" t="inlineStr">
         <is>
           <t>even_MAG-GUT91262.fa</t>
         </is>
@@ -7967,17 +7226,14 @@
       <c r="F251" t="n">
         <v>0.1324850910051915</v>
       </c>
-      <c r="G251" t="n">
-        <v>0.345498365272443</v>
-      </c>
-      <c r="H251" t="inlineStr">
+      <c r="G251" t="inlineStr">
         <is>
           <t>g__Enterococcus</t>
         </is>
       </c>
     </row>
     <row r="252">
-      <c r="A252" s="1" t="inlineStr">
+      <c r="A252" s="3" t="inlineStr">
         <is>
           <t>even_MAG-GUT91264.fa</t>
         </is>
@@ -7997,17 +7253,14 @@
       <c r="F252" t="n">
         <v>0.2106997612563351</v>
       </c>
-      <c r="G252" t="n">
-        <v>0.3248018121761274</v>
-      </c>
-      <c r="H252" t="inlineStr">
+      <c r="G252" t="inlineStr">
         <is>
           <t>g__Enterococcus</t>
         </is>
       </c>
     </row>
     <row r="253">
-      <c r="A253" s="1" t="inlineStr">
+      <c r="A253" s="3" t="inlineStr">
         <is>
           <t>even_MAG-GUT91267.fa</t>
         </is>
@@ -8027,17 +7280,14 @@
       <c r="F253" t="n">
         <v>0.1324850910051915</v>
       </c>
-      <c r="G253" t="n">
-        <v>0.345498365272443</v>
-      </c>
-      <c r="H253" t="inlineStr">
+      <c r="G253" t="inlineStr">
         <is>
           <t>g__Enterococcus</t>
         </is>
       </c>
     </row>
     <row r="254">
-      <c r="A254" s="1" t="inlineStr">
+      <c r="A254" s="3" t="inlineStr">
         <is>
           <t>even_MAG-GUT91272.fa</t>
         </is>
@@ -8057,17 +7307,14 @@
       <c r="F254" t="n">
         <v>0.1891699086433123</v>
       </c>
-      <c r="G254" t="n">
-        <v>0.3274541417009296</v>
-      </c>
-      <c r="H254" t="inlineStr">
+      <c r="G254" t="inlineStr">
         <is>
           <t>g__Enterococcus</t>
         </is>
       </c>
     </row>
     <row r="255">
-      <c r="A255" s="1" t="inlineStr">
+      <c r="A255" s="3" t="inlineStr">
         <is>
           <t>even_MAG-GUT91297.fa</t>
         </is>
@@ -8087,17 +7334,14 @@
       <c r="F255" t="n">
         <v>0.1913029700448082</v>
       </c>
-      <c r="G255" t="n">
-        <v>0.3462857088843014</v>
-      </c>
-      <c r="H255" t="inlineStr">
+      <c r="G255" t="inlineStr">
         <is>
           <t>g__Enterococcus</t>
         </is>
       </c>
     </row>
     <row r="256">
-      <c r="A256" s="1" t="inlineStr">
+      <c r="A256" s="3" t="inlineStr">
         <is>
           <t>even_MAG-GUT91303.fa</t>
         </is>
@@ -8117,17 +7361,14 @@
       <c r="F256" t="n">
         <v>0.09690968606432017</v>
       </c>
-      <c r="G256" t="n">
-        <v>0.5104258620985468</v>
-      </c>
-      <c r="H256" t="inlineStr">
+      <c r="G256" t="inlineStr">
         <is>
           <t>g__Enterococcus_A</t>
         </is>
       </c>
     </row>
     <row r="257">
-      <c r="A257" s="1" t="inlineStr">
+      <c r="A257" s="3" t="inlineStr">
         <is>
           <t>even_MAG-GUT91320.fa</t>
         </is>
@@ -8147,17 +7388,14 @@
       <c r="F257" t="n">
         <v>0.1771185673124123</v>
       </c>
-      <c r="G257" t="n">
-        <v>0.3538661150600053</v>
-      </c>
-      <c r="H257" t="inlineStr">
+      <c r="G257" t="inlineStr">
         <is>
           <t>g__Enterococcus</t>
         </is>
       </c>
     </row>
     <row r="258">
-      <c r="A258" s="1" t="inlineStr">
+      <c r="A258" s="3" t="inlineStr">
         <is>
           <t>even_MAG-GUT91330.fa</t>
         </is>
@@ -8177,17 +7415,14 @@
       <c r="F258" t="n">
         <v>0.1889650747871648</v>
       </c>
-      <c r="G258" t="n">
-        <v>0.3270757449398889</v>
-      </c>
-      <c r="H258" t="inlineStr">
+      <c r="G258" t="inlineStr">
         <is>
           <t>g__Enterococcus</t>
         </is>
       </c>
     </row>
     <row r="259">
-      <c r="A259" s="1" t="inlineStr">
+      <c r="A259" s="3" t="inlineStr">
         <is>
           <t>even_MAG-GUT91385.fa</t>
         </is>
@@ -8207,17 +7442,14 @@
       <c r="F259" t="n">
         <v>0.1743085343719758</v>
       </c>
-      <c r="G259" t="n">
-        <v>0.3280823857943934</v>
-      </c>
-      <c r="H259" t="inlineStr">
+      <c r="G259" t="inlineStr">
         <is>
           <t>g__Enterococcus</t>
         </is>
       </c>
     </row>
     <row r="260">
-      <c r="A260" s="1" t="inlineStr">
+      <c r="A260" s="3" t="inlineStr">
         <is>
           <t>even_MAG-GUT91468.fa</t>
         </is>
@@ -8237,17 +7469,14 @@
       <c r="F260" t="n">
         <v>0.2247037212041391</v>
       </c>
-      <c r="G260" t="n">
-        <v>0.3627084873243941</v>
-      </c>
-      <c r="H260" t="inlineStr">
+      <c r="G260" t="inlineStr">
         <is>
           <t>g__Enterococcus</t>
         </is>
       </c>
     </row>
     <row r="261">
-      <c r="A261" s="1" t="inlineStr">
+      <c r="A261" s="3" t="inlineStr">
         <is>
           <t>even_MAG-GUT91470.fa</t>
         </is>
@@ -8267,17 +7496,14 @@
       <c r="F261" t="n">
         <v>0.1466740004476934</v>
       </c>
-      <c r="G261" t="n">
-        <v>0.4075214837309008</v>
-      </c>
-      <c r="H261" t="inlineStr">
+      <c r="G261" t="inlineStr">
         <is>
           <t>g__Enterococcus_A</t>
         </is>
       </c>
     </row>
     <row r="262">
-      <c r="A262" s="1" t="inlineStr">
+      <c r="A262" s="3" t="inlineStr">
         <is>
           <t>even_MAG-GUT91486.fa</t>
         </is>
@@ -8297,17 +7523,14 @@
       <c r="F262" t="n">
         <v>0.2247037212041391</v>
       </c>
-      <c r="G262" t="n">
-        <v>0.3627084873243941</v>
-      </c>
-      <c r="H262" t="inlineStr">
+      <c r="G262" t="inlineStr">
         <is>
           <t>g__Enterococcus</t>
         </is>
       </c>
     </row>
     <row r="263">
-      <c r="A263" s="1" t="inlineStr">
+      <c r="A263" s="3" t="inlineStr">
         <is>
           <t>even_MAG-GUT91490.fa</t>
         </is>
@@ -8327,17 +7550,14 @@
       <c r="F263" t="n">
         <v>0.2245647361515414</v>
       </c>
-      <c r="G263" t="n">
-        <v>0.3628333072073044</v>
-      </c>
-      <c r="H263" t="inlineStr">
+      <c r="G263" t="inlineStr">
         <is>
           <t>g__Enterococcus</t>
         </is>
       </c>
     </row>
     <row r="264">
-      <c r="A264" s="1" t="inlineStr">
+      <c r="A264" s="3" t="inlineStr">
         <is>
           <t>even_MAG-GUT91491.fa</t>
         </is>
@@ -8357,17 +7577,14 @@
       <c r="F264" t="n">
         <v>0.2653410488880343</v>
       </c>
-      <c r="G264" t="n">
-        <v>0.3360687768472373</v>
-      </c>
-      <c r="H264" t="inlineStr">
+      <c r="G264" t="inlineStr">
         <is>
           <t>g__Enterococcus</t>
         </is>
       </c>
     </row>
     <row r="265">
-      <c r="A265" s="1" t="inlineStr">
+      <c r="A265" s="3" t="inlineStr">
         <is>
           <t>even_MAG-GUT91492.fa</t>
         </is>
@@ -8387,17 +7604,14 @@
       <c r="F265" t="n">
         <v>0.1761814623549977</v>
       </c>
-      <c r="G265" t="n">
-        <v>0.3400659939171921</v>
-      </c>
-      <c r="H265" t="inlineStr">
+      <c r="G265" t="inlineStr">
         <is>
           <t>g__Enterococcus</t>
         </is>
       </c>
     </row>
     <row r="266">
-      <c r="A266" s="1" t="inlineStr">
+      <c r="A266" s="3" t="inlineStr">
         <is>
           <t>even_MAG-GUT91496.fa</t>
         </is>
@@ -8417,17 +7631,14 @@
       <c r="F266" t="n">
         <v>0.2573547393820853</v>
       </c>
-      <c r="G266" t="n">
-        <v>0.336766784171901</v>
-      </c>
-      <c r="H266" t="inlineStr">
+      <c r="G266" t="inlineStr">
         <is>
           <t>g__Enterococcus</t>
         </is>
       </c>
     </row>
     <row r="267">
-      <c r="A267" s="1" t="inlineStr">
+      <c r="A267" s="3" t="inlineStr">
         <is>
           <t>even_MAG-GUT91520.fa</t>
         </is>
@@ -8447,17 +7658,14 @@
       <c r="F267" t="n">
         <v>0.1875125827736377</v>
       </c>
-      <c r="G267" t="n">
-        <v>0.335602067064862</v>
-      </c>
-      <c r="H267" t="inlineStr">
+      <c r="G267" t="inlineStr">
         <is>
           <t>g__Enterococcus</t>
         </is>
       </c>
     </row>
     <row r="268">
-      <c r="A268" s="1" t="inlineStr">
+      <c r="A268" s="3" t="inlineStr">
         <is>
           <t>even_MAG-GUT91536.fa</t>
         </is>
@@ -8477,17 +7685,14 @@
       <c r="F268" t="n">
         <v>0.1709312498846093</v>
       </c>
-      <c r="G268" t="n">
-        <v>0.3599065985805239</v>
-      </c>
-      <c r="H268" t="inlineStr">
+      <c r="G268" t="inlineStr">
         <is>
           <t>g__Enterococcus</t>
         </is>
       </c>
     </row>
     <row r="269">
-      <c r="A269" s="1" t="inlineStr">
+      <c r="A269" s="3" t="inlineStr">
         <is>
           <t>even_MAG-GUT91546.fa</t>
         </is>
@@ -8507,17 +7712,14 @@
       <c r="F269" t="n">
         <v>0.1522701059440901</v>
       </c>
-      <c r="G269" t="n">
-        <v>0.341924400014099</v>
-      </c>
-      <c r="H269" t="inlineStr">
+      <c r="G269" t="inlineStr">
         <is>
           <t>g__Enterococcus</t>
         </is>
       </c>
     </row>
     <row r="270">
-      <c r="A270" s="1" t="inlineStr">
+      <c r="A270" s="3" t="inlineStr">
         <is>
           <t>even_MAG-GUT91568.fa</t>
         </is>
@@ -8537,17 +7739,14 @@
       <c r="F270" t="n">
         <v>0.2300291799759371</v>
       </c>
-      <c r="G270" t="n">
-        <v>0.3281850461513032</v>
-      </c>
-      <c r="H270" t="inlineStr">
+      <c r="G270" t="inlineStr">
         <is>
           <t>g__Enterococcus</t>
         </is>
       </c>
     </row>
     <row r="271">
-      <c r="A271" s="1" t="inlineStr">
+      <c r="A271" s="3" t="inlineStr">
         <is>
           <t>even_MAG-GUT91712.fa</t>
         </is>
@@ -8567,17 +7766,14 @@
       <c r="F271" t="n">
         <v>0.1819162221737871</v>
       </c>
-      <c r="G271" t="n">
-        <v>0.328459507041836</v>
-      </c>
-      <c r="H271" t="inlineStr">
+      <c r="G271" t="inlineStr">
         <is>
           <t>g__Enterococcus</t>
         </is>
       </c>
     </row>
     <row r="272">
-      <c r="A272" s="1" t="inlineStr">
+      <c r="A272" s="3" t="inlineStr">
         <is>
           <t>even_MAG-GUT91717.fa</t>
         </is>
@@ -8597,17 +7793,14 @@
       <c r="F272" t="n">
         <v>0.2076508975003589</v>
       </c>
-      <c r="G272" t="n">
-        <v>0.3369061831326963</v>
-      </c>
-      <c r="H272" t="inlineStr">
+      <c r="G272" t="inlineStr">
         <is>
           <t>g__Enterococcus</t>
         </is>
       </c>
     </row>
     <row r="273">
-      <c r="A273" s="1" t="inlineStr">
+      <c r="A273" s="3" t="inlineStr">
         <is>
           <t>even_MAG-GUT91736.fa</t>
         </is>
@@ -8627,17 +7820,14 @@
       <c r="F273" t="n">
         <v>0.1884399399298615</v>
       </c>
-      <c r="G273" t="n">
-        <v>0.322058741123924</v>
-      </c>
-      <c r="H273" t="inlineStr">
+      <c r="G273" t="inlineStr">
         <is>
           <t>g__Enterococcus_B</t>
         </is>
       </c>
     </row>
     <row r="274">
-      <c r="A274" s="1" t="inlineStr">
+      <c r="A274" s="3" t="inlineStr">
         <is>
           <t>even_MAG-GUT91762.fa</t>
         </is>
@@ -8657,17 +7847,14 @@
       <c r="F274" t="n">
         <v>0.1682641790047687</v>
       </c>
-      <c r="G274" t="n">
-        <v>0.3307805703023468</v>
-      </c>
-      <c r="H274" t="inlineStr">
+      <c r="G274" t="inlineStr">
         <is>
           <t>g__Enterococcus_B</t>
         </is>
       </c>
     </row>
     <row r="275">
-      <c r="A275" s="1" t="inlineStr">
+      <c r="A275" s="3" t="inlineStr">
         <is>
           <t>even_MAG-GUT91779.fa</t>
         </is>
@@ -8687,17 +7874,14 @@
       <c r="F275" t="n">
         <v>0.09935504715243822</v>
       </c>
-      <c r="G275" t="n">
-        <v>0.3007490386394523</v>
-      </c>
-      <c r="H275" t="inlineStr">
+      <c r="G275" t="inlineStr">
         <is>
           <t>g__Enterococcus</t>
         </is>
       </c>
     </row>
     <row r="276">
-      <c r="A276" s="1" t="inlineStr">
+      <c r="A276" s="3" t="inlineStr">
         <is>
           <t>even_MAG-GUT91815.fa</t>
         </is>
@@ -8717,17 +7901,14 @@
       <c r="F276" t="n">
         <v>0.1676176828946035</v>
       </c>
-      <c r="G276" t="n">
-        <v>0.3243167106283766</v>
-      </c>
-      <c r="H276" t="inlineStr">
+      <c r="G276" t="inlineStr">
         <is>
           <t>g__Enterococcus</t>
         </is>
       </c>
     </row>
     <row r="277">
-      <c r="A277" s="1" t="inlineStr">
+      <c r="A277" s="3" t="inlineStr">
         <is>
           <t>even_MAG-GUT91818.fa</t>
         </is>
@@ -8747,17 +7928,14 @@
       <c r="F277" t="n">
         <v>0.1676176828946035</v>
       </c>
-      <c r="G277" t="n">
-        <v>0.3243167106283766</v>
-      </c>
-      <c r="H277" t="inlineStr">
+      <c r="G277" t="inlineStr">
         <is>
           <t>g__Enterococcus</t>
         </is>
       </c>
     </row>
     <row r="278">
-      <c r="A278" s="1" t="inlineStr">
+      <c r="A278" s="3" t="inlineStr">
         <is>
           <t>even_MAG-GUT91821.fa</t>
         </is>
@@ -8777,17 +7955,14 @@
       <c r="F278" t="n">
         <v>0.2479007186499398</v>
       </c>
-      <c r="G278" t="n">
-        <v>0.3407315446001268</v>
-      </c>
-      <c r="H278" t="inlineStr">
+      <c r="G278" t="inlineStr">
         <is>
           <t>g__Enterococcus</t>
         </is>
       </c>
     </row>
     <row r="279">
-      <c r="A279" s="1" t="inlineStr">
+      <c r="A279" s="3" t="inlineStr">
         <is>
           <t>even_MAG-GUT91823.fa</t>
         </is>
@@ -8807,17 +7982,14 @@
       <c r="F279" t="n">
         <v>0.2078812013576465</v>
       </c>
-      <c r="G279" t="n">
-        <v>0.343455665267608</v>
-      </c>
-      <c r="H279" t="inlineStr">
+      <c r="G279" t="inlineStr">
         <is>
           <t>g__Enterococcus</t>
         </is>
       </c>
     </row>
     <row r="280">
-      <c r="A280" s="1" t="inlineStr">
+      <c r="A280" s="3" t="inlineStr">
         <is>
           <t>even_MAG-GUT91833.fa</t>
         </is>
@@ -8837,17 +8009,14 @@
       <c r="F280" t="n">
         <v>0.2119115063233752</v>
       </c>
-      <c r="G280" t="n">
-        <v>0.2838511937636248</v>
-      </c>
-      <c r="H280" t="inlineStr">
+      <c r="G280" t="inlineStr">
         <is>
           <t>g__Enterococcus_B</t>
         </is>
       </c>
     </row>
     <row r="281">
-      <c r="A281" s="1" t="inlineStr">
+      <c r="A281" s="3" t="inlineStr">
         <is>
           <t>even_MAG-GUT91860.fa</t>
         </is>
@@ -8867,17 +8036,14 @@
       <c r="F281" t="n">
         <v>0.1507876619390203</v>
       </c>
-      <c r="G281" t="n">
-        <v>0.2943352295969983</v>
-      </c>
-      <c r="H281" t="inlineStr">
+      <c r="G281" t="inlineStr">
         <is>
           <t>g__Enterococcus</t>
         </is>
       </c>
     </row>
     <row r="282">
-      <c r="A282" s="1" t="inlineStr">
+      <c r="A282" s="3" t="inlineStr">
         <is>
           <t>even_MAG-GUT91882.fa</t>
         </is>
@@ -8897,17 +8063,14 @@
       <c r="F282" t="n">
         <v>0.1626551368310001</v>
       </c>
-      <c r="G282" t="n">
-        <v>0.3398117072330977</v>
-      </c>
-      <c r="H282" t="inlineStr">
+      <c r="G282" t="inlineStr">
         <is>
           <t>g__Enterococcus</t>
         </is>
       </c>
     </row>
     <row r="283">
-      <c r="A283" s="1" t="inlineStr">
+      <c r="A283" s="3" t="inlineStr">
         <is>
           <t>even_MAG-GUT91886.fa</t>
         </is>
@@ -8927,17 +8090,14 @@
       <c r="F283" t="n">
         <v>0.2130747855501406</v>
       </c>
-      <c r="G283" t="n">
-        <v>0.3381242870611215</v>
-      </c>
-      <c r="H283" t="inlineStr">
+      <c r="G283" t="inlineStr">
         <is>
           <t>g__Enterococcus</t>
         </is>
       </c>
     </row>
     <row r="284">
-      <c r="A284" s="1" t="inlineStr">
+      <c r="A284" s="3" t="inlineStr">
         <is>
           <t>even_MAG-GUT91911.fa</t>
         </is>
@@ -8957,17 +8117,14 @@
       <c r="F284" t="n">
         <v>0.1690122600008533</v>
       </c>
-      <c r="G284" t="n">
-        <v>0.2855417895845825</v>
-      </c>
-      <c r="H284" t="inlineStr">
+      <c r="G284" t="inlineStr">
         <is>
           <t>g__Enterococcus</t>
         </is>
       </c>
     </row>
     <row r="285">
-      <c r="A285" s="1" t="inlineStr">
+      <c r="A285" s="3" t="inlineStr">
         <is>
           <t>even_MAG-GUT91912.fa</t>
         </is>
@@ -8987,17 +8144,14 @@
       <c r="F285" t="n">
         <v>0.1475382654208024</v>
       </c>
-      <c r="G285" t="n">
-        <v>0.3282577413436809</v>
-      </c>
-      <c r="H285" t="inlineStr">
+      <c r="G285" t="inlineStr">
         <is>
           <t>g__Enterococcus</t>
         </is>
       </c>
     </row>
     <row r="286">
-      <c r="A286" s="1" t="inlineStr">
+      <c r="A286" s="3" t="inlineStr">
         <is>
           <t>even_MAG-GUT91923.fa</t>
         </is>
@@ -9017,17 +8171,14 @@
       <c r="F286" t="n">
         <v>0.1340350322953459</v>
       </c>
-      <c r="G286" t="n">
-        <v>0.3244770211625431</v>
-      </c>
-      <c r="H286" t="inlineStr">
+      <c r="G286" t="inlineStr">
         <is>
           <t>g__Enterococcus</t>
         </is>
       </c>
     </row>
     <row r="287">
-      <c r="A287" s="1" t="inlineStr">
+      <c r="A287" s="3" t="inlineStr">
         <is>
           <t>even_MAG-GUT91926.fa</t>
         </is>
@@ -9047,17 +8198,14 @@
       <c r="F287" t="n">
         <v>0.2470193033246377</v>
       </c>
-      <c r="G287" t="n">
-        <v>0.3321151010862958</v>
-      </c>
-      <c r="H287" t="inlineStr">
+      <c r="G287" t="inlineStr">
         <is>
           <t>g__Enterococcus</t>
         </is>
       </c>
     </row>
     <row r="288">
-      <c r="A288" s="1" t="inlineStr">
+      <c r="A288" s="3" t="inlineStr">
         <is>
           <t>even_MAG-GUT91932.fa</t>
         </is>
@@ -9077,17 +8225,14 @@
       <c r="F288" t="n">
         <v>0.14915066351374</v>
       </c>
-      <c r="G288" t="n">
-        <v>0.3517039413856188</v>
-      </c>
-      <c r="H288" t="inlineStr">
+      <c r="G288" t="inlineStr">
         <is>
           <t>g__Enterococcus</t>
         </is>
       </c>
     </row>
     <row r="289">
-      <c r="A289" s="1" t="inlineStr">
+      <c r="A289" s="3" t="inlineStr">
         <is>
           <t>even_MAG-GUT91941.fa</t>
         </is>
@@ -9107,17 +8252,14 @@
       <c r="F289" t="n">
         <v>0.2094437805929524</v>
       </c>
-      <c r="G289" t="n">
-        <v>0.3586215206807555</v>
-      </c>
-      <c r="H289" t="inlineStr">
+      <c r="G289" t="inlineStr">
         <is>
           <t>g__Enterococcus</t>
         </is>
       </c>
     </row>
     <row r="290">
-      <c r="A290" s="1" t="inlineStr">
+      <c r="A290" s="3" t="inlineStr">
         <is>
           <t>even_MAG-GUT91943.fa</t>
         </is>
@@ -9137,17 +8279,14 @@
       <c r="F290" t="n">
         <v>0.1066834249697875</v>
       </c>
-      <c r="G290" t="n">
-        <v>0.5247438224390616</v>
-      </c>
-      <c r="H290" t="inlineStr">
+      <c r="G290" t="inlineStr">
         <is>
           <t>g__Enterococcus_A</t>
         </is>
       </c>
     </row>
     <row r="291">
-      <c r="A291" s="1" t="inlineStr">
+      <c r="A291" s="3" t="inlineStr">
         <is>
           <t>even_MAG-GUT91954.fa</t>
         </is>
@@ -9167,17 +8306,14 @@
       <c r="F291" t="n">
         <v>0.2132398524036092</v>
       </c>
-      <c r="G291" t="n">
-        <v>0.3682830751439161</v>
-      </c>
-      <c r="H291" t="inlineStr">
+      <c r="G291" t="inlineStr">
         <is>
           <t>g__Enterococcus</t>
         </is>
       </c>
     </row>
     <row r="292">
-      <c r="A292" s="1" t="inlineStr">
+      <c r="A292" s="3" t="inlineStr">
         <is>
           <t>even_MAG-GUT91960.fa</t>
         </is>
@@ -9197,17 +8333,14 @@
       <c r="F292" t="n">
         <v>0.229152660320997</v>
       </c>
-      <c r="G292" t="n">
-        <v>0.2990931979356919</v>
-      </c>
-      <c r="H292" t="inlineStr">
+      <c r="G292" t="inlineStr">
         <is>
           <t>g__Enterococcus_B</t>
         </is>
       </c>
     </row>
     <row r="293">
-      <c r="A293" s="1" t="inlineStr">
+      <c r="A293" s="3" t="inlineStr">
         <is>
           <t>even_MAG-GUT92006.fa</t>
         </is>
@@ -9227,17 +8360,14 @@
       <c r="F293" t="n">
         <v>0.1044295836445718</v>
       </c>
-      <c r="G293" t="n">
-        <v>0.3169563574801912</v>
-      </c>
-      <c r="H293" t="inlineStr">
+      <c r="G293" t="inlineStr">
         <is>
           <t>g__Enterococcus</t>
         </is>
       </c>
     </row>
     <row r="294">
-      <c r="A294" s="1" t="inlineStr">
+      <c r="A294" s="3" t="inlineStr">
         <is>
           <t>even_MAG-GUT92066.fa</t>
         </is>
@@ -9257,17 +8387,14 @@
       <c r="F294" t="n">
         <v>0.2190964747046716</v>
       </c>
-      <c r="G294" t="n">
-        <v>0.3647946673515144</v>
-      </c>
-      <c r="H294" t="inlineStr">
+      <c r="G294" t="inlineStr">
         <is>
           <t>g__Enterococcus</t>
         </is>
       </c>
     </row>
     <row r="295">
-      <c r="A295" s="1" t="inlineStr">
+      <c r="A295" s="3" t="inlineStr">
         <is>
           <t>even_MAG-GUT92111.fa</t>
         </is>
@@ -9287,17 +8414,14 @@
       <c r="F295" t="n">
         <v>0.2120174239264505</v>
       </c>
-      <c r="G295" t="n">
-        <v>0.3570489603420526</v>
-      </c>
-      <c r="H295" t="inlineStr">
+      <c r="G295" t="inlineStr">
         <is>
           <t>g__Enterococcus</t>
         </is>
       </c>
     </row>
     <row r="296">
-      <c r="A296" s="1" t="inlineStr">
+      <c r="A296" s="3" t="inlineStr">
         <is>
           <t>even_MAG-GUT940.fa</t>
         </is>
@@ -9317,17 +8441,14 @@
       <c r="F296" t="n">
         <v>0.06241069499824551</v>
       </c>
-      <c r="G296" t="n">
-        <v>0.3712374546346814</v>
-      </c>
-      <c r="H296" t="inlineStr">
+      <c r="G296" t="inlineStr">
         <is>
           <t>g__Enterococcus_A</t>
         </is>
       </c>
     </row>
     <row r="297">
-      <c r="A297" s="1" t="inlineStr">
+      <c r="A297" s="3" t="inlineStr">
         <is>
           <t>even_MAG-GUT945.fa</t>
         </is>
@@ -9347,17 +8468,14 @@
       <c r="F297" t="n">
         <v>0.2985841315446255</v>
       </c>
-      <c r="G297" t="n">
-        <v>0.2985841315446255</v>
-      </c>
-      <c r="H297" t="inlineStr">
+      <c r="G297" t="inlineStr">
         <is>
           <t>g__Enterococcus_D</t>
         </is>
       </c>
     </row>
     <row r="298">
-      <c r="A298" s="1" t="inlineStr">
+      <c r="A298" s="3" t="inlineStr">
         <is>
           <t>even_MAG-GUT984.fa</t>
         </is>
@@ -9377,10 +8495,7 @@
       <c r="F298" t="n">
         <v>0.08702404811487494</v>
       </c>
-      <c r="G298" t="n">
-        <v>0.66520478487612</v>
-      </c>
-      <c r="H298" t="inlineStr">
+      <c r="G298" t="inlineStr">
         <is>
           <t>g__Enterococcus_A</t>
         </is>

--- a/outputs-HGR-r202/f__Enterococcaceae.xlsx
+++ b/outputs-HGR-r202/f__Enterococcaceae.xlsx
@@ -2,6 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
+  <workbookProtection/>
   <bookViews>
     <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
@@ -9,7 +10,7 @@
     <sheet name="f__Enterococcaceae_pred-t-p" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="125725" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -19,7 +20,10 @@
   <fonts count="2">
     <font>
       <name val="Calibri"/>
+      <family val="2"/>
+      <color theme="1"/>
       <sz val="11"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b val="1"/>
@@ -33,21 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -64,19 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="2" fillId="0" fontId="0" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="2">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="0" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="0" numFmtId="22" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="3" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -437,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G298"/>
+  <dimension ref="A1:H298"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,44 +435,49 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="3" t="inlineStr">
+      <c r="A1" s="1" t="inlineStr">
         <is>
           <t>Row</t>
         </is>
       </c>
-      <c r="B1" s="3" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>1-g__Enterococcus</t>
         </is>
       </c>
-      <c r="C1" s="3" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>2-g__Enterococcus_A</t>
         </is>
       </c>
-      <c r="D1" s="3" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>3-g__Enterococcus_B</t>
         </is>
       </c>
-      <c r="E1" s="3" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>4-g__Enterococcus_C</t>
         </is>
       </c>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>5-g__Enterococcus_D</t>
         </is>
       </c>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>max</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>prediction</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="3" t="inlineStr">
+      <c r="A2" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT1029.fa</t>
         </is>
@@ -503,14 +497,17 @@
       <c r="F2" t="n">
         <v>0.1722024376053274</v>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="G2" t="n">
+        <v>0.3519254294299934</v>
+      </c>
+      <c r="H2" t="inlineStr">
         <is>
           <t>g__Enterococcus</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="3" t="inlineStr">
+      <c r="A3" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT1036.fa</t>
         </is>
@@ -530,14 +527,17 @@
       <c r="F3" t="n">
         <v>0.0821707362881456</v>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="G3" t="n">
+        <v>0.3381923486103705</v>
+      </c>
+      <c r="H3" t="inlineStr">
         <is>
           <t>g__Enterococcus_A</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="3" t="inlineStr">
+      <c r="A4" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT1037.fa</t>
         </is>
@@ -557,14 +557,17 @@
       <c r="F4" t="n">
         <v>0.1974320097466022</v>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="G4" t="n">
+        <v>0.3222920866279966</v>
+      </c>
+      <c r="H4" t="inlineStr">
         <is>
           <t>g__Enterococcus</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="3" t="inlineStr">
+      <c r="A5" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT1047.fa</t>
         </is>
@@ -584,14 +587,17 @@
       <c r="F5" t="n">
         <v>0.1974320097466022</v>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="G5" t="n">
+        <v>0.3222920866279966</v>
+      </c>
+      <c r="H5" t="inlineStr">
         <is>
           <t>g__Enterococcus</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="3" t="inlineStr">
+      <c r="A6" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT1052.fa</t>
         </is>
@@ -611,14 +617,17 @@
       <c r="F6" t="n">
         <v>0.1438065758283079</v>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="G6" t="n">
+        <v>0.3209374760468734</v>
+      </c>
+      <c r="H6" t="inlineStr">
         <is>
           <t>g__Enterococcus</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="3" t="inlineStr">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT1055.fa</t>
         </is>
@@ -638,14 +647,17 @@
       <c r="F7" t="n">
         <v>0.2307456423904968</v>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="G7" t="n">
+        <v>0.3274483735210871</v>
+      </c>
+      <c r="H7" t="inlineStr">
         <is>
           <t>g__Enterococcus</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="3" t="inlineStr">
+      <c r="A8" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT1062.fa</t>
         </is>
@@ -665,14 +677,17 @@
       <c r="F8" t="n">
         <v>0.1697375190270014</v>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="G8" t="n">
+        <v>0.3543234459157115</v>
+      </c>
+      <c r="H8" t="inlineStr">
         <is>
           <t>g__Enterococcus</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="3" t="inlineStr">
+      <c r="A9" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT1077.fa</t>
         </is>
@@ -692,14 +707,17 @@
       <c r="F9" t="n">
         <v>0.2143542048785873</v>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="G9" t="n">
+        <v>0.3205649993666649</v>
+      </c>
+      <c r="H9" t="inlineStr">
         <is>
           <t>g__Enterococcus</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="3" t="inlineStr">
+      <c r="A10" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT1088.fa</t>
         </is>
@@ -719,14 +737,17 @@
       <c r="F10" t="n">
         <v>0.1500953378789681</v>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="G10" t="n">
+        <v>0.3039068511210548</v>
+      </c>
+      <c r="H10" t="inlineStr">
         <is>
           <t>g__Enterococcus</t>
         </is>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="3" t="inlineStr">
+      <c r="A11" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT1103.fa</t>
         </is>
@@ -746,14 +767,17 @@
       <c r="F11" t="n">
         <v>0.2493294856188804</v>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="G11" t="n">
+        <v>0.3381934150092067</v>
+      </c>
+      <c r="H11" t="inlineStr">
         <is>
           <t>g__Enterococcus</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="3" t="inlineStr">
+      <c r="A12" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT1160.fa</t>
         </is>
@@ -773,14 +797,17 @@
       <c r="F12" t="n">
         <v>0.1009419709020183</v>
       </c>
-      <c r="G12" t="inlineStr">
+      <c r="G12" t="n">
+        <v>0.3622617015591919</v>
+      </c>
+      <c r="H12" t="inlineStr">
         <is>
           <t>g__Enterococcus</t>
         </is>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="3" t="inlineStr">
+      <c r="A13" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT1169.fa</t>
         </is>
@@ -800,14 +827,17 @@
       <c r="F13" t="n">
         <v>0.1509564303403516</v>
       </c>
-      <c r="G13" t="inlineStr">
+      <c r="G13" t="n">
+        <v>0.3629090743998891</v>
+      </c>
+      <c r="H13" t="inlineStr">
         <is>
           <t>g__Enterococcus</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="3" t="inlineStr">
+      <c r="A14" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT1171.fa</t>
         </is>
@@ -827,14 +857,17 @@
       <c r="F14" t="n">
         <v>0.1497889375833376</v>
       </c>
-      <c r="G14" t="inlineStr">
+      <c r="G14" t="n">
+        <v>0.3782973620644484</v>
+      </c>
+      <c r="H14" t="inlineStr">
         <is>
           <t>g__Enterococcus</t>
         </is>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="3" t="inlineStr">
+      <c r="A15" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT1173.fa</t>
         </is>
@@ -854,14 +887,17 @@
       <c r="F15" t="n">
         <v>0.1519400385649293</v>
       </c>
-      <c r="G15" t="inlineStr">
+      <c r="G15" t="n">
+        <v>0.3480558136528761</v>
+      </c>
+      <c r="H15" t="inlineStr">
         <is>
           <t>g__Enterococcus</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="3" t="inlineStr">
+      <c r="A16" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT1177.fa</t>
         </is>
@@ -881,14 +917,17 @@
       <c r="F16" t="n">
         <v>0.1282048422797501</v>
       </c>
-      <c r="G16" t="inlineStr">
+      <c r="G16" t="n">
+        <v>0.3705556479582339</v>
+      </c>
+      <c r="H16" t="inlineStr">
         <is>
           <t>g__Enterococcus</t>
         </is>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="3" t="inlineStr">
+      <c r="A17" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT1196.fa</t>
         </is>
@@ -908,14 +947,17 @@
       <c r="F17" t="n">
         <v>0.1851301166594866</v>
       </c>
-      <c r="G17" t="inlineStr">
+      <c r="G17" t="n">
+        <v>0.3375497466628972</v>
+      </c>
+      <c r="H17" t="inlineStr">
         <is>
           <t>g__Enterococcus</t>
         </is>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="3" t="inlineStr">
+      <c r="A18" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT1197.fa</t>
         </is>
@@ -935,14 +977,17 @@
       <c r="F18" t="n">
         <v>0.1437190904942348</v>
       </c>
-      <c r="G18" t="inlineStr">
+      <c r="G18" t="n">
+        <v>0.3785279366181467</v>
+      </c>
+      <c r="H18" t="inlineStr">
         <is>
           <t>g__Enterococcus</t>
         </is>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="3" t="inlineStr">
+      <c r="A19" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT1228.fa</t>
         </is>
@@ -962,14 +1007,17 @@
       <c r="F19" t="n">
         <v>0.1437190904942348</v>
       </c>
-      <c r="G19" t="inlineStr">
+      <c r="G19" t="n">
+        <v>0.3785279366181467</v>
+      </c>
+      <c r="H19" t="inlineStr">
         <is>
           <t>g__Enterococcus</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="3" t="inlineStr">
+      <c r="A20" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT1236.fa</t>
         </is>
@@ -989,14 +1037,17 @@
       <c r="F20" t="n">
         <v>0.2201467871582032</v>
       </c>
-      <c r="G20" t="inlineStr">
+      <c r="G20" t="n">
+        <v>0.3270337012065453</v>
+      </c>
+      <c r="H20" t="inlineStr">
         <is>
           <t>g__Enterococcus</t>
         </is>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="3" t="inlineStr">
+      <c r="A21" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT1242.fa</t>
         </is>
@@ -1016,14 +1067,17 @@
       <c r="F21" t="n">
         <v>0.1224623273112391</v>
       </c>
-      <c r="G21" t="inlineStr">
+      <c r="G21" t="n">
+        <v>0.3798376582100505</v>
+      </c>
+      <c r="H21" t="inlineStr">
         <is>
           <t>g__Enterococcus_A</t>
         </is>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="3" t="inlineStr">
+      <c r="A22" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT1244.fa</t>
         </is>
@@ -1043,14 +1097,17 @@
       <c r="F22" t="n">
         <v>0.1943896131254691</v>
       </c>
-      <c r="G22" t="inlineStr">
+      <c r="G22" t="n">
+        <v>0.3040739259751025</v>
+      </c>
+      <c r="H22" t="inlineStr">
         <is>
           <t>g__Enterococcus</t>
         </is>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="3" t="inlineStr">
+      <c r="A23" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT1255.fa</t>
         </is>
@@ -1070,14 +1127,17 @@
       <c r="F23" t="n">
         <v>0.1943896131254691</v>
       </c>
-      <c r="G23" t="inlineStr">
+      <c r="G23" t="n">
+        <v>0.3040739259751025</v>
+      </c>
+      <c r="H23" t="inlineStr">
         <is>
           <t>g__Enterococcus</t>
         </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="3" t="inlineStr">
+      <c r="A24" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT1266.fa</t>
         </is>
@@ -1097,14 +1157,17 @@
       <c r="F24" t="n">
         <v>0.1775558793681231</v>
       </c>
-      <c r="G24" t="inlineStr">
+      <c r="G24" t="n">
+        <v>0.2876227448941485</v>
+      </c>
+      <c r="H24" t="inlineStr">
         <is>
           <t>g__Enterococcus</t>
         </is>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="3" t="inlineStr">
+      <c r="A25" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT1270.fa</t>
         </is>
@@ -1124,14 +1187,17 @@
       <c r="F25" t="n">
         <v>0.8327175416818537</v>
       </c>
-      <c r="G25" t="inlineStr">
+      <c r="G25" t="n">
+        <v>0.8327175416818537</v>
+      </c>
+      <c r="H25" t="inlineStr">
         <is>
           <t>g__Enterococcus_D</t>
         </is>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="3" t="inlineStr">
+      <c r="A26" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT1276.fa</t>
         </is>
@@ -1151,14 +1217,17 @@
       <c r="F26" t="n">
         <v>0.6957249977664599</v>
       </c>
-      <c r="G26" t="inlineStr">
+      <c r="G26" t="n">
+        <v>0.6957249977664599</v>
+      </c>
+      <c r="H26" t="inlineStr">
         <is>
           <t>g__Enterococcus_D</t>
         </is>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="3" t="inlineStr">
+      <c r="A27" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT1288.fa</t>
         </is>
@@ -1178,14 +1247,17 @@
       <c r="F27" t="n">
         <v>0.7195159344898404</v>
       </c>
-      <c r="G27" t="inlineStr">
+      <c r="G27" t="n">
+        <v>0.7195159344898404</v>
+      </c>
+      <c r="H27" t="inlineStr">
         <is>
           <t>g__Enterococcus_D</t>
         </is>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="3" t="inlineStr">
+      <c r="A28" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT1297.fa</t>
         </is>
@@ -1205,14 +1277,17 @@
       <c r="F28" t="n">
         <v>0.7326471355917883</v>
       </c>
-      <c r="G28" t="inlineStr">
+      <c r="G28" t="n">
+        <v>0.7326471355917883</v>
+      </c>
+      <c r="H28" t="inlineStr">
         <is>
           <t>g__Enterococcus_D</t>
         </is>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="3" t="inlineStr">
+      <c r="A29" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT1315.fa</t>
         </is>
@@ -1232,14 +1307,17 @@
       <c r="F29" t="n">
         <v>0.06002331987643469</v>
       </c>
-      <c r="G29" t="inlineStr">
+      <c r="G29" t="n">
+        <v>0.9220970867616138</v>
+      </c>
+      <c r="H29" t="inlineStr">
         <is>
           <t>g__Enterococcus_B</t>
         </is>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="3" t="inlineStr">
+      <c r="A30" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT1318.fa</t>
         </is>
@@ -1259,14 +1337,17 @@
       <c r="F30" t="n">
         <v>0.2249238373244642</v>
       </c>
-      <c r="G30" t="inlineStr">
+      <c r="G30" t="n">
+        <v>0.3317554310209347</v>
+      </c>
+      <c r="H30" t="inlineStr">
         <is>
           <t>g__Enterococcus</t>
         </is>
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="3" t="inlineStr">
+      <c r="A31" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT1319.fa</t>
         </is>
@@ -1286,14 +1367,17 @@
       <c r="F31" t="n">
         <v>0.2300769711475555</v>
       </c>
-      <c r="G31" t="inlineStr">
+      <c r="G31" t="n">
+        <v>0.3858522258832387</v>
+      </c>
+      <c r="H31" t="inlineStr">
         <is>
           <t>g__Enterococcus_A</t>
         </is>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="3" t="inlineStr">
+      <c r="A32" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT1328.fa</t>
         </is>
@@ -1313,14 +1397,17 @@
       <c r="F32" t="n">
         <v>0.1282048422797501</v>
       </c>
-      <c r="G32" t="inlineStr">
+      <c r="G32" t="n">
+        <v>0.3705556479582339</v>
+      </c>
+      <c r="H32" t="inlineStr">
         <is>
           <t>g__Enterococcus</t>
         </is>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="3" t="inlineStr">
+      <c r="A33" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT1336.fa</t>
         </is>
@@ -1340,14 +1427,17 @@
       <c r="F33" t="n">
         <v>0.08298243397162591</v>
       </c>
-      <c r="G33" t="inlineStr">
+      <c r="G33" t="n">
+        <v>0.9064808513219396</v>
+      </c>
+      <c r="H33" t="inlineStr">
         <is>
           <t>g__Enterococcus_B</t>
         </is>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="3" t="inlineStr">
+      <c r="A34" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT1362.fa</t>
         </is>
@@ -1367,14 +1457,17 @@
       <c r="F34" t="n">
         <v>0.2115142696398301</v>
       </c>
-      <c r="G34" t="inlineStr">
+      <c r="G34" t="n">
+        <v>0.3413792533700526</v>
+      </c>
+      <c r="H34" t="inlineStr">
         <is>
           <t>g__Enterococcus</t>
         </is>
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="3" t="inlineStr">
+      <c r="A35" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT1368.fa</t>
         </is>
@@ -1394,14 +1487,17 @@
       <c r="F35" t="n">
         <v>0.1697764468684718</v>
       </c>
-      <c r="G35" t="inlineStr">
+      <c r="G35" t="n">
+        <v>0.33460495136729</v>
+      </c>
+      <c r="H35" t="inlineStr">
         <is>
           <t>g__Enterococcus</t>
         </is>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="3" t="inlineStr">
+      <c r="A36" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT1370.fa</t>
         </is>
@@ -1421,14 +1517,17 @@
       <c r="F36" t="n">
         <v>0.02357585520431492</v>
       </c>
-      <c r="G36" t="inlineStr">
+      <c r="G36" t="n">
+        <v>0.9707672222474781</v>
+      </c>
+      <c r="H36" t="inlineStr">
         <is>
           <t>g__Enterococcus_B</t>
         </is>
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="3" t="inlineStr">
+      <c r="A37" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT1391.fa</t>
         </is>
@@ -1448,14 +1547,17 @@
       <c r="F37" t="n">
         <v>0.1214024107806201</v>
       </c>
-      <c r="G37" t="inlineStr">
+      <c r="G37" t="n">
+        <v>0.7965488295139113</v>
+      </c>
+      <c r="H37" t="inlineStr">
         <is>
           <t>g__Enterococcus_B</t>
         </is>
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="3" t="inlineStr">
+      <c r="A38" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT1393.fa</t>
         </is>
@@ -1475,14 +1577,17 @@
       <c r="F38" t="n">
         <v>0.03151557312125072</v>
       </c>
-      <c r="G38" t="inlineStr">
+      <c r="G38" t="n">
+        <v>0.9659900827988236</v>
+      </c>
+      <c r="H38" t="inlineStr">
         <is>
           <t>g__Enterococcus_B</t>
         </is>
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="3" t="inlineStr">
+      <c r="A39" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT1396.fa</t>
         </is>
@@ -1502,14 +1607,17 @@
       <c r="F39" t="n">
         <v>0.2731483658287277</v>
       </c>
-      <c r="G39" t="inlineStr">
+      <c r="G39" t="n">
+        <v>0.3401817324613789</v>
+      </c>
+      <c r="H39" t="inlineStr">
         <is>
           <t>g__Enterococcus</t>
         </is>
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="3" t="inlineStr">
+      <c r="A40" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT1457.fa</t>
         </is>
@@ -1529,14 +1637,17 @@
       <c r="F40" t="n">
         <v>0.03315109962910329</v>
       </c>
-      <c r="G40" t="inlineStr">
+      <c r="G40" t="n">
+        <v>0.9542926640441556</v>
+      </c>
+      <c r="H40" t="inlineStr">
         <is>
           <t>g__Enterococcus_B</t>
         </is>
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="3" t="inlineStr">
+      <c r="A41" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT1477.fa</t>
         </is>
@@ -1556,14 +1667,17 @@
       <c r="F41" t="n">
         <v>0.1445108927588368</v>
       </c>
-      <c r="G41" t="inlineStr">
+      <c r="G41" t="n">
+        <v>0.3232885072099378</v>
+      </c>
+      <c r="H41" t="inlineStr">
         <is>
           <t>g__Enterococcus</t>
         </is>
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="3" t="inlineStr">
+      <c r="A42" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT1479.fa</t>
         </is>
@@ -1583,14 +1697,17 @@
       <c r="F42" t="n">
         <v>0.01914253344590412</v>
       </c>
-      <c r="G42" t="inlineStr">
+      <c r="G42" t="n">
+        <v>0.973984721964575</v>
+      </c>
+      <c r="H42" t="inlineStr">
         <is>
           <t>g__Enterococcus_B</t>
         </is>
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="3" t="inlineStr">
+      <c r="A43" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT1498.fa</t>
         </is>
@@ -1610,14 +1727,17 @@
       <c r="F43" t="n">
         <v>0.1831985064094305</v>
       </c>
-      <c r="G43" t="inlineStr">
+      <c r="G43" t="n">
+        <v>0.3329545258979156</v>
+      </c>
+      <c r="H43" t="inlineStr">
         <is>
           <t>g__Enterococcus</t>
         </is>
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="3" t="inlineStr">
+      <c r="A44" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT1511.fa</t>
         </is>
@@ -1637,14 +1757,17 @@
       <c r="F44" t="n">
         <v>0.2003150577820729</v>
       </c>
-      <c r="G44" t="inlineStr">
+      <c r="G44" t="n">
+        <v>0.3336475344336658</v>
+      </c>
+      <c r="H44" t="inlineStr">
         <is>
           <t>g__Enterococcus</t>
         </is>
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="3" t="inlineStr">
+      <c r="A45" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT1522.fa</t>
         </is>
@@ -1664,14 +1787,17 @@
       <c r="F45" t="n">
         <v>0.218658953686526</v>
       </c>
-      <c r="G45" t="inlineStr">
+      <c r="G45" t="n">
+        <v>0.3256208495460178</v>
+      </c>
+      <c r="H45" t="inlineStr">
         <is>
           <t>g__Enterococcus</t>
         </is>
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="3" t="inlineStr">
+      <c r="A46" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT1541.fa</t>
         </is>
@@ -1691,14 +1817,17 @@
       <c r="F46" t="n">
         <v>0.01710609876088546</v>
       </c>
-      <c r="G46" t="inlineStr">
+      <c r="G46" t="n">
+        <v>0.9809143507942252</v>
+      </c>
+      <c r="H46" t="inlineStr">
         <is>
           <t>g__Enterococcus_B</t>
         </is>
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="3" t="inlineStr">
+      <c r="A47" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT1565.fa</t>
         </is>
@@ -1718,14 +1847,17 @@
       <c r="F47" t="n">
         <v>0.2003150577820729</v>
       </c>
-      <c r="G47" t="inlineStr">
+      <c r="G47" t="n">
+        <v>0.3336475344336658</v>
+      </c>
+      <c r="H47" t="inlineStr">
         <is>
           <t>g__Enterococcus</t>
         </is>
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="3" t="inlineStr">
+      <c r="A48" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT17288.fa</t>
         </is>
@@ -1745,14 +1877,17 @@
       <c r="F48" t="n">
         <v>0.1779922644741959</v>
       </c>
-      <c r="G48" t="inlineStr">
+      <c r="G48" t="n">
+        <v>0.8113320978644941</v>
+      </c>
+      <c r="H48" t="inlineStr">
         <is>
           <t>g__Enterococcus_B</t>
         </is>
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="3" t="inlineStr">
+      <c r="A49" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT17314.fa</t>
         </is>
@@ -1772,14 +1907,17 @@
       <c r="F49" t="n">
         <v>0.161395690096437</v>
       </c>
-      <c r="G49" t="inlineStr">
+      <c r="G49" t="n">
+        <v>0.3448647002073614</v>
+      </c>
+      <c r="H49" t="inlineStr">
         <is>
           <t>g__Enterococcus</t>
         </is>
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="3" t="inlineStr">
+      <c r="A50" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT17776.fa</t>
         </is>
@@ -1799,14 +1937,17 @@
       <c r="F50" t="n">
         <v>0.1745125951617547</v>
       </c>
-      <c r="G50" t="inlineStr">
+      <c r="G50" t="n">
+        <v>0.3106894575328607</v>
+      </c>
+      <c r="H50" t="inlineStr">
         <is>
           <t>g__Enterococcus</t>
         </is>
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="3" t="inlineStr">
+      <c r="A51" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT17782.fa</t>
         </is>
@@ -1826,14 +1967,17 @@
       <c r="F51" t="n">
         <v>0.07246777632699693</v>
       </c>
-      <c r="G51" t="inlineStr">
+      <c r="G51" t="n">
+        <v>0.9202291976336868</v>
+      </c>
+      <c r="H51" t="inlineStr">
         <is>
           <t>g__Enterococcus_B</t>
         </is>
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="3" t="inlineStr">
+      <c r="A52" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT1871.fa</t>
         </is>
@@ -1853,14 +1997,17 @@
       <c r="F52" t="n">
         <v>0.1859021421805076</v>
       </c>
-      <c r="G52" t="inlineStr">
+      <c r="G52" t="n">
+        <v>0.3466997742479728</v>
+      </c>
+      <c r="H52" t="inlineStr">
         <is>
           <t>g__Enterococcus</t>
         </is>
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="3" t="inlineStr">
+      <c r="A53" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT1875.fa</t>
         </is>
@@ -1880,14 +2027,17 @@
       <c r="F53" t="n">
         <v>0.1303238134668976</v>
       </c>
-      <c r="G53" t="inlineStr">
+      <c r="G53" t="n">
+        <v>0.391093109250476</v>
+      </c>
+      <c r="H53" t="inlineStr">
         <is>
           <t>g__Enterococcus_A</t>
         </is>
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="3" t="inlineStr">
+      <c r="A54" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT1876.fa</t>
         </is>
@@ -1907,14 +2057,17 @@
       <c r="F54" t="n">
         <v>0.2332008702579641</v>
       </c>
-      <c r="G54" t="inlineStr">
+      <c r="G54" t="n">
+        <v>0.3216364547720061</v>
+      </c>
+      <c r="H54" t="inlineStr">
         <is>
           <t>g__Enterococcus_A</t>
         </is>
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="3" t="inlineStr">
+      <c r="A55" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT1880.fa</t>
         </is>
@@ -1934,14 +2087,17 @@
       <c r="F55" t="n">
         <v>0.1578204465504942</v>
       </c>
-      <c r="G55" t="inlineStr">
+      <c r="G55" t="n">
+        <v>0.3325550602770441</v>
+      </c>
+      <c r="H55" t="inlineStr">
         <is>
           <t>g__Enterococcus</t>
         </is>
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="3" t="inlineStr">
+      <c r="A56" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT1885.fa</t>
         </is>
@@ -1961,14 +2117,17 @@
       <c r="F56" t="n">
         <v>0.2188478729368288</v>
       </c>
-      <c r="G56" t="inlineStr">
+      <c r="G56" t="n">
+        <v>0.3658243446342961</v>
+      </c>
+      <c r="H56" t="inlineStr">
         <is>
           <t>g__Enterococcus</t>
         </is>
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="3" t="inlineStr">
+      <c r="A57" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT1887.fa</t>
         </is>
@@ -1988,14 +2147,17 @@
       <c r="F57" t="n">
         <v>0.1913079101151264</v>
       </c>
-      <c r="G57" t="inlineStr">
+      <c r="G57" t="n">
+        <v>0.338374923123968</v>
+      </c>
+      <c r="H57" t="inlineStr">
         <is>
           <t>g__Enterococcus</t>
         </is>
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="3" t="inlineStr">
+      <c r="A58" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT1888.fa</t>
         </is>
@@ -2015,14 +2177,17 @@
       <c r="F58" t="n">
         <v>0.1367040016756877</v>
       </c>
-      <c r="G58" t="inlineStr">
+      <c r="G58" t="n">
+        <v>0.3674691770610249</v>
+      </c>
+      <c r="H58" t="inlineStr">
         <is>
           <t>g__Enterococcus</t>
         </is>
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="3" t="inlineStr">
+      <c r="A59" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT1892.fa</t>
         </is>
@@ -2042,14 +2207,17 @@
       <c r="F59" t="n">
         <v>0.2188478729368288</v>
       </c>
-      <c r="G59" t="inlineStr">
+      <c r="G59" t="n">
+        <v>0.3658243446342961</v>
+      </c>
+      <c r="H59" t="inlineStr">
         <is>
           <t>g__Enterococcus</t>
         </is>
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="3" t="inlineStr">
+      <c r="A60" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT1895.fa</t>
         </is>
@@ -2069,14 +2237,17 @@
       <c r="F60" t="n">
         <v>0.1801354396578459</v>
       </c>
-      <c r="G60" t="inlineStr">
+      <c r="G60" t="n">
+        <v>0.3552679725447894</v>
+      </c>
+      <c r="H60" t="inlineStr">
         <is>
           <t>g__Enterococcus</t>
         </is>
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="3" t="inlineStr">
+      <c r="A61" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT1898.fa</t>
         </is>
@@ -2096,14 +2267,17 @@
       <c r="F61" t="n">
         <v>0.1850055161414217</v>
       </c>
-      <c r="G61" t="inlineStr">
+      <c r="G61" t="n">
+        <v>0.3475383158463107</v>
+      </c>
+      <c r="H61" t="inlineStr">
         <is>
           <t>g__Enterococcus</t>
         </is>
       </c>
     </row>
     <row r="62">
-      <c r="A62" s="3" t="inlineStr">
+      <c r="A62" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT1900.fa</t>
         </is>
@@ -2123,14 +2297,17 @@
       <c r="F62" t="n">
         <v>0.2682791573974003</v>
       </c>
-      <c r="G62" t="inlineStr">
+      <c r="G62" t="n">
+        <v>0.3224193926872231</v>
+      </c>
+      <c r="H62" t="inlineStr">
         <is>
           <t>g__Enterococcus</t>
         </is>
       </c>
     </row>
     <row r="63">
-      <c r="A63" s="3" t="inlineStr">
+      <c r="A63" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT1904.fa</t>
         </is>
@@ -2150,14 +2327,17 @@
       <c r="F63" t="n">
         <v>0.1724669283153657</v>
       </c>
-      <c r="G63" t="inlineStr">
+      <c r="G63" t="n">
+        <v>0.3518891736204718</v>
+      </c>
+      <c r="H63" t="inlineStr">
         <is>
           <t>g__Enterococcus</t>
         </is>
       </c>
     </row>
     <row r="64">
-      <c r="A64" s="3" t="inlineStr">
+      <c r="A64" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT1906.fa</t>
         </is>
@@ -2177,14 +2357,17 @@
       <c r="F64" t="n">
         <v>0.2117565019623049</v>
       </c>
-      <c r="G64" t="inlineStr">
+      <c r="G64" t="n">
+        <v>0.3102854559934511</v>
+      </c>
+      <c r="H64" t="inlineStr">
         <is>
           <t>g__Enterococcus</t>
         </is>
       </c>
     </row>
     <row r="65">
-      <c r="A65" s="3" t="inlineStr">
+      <c r="A65" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT1908.fa</t>
         </is>
@@ -2204,14 +2387,17 @@
       <c r="F65" t="n">
         <v>0.1711674105868385</v>
       </c>
-      <c r="G65" t="inlineStr">
+      <c r="G65" t="n">
+        <v>0.3668101609268501</v>
+      </c>
+      <c r="H65" t="inlineStr">
         <is>
           <t>g__Enterococcus</t>
         </is>
       </c>
     </row>
     <row r="66">
-      <c r="A66" s="3" t="inlineStr">
+      <c r="A66" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT1911.fa</t>
         </is>
@@ -2231,14 +2417,17 @@
       <c r="F66" t="n">
         <v>0.2188478729368288</v>
       </c>
-      <c r="G66" t="inlineStr">
+      <c r="G66" t="n">
+        <v>0.3658243446342961</v>
+      </c>
+      <c r="H66" t="inlineStr">
         <is>
           <t>g__Enterococcus</t>
         </is>
       </c>
     </row>
     <row r="67">
-      <c r="A67" s="3" t="inlineStr">
+      <c r="A67" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT1914.fa</t>
         </is>
@@ -2258,14 +2447,17 @@
       <c r="F67" t="n">
         <v>0.2203482024816796</v>
       </c>
-      <c r="G67" t="inlineStr">
+      <c r="G67" t="n">
+        <v>0.366202294387536</v>
+      </c>
+      <c r="H67" t="inlineStr">
         <is>
           <t>g__Enterococcus</t>
         </is>
       </c>
     </row>
     <row r="68">
-      <c r="A68" s="3" t="inlineStr">
+      <c r="A68" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT1946.fa</t>
         </is>
@@ -2285,14 +2477,17 @@
       <c r="F68" t="n">
         <v>0.1881858142638633</v>
       </c>
-      <c r="G68" t="inlineStr">
+      <c r="G68" t="n">
+        <v>0.338699373892368</v>
+      </c>
+      <c r="H68" t="inlineStr">
         <is>
           <t>g__Enterococcus</t>
         </is>
       </c>
     </row>
     <row r="69">
-      <c r="A69" s="3" t="inlineStr">
+      <c r="A69" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT1959.fa</t>
         </is>
@@ -2312,14 +2507,17 @@
       <c r="F69" t="n">
         <v>0.2297295644961077</v>
       </c>
-      <c r="G69" t="inlineStr">
+      <c r="G69" t="n">
+        <v>0.3521464974994388</v>
+      </c>
+      <c r="H69" t="inlineStr">
         <is>
           <t>g__Enterococcus</t>
         </is>
       </c>
     </row>
     <row r="70">
-      <c r="A70" s="3" t="inlineStr">
+      <c r="A70" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT2025.fa</t>
         </is>
@@ -2339,14 +2537,17 @@
       <c r="F70" t="n">
         <v>0.1345172199107464</v>
       </c>
-      <c r="G70" t="inlineStr">
+      <c r="G70" t="n">
+        <v>0.3362664786458258</v>
+      </c>
+      <c r="H70" t="inlineStr">
         <is>
           <t>g__Enterococcus_A</t>
         </is>
       </c>
     </row>
     <row r="71">
-      <c r="A71" s="3" t="inlineStr">
+      <c r="A71" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT26238.fa</t>
         </is>
@@ -2366,14 +2567,17 @@
       <c r="F71" t="n">
         <v>0.01022481386614381</v>
       </c>
-      <c r="G71" t="inlineStr">
+      <c r="G71" t="n">
+        <v>0.970647976737519</v>
+      </c>
+      <c r="H71" t="inlineStr">
         <is>
           <t>g__Enterococcus_B</t>
         </is>
       </c>
     </row>
     <row r="72">
-      <c r="A72" s="3" t="inlineStr">
+      <c r="A72" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT26973.fa</t>
         </is>
@@ -2393,14 +2597,17 @@
       <c r="F72" t="n">
         <v>0.02744351785236151</v>
       </c>
-      <c r="G72" t="inlineStr">
+      <c r="G72" t="n">
+        <v>0.9598529955911526</v>
+      </c>
+      <c r="H72" t="inlineStr">
         <is>
           <t>g__Enterococcus_B</t>
         </is>
       </c>
     </row>
     <row r="73">
-      <c r="A73" s="3" t="inlineStr">
+      <c r="A73" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT3231.fa</t>
         </is>
@@ -2420,14 +2627,17 @@
       <c r="F73" t="n">
         <v>0.2241350505939142</v>
       </c>
-      <c r="G73" t="inlineStr">
+      <c r="G73" t="n">
+        <v>0.3045923607854293</v>
+      </c>
+      <c r="H73" t="inlineStr">
         <is>
           <t>g__Enterococcus</t>
         </is>
       </c>
     </row>
     <row r="74">
-      <c r="A74" s="3" t="inlineStr">
+      <c r="A74" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT3233.fa</t>
         </is>
@@ -2447,14 +2657,17 @@
       <c r="F74" t="n">
         <v>0.2105567073616209</v>
       </c>
-      <c r="G74" t="inlineStr">
+      <c r="G74" t="n">
+        <v>0.313855926132341</v>
+      </c>
+      <c r="H74" t="inlineStr">
         <is>
           <t>g__Enterococcus</t>
         </is>
       </c>
     </row>
     <row r="75">
-      <c r="A75" s="3" t="inlineStr">
+      <c r="A75" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT3477.fa</t>
         </is>
@@ -2474,14 +2687,17 @@
       <c r="F75" t="n">
         <v>0.1728696588660706</v>
       </c>
-      <c r="G75" t="inlineStr">
+      <c r="G75" t="n">
+        <v>0.3010255114909634</v>
+      </c>
+      <c r="H75" t="inlineStr">
         <is>
           <t>g__Enterococcus</t>
         </is>
       </c>
     </row>
     <row r="76">
-      <c r="A76" s="3" t="inlineStr">
+      <c r="A76" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT3479.fa</t>
         </is>
@@ -2501,14 +2717,17 @@
       <c r="F76" t="n">
         <v>0.1372514664381968</v>
       </c>
-      <c r="G76" t="inlineStr">
+      <c r="G76" t="n">
+        <v>0.3572848607950898</v>
+      </c>
+      <c r="H76" t="inlineStr">
         <is>
           <t>g__Enterococcus</t>
         </is>
       </c>
     </row>
     <row r="77">
-      <c r="A77" s="3" t="inlineStr">
+      <c r="A77" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT3484.fa</t>
         </is>
@@ -2528,14 +2747,17 @@
       <c r="F77" t="n">
         <v>0.5785448598947256</v>
       </c>
-      <c r="G77" t="inlineStr">
+      <c r="G77" t="n">
+        <v>0.5785448598947256</v>
+      </c>
+      <c r="H77" t="inlineStr">
         <is>
           <t>g__Enterococcus_D</t>
         </is>
       </c>
     </row>
     <row r="78">
-      <c r="A78" s="3" t="inlineStr">
+      <c r="A78" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT3493.fa</t>
         </is>
@@ -2555,14 +2777,17 @@
       <c r="F78" t="n">
         <v>0.6913762777405527</v>
       </c>
-      <c r="G78" t="inlineStr">
+      <c r="G78" t="n">
+        <v>0.6913762777405527</v>
+      </c>
+      <c r="H78" t="inlineStr">
         <is>
           <t>g__Enterococcus_D</t>
         </is>
       </c>
     </row>
     <row r="79">
-      <c r="A79" s="3" t="inlineStr">
+      <c r="A79" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT3499.fa</t>
         </is>
@@ -2582,14 +2807,17 @@
       <c r="F79" t="n">
         <v>0.3810969392272346</v>
       </c>
-      <c r="G79" t="inlineStr">
+      <c r="G79" t="n">
+        <v>0.3810969392272346</v>
+      </c>
+      <c r="H79" t="inlineStr">
         <is>
           <t>g__Enterococcus_D</t>
         </is>
       </c>
     </row>
     <row r="80">
-      <c r="A80" s="3" t="inlineStr">
+      <c r="A80" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT3508.fa</t>
         </is>
@@ -2609,14 +2837,17 @@
       <c r="F80" t="n">
         <v>0.629564325230751</v>
       </c>
-      <c r="G80" t="inlineStr">
+      <c r="G80" t="n">
+        <v>0.629564325230751</v>
+      </c>
+      <c r="H80" t="inlineStr">
         <is>
           <t>g__Enterococcus_D</t>
         </is>
       </c>
     </row>
     <row r="81">
-      <c r="A81" s="3" t="inlineStr">
+      <c r="A81" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT3548.fa</t>
         </is>
@@ -2636,14 +2867,17 @@
       <c r="F81" t="n">
         <v>0.2663023215050965</v>
       </c>
-      <c r="G81" t="inlineStr">
+      <c r="G81" t="n">
+        <v>0.2848097675419464</v>
+      </c>
+      <c r="H81" t="inlineStr">
         <is>
           <t>g__Enterococcus_A</t>
         </is>
       </c>
     </row>
     <row r="82">
-      <c r="A82" s="3" t="inlineStr">
+      <c r="A82" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT3553.fa</t>
         </is>
@@ -2663,14 +2897,17 @@
       <c r="F82" t="n">
         <v>0.6147442068767074</v>
       </c>
-      <c r="G82" t="inlineStr">
+      <c r="G82" t="n">
+        <v>0.6147442068767074</v>
+      </c>
+      <c r="H82" t="inlineStr">
         <is>
           <t>g__Enterococcus_D</t>
         </is>
       </c>
     </row>
     <row r="83">
-      <c r="A83" s="3" t="inlineStr">
+      <c r="A83" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT3561.fa</t>
         </is>
@@ -2690,14 +2927,17 @@
       <c r="F83" t="n">
         <v>0.2324019163081684</v>
       </c>
-      <c r="G83" t="inlineStr">
+      <c r="G83" t="n">
+        <v>0.3147557238409517</v>
+      </c>
+      <c r="H83" t="inlineStr">
         <is>
           <t>g__Enterococcus</t>
         </is>
       </c>
     </row>
     <row r="84">
-      <c r="A84" s="3" t="inlineStr">
+      <c r="A84" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT41.fa</t>
         </is>
@@ -2717,14 +2957,17 @@
       <c r="F84" t="n">
         <v>0.1644021414202126</v>
       </c>
-      <c r="G84" t="inlineStr">
+      <c r="G84" t="n">
+        <v>0.3125308452422995</v>
+      </c>
+      <c r="H84" t="inlineStr">
         <is>
           <t>g__Enterococcus</t>
         </is>
       </c>
     </row>
     <row r="85">
-      <c r="A85" s="3" t="inlineStr">
+      <c r="A85" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT43425.fa</t>
         </is>
@@ -2744,14 +2987,17 @@
       <c r="F85" t="n">
         <v>0.1929293108607933</v>
       </c>
-      <c r="G85" t="inlineStr">
+      <c r="G85" t="n">
+        <v>0.3598237337920027</v>
+      </c>
+      <c r="H85" t="inlineStr">
         <is>
           <t>g__Enterococcus</t>
         </is>
       </c>
     </row>
     <row r="86">
-      <c r="A86" s="3" t="inlineStr">
+      <c r="A86" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT43446.fa</t>
         </is>
@@ -2771,14 +3017,17 @@
       <c r="F86" t="n">
         <v>0.2199045276602201</v>
       </c>
-      <c r="G86" t="inlineStr">
+      <c r="G86" t="n">
+        <v>0.3786262290580055</v>
+      </c>
+      <c r="H86" t="inlineStr">
         <is>
           <t>g__Enterococcus_A</t>
         </is>
       </c>
     </row>
     <row r="87">
-      <c r="A87" s="3" t="inlineStr">
+      <c r="A87" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT43457.fa</t>
         </is>
@@ -2798,14 +3047,17 @@
       <c r="F87" t="n">
         <v>0.3415003014192887</v>
       </c>
-      <c r="G87" t="inlineStr">
+      <c r="G87" t="n">
+        <v>0.3415003014192887</v>
+      </c>
+      <c r="H87" t="inlineStr">
         <is>
           <t>g__Enterococcus_D</t>
         </is>
       </c>
     </row>
     <row r="88">
-      <c r="A88" s="3" t="inlineStr">
+      <c r="A88" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT43462.fa</t>
         </is>
@@ -2825,14 +3077,17 @@
       <c r="F88" t="n">
         <v>0.2873083911960805</v>
       </c>
-      <c r="G88" t="inlineStr">
+      <c r="G88" t="n">
+        <v>0.3285358494344929</v>
+      </c>
+      <c r="H88" t="inlineStr">
         <is>
           <t>g__Enterococcus</t>
         </is>
       </c>
     </row>
     <row r="89">
-      <c r="A89" s="3" t="inlineStr">
+      <c r="A89" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT43463.fa</t>
         </is>
@@ -2852,14 +3107,17 @@
       <c r="F89" t="n">
         <v>0.1233677110770195</v>
       </c>
-      <c r="G89" t="inlineStr">
+      <c r="G89" t="n">
+        <v>0.5273102200996922</v>
+      </c>
+      <c r="H89" t="inlineStr">
         <is>
           <t>g__Enterococcus_A</t>
         </is>
       </c>
     </row>
     <row r="90">
-      <c r="A90" s="3" t="inlineStr">
+      <c r="A90" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT43483.fa</t>
         </is>
@@ -2879,14 +3137,17 @@
       <c r="F90" t="n">
         <v>0.1631473672872942</v>
       </c>
-      <c r="G90" t="inlineStr">
+      <c r="G90" t="n">
+        <v>0.3328217923509745</v>
+      </c>
+      <c r="H90" t="inlineStr">
         <is>
           <t>g__Enterococcus_A</t>
         </is>
       </c>
     </row>
     <row r="91">
-      <c r="A91" s="3" t="inlineStr">
+      <c r="A91" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT43573.fa</t>
         </is>
@@ -2906,14 +3167,17 @@
       <c r="F91" t="n">
         <v>0.1098364807034676</v>
       </c>
-      <c r="G91" t="inlineStr">
+      <c r="G91" t="n">
+        <v>0.3163986400840704</v>
+      </c>
+      <c r="H91" t="inlineStr">
         <is>
           <t>g__Enterococcus</t>
         </is>
       </c>
     </row>
     <row r="92">
-      <c r="A92" s="3" t="inlineStr">
+      <c r="A92" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT43577.fa</t>
         </is>
@@ -2933,14 +3197,17 @@
       <c r="F92" t="n">
         <v>0.1819391238814156</v>
       </c>
-      <c r="G92" t="inlineStr">
+      <c r="G92" t="n">
+        <v>0.3570493349491577</v>
+      </c>
+      <c r="H92" t="inlineStr">
         <is>
           <t>g__Enterococcus</t>
         </is>
       </c>
     </row>
     <row r="93">
-      <c r="A93" s="3" t="inlineStr">
+      <c r="A93" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT43620.fa</t>
         </is>
@@ -2960,14 +3227,17 @@
       <c r="F93" t="n">
         <v>0.1819294941644333</v>
       </c>
-      <c r="G93" t="inlineStr">
+      <c r="G93" t="n">
+        <v>0.2983466473500487</v>
+      </c>
+      <c r="H93" t="inlineStr">
         <is>
           <t>g__Enterococcus</t>
         </is>
       </c>
     </row>
     <row r="94">
-      <c r="A94" s="3" t="inlineStr">
+      <c r="A94" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT43751.fa</t>
         </is>
@@ -2987,14 +3257,17 @@
       <c r="F94" t="n">
         <v>0.1534090666917954</v>
       </c>
-      <c r="G94" t="inlineStr">
+      <c r="G94" t="n">
+        <v>0.3358792424868872</v>
+      </c>
+      <c r="H94" t="inlineStr">
         <is>
           <t>g__Enterococcus</t>
         </is>
       </c>
     </row>
     <row r="95">
-      <c r="A95" s="3" t="inlineStr">
+      <c r="A95" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT43943.fa</t>
         </is>
@@ -3014,14 +3287,17 @@
       <c r="F95" t="n">
         <v>0.1894019972308145</v>
       </c>
-      <c r="G95" t="inlineStr">
+      <c r="G95" t="n">
+        <v>0.3476187353243195</v>
+      </c>
+      <c r="H95" t="inlineStr">
         <is>
           <t>g__Enterococcus</t>
         </is>
       </c>
     </row>
     <row r="96">
-      <c r="A96" s="3" t="inlineStr">
+      <c r="A96" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT44002.fa</t>
         </is>
@@ -3041,14 +3317,17 @@
       <c r="F96" t="n">
         <v>0.02951103341688006</v>
       </c>
-      <c r="G96" t="inlineStr">
+      <c r="G96" t="n">
+        <v>0.9675409678785749</v>
+      </c>
+      <c r="H96" t="inlineStr">
         <is>
           <t>g__Enterococcus_B</t>
         </is>
       </c>
     </row>
     <row r="97">
-      <c r="A97" s="3" t="inlineStr">
+      <c r="A97" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT44177.fa</t>
         </is>
@@ -3068,14 +3347,17 @@
       <c r="F97" t="n">
         <v>0.2053426131222693</v>
       </c>
-      <c r="G97" t="inlineStr">
+      <c r="G97" t="n">
+        <v>0.3434250942035542</v>
+      </c>
+      <c r="H97" t="inlineStr">
         <is>
           <t>g__Enterococcus_B</t>
         </is>
       </c>
     </row>
     <row r="98">
-      <c r="A98" s="3" t="inlineStr">
+      <c r="A98" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT44539.fa</t>
         </is>
@@ -3095,14 +3377,17 @@
       <c r="F98" t="n">
         <v>0.1940861834767698</v>
       </c>
-      <c r="G98" t="inlineStr">
+      <c r="G98" t="n">
+        <v>0.3007055627029915</v>
+      </c>
+      <c r="H98" t="inlineStr">
         <is>
           <t>g__Enterococcus</t>
         </is>
       </c>
     </row>
     <row r="99">
-      <c r="A99" s="3" t="inlineStr">
+      <c r="A99" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT44544.fa</t>
         </is>
@@ -3122,14 +3407,17 @@
       <c r="F99" t="n">
         <v>0.1814207646457998</v>
       </c>
-      <c r="G99" t="inlineStr">
+      <c r="G99" t="n">
+        <v>0.3107705256192402</v>
+      </c>
+      <c r="H99" t="inlineStr">
         <is>
           <t>g__Enterococcus</t>
         </is>
       </c>
     </row>
     <row r="100">
-      <c r="A100" s="3" t="inlineStr">
+      <c r="A100" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT44617.fa</t>
         </is>
@@ -3149,14 +3437,17 @@
       <c r="F100" t="n">
         <v>0.2125538250914202</v>
       </c>
-      <c r="G100" t="inlineStr">
+      <c r="G100" t="n">
+        <v>0.3055268373169287</v>
+      </c>
+      <c r="H100" t="inlineStr">
         <is>
           <t>g__Enterococcus</t>
         </is>
       </c>
     </row>
     <row r="101">
-      <c r="A101" s="3" t="inlineStr">
+      <c r="A101" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT44666.fa</t>
         </is>
@@ -3176,14 +3467,17 @@
       <c r="F101" t="n">
         <v>0.02951103341688006</v>
       </c>
-      <c r="G101" t="inlineStr">
+      <c r="G101" t="n">
+        <v>0.9675409678785749</v>
+      </c>
+      <c r="H101" t="inlineStr">
         <is>
           <t>g__Enterococcus_B</t>
         </is>
       </c>
     </row>
     <row r="102">
-      <c r="A102" s="3" t="inlineStr">
+      <c r="A102" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT45882.fa</t>
         </is>
@@ -3203,14 +3497,17 @@
       <c r="F102" t="n">
         <v>0.1035105190719503</v>
       </c>
-      <c r="G102" t="inlineStr">
+      <c r="G102" t="n">
+        <v>0.3628112587363621</v>
+      </c>
+      <c r="H102" t="inlineStr">
         <is>
           <t>g__Enterococcus_B</t>
         </is>
       </c>
     </row>
     <row r="103">
-      <c r="A103" s="3" t="inlineStr">
+      <c r="A103" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT46437.fa</t>
         </is>
@@ -3230,14 +3527,17 @@
       <c r="F103" t="n">
         <v>0.2144763884993817</v>
       </c>
-      <c r="G103" t="inlineStr">
+      <c r="G103" t="n">
+        <v>0.3545103186470697</v>
+      </c>
+      <c r="H103" t="inlineStr">
         <is>
           <t>g__Enterococcus</t>
         </is>
       </c>
     </row>
     <row r="104">
-      <c r="A104" s="3" t="inlineStr">
+      <c r="A104" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT46441.fa</t>
         </is>
@@ -3257,14 +3557,17 @@
       <c r="F104" t="n">
         <v>0.1571754894654883</v>
       </c>
-      <c r="G104" t="inlineStr">
+      <c r="G104" t="n">
+        <v>0.3862010504591773</v>
+      </c>
+      <c r="H104" t="inlineStr">
         <is>
           <t>g__Enterococcus_A</t>
         </is>
       </c>
     </row>
     <row r="105">
-      <c r="A105" s="3" t="inlineStr">
+      <c r="A105" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT46868.fa</t>
         </is>
@@ -3284,14 +3587,17 @@
       <c r="F105" t="n">
         <v>0.1990631270198326</v>
       </c>
-      <c r="G105" t="inlineStr">
+      <c r="G105" t="n">
+        <v>0.3226988581116109</v>
+      </c>
+      <c r="H105" t="inlineStr">
         <is>
           <t>g__Enterococcus</t>
         </is>
       </c>
     </row>
     <row r="106">
-      <c r="A106" s="3" t="inlineStr">
+      <c r="A106" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT46962.fa</t>
         </is>
@@ -3311,14 +3617,17 @@
       <c r="F106" t="n">
         <v>0.2009560949045438</v>
       </c>
-      <c r="G106" t="inlineStr">
+      <c r="G106" t="n">
+        <v>0.2998578915420148</v>
+      </c>
+      <c r="H106" t="inlineStr">
         <is>
           <t>g__Enterococcus_A</t>
         </is>
       </c>
     </row>
     <row r="107">
-      <c r="A107" s="3" t="inlineStr">
+      <c r="A107" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT47531.fa</t>
         </is>
@@ -3338,14 +3647,17 @@
       <c r="F107" t="n">
         <v>0.2676375017727713</v>
       </c>
-      <c r="G107" t="inlineStr">
+      <c r="G107" t="n">
+        <v>0.2813022517755012</v>
+      </c>
+      <c r="H107" t="inlineStr">
         <is>
           <t>g__Enterococcus_A</t>
         </is>
       </c>
     </row>
     <row r="108">
-      <c r="A108" s="3" t="inlineStr">
+      <c r="A108" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT48488.fa</t>
         </is>
@@ -3365,14 +3677,17 @@
       <c r="F108" t="n">
         <v>0.1843599364010329</v>
       </c>
-      <c r="G108" t="inlineStr">
+      <c r="G108" t="n">
+        <v>0.3257743857683671</v>
+      </c>
+      <c r="H108" t="inlineStr">
         <is>
           <t>g__Enterococcus_B</t>
         </is>
       </c>
     </row>
     <row r="109">
-      <c r="A109" s="3" t="inlineStr">
+      <c r="A109" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT48498.fa</t>
         </is>
@@ -3392,14 +3707,17 @@
       <c r="F109" t="n">
         <v>0.2231197104131842</v>
       </c>
-      <c r="G109" t="inlineStr">
+      <c r="G109" t="n">
+        <v>0.3281874749541047</v>
+      </c>
+      <c r="H109" t="inlineStr">
         <is>
           <t>g__Enterococcus</t>
         </is>
       </c>
     </row>
     <row r="110">
-      <c r="A110" s="3" t="inlineStr">
+      <c r="A110" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT48566.fa</t>
         </is>
@@ -3419,14 +3737,17 @@
       <c r="F110" t="n">
         <v>0.2834983964093542</v>
       </c>
-      <c r="G110" t="inlineStr">
+      <c r="G110" t="n">
+        <v>0.3359498615864174</v>
+      </c>
+      <c r="H110" t="inlineStr">
         <is>
           <t>g__Enterococcus</t>
         </is>
       </c>
     </row>
     <row r="111">
-      <c r="A111" s="3" t="inlineStr">
+      <c r="A111" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT48585.fa</t>
         </is>
@@ -3446,14 +3767,17 @@
       <c r="F111" t="n">
         <v>0.2099823664014331</v>
       </c>
-      <c r="G111" t="inlineStr">
+      <c r="G111" t="n">
+        <v>0.344482290832015</v>
+      </c>
+      <c r="H111" t="inlineStr">
         <is>
           <t>g__Enterococcus</t>
         </is>
       </c>
     </row>
     <row r="112">
-      <c r="A112" s="3" t="inlineStr">
+      <c r="A112" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT48612.fa</t>
         </is>
@@ -3473,14 +3797,17 @@
       <c r="F112" t="n">
         <v>0.3149612578071545</v>
       </c>
-      <c r="G112" t="inlineStr">
+      <c r="G112" t="n">
+        <v>0.3278479106794228</v>
+      </c>
+      <c r="H112" t="inlineStr">
         <is>
           <t>g__Enterococcus</t>
         </is>
       </c>
     </row>
     <row r="113">
-      <c r="A113" s="3" t="inlineStr">
+      <c r="A113" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT48629.fa</t>
         </is>
@@ -3500,14 +3827,17 @@
       <c r="F113" t="n">
         <v>0.0877066216697325</v>
       </c>
-      <c r="G113" t="inlineStr">
+      <c r="G113" t="n">
+        <v>0.8938830265420539</v>
+      </c>
+      <c r="H113" t="inlineStr">
         <is>
           <t>g__Enterococcus_B</t>
         </is>
       </c>
     </row>
     <row r="114">
-      <c r="A114" s="3" t="inlineStr">
+      <c r="A114" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT48673.fa</t>
         </is>
@@ -3527,14 +3857,17 @@
       <c r="F114" t="n">
         <v>0.1391241636747527</v>
       </c>
-      <c r="G114" t="inlineStr">
+      <c r="G114" t="n">
+        <v>0.4161780035332164</v>
+      </c>
+      <c r="H114" t="inlineStr">
         <is>
           <t>g__Enterococcus_A</t>
         </is>
       </c>
     </row>
     <row r="115">
-      <c r="A115" s="3" t="inlineStr">
+      <c r="A115" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT48682.fa</t>
         </is>
@@ -3554,14 +3887,17 @@
       <c r="F115" t="n">
         <v>0.03676733388976024</v>
       </c>
-      <c r="G115" t="inlineStr">
+      <c r="G115" t="n">
+        <v>0.9585976722437887</v>
+      </c>
+      <c r="H115" t="inlineStr">
         <is>
           <t>g__Enterococcus_B</t>
         </is>
       </c>
     </row>
     <row r="116">
-      <c r="A116" s="3" t="inlineStr">
+      <c r="A116" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT48686.fa</t>
         </is>
@@ -3581,14 +3917,17 @@
       <c r="F116" t="n">
         <v>0.174883931756372</v>
       </c>
-      <c r="G116" t="inlineStr">
+      <c r="G116" t="n">
+        <v>0.40737685315513</v>
+      </c>
+      <c r="H116" t="inlineStr">
         <is>
           <t>g__Enterococcus_A</t>
         </is>
       </c>
     </row>
     <row r="117">
-      <c r="A117" s="3" t="inlineStr">
+      <c r="A117" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT48704.fa</t>
         </is>
@@ -3608,14 +3947,17 @@
       <c r="F117" t="n">
         <v>0.1295622489609248</v>
       </c>
-      <c r="G117" t="inlineStr">
+      <c r="G117" t="n">
+        <v>0.3994508306328671</v>
+      </c>
+      <c r="H117" t="inlineStr">
         <is>
           <t>g__Enterococcus_A</t>
         </is>
       </c>
     </row>
     <row r="118">
-      <c r="A118" s="3" t="inlineStr">
+      <c r="A118" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT48723.fa</t>
         </is>
@@ -3635,14 +3977,17 @@
       <c r="F118" t="n">
         <v>0.1344527033678412</v>
       </c>
-      <c r="G118" t="inlineStr">
+      <c r="G118" t="n">
+        <v>0.3582968853802493</v>
+      </c>
+      <c r="H118" t="inlineStr">
         <is>
           <t>g__Enterococcus_A</t>
         </is>
       </c>
     </row>
     <row r="119">
-      <c r="A119" s="3" t="inlineStr">
+      <c r="A119" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT48749.fa</t>
         </is>
@@ -3662,14 +4007,17 @@
       <c r="F119" t="n">
         <v>0.1414480592111125</v>
       </c>
-      <c r="G119" t="inlineStr">
+      <c r="G119" t="n">
+        <v>0.3494330634331107</v>
+      </c>
+      <c r="H119" t="inlineStr">
         <is>
           <t>g__Enterococcus_A</t>
         </is>
       </c>
     </row>
     <row r="120">
-      <c r="A120" s="3" t="inlineStr">
+      <c r="A120" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT48754.fa</t>
         </is>
@@ -3689,14 +4037,17 @@
       <c r="F120" t="n">
         <v>0.1884664524104445</v>
       </c>
-      <c r="G120" t="inlineStr">
+      <c r="G120" t="n">
+        <v>0.2917978452733608</v>
+      </c>
+      <c r="H120" t="inlineStr">
         <is>
           <t>g__Enterococcus</t>
         </is>
       </c>
     </row>
     <row r="121">
-      <c r="A121" s="3" t="inlineStr">
+      <c r="A121" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT48761.fa</t>
         </is>
@@ -3716,14 +4067,17 @@
       <c r="F121" t="n">
         <v>0.1087954333808229</v>
       </c>
-      <c r="G121" t="inlineStr">
+      <c r="G121" t="n">
+        <v>0.8277252524465446</v>
+      </c>
+      <c r="H121" t="inlineStr">
         <is>
           <t>g__Enterococcus_A</t>
         </is>
       </c>
     </row>
     <row r="122">
-      <c r="A122" s="3" t="inlineStr">
+      <c r="A122" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT48798.fa</t>
         </is>
@@ -3743,14 +4097,17 @@
       <c r="F122" t="n">
         <v>0.1105985504317887</v>
       </c>
-      <c r="G122" t="inlineStr">
+      <c r="G122" t="n">
+        <v>0.4446849358611357</v>
+      </c>
+      <c r="H122" t="inlineStr">
         <is>
           <t>g__Enterococcus_A</t>
         </is>
       </c>
     </row>
     <row r="123">
-      <c r="A123" s="3" t="inlineStr">
+      <c r="A123" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT48804.fa</t>
         </is>
@@ -3770,14 +4127,17 @@
       <c r="F123" t="n">
         <v>0.2304605643276063</v>
       </c>
-      <c r="G123" t="inlineStr">
+      <c r="G123" t="n">
+        <v>0.3411994711246601</v>
+      </c>
+      <c r="H123" t="inlineStr">
         <is>
           <t>g__Enterococcus</t>
         </is>
       </c>
     </row>
     <row r="124">
-      <c r="A124" s="3" t="inlineStr">
+      <c r="A124" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT48829.fa</t>
         </is>
@@ -3797,14 +4157,17 @@
       <c r="F124" t="n">
         <v>0.1994244597842809</v>
       </c>
-      <c r="G124" t="inlineStr">
+      <c r="G124" t="n">
+        <v>0.3892105612195872</v>
+      </c>
+      <c r="H124" t="inlineStr">
         <is>
           <t>g__Enterococcus_B</t>
         </is>
       </c>
     </row>
     <row r="125">
-      <c r="A125" s="3" t="inlineStr">
+      <c r="A125" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT48834.fa</t>
         </is>
@@ -3824,14 +4187,17 @@
       <c r="F125" t="n">
         <v>0.1857141132965299</v>
       </c>
-      <c r="G125" t="inlineStr">
+      <c r="G125" t="n">
+        <v>0.3885523417777066</v>
+      </c>
+      <c r="H125" t="inlineStr">
         <is>
           <t>g__Enterococcus</t>
         </is>
       </c>
     </row>
     <row r="126">
-      <c r="A126" s="3" t="inlineStr">
+      <c r="A126" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT48887.fa</t>
         </is>
@@ -3851,14 +4217,17 @@
       <c r="F126" t="n">
         <v>0.02551687890687925</v>
       </c>
-      <c r="G126" t="inlineStr">
+      <c r="G126" t="n">
+        <v>0.9721010873462234</v>
+      </c>
+      <c r="H126" t="inlineStr">
         <is>
           <t>g__Enterococcus_B</t>
         </is>
       </c>
     </row>
     <row r="127">
-      <c r="A127" s="3" t="inlineStr">
+      <c r="A127" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT48894.fa</t>
         </is>
@@ -3878,14 +4247,17 @@
       <c r="F127" t="n">
         <v>0.1657939541239521</v>
       </c>
-      <c r="G127" t="inlineStr">
+      <c r="G127" t="n">
+        <v>0.3309020851674477</v>
+      </c>
+      <c r="H127" t="inlineStr">
         <is>
           <t>g__Enterococcus_A</t>
         </is>
       </c>
     </row>
     <row r="128">
-      <c r="A128" s="3" t="inlineStr">
+      <c r="A128" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT48968.fa</t>
         </is>
@@ -3905,14 +4277,17 @@
       <c r="F128" t="n">
         <v>0.1853857464908569</v>
       </c>
-      <c r="G128" t="inlineStr">
+      <c r="G128" t="n">
+        <v>0.3529166431160994</v>
+      </c>
+      <c r="H128" t="inlineStr">
         <is>
           <t>g__Enterococcus</t>
         </is>
       </c>
     </row>
     <row r="129">
-      <c r="A129" s="3" t="inlineStr">
+      <c r="A129" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT48971.fa</t>
         </is>
@@ -3932,14 +4307,17 @@
       <c r="F129" t="n">
         <v>0.232737362773829</v>
       </c>
-      <c r="G129" t="inlineStr">
+      <c r="G129" t="n">
+        <v>0.3533524321646254</v>
+      </c>
+      <c r="H129" t="inlineStr">
         <is>
           <t>g__Enterococcus</t>
         </is>
       </c>
     </row>
     <row r="130">
-      <c r="A130" s="3" t="inlineStr">
+      <c r="A130" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT48976.fa</t>
         </is>
@@ -3959,14 +4337,17 @@
       <c r="F130" t="n">
         <v>0.2555150327444383</v>
       </c>
-      <c r="G130" t="inlineStr">
+      <c r="G130" t="n">
+        <v>0.2793795784951114</v>
+      </c>
+      <c r="H130" t="inlineStr">
         <is>
           <t>g__Enterococcus</t>
         </is>
       </c>
     </row>
     <row r="131">
-      <c r="A131" s="3" t="inlineStr">
+      <c r="A131" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT49002.fa</t>
         </is>
@@ -3986,14 +4367,17 @@
       <c r="F131" t="n">
         <v>0.0416649682854137</v>
       </c>
-      <c r="G131" t="inlineStr">
+      <c r="G131" t="n">
+        <v>0.9544166663804701</v>
+      </c>
+      <c r="H131" t="inlineStr">
         <is>
           <t>g__Enterococcus_B</t>
         </is>
       </c>
     </row>
     <row r="132">
-      <c r="A132" s="3" t="inlineStr">
+      <c r="A132" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT49004.fa</t>
         </is>
@@ -4013,14 +4397,17 @@
       <c r="F132" t="n">
         <v>0.2876811065200413</v>
       </c>
-      <c r="G132" t="inlineStr">
+      <c r="G132" t="n">
+        <v>0.3303515574761435</v>
+      </c>
+      <c r="H132" t="inlineStr">
         <is>
           <t>g__Enterococcus</t>
         </is>
       </c>
     </row>
     <row r="133">
-      <c r="A133" s="3" t="inlineStr">
+      <c r="A133" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT49015.fa</t>
         </is>
@@ -4040,14 +4427,17 @@
       <c r="F133" t="n">
         <v>0.1890894232165285</v>
       </c>
-      <c r="G133" t="inlineStr">
+      <c r="G133" t="n">
+        <v>0.3792067141436044</v>
+      </c>
+      <c r="H133" t="inlineStr">
         <is>
           <t>g__Enterococcus</t>
         </is>
       </c>
     </row>
     <row r="134">
-      <c r="A134" s="3" t="inlineStr">
+      <c r="A134" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT49023.fa</t>
         </is>
@@ -4067,14 +4457,17 @@
       <c r="F134" t="n">
         <v>0.1897262183197147</v>
       </c>
-      <c r="G134" t="inlineStr">
+      <c r="G134" t="n">
+        <v>0.3489329869642729</v>
+      </c>
+      <c r="H134" t="inlineStr">
         <is>
           <t>g__Enterococcus_B</t>
         </is>
       </c>
     </row>
     <row r="135">
-      <c r="A135" s="3" t="inlineStr">
+      <c r="A135" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT49063.fa</t>
         </is>
@@ -4094,14 +4487,17 @@
       <c r="F135" t="n">
         <v>0.173360887376335</v>
       </c>
-      <c r="G135" t="inlineStr">
+      <c r="G135" t="n">
+        <v>0.5003806897750537</v>
+      </c>
+      <c r="H135" t="inlineStr">
         <is>
           <t>g__Enterococcus_A</t>
         </is>
       </c>
     </row>
     <row r="136">
-      <c r="A136" s="3" t="inlineStr">
+      <c r="A136" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT49069.fa</t>
         </is>
@@ -4121,14 +4517,17 @@
       <c r="F136" t="n">
         <v>0.1385557588311895</v>
       </c>
-      <c r="G136" t="inlineStr">
+      <c r="G136" t="n">
+        <v>0.4118344299190337</v>
+      </c>
+      <c r="H136" t="inlineStr">
         <is>
           <t>g__Enterococcus_A</t>
         </is>
       </c>
     </row>
     <row r="137">
-      <c r="A137" s="3" t="inlineStr">
+      <c r="A137" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT49070.fa</t>
         </is>
@@ -4148,14 +4547,17 @@
       <c r="F137" t="n">
         <v>0.2026250764436629</v>
       </c>
-      <c r="G137" t="inlineStr">
+      <c r="G137" t="n">
+        <v>0.3508228707743934</v>
+      </c>
+      <c r="H137" t="inlineStr">
         <is>
           <t>g__Enterococcus</t>
         </is>
       </c>
     </row>
     <row r="138">
-      <c r="A138" s="3" t="inlineStr">
+      <c r="A138" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT49075.fa</t>
         </is>
@@ -4175,14 +4577,17 @@
       <c r="F138" t="n">
         <v>0.1217540424846325</v>
       </c>
-      <c r="G138" t="inlineStr">
+      <c r="G138" t="n">
+        <v>0.3370058193971783</v>
+      </c>
+      <c r="H138" t="inlineStr">
         <is>
           <t>g__Enterococcus</t>
         </is>
       </c>
     </row>
     <row r="139">
-      <c r="A139" s="3" t="inlineStr">
+      <c r="A139" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT49083.fa</t>
         </is>
@@ -4202,14 +4607,17 @@
       <c r="F139" t="n">
         <v>0.3079397669352137</v>
       </c>
-      <c r="G139" t="inlineStr">
+      <c r="G139" t="n">
+        <v>0.3388044091155614</v>
+      </c>
+      <c r="H139" t="inlineStr">
         <is>
           <t>g__Enterococcus</t>
         </is>
       </c>
     </row>
     <row r="140">
-      <c r="A140" s="3" t="inlineStr">
+      <c r="A140" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT49101.fa</t>
         </is>
@@ -4229,14 +4637,17 @@
       <c r="F140" t="n">
         <v>0.2412244886582612</v>
       </c>
-      <c r="G140" t="inlineStr">
+      <c r="G140" t="n">
+        <v>0.341613614225335</v>
+      </c>
+      <c r="H140" t="inlineStr">
         <is>
           <t>g__Enterococcus</t>
         </is>
       </c>
     </row>
     <row r="141">
-      <c r="A141" s="3" t="inlineStr">
+      <c r="A141" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT49118.fa</t>
         </is>
@@ -4256,14 +4667,17 @@
       <c r="F141" t="n">
         <v>0.1002680224798065</v>
       </c>
-      <c r="G141" t="inlineStr">
+      <c r="G141" t="n">
+        <v>0.5018146654257354</v>
+      </c>
+      <c r="H141" t="inlineStr">
         <is>
           <t>g__Enterococcus_A</t>
         </is>
       </c>
     </row>
     <row r="142">
-      <c r="A142" s="3" t="inlineStr">
+      <c r="A142" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT49170.fa</t>
         </is>
@@ -4283,14 +4697,17 @@
       <c r="F142" t="n">
         <v>0.2123698746546543</v>
       </c>
-      <c r="G142" t="inlineStr">
+      <c r="G142" t="n">
+        <v>0.3103497570947083</v>
+      </c>
+      <c r="H142" t="inlineStr">
         <is>
           <t>g__Enterococcus</t>
         </is>
       </c>
     </row>
     <row r="143">
-      <c r="A143" s="3" t="inlineStr">
+      <c r="A143" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT49176.fa</t>
         </is>
@@ -4310,14 +4727,17 @@
       <c r="F143" t="n">
         <v>0.1649005103228045</v>
       </c>
-      <c r="G143" t="inlineStr">
+      <c r="G143" t="n">
+        <v>0.4916619056780643</v>
+      </c>
+      <c r="H143" t="inlineStr">
         <is>
           <t>g__Enterococcus_A</t>
         </is>
       </c>
     </row>
     <row r="144">
-      <c r="A144" s="3" t="inlineStr">
+      <c r="A144" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT49226.fa</t>
         </is>
@@ -4337,14 +4757,17 @@
       <c r="F144" t="n">
         <v>0.08306217764900728</v>
       </c>
-      <c r="G144" t="inlineStr">
+      <c r="G144" t="n">
+        <v>0.6155738873021223</v>
+      </c>
+      <c r="H144" t="inlineStr">
         <is>
           <t>g__Enterococcus_A</t>
         </is>
       </c>
     </row>
     <row r="145">
-      <c r="A145" s="3" t="inlineStr">
+      <c r="A145" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT49236.fa</t>
         </is>
@@ -4364,14 +4787,17 @@
       <c r="F145" t="n">
         <v>0.2559341760371005</v>
       </c>
-      <c r="G145" t="inlineStr">
+      <c r="G145" t="n">
+        <v>0.3152618888592244</v>
+      </c>
+      <c r="H145" t="inlineStr">
         <is>
           <t>g__Enterococcus</t>
         </is>
       </c>
     </row>
     <row r="146">
-      <c r="A146" s="3" t="inlineStr">
+      <c r="A146" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT49289.fa</t>
         </is>
@@ -4391,14 +4817,17 @@
       <c r="F146" t="n">
         <v>0.2447846500642419</v>
       </c>
-      <c r="G146" t="inlineStr">
+      <c r="G146" t="n">
+        <v>0.3635353448956904</v>
+      </c>
+      <c r="H146" t="inlineStr">
         <is>
           <t>g__Enterococcus</t>
         </is>
       </c>
     </row>
     <row r="147">
-      <c r="A147" s="3" t="inlineStr">
+      <c r="A147" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT49297.fa</t>
         </is>
@@ -4418,14 +4847,17 @@
       <c r="F147" t="n">
         <v>0.0937140910096475</v>
       </c>
-      <c r="G147" t="inlineStr">
+      <c r="G147" t="n">
+        <v>0.3037902955399197</v>
+      </c>
+      <c r="H147" t="inlineStr">
         <is>
           <t>g__Enterococcus_B</t>
         </is>
       </c>
     </row>
     <row r="148">
-      <c r="A148" s="3" t="inlineStr">
+      <c r="A148" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT49302.fa</t>
         </is>
@@ -4445,14 +4877,17 @@
       <c r="F148" t="n">
         <v>0.1657151328845335</v>
       </c>
-      <c r="G148" t="inlineStr">
+      <c r="G148" t="n">
+        <v>0.367346248638818</v>
+      </c>
+      <c r="H148" t="inlineStr">
         <is>
           <t>g__Enterococcus</t>
         </is>
       </c>
     </row>
     <row r="149">
-      <c r="A149" s="3" t="inlineStr">
+      <c r="A149" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT49315.fa</t>
         </is>
@@ -4472,14 +4907,17 @@
       <c r="F149" t="n">
         <v>0.2091259234366327</v>
       </c>
-      <c r="G149" t="inlineStr">
+      <c r="G149" t="n">
+        <v>0.3431015974332898</v>
+      </c>
+      <c r="H149" t="inlineStr">
         <is>
           <t>g__Enterococcus</t>
         </is>
       </c>
     </row>
     <row r="150">
-      <c r="A150" s="3" t="inlineStr">
+      <c r="A150" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT49326.fa</t>
         </is>
@@ -4499,14 +4937,17 @@
       <c r="F150" t="n">
         <v>0.1526930085434667</v>
       </c>
-      <c r="G150" t="inlineStr">
+      <c r="G150" t="n">
+        <v>0.3317756781647319</v>
+      </c>
+      <c r="H150" t="inlineStr">
         <is>
           <t>g__Enterococcus_A</t>
         </is>
       </c>
     </row>
     <row r="151">
-      <c r="A151" s="3" t="inlineStr">
+      <c r="A151" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT49329.fa</t>
         </is>
@@ -4526,14 +4967,17 @@
       <c r="F151" t="n">
         <v>0.2091259234366327</v>
       </c>
-      <c r="G151" t="inlineStr">
+      <c r="G151" t="n">
+        <v>0.3431015974332898</v>
+      </c>
+      <c r="H151" t="inlineStr">
         <is>
           <t>g__Enterococcus</t>
         </is>
       </c>
     </row>
     <row r="152">
-      <c r="A152" s="3" t="inlineStr">
+      <c r="A152" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT49356.fa</t>
         </is>
@@ -4553,14 +4997,17 @@
       <c r="F152" t="n">
         <v>0.2125555133755225</v>
       </c>
-      <c r="G152" t="inlineStr">
+      <c r="G152" t="n">
+        <v>0.3339050019984174</v>
+      </c>
+      <c r="H152" t="inlineStr">
         <is>
           <t>g__Enterococcus_A</t>
         </is>
       </c>
     </row>
     <row r="153">
-      <c r="A153" s="3" t="inlineStr">
+      <c r="A153" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT49359.fa</t>
         </is>
@@ -4580,14 +5027,17 @@
       <c r="F153" t="n">
         <v>0.2053373554606605</v>
       </c>
-      <c r="G153" t="inlineStr">
+      <c r="G153" t="n">
+        <v>0.320737435366818</v>
+      </c>
+      <c r="H153" t="inlineStr">
         <is>
           <t>g__Enterococcus</t>
         </is>
       </c>
     </row>
     <row r="154">
-      <c r="A154" s="3" t="inlineStr">
+      <c r="A154" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT49379.fa</t>
         </is>
@@ -4607,14 +5057,17 @@
       <c r="F154" t="n">
         <v>0.05132387310358882</v>
       </c>
-      <c r="G154" t="inlineStr">
+      <c r="G154" t="n">
+        <v>0.9426418815520536</v>
+      </c>
+      <c r="H154" t="inlineStr">
         <is>
           <t>g__Enterococcus_B</t>
         </is>
       </c>
     </row>
     <row r="155">
-      <c r="A155" s="3" t="inlineStr">
+      <c r="A155" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT49393.fa</t>
         </is>
@@ -4634,14 +5087,17 @@
       <c r="F155" t="n">
         <v>0.1229508856082399</v>
       </c>
-      <c r="G155" t="inlineStr">
+      <c r="G155" t="n">
+        <v>0.3465330367658007</v>
+      </c>
+      <c r="H155" t="inlineStr">
         <is>
           <t>g__Enterococcus_A</t>
         </is>
       </c>
     </row>
     <row r="156">
-      <c r="A156" s="3" t="inlineStr">
+      <c r="A156" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT49403.fa</t>
         </is>
@@ -4661,14 +5117,17 @@
       <c r="F156" t="n">
         <v>0.2436316756167422</v>
       </c>
-      <c r="G156" t="inlineStr">
+      <c r="G156" t="n">
+        <v>0.3662230877745892</v>
+      </c>
+      <c r="H156" t="inlineStr">
         <is>
           <t>g__Enterococcus</t>
         </is>
       </c>
     </row>
     <row r="157">
-      <c r="A157" s="3" t="inlineStr">
+      <c r="A157" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT49409.fa</t>
         </is>
@@ -4688,14 +5147,17 @@
       <c r="F157" t="n">
         <v>0.2130774232347323</v>
       </c>
-      <c r="G157" t="inlineStr">
+      <c r="G157" t="n">
+        <v>0.4394673598712531</v>
+      </c>
+      <c r="H157" t="inlineStr">
         <is>
           <t>g__Enterococcus_A</t>
         </is>
       </c>
     </row>
     <row r="158">
-      <c r="A158" s="3" t="inlineStr">
+      <c r="A158" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT49456.fa</t>
         </is>
@@ -4715,14 +5177,17 @@
       <c r="F158" t="n">
         <v>0.1539122093899229</v>
       </c>
-      <c r="G158" t="inlineStr">
+      <c r="G158" t="n">
+        <v>0.2951703133812109</v>
+      </c>
+      <c r="H158" t="inlineStr">
         <is>
           <t>g__Enterococcus</t>
         </is>
       </c>
     </row>
     <row r="159">
-      <c r="A159" s="3" t="inlineStr">
+      <c r="A159" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT49458.fa</t>
         </is>
@@ -4742,14 +5207,17 @@
       <c r="F159" t="n">
         <v>0.1606813287983407</v>
       </c>
-      <c r="G159" t="inlineStr">
+      <c r="G159" t="n">
+        <v>0.3989361009358826</v>
+      </c>
+      <c r="H159" t="inlineStr">
         <is>
           <t>g__Enterococcus_A</t>
         </is>
       </c>
     </row>
     <row r="160">
-      <c r="A160" s="3" t="inlineStr">
+      <c r="A160" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT49469.fa</t>
         </is>
@@ -4769,14 +5237,17 @@
       <c r="F160" t="n">
         <v>0.2288460844543087</v>
       </c>
-      <c r="G160" t="inlineStr">
+      <c r="G160" t="n">
+        <v>0.349456248524778</v>
+      </c>
+      <c r="H160" t="inlineStr">
         <is>
           <t>g__Enterococcus</t>
         </is>
       </c>
     </row>
     <row r="161">
-      <c r="A161" s="3" t="inlineStr">
+      <c r="A161" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT49499.fa</t>
         </is>
@@ -4796,14 +5267,17 @@
       <c r="F161" t="n">
         <v>0.1745419565040984</v>
       </c>
-      <c r="G161" t="inlineStr">
+      <c r="G161" t="n">
+        <v>0.6751135550800732</v>
+      </c>
+      <c r="H161" t="inlineStr">
         <is>
           <t>g__Enterococcus_A</t>
         </is>
       </c>
     </row>
     <row r="162">
-      <c r="A162" s="3" t="inlineStr">
+      <c r="A162" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT49512.fa</t>
         </is>
@@ -4823,14 +5297,17 @@
       <c r="F162" t="n">
         <v>0.2063013973847576</v>
       </c>
-      <c r="G162" t="inlineStr">
+      <c r="G162" t="n">
+        <v>0.3348749429609948</v>
+      </c>
+      <c r="H162" t="inlineStr">
         <is>
           <t>g__Enterococcus_A</t>
         </is>
       </c>
     </row>
     <row r="163">
-      <c r="A163" s="3" t="inlineStr">
+      <c r="A163" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT49529.fa</t>
         </is>
@@ -4850,14 +5327,17 @@
       <c r="F163" t="n">
         <v>0.1858713288686627</v>
       </c>
-      <c r="G163" t="inlineStr">
+      <c r="G163" t="n">
+        <v>0.321411163350737</v>
+      </c>
+      <c r="H163" t="inlineStr">
         <is>
           <t>g__Enterococcus</t>
         </is>
       </c>
     </row>
     <row r="164">
-      <c r="A164" s="3" t="inlineStr">
+      <c r="A164" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT49535.fa</t>
         </is>
@@ -4877,14 +5357,17 @@
       <c r="F164" t="n">
         <v>0.1869298943978632</v>
       </c>
-      <c r="G164" t="inlineStr">
+      <c r="G164" t="n">
+        <v>0.3337820288574253</v>
+      </c>
+      <c r="H164" t="inlineStr">
         <is>
           <t>g__Enterococcus</t>
         </is>
       </c>
     </row>
     <row r="165">
-      <c r="A165" s="3" t="inlineStr">
+      <c r="A165" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT49539.fa</t>
         </is>
@@ -4904,14 +5387,17 @@
       <c r="F165" t="n">
         <v>0.2091259234366327</v>
       </c>
-      <c r="G165" t="inlineStr">
+      <c r="G165" t="n">
+        <v>0.3431015974332898</v>
+      </c>
+      <c r="H165" t="inlineStr">
         <is>
           <t>g__Enterococcus</t>
         </is>
       </c>
     </row>
     <row r="166">
-      <c r="A166" s="3" t="inlineStr">
+      <c r="A166" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT49541.fa</t>
         </is>
@@ -4931,14 +5417,17 @@
       <c r="F166" t="n">
         <v>0.2014474736403246</v>
       </c>
-      <c r="G166" t="inlineStr">
+      <c r="G166" t="n">
+        <v>0.370096192920807</v>
+      </c>
+      <c r="H166" t="inlineStr">
         <is>
           <t>g__Enterococcus</t>
         </is>
       </c>
     </row>
     <row r="167">
-      <c r="A167" s="3" t="inlineStr">
+      <c r="A167" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT49567.fa</t>
         </is>
@@ -4958,14 +5447,17 @@
       <c r="F167" t="n">
         <v>0.09540412610222954</v>
       </c>
-      <c r="G167" t="inlineStr">
+      <c r="G167" t="n">
+        <v>0.8780378397854707</v>
+      </c>
+      <c r="H167" t="inlineStr">
         <is>
           <t>g__Enterococcus_B</t>
         </is>
       </c>
     </row>
     <row r="168">
-      <c r="A168" s="3" t="inlineStr">
+      <c r="A168" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT49574.fa</t>
         </is>
@@ -4985,14 +5477,17 @@
       <c r="F168" t="n">
         <v>0.0732903291157995</v>
       </c>
-      <c r="G168" t="inlineStr">
+      <c r="G168" t="n">
+        <v>0.4301850175641927</v>
+      </c>
+      <c r="H168" t="inlineStr">
         <is>
           <t>g__Enterococcus_A</t>
         </is>
       </c>
     </row>
     <row r="169">
-      <c r="A169" s="3" t="inlineStr">
+      <c r="A169" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT49593.fa</t>
         </is>
@@ -5012,14 +5507,17 @@
       <c r="F169" t="n">
         <v>0.1812528934458618</v>
       </c>
-      <c r="G169" t="inlineStr">
+      <c r="G169" t="n">
+        <v>0.3146685597898164</v>
+      </c>
+      <c r="H169" t="inlineStr">
         <is>
           <t>g__Enterococcus_A</t>
         </is>
       </c>
     </row>
     <row r="170">
-      <c r="A170" s="3" t="inlineStr">
+      <c r="A170" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT49599.fa</t>
         </is>
@@ -5039,14 +5537,17 @@
       <c r="F170" t="n">
         <v>0.2667914463224633</v>
       </c>
-      <c r="G170" t="inlineStr">
+      <c r="G170" t="n">
+        <v>0.32097487418419</v>
+      </c>
+      <c r="H170" t="inlineStr">
         <is>
           <t>g__Enterococcus_A</t>
         </is>
       </c>
     </row>
     <row r="171">
-      <c r="A171" s="3" t="inlineStr">
+      <c r="A171" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT49609.fa</t>
         </is>
@@ -5066,14 +5567,17 @@
       <c r="F171" t="n">
         <v>0.2136011955735046</v>
       </c>
-      <c r="G171" t="inlineStr">
+      <c r="G171" t="n">
+        <v>0.3105760465086646</v>
+      </c>
+      <c r="H171" t="inlineStr">
         <is>
           <t>g__Enterococcus</t>
         </is>
       </c>
     </row>
     <row r="172">
-      <c r="A172" s="3" t="inlineStr">
+      <c r="A172" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT49616.fa</t>
         </is>
@@ -5093,14 +5597,17 @@
       <c r="F172" t="n">
         <v>0.1373136691132988</v>
       </c>
-      <c r="G172" t="inlineStr">
+      <c r="G172" t="n">
+        <v>0.3364106161547767</v>
+      </c>
+      <c r="H172" t="inlineStr">
         <is>
           <t>g__Enterococcus_A</t>
         </is>
       </c>
     </row>
     <row r="173">
-      <c r="A173" s="3" t="inlineStr">
+      <c r="A173" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT51.fa</t>
         </is>
@@ -5120,14 +5627,17 @@
       <c r="F173" t="n">
         <v>0.04095848391616898</v>
       </c>
-      <c r="G173" t="inlineStr">
+      <c r="G173" t="n">
+        <v>0.8979672815463214</v>
+      </c>
+      <c r="H173" t="inlineStr">
         <is>
           <t>g__Enterococcus_B</t>
         </is>
       </c>
     </row>
     <row r="174">
-      <c r="A174" s="3" t="inlineStr">
+      <c r="A174" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT57264.fa</t>
         </is>
@@ -5147,14 +5657,17 @@
       <c r="F174" t="n">
         <v>0.2263381901451334</v>
       </c>
-      <c r="G174" t="inlineStr">
+      <c r="G174" t="n">
+        <v>0.3306451484433042</v>
+      </c>
+      <c r="H174" t="inlineStr">
         <is>
           <t>g__Enterococcus_A</t>
         </is>
       </c>
     </row>
     <row r="175">
-      <c r="A175" s="3" t="inlineStr">
+      <c r="A175" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT57442.fa</t>
         </is>
@@ -5174,14 +5687,17 @@
       <c r="F175" t="n">
         <v>0.1407136849275033</v>
       </c>
-      <c r="G175" t="inlineStr">
+      <c r="G175" t="n">
+        <v>0.3526082481660303</v>
+      </c>
+      <c r="H175" t="inlineStr">
         <is>
           <t>g__Enterococcus_A</t>
         </is>
       </c>
     </row>
     <row r="176">
-      <c r="A176" s="3" t="inlineStr">
+      <c r="A176" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT61880.fa</t>
         </is>
@@ -5201,14 +5717,17 @@
       <c r="F176" t="n">
         <v>0.23222942027106</v>
       </c>
-      <c r="G176" t="inlineStr">
+      <c r="G176" t="n">
+        <v>0.3105127511738453</v>
+      </c>
+      <c r="H176" t="inlineStr">
         <is>
           <t>g__Enterococcus_A</t>
         </is>
       </c>
     </row>
     <row r="177">
-      <c r="A177" s="3" t="inlineStr">
+      <c r="A177" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT6222.fa</t>
         </is>
@@ -5228,14 +5747,17 @@
       <c r="F177" t="n">
         <v>0.1567100313328863</v>
       </c>
-      <c r="G177" t="inlineStr">
+      <c r="G177" t="n">
+        <v>0.335612900655702</v>
+      </c>
+      <c r="H177" t="inlineStr">
         <is>
           <t>g__Enterococcus</t>
         </is>
       </c>
     </row>
     <row r="178">
-      <c r="A178" s="3" t="inlineStr">
+      <c r="A178" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT6229.fa</t>
         </is>
@@ -5255,14 +5777,17 @@
       <c r="F178" t="n">
         <v>0.170119381406762</v>
       </c>
-      <c r="G178" t="inlineStr">
+      <c r="G178" t="n">
+        <v>0.3181054415515887</v>
+      </c>
+      <c r="H178" t="inlineStr">
         <is>
           <t>g__Enterococcus</t>
         </is>
       </c>
     </row>
     <row r="179">
-      <c r="A179" s="3" t="inlineStr">
+      <c r="A179" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT6233.fa</t>
         </is>
@@ -5282,14 +5807,17 @@
       <c r="F179" t="n">
         <v>0.1920942233616859</v>
       </c>
-      <c r="G179" t="inlineStr">
+      <c r="G179" t="n">
+        <v>0.3593127274003313</v>
+      </c>
+      <c r="H179" t="inlineStr">
         <is>
           <t>g__Enterococcus</t>
         </is>
       </c>
     </row>
     <row r="180">
-      <c r="A180" s="3" t="inlineStr">
+      <c r="A180" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT6238.fa</t>
         </is>
@@ -5309,14 +5837,17 @@
       <c r="F180" t="n">
         <v>0.1968126618576397</v>
       </c>
-      <c r="G180" t="inlineStr">
+      <c r="G180" t="n">
+        <v>0.3480987986386501</v>
+      </c>
+      <c r="H180" t="inlineStr">
         <is>
           <t>g__Enterococcus</t>
         </is>
       </c>
     </row>
     <row r="181">
-      <c r="A181" s="3" t="inlineStr">
+      <c r="A181" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT6241.fa</t>
         </is>
@@ -5336,14 +5867,17 @@
       <c r="F181" t="n">
         <v>0.1316031686551146</v>
       </c>
-      <c r="G181" t="inlineStr">
+      <c r="G181" t="n">
+        <v>0.3601838133029244</v>
+      </c>
+      <c r="H181" t="inlineStr">
         <is>
           <t>g__Enterococcus</t>
         </is>
       </c>
     </row>
     <row r="182">
-      <c r="A182" s="3" t="inlineStr">
+      <c r="A182" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT6274.fa</t>
         </is>
@@ -5363,14 +5897,17 @@
       <c r="F182" t="n">
         <v>0.170119381406762</v>
       </c>
-      <c r="G182" t="inlineStr">
+      <c r="G182" t="n">
+        <v>0.3181054415515887</v>
+      </c>
+      <c r="H182" t="inlineStr">
         <is>
           <t>g__Enterococcus</t>
         </is>
       </c>
     </row>
     <row r="183">
-      <c r="A183" s="3" t="inlineStr">
+      <c r="A183" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT6291.fa</t>
         </is>
@@ -5390,14 +5927,17 @@
       <c r="F183" t="n">
         <v>0.177485147018431</v>
       </c>
-      <c r="G183" t="inlineStr">
+      <c r="G183" t="n">
+        <v>0.3375994249873501</v>
+      </c>
+      <c r="H183" t="inlineStr">
         <is>
           <t>g__Enterococcus</t>
         </is>
       </c>
     </row>
     <row r="184">
-      <c r="A184" s="3" t="inlineStr">
+      <c r="A184" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT67625.fa</t>
         </is>
@@ -5417,14 +5957,17 @@
       <c r="F184" t="n">
         <v>0.6287440166235236</v>
       </c>
-      <c r="G184" t="inlineStr">
+      <c r="G184" t="n">
+        <v>0.6287440166235236</v>
+      </c>
+      <c r="H184" t="inlineStr">
         <is>
           <t>g__Enterococcus_D</t>
         </is>
       </c>
     </row>
     <row r="185">
-      <c r="A185" s="3" t="inlineStr">
+      <c r="A185" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT67985.fa</t>
         </is>
@@ -5444,14 +5987,17 @@
       <c r="F185" t="n">
         <v>0.01524809163089337</v>
       </c>
-      <c r="G185" t="inlineStr">
+      <c r="G185" t="n">
+        <v>0.9792813397317202</v>
+      </c>
+      <c r="H185" t="inlineStr">
         <is>
           <t>g__Enterococcus_B</t>
         </is>
       </c>
     </row>
     <row r="186">
-      <c r="A186" s="3" t="inlineStr">
+      <c r="A186" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT68043.fa</t>
         </is>
@@ -5471,14 +6017,17 @@
       <c r="F186" t="n">
         <v>0.248130202785394</v>
       </c>
-      <c r="G186" t="inlineStr">
+      <c r="G186" t="n">
+        <v>0.3950977948953934</v>
+      </c>
+      <c r="H186" t="inlineStr">
         <is>
           <t>g__Enterococcus_A</t>
         </is>
       </c>
     </row>
     <row r="187">
-      <c r="A187" s="3" t="inlineStr">
+      <c r="A187" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT68111.fa</t>
         </is>
@@ -5498,14 +6047,17 @@
       <c r="F187" t="n">
         <v>0.025464389923537</v>
       </c>
-      <c r="G187" t="inlineStr">
+      <c r="G187" t="n">
+        <v>0.9671761658820516</v>
+      </c>
+      <c r="H187" t="inlineStr">
         <is>
           <t>g__Enterococcus_B</t>
         </is>
       </c>
     </row>
     <row r="188">
-      <c r="A188" s="3" t="inlineStr">
+      <c r="A188" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT68629.fa</t>
         </is>
@@ -5525,14 +6077,17 @@
       <c r="F188" t="n">
         <v>0.06721092088865341</v>
       </c>
-      <c r="G188" t="inlineStr">
+      <c r="G188" t="n">
+        <v>0.6077714851412771</v>
+      </c>
+      <c r="H188" t="inlineStr">
         <is>
           <t>g__Enterococcus_A</t>
         </is>
       </c>
     </row>
     <row r="189">
-      <c r="A189" s="3" t="inlineStr">
+      <c r="A189" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT68640.fa</t>
         </is>
@@ -5552,14 +6107,17 @@
       <c r="F189" t="n">
         <v>0.04412827794896684</v>
       </c>
-      <c r="G189" t="inlineStr">
+      <c r="G189" t="n">
+        <v>0.9451285538904851</v>
+      </c>
+      <c r="H189" t="inlineStr">
         <is>
           <t>g__Enterococcus_B</t>
         </is>
       </c>
     </row>
     <row r="190">
-      <c r="A190" s="3" t="inlineStr">
+      <c r="A190" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT69501.fa</t>
         </is>
@@ -5579,14 +6137,17 @@
       <c r="F190" t="n">
         <v>0.1727714882217034</v>
       </c>
-      <c r="G190" t="inlineStr">
+      <c r="G190" t="n">
+        <v>0.3392694349138431</v>
+      </c>
+      <c r="H190" t="inlineStr">
         <is>
           <t>g__Enterococcus</t>
         </is>
       </c>
     </row>
     <row r="191">
-      <c r="A191" s="3" t="inlineStr">
+      <c r="A191" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT7062.fa</t>
         </is>
@@ -5606,14 +6167,17 @@
       <c r="F191" t="n">
         <v>0.1748477621083583</v>
       </c>
-      <c r="G191" t="inlineStr">
+      <c r="G191" t="n">
+        <v>0.3640557023289368</v>
+      </c>
+      <c r="H191" t="inlineStr">
         <is>
           <t>g__Enterococcus</t>
         </is>
       </c>
     </row>
     <row r="192">
-      <c r="A192" s="3" t="inlineStr">
+      <c r="A192" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT7086.fa</t>
         </is>
@@ -5633,14 +6197,17 @@
       <c r="F192" t="n">
         <v>0.02141065255837418</v>
       </c>
-      <c r="G192" t="inlineStr">
+      <c r="G192" t="n">
+        <v>0.9659920840409448</v>
+      </c>
+      <c r="H192" t="inlineStr">
         <is>
           <t>g__Enterococcus_B</t>
         </is>
       </c>
     </row>
     <row r="193">
-      <c r="A193" s="3" t="inlineStr">
+      <c r="A193" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT7090.fa</t>
         </is>
@@ -5660,14 +6227,17 @@
       <c r="F193" t="n">
         <v>0.3035334036154452</v>
       </c>
-      <c r="G193" t="inlineStr">
+      <c r="G193" t="n">
+        <v>0.3165416787459956</v>
+      </c>
+      <c r="H193" t="inlineStr">
         <is>
           <t>g__Enterococcus</t>
         </is>
       </c>
     </row>
     <row r="194">
-      <c r="A194" s="3" t="inlineStr">
+      <c r="A194" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT7102.fa</t>
         </is>
@@ -5687,14 +6257,17 @@
       <c r="F194" t="n">
         <v>0.2103799398882068</v>
       </c>
-      <c r="G194" t="inlineStr">
+      <c r="G194" t="n">
+        <v>0.3550306712934223</v>
+      </c>
+      <c r="H194" t="inlineStr">
         <is>
           <t>g__Enterococcus</t>
         </is>
       </c>
     </row>
     <row r="195">
-      <c r="A195" s="3" t="inlineStr">
+      <c r="A195" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT7118.fa</t>
         </is>
@@ -5714,14 +6287,17 @@
       <c r="F195" t="n">
         <v>0.2781586540750888</v>
       </c>
-      <c r="G195" t="inlineStr">
+      <c r="G195" t="n">
+        <v>0.3477082314247892</v>
+      </c>
+      <c r="H195" t="inlineStr">
         <is>
           <t>g__Enterococcus</t>
         </is>
       </c>
     </row>
     <row r="196">
-      <c r="A196" s="3" t="inlineStr">
+      <c r="A196" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT7121.fa</t>
         </is>
@@ -5741,14 +6317,17 @@
       <c r="F196" t="n">
         <v>0.181393233451294</v>
       </c>
-      <c r="G196" t="inlineStr">
+      <c r="G196" t="n">
+        <v>0.3615121756831745</v>
+      </c>
+      <c r="H196" t="inlineStr">
         <is>
           <t>g__Enterococcus_A</t>
         </is>
       </c>
     </row>
     <row r="197">
-      <c r="A197" s="3" t="inlineStr">
+      <c r="A197" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT7125.fa</t>
         </is>
@@ -5768,14 +6347,17 @@
       <c r="F197" t="n">
         <v>0.1808031392316941</v>
       </c>
-      <c r="G197" t="inlineStr">
+      <c r="G197" t="n">
+        <v>0.3614237228273001</v>
+      </c>
+      <c r="H197" t="inlineStr">
         <is>
           <t>g__Enterococcus_A</t>
         </is>
       </c>
     </row>
     <row r="198">
-      <c r="A198" s="3" t="inlineStr">
+      <c r="A198" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT7175.fa</t>
         </is>
@@ -5795,14 +6377,17 @@
       <c r="F198" t="n">
         <v>0.1540823254586173</v>
       </c>
-      <c r="G198" t="inlineStr">
+      <c r="G198" t="n">
+        <v>0.3685892414793457</v>
+      </c>
+      <c r="H198" t="inlineStr">
         <is>
           <t>g__Enterococcus_B</t>
         </is>
       </c>
     </row>
     <row r="199">
-      <c r="A199" s="3" t="inlineStr">
+      <c r="A199" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT7213.fa</t>
         </is>
@@ -5822,14 +6407,17 @@
       <c r="F199" t="n">
         <v>0.2538425373004025</v>
       </c>
-      <c r="G199" t="inlineStr">
+      <c r="G199" t="n">
+        <v>0.3144780720359385</v>
+      </c>
+      <c r="H199" t="inlineStr">
         <is>
           <t>g__Enterococcus</t>
         </is>
       </c>
     </row>
     <row r="200">
-      <c r="A200" s="3" t="inlineStr">
+      <c r="A200" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT7214.fa</t>
         </is>
@@ -5849,14 +6437,17 @@
       <c r="F200" t="n">
         <v>0.183510960756395</v>
       </c>
-      <c r="G200" t="inlineStr">
+      <c r="G200" t="n">
+        <v>0.3159359186423217</v>
+      </c>
+      <c r="H200" t="inlineStr">
         <is>
           <t>g__Enterococcus_A</t>
         </is>
       </c>
     </row>
     <row r="201">
-      <c r="A201" s="3" t="inlineStr">
+      <c r="A201" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT7216.fa</t>
         </is>
@@ -5876,14 +6467,17 @@
       <c r="F201" t="n">
         <v>0.1453019291375757</v>
       </c>
-      <c r="G201" t="inlineStr">
+      <c r="G201" t="n">
+        <v>0.3099281892004351</v>
+      </c>
+      <c r="H201" t="inlineStr">
         <is>
           <t>g__Enterococcus</t>
         </is>
       </c>
     </row>
     <row r="202">
-      <c r="A202" s="3" t="inlineStr">
+      <c r="A202" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT7222.fa</t>
         </is>
@@ -5903,14 +6497,17 @@
       <c r="F202" t="n">
         <v>0.1650502747404908</v>
       </c>
-      <c r="G202" t="inlineStr">
+      <c r="G202" t="n">
+        <v>0.358733754347655</v>
+      </c>
+      <c r="H202" t="inlineStr">
         <is>
           <t>g__Enterococcus</t>
         </is>
       </c>
     </row>
     <row r="203">
-      <c r="A203" s="3" t="inlineStr">
+      <c r="A203" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT7253.fa</t>
         </is>
@@ -5930,14 +6527,17 @@
       <c r="F203" t="n">
         <v>0.1538962138214744</v>
       </c>
-      <c r="G203" t="inlineStr">
+      <c r="G203" t="n">
+        <v>0.3614574608309737</v>
+      </c>
+      <c r="H203" t="inlineStr">
         <is>
           <t>g__Enterococcus</t>
         </is>
       </c>
     </row>
     <row r="204">
-      <c r="A204" s="3" t="inlineStr">
+      <c r="A204" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT7278.fa</t>
         </is>
@@ -5957,14 +6557,17 @@
       <c r="F204" t="n">
         <v>0.1608581553351265</v>
       </c>
-      <c r="G204" t="inlineStr">
+      <c r="G204" t="n">
+        <v>0.3323046676328471</v>
+      </c>
+      <c r="H204" t="inlineStr">
         <is>
           <t>g__Enterococcus</t>
         </is>
       </c>
     </row>
     <row r="205">
-      <c r="A205" s="3" t="inlineStr">
+      <c r="A205" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT87407.fa</t>
         </is>
@@ -5984,14 +6587,17 @@
       <c r="F205" t="n">
         <v>0.06869902134265721</v>
       </c>
-      <c r="G205" t="inlineStr">
+      <c r="G205" t="n">
+        <v>0.9191426589810744</v>
+      </c>
+      <c r="H205" t="inlineStr">
         <is>
           <t>g__Enterococcus_B</t>
         </is>
       </c>
     </row>
     <row r="206">
-      <c r="A206" s="3" t="inlineStr">
+      <c r="A206" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT87621.fa</t>
         </is>
@@ -6011,14 +6617,17 @@
       <c r="F206" t="n">
         <v>0.064627161844102</v>
       </c>
-      <c r="G206" t="inlineStr">
+      <c r="G206" t="n">
+        <v>0.924623809830305</v>
+      </c>
+      <c r="H206" t="inlineStr">
         <is>
           <t>g__Enterococcus_B</t>
         </is>
       </c>
     </row>
     <row r="207">
-      <c r="A207" s="3" t="inlineStr">
+      <c r="A207" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT87674.fa</t>
         </is>
@@ -6038,14 +6647,17 @@
       <c r="F207" t="n">
         <v>0.06869902134265721</v>
       </c>
-      <c r="G207" t="inlineStr">
+      <c r="G207" t="n">
+        <v>0.9191426589810744</v>
+      </c>
+      <c r="H207" t="inlineStr">
         <is>
           <t>g__Enterococcus_B</t>
         </is>
       </c>
     </row>
     <row r="208">
-      <c r="A208" s="3" t="inlineStr">
+      <c r="A208" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT87941.fa</t>
         </is>
@@ -6065,14 +6677,17 @@
       <c r="F208" t="n">
         <v>0.03598763206841004</v>
       </c>
-      <c r="G208" t="inlineStr">
+      <c r="G208" t="n">
+        <v>0.9613754872453421</v>
+      </c>
+      <c r="H208" t="inlineStr">
         <is>
           <t>g__Enterococcus_B</t>
         </is>
       </c>
     </row>
     <row r="209">
-      <c r="A209" s="3" t="inlineStr">
+      <c r="A209" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT88714.fa</t>
         </is>
@@ -6092,14 +6707,17 @@
       <c r="F209" t="n">
         <v>0.03589213532858031</v>
       </c>
-      <c r="G209" t="inlineStr">
+      <c r="G209" t="n">
+        <v>0.9612565659236267</v>
+      </c>
+      <c r="H209" t="inlineStr">
         <is>
           <t>g__Enterococcus_B</t>
         </is>
       </c>
     </row>
     <row r="210">
-      <c r="A210" s="3" t="inlineStr">
+      <c r="A210" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT88733.fa</t>
         </is>
@@ -6119,14 +6737,17 @@
       <c r="F210" t="n">
         <v>0.03490464208785098</v>
       </c>
-      <c r="G210" t="inlineStr">
+      <c r="G210" t="n">
+        <v>0.955581242556529</v>
+      </c>
+      <c r="H210" t="inlineStr">
         <is>
           <t>g__Enterococcus_B</t>
         </is>
       </c>
     </row>
     <row r="211">
-      <c r="A211" s="3" t="inlineStr">
+      <c r="A211" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT88737.fa</t>
         </is>
@@ -6146,14 +6767,17 @@
       <c r="F211" t="n">
         <v>0.0229670056557707</v>
       </c>
-      <c r="G211" t="inlineStr">
+      <c r="G211" t="n">
+        <v>0.9700369579987868</v>
+      </c>
+      <c r="H211" t="inlineStr">
         <is>
           <t>g__Enterococcus_B</t>
         </is>
       </c>
     </row>
     <row r="212">
-      <c r="A212" s="3" t="inlineStr">
+      <c r="A212" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT88876.fa</t>
         </is>
@@ -6173,14 +6797,17 @@
       <c r="F212" t="n">
         <v>0.03589213532858031</v>
       </c>
-      <c r="G212" t="inlineStr">
+      <c r="G212" t="n">
+        <v>0.9612565659236267</v>
+      </c>
+      <c r="H212" t="inlineStr">
         <is>
           <t>g__Enterococcus_B</t>
         </is>
       </c>
     </row>
     <row r="213">
-      <c r="A213" s="3" t="inlineStr">
+      <c r="A213" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT89068.fa</t>
         </is>
@@ -6200,14 +6827,17 @@
       <c r="F213" t="n">
         <v>0.02810021182406354</v>
       </c>
-      <c r="G213" t="inlineStr">
+      <c r="G213" t="n">
+        <v>0.9700901228499685</v>
+      </c>
+      <c r="H213" t="inlineStr">
         <is>
           <t>g__Enterococcus_B</t>
         </is>
       </c>
     </row>
     <row r="214">
-      <c r="A214" s="3" t="inlineStr">
+      <c r="A214" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT89179.fa</t>
         </is>
@@ -6227,14 +6857,17 @@
       <c r="F214" t="n">
         <v>0.05689199230221382</v>
       </c>
-      <c r="G214" t="inlineStr">
+      <c r="G214" t="n">
+        <v>0.9404420965166757</v>
+      </c>
+      <c r="H214" t="inlineStr">
         <is>
           <t>g__Enterococcus_B</t>
         </is>
       </c>
     </row>
     <row r="215">
-      <c r="A215" s="3" t="inlineStr">
+      <c r="A215" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT89204.fa</t>
         </is>
@@ -6254,14 +6887,17 @@
       <c r="F215" t="n">
         <v>0.05689199230221382</v>
       </c>
-      <c r="G215" t="inlineStr">
+      <c r="G215" t="n">
+        <v>0.9404420965166757</v>
+      </c>
+      <c r="H215" t="inlineStr">
         <is>
           <t>g__Enterococcus_B</t>
         </is>
       </c>
     </row>
     <row r="216">
-      <c r="A216" s="3" t="inlineStr">
+      <c r="A216" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT89292.fa</t>
         </is>
@@ -6281,14 +6917,17 @@
       <c r="F216" t="n">
         <v>0.01861795691474019</v>
       </c>
-      <c r="G216" t="inlineStr">
+      <c r="G216" t="n">
+        <v>0.977982917338281</v>
+      </c>
+      <c r="H216" t="inlineStr">
         <is>
           <t>g__Enterococcus_B</t>
         </is>
       </c>
     </row>
     <row r="217">
-      <c r="A217" s="3" t="inlineStr">
+      <c r="A217" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT89317.fa</t>
         </is>
@@ -6308,14 +6947,17 @@
       <c r="F217" t="n">
         <v>0.02341573844264463</v>
       </c>
-      <c r="G217" t="inlineStr">
+      <c r="G217" t="n">
+        <v>0.9717758351949369</v>
+      </c>
+      <c r="H217" t="inlineStr">
         <is>
           <t>g__Enterococcus_B</t>
         </is>
       </c>
     </row>
     <row r="218">
-      <c r="A218" s="3" t="inlineStr">
+      <c r="A218" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT89355.fa</t>
         </is>
@@ -6335,14 +6977,17 @@
       <c r="F218" t="n">
         <v>0.06956216340377654</v>
       </c>
-      <c r="G218" t="inlineStr">
+      <c r="G218" t="n">
+        <v>0.9266658680980339</v>
+      </c>
+      <c r="H218" t="inlineStr">
         <is>
           <t>g__Enterococcus_B</t>
         </is>
       </c>
     </row>
     <row r="219">
-      <c r="A219" s="3" t="inlineStr">
+      <c r="A219" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT89363.fa</t>
         </is>
@@ -6362,14 +7007,17 @@
       <c r="F219" t="n">
         <v>0.03082637069312154</v>
       </c>
-      <c r="G219" t="inlineStr">
+      <c r="G219" t="n">
+        <v>0.9662635538471043</v>
+      </c>
+      <c r="H219" t="inlineStr">
         <is>
           <t>g__Enterococcus_B</t>
         </is>
       </c>
     </row>
     <row r="220">
-      <c r="A220" s="3" t="inlineStr">
+      <c r="A220" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT89413.fa</t>
         </is>
@@ -6389,14 +7037,17 @@
       <c r="F220" t="n">
         <v>0.02260251279177621</v>
       </c>
-      <c r="G220" t="inlineStr">
+      <c r="G220" t="n">
+        <v>0.9752604244077607</v>
+      </c>
+      <c r="H220" t="inlineStr">
         <is>
           <t>g__Enterococcus_B</t>
         </is>
       </c>
     </row>
     <row r="221">
-      <c r="A221" s="3" t="inlineStr">
+      <c r="A221" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT89720.fa</t>
         </is>
@@ -6416,14 +7067,17 @@
       <c r="F221" t="n">
         <v>0.04349514721356551</v>
       </c>
-      <c r="G221" t="inlineStr">
+      <c r="G221" t="n">
+        <v>0.9499183765506946</v>
+      </c>
+      <c r="H221" t="inlineStr">
         <is>
           <t>g__Enterococcus_B</t>
         </is>
       </c>
     </row>
     <row r="222">
-      <c r="A222" s="3" t="inlineStr">
+      <c r="A222" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT89992.fa</t>
         </is>
@@ -6443,14 +7097,17 @@
       <c r="F222" t="n">
         <v>0.02810021182406354</v>
       </c>
-      <c r="G222" t="inlineStr">
+      <c r="G222" t="n">
+        <v>0.9700901228499685</v>
+      </c>
+      <c r="H222" t="inlineStr">
         <is>
           <t>g__Enterococcus_B</t>
         </is>
       </c>
     </row>
     <row r="223">
-      <c r="A223" s="3" t="inlineStr">
+      <c r="A223" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT90064.fa</t>
         </is>
@@ -6470,14 +7127,17 @@
       <c r="F223" t="n">
         <v>0.1604124392623821</v>
       </c>
-      <c r="G223" t="inlineStr">
+      <c r="G223" t="n">
+        <v>0.8255428265668238</v>
+      </c>
+      <c r="H223" t="inlineStr">
         <is>
           <t>g__Enterococcus_B</t>
         </is>
       </c>
     </row>
     <row r="224">
-      <c r="A224" s="3" t="inlineStr">
+      <c r="A224" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT90077.fa</t>
         </is>
@@ -6497,14 +7157,17 @@
       <c r="F224" t="n">
         <v>0.03589213532858031</v>
       </c>
-      <c r="G224" t="inlineStr">
+      <c r="G224" t="n">
+        <v>0.9612565659236267</v>
+      </c>
+      <c r="H224" t="inlineStr">
         <is>
           <t>g__Enterococcus_B</t>
         </is>
       </c>
     </row>
     <row r="225">
-      <c r="A225" s="3" t="inlineStr">
+      <c r="A225" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT90107.fa</t>
         </is>
@@ -6524,14 +7187,17 @@
       <c r="F225" t="n">
         <v>0.06956216340377654</v>
       </c>
-      <c r="G225" t="inlineStr">
+      <c r="G225" t="n">
+        <v>0.9266658680980339</v>
+      </c>
+      <c r="H225" t="inlineStr">
         <is>
           <t>g__Enterococcus_B</t>
         </is>
       </c>
     </row>
     <row r="226">
-      <c r="A226" s="3" t="inlineStr">
+      <c r="A226" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT90127.fa</t>
         </is>
@@ -6551,14 +7217,17 @@
       <c r="F226" t="n">
         <v>0.01569117053599611</v>
       </c>
-      <c r="G226" t="inlineStr">
+      <c r="G226" t="n">
+        <v>0.980208190010634</v>
+      </c>
+      <c r="H226" t="inlineStr">
         <is>
           <t>g__Enterococcus_B</t>
         </is>
       </c>
     </row>
     <row r="227">
-      <c r="A227" s="3" t="inlineStr">
+      <c r="A227" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT90167.fa</t>
         </is>
@@ -6578,14 +7247,17 @@
       <c r="F227" t="n">
         <v>0.06956216340377654</v>
       </c>
-      <c r="G227" t="inlineStr">
+      <c r="G227" t="n">
+        <v>0.9266658680980339</v>
+      </c>
+      <c r="H227" t="inlineStr">
         <is>
           <t>g__Enterococcus_B</t>
         </is>
       </c>
     </row>
     <row r="228">
-      <c r="A228" s="3" t="inlineStr">
+      <c r="A228" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT90189.fa</t>
         </is>
@@ -6605,14 +7277,17 @@
       <c r="F228" t="n">
         <v>0.06956216340377654</v>
       </c>
-      <c r="G228" t="inlineStr">
+      <c r="G228" t="n">
+        <v>0.9266658680980339</v>
+      </c>
+      <c r="H228" t="inlineStr">
         <is>
           <t>g__Enterococcus_B</t>
         </is>
       </c>
     </row>
     <row r="229">
-      <c r="A229" s="3" t="inlineStr">
+      <c r="A229" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT90251.fa</t>
         </is>
@@ -6632,14 +7307,17 @@
       <c r="F229" t="n">
         <v>0.03589213532858031</v>
       </c>
-      <c r="G229" t="inlineStr">
+      <c r="G229" t="n">
+        <v>0.9612565659236267</v>
+      </c>
+      <c r="H229" t="inlineStr">
         <is>
           <t>g__Enterococcus_B</t>
         </is>
       </c>
     </row>
     <row r="230">
-      <c r="A230" s="3" t="inlineStr">
+      <c r="A230" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT90266.fa</t>
         </is>
@@ -6659,14 +7337,17 @@
       <c r="F230" t="n">
         <v>0.01751591623062653</v>
       </c>
-      <c r="G230" t="inlineStr">
+      <c r="G230" t="n">
+        <v>0.9096748581611716</v>
+      </c>
+      <c r="H230" t="inlineStr">
         <is>
           <t>g__Enterococcus_B</t>
         </is>
       </c>
     </row>
     <row r="231">
-      <c r="A231" s="3" t="inlineStr">
+      <c r="A231" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT90291.fa</t>
         </is>
@@ -6686,14 +7367,17 @@
       <c r="F231" t="n">
         <v>0.02341573844264463</v>
       </c>
-      <c r="G231" t="inlineStr">
+      <c r="G231" t="n">
+        <v>0.9717758351949369</v>
+      </c>
+      <c r="H231" t="inlineStr">
         <is>
           <t>g__Enterococcus_B</t>
         </is>
       </c>
     </row>
     <row r="232">
-      <c r="A232" s="3" t="inlineStr">
+      <c r="A232" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT90368.fa</t>
         </is>
@@ -6713,14 +7397,17 @@
       <c r="F232" t="n">
         <v>0.04099976340026893</v>
       </c>
-      <c r="G232" t="inlineStr">
+      <c r="G232" t="n">
+        <v>0.951829657597979</v>
+      </c>
+      <c r="H232" t="inlineStr">
         <is>
           <t>g__Enterococcus_B</t>
         </is>
       </c>
     </row>
     <row r="233">
-      <c r="A233" s="3" t="inlineStr">
+      <c r="A233" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT90390.fa</t>
         </is>
@@ -6740,14 +7427,17 @@
       <c r="F233" t="n">
         <v>0.02810021182406354</v>
       </c>
-      <c r="G233" t="inlineStr">
+      <c r="G233" t="n">
+        <v>0.9700901228499685</v>
+      </c>
+      <c r="H233" t="inlineStr">
         <is>
           <t>g__Enterococcus_B</t>
         </is>
       </c>
     </row>
     <row r="234">
-      <c r="A234" s="3" t="inlineStr">
+      <c r="A234" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT90429.fa</t>
         </is>
@@ -6767,14 +7457,17 @@
       <c r="F234" t="n">
         <v>0.02000941763014029</v>
       </c>
-      <c r="G234" t="inlineStr">
+      <c r="G234" t="n">
+        <v>0.9166952494840259</v>
+      </c>
+      <c r="H234" t="inlineStr">
         <is>
           <t>g__Enterococcus_B</t>
         </is>
       </c>
     </row>
     <row r="235">
-      <c r="A235" s="3" t="inlineStr">
+      <c r="A235" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT90505.fa</t>
         </is>
@@ -6794,14 +7487,17 @@
       <c r="F235" t="n">
         <v>0.05689199230221382</v>
       </c>
-      <c r="G235" t="inlineStr">
+      <c r="G235" t="n">
+        <v>0.9404420965166757</v>
+      </c>
+      <c r="H235" t="inlineStr">
         <is>
           <t>g__Enterococcus_B</t>
         </is>
       </c>
     </row>
     <row r="236">
-      <c r="A236" s="3" t="inlineStr">
+      <c r="A236" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT90598.fa</t>
         </is>
@@ -6821,14 +7517,17 @@
       <c r="F236" t="n">
         <v>0.03589213532858031</v>
       </c>
-      <c r="G236" t="inlineStr">
+      <c r="G236" t="n">
+        <v>0.9612565659236267</v>
+      </c>
+      <c r="H236" t="inlineStr">
         <is>
           <t>g__Enterococcus_B</t>
         </is>
       </c>
     </row>
     <row r="237">
-      <c r="A237" s="3" t="inlineStr">
+      <c r="A237" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT90630.fa</t>
         </is>
@@ -6848,14 +7547,17 @@
       <c r="F237" t="n">
         <v>0.03589213532858031</v>
       </c>
-      <c r="G237" t="inlineStr">
+      <c r="G237" t="n">
+        <v>0.9612565659236267</v>
+      </c>
+      <c r="H237" t="inlineStr">
         <is>
           <t>g__Enterococcus_B</t>
         </is>
       </c>
     </row>
     <row r="238">
-      <c r="A238" s="3" t="inlineStr">
+      <c r="A238" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT90636.fa</t>
         </is>
@@ -6875,14 +7577,17 @@
       <c r="F238" t="n">
         <v>0.03659389995917414</v>
       </c>
-      <c r="G238" t="inlineStr">
+      <c r="G238" t="n">
+        <v>0.9620111911232893</v>
+      </c>
+      <c r="H238" t="inlineStr">
         <is>
           <t>g__Enterococcus_B</t>
         </is>
       </c>
     </row>
     <row r="239">
-      <c r="A239" s="3" t="inlineStr">
+      <c r="A239" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT90777.fa</t>
         </is>
@@ -6902,14 +7607,17 @@
       <c r="F239" t="n">
         <v>0.01582153170417823</v>
       </c>
-      <c r="G239" t="inlineStr">
+      <c r="G239" t="n">
+        <v>0.9799944437217877</v>
+      </c>
+      <c r="H239" t="inlineStr">
         <is>
           <t>g__Enterococcus_B</t>
         </is>
       </c>
     </row>
     <row r="240">
-      <c r="A240" s="3" t="inlineStr">
+      <c r="A240" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT90901.fa</t>
         </is>
@@ -6929,14 +7637,17 @@
       <c r="F240" t="n">
         <v>0.03118757465248876</v>
       </c>
-      <c r="G240" t="inlineStr">
+      <c r="G240" t="n">
+        <v>0.9593311403415642</v>
+      </c>
+      <c r="H240" t="inlineStr">
         <is>
           <t>g__Enterococcus_B</t>
         </is>
       </c>
     </row>
     <row r="241">
-      <c r="A241" s="3" t="inlineStr">
+      <c r="A241" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT90946.fa</t>
         </is>
@@ -6956,14 +7667,17 @@
       <c r="F241" t="n">
         <v>0.05689199230221382</v>
       </c>
-      <c r="G241" t="inlineStr">
+      <c r="G241" t="n">
+        <v>0.9404420965166757</v>
+      </c>
+      <c r="H241" t="inlineStr">
         <is>
           <t>g__Enterococcus_B</t>
         </is>
       </c>
     </row>
     <row r="242">
-      <c r="A242" s="3" t="inlineStr">
+      <c r="A242" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT90975.fa</t>
         </is>
@@ -6983,14 +7697,17 @@
       <c r="F242" t="n">
         <v>0.05689199230221382</v>
       </c>
-      <c r="G242" t="inlineStr">
+      <c r="G242" t="n">
+        <v>0.9404420965166757</v>
+      </c>
+      <c r="H242" t="inlineStr">
         <is>
           <t>g__Enterococcus_B</t>
         </is>
       </c>
     </row>
     <row r="243">
-      <c r="A243" s="3" t="inlineStr">
+      <c r="A243" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT91032.fa</t>
         </is>
@@ -7010,14 +7727,17 @@
       <c r="F243" t="n">
         <v>0.01863589541224924</v>
       </c>
-      <c r="G243" t="inlineStr">
+      <c r="G243" t="n">
+        <v>0.9796412502080286</v>
+      </c>
+      <c r="H243" t="inlineStr">
         <is>
           <t>g__Enterococcus_B</t>
         </is>
       </c>
     </row>
     <row r="244">
-      <c r="A244" s="3" t="inlineStr">
+      <c r="A244" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT91072.fa</t>
         </is>
@@ -7037,14 +7757,17 @@
       <c r="F244" t="n">
         <v>0.02260251279177621</v>
       </c>
-      <c r="G244" t="inlineStr">
+      <c r="G244" t="n">
+        <v>0.9752604244077607</v>
+      </c>
+      <c r="H244" t="inlineStr">
         <is>
           <t>g__Enterococcus_B</t>
         </is>
       </c>
     </row>
     <row r="245">
-      <c r="A245" s="3" t="inlineStr">
+      <c r="A245" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT91119.fa</t>
         </is>
@@ -7064,14 +7787,17 @@
       <c r="F245" t="n">
         <v>0.05689199230221382</v>
       </c>
-      <c r="G245" t="inlineStr">
+      <c r="G245" t="n">
+        <v>0.9404420965166757</v>
+      </c>
+      <c r="H245" t="inlineStr">
         <is>
           <t>g__Enterococcus_B</t>
         </is>
       </c>
     </row>
     <row r="246">
-      <c r="A246" s="3" t="inlineStr">
+      <c r="A246" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT91131.fa</t>
         </is>
@@ -7091,14 +7817,17 @@
       <c r="F246" t="n">
         <v>0.02810021182406354</v>
       </c>
-      <c r="G246" t="inlineStr">
+      <c r="G246" t="n">
+        <v>0.9700901228499685</v>
+      </c>
+      <c r="H246" t="inlineStr">
         <is>
           <t>g__Enterococcus_B</t>
         </is>
       </c>
     </row>
     <row r="247">
-      <c r="A247" s="3" t="inlineStr">
+      <c r="A247" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT91135.fa</t>
         </is>
@@ -7118,14 +7847,17 @@
       <c r="F247" t="n">
         <v>0.05689199230221382</v>
       </c>
-      <c r="G247" t="inlineStr">
+      <c r="G247" t="n">
+        <v>0.9404420965166757</v>
+      </c>
+      <c r="H247" t="inlineStr">
         <is>
           <t>g__Enterococcus_B</t>
         </is>
       </c>
     </row>
     <row r="248">
-      <c r="A248" s="3" t="inlineStr">
+      <c r="A248" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT91192.fa</t>
         </is>
@@ -7145,14 +7877,17 @@
       <c r="F248" t="n">
         <v>0.2446053448835987</v>
       </c>
-      <c r="G248" t="inlineStr">
+      <c r="G248" t="n">
+        <v>0.3405396871716766</v>
+      </c>
+      <c r="H248" t="inlineStr">
         <is>
           <t>g__Enterococcus</t>
         </is>
       </c>
     </row>
     <row r="249">
-      <c r="A249" s="3" t="inlineStr">
+      <c r="A249" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT91196.fa</t>
         </is>
@@ -7172,14 +7907,17 @@
       <c r="F249" t="n">
         <v>0.1845160956441915</v>
       </c>
-      <c r="G249" t="inlineStr">
+      <c r="G249" t="n">
+        <v>0.3557676023566622</v>
+      </c>
+      <c r="H249" t="inlineStr">
         <is>
           <t>g__Enterococcus</t>
         </is>
       </c>
     </row>
     <row r="250">
-      <c r="A250" s="3" t="inlineStr">
+      <c r="A250" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT91251.fa</t>
         </is>
@@ -7199,14 +7937,17 @@
       <c r="F250" t="n">
         <v>0.2164913366587203</v>
       </c>
-      <c r="G250" t="inlineStr">
+      <c r="G250" t="n">
+        <v>0.3226901447305785</v>
+      </c>
+      <c r="H250" t="inlineStr">
         <is>
           <t>g__Enterococcus_B</t>
         </is>
       </c>
     </row>
     <row r="251">
-      <c r="A251" s="3" t="inlineStr">
+      <c r="A251" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT91262.fa</t>
         </is>
@@ -7226,14 +7967,17 @@
       <c r="F251" t="n">
         <v>0.1324850910051915</v>
       </c>
-      <c r="G251" t="inlineStr">
+      <c r="G251" t="n">
+        <v>0.345498365272443</v>
+      </c>
+      <c r="H251" t="inlineStr">
         <is>
           <t>g__Enterococcus</t>
         </is>
       </c>
     </row>
     <row r="252">
-      <c r="A252" s="3" t="inlineStr">
+      <c r="A252" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT91264.fa</t>
         </is>
@@ -7253,14 +7997,17 @@
       <c r="F252" t="n">
         <v>0.2106997612563351</v>
       </c>
-      <c r="G252" t="inlineStr">
+      <c r="G252" t="n">
+        <v>0.3248018121761274</v>
+      </c>
+      <c r="H252" t="inlineStr">
         <is>
           <t>g__Enterococcus</t>
         </is>
       </c>
     </row>
     <row r="253">
-      <c r="A253" s="3" t="inlineStr">
+      <c r="A253" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT91267.fa</t>
         </is>
@@ -7280,14 +8027,17 @@
       <c r="F253" t="n">
         <v>0.1324850910051915</v>
       </c>
-      <c r="G253" t="inlineStr">
+      <c r="G253" t="n">
+        <v>0.345498365272443</v>
+      </c>
+      <c r="H253" t="inlineStr">
         <is>
           <t>g__Enterococcus</t>
         </is>
       </c>
     </row>
     <row r="254">
-      <c r="A254" s="3" t="inlineStr">
+      <c r="A254" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT91272.fa</t>
         </is>
@@ -7307,14 +8057,17 @@
       <c r="F254" t="n">
         <v>0.1891699086433123</v>
       </c>
-      <c r="G254" t="inlineStr">
+      <c r="G254" t="n">
+        <v>0.3274541417009296</v>
+      </c>
+      <c r="H254" t="inlineStr">
         <is>
           <t>g__Enterococcus</t>
         </is>
       </c>
     </row>
     <row r="255">
-      <c r="A255" s="3" t="inlineStr">
+      <c r="A255" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT91297.fa</t>
         </is>
@@ -7334,14 +8087,17 @@
       <c r="F255" t="n">
         <v>0.1913029700448082</v>
       </c>
-      <c r="G255" t="inlineStr">
+      <c r="G255" t="n">
+        <v>0.3462857088843014</v>
+      </c>
+      <c r="H255" t="inlineStr">
         <is>
           <t>g__Enterococcus</t>
         </is>
       </c>
     </row>
     <row r="256">
-      <c r="A256" s="3" t="inlineStr">
+      <c r="A256" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT91303.fa</t>
         </is>
@@ -7361,14 +8117,17 @@
       <c r="F256" t="n">
         <v>0.09690968606432017</v>
       </c>
-      <c r="G256" t="inlineStr">
+      <c r="G256" t="n">
+        <v>0.5104258620985468</v>
+      </c>
+      <c r="H256" t="inlineStr">
         <is>
           <t>g__Enterococcus_A</t>
         </is>
       </c>
     </row>
     <row r="257">
-      <c r="A257" s="3" t="inlineStr">
+      <c r="A257" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT91320.fa</t>
         </is>
@@ -7388,14 +8147,17 @@
       <c r="F257" t="n">
         <v>0.1771185673124123</v>
       </c>
-      <c r="G257" t="inlineStr">
+      <c r="G257" t="n">
+        <v>0.3538661150600053</v>
+      </c>
+      <c r="H257" t="inlineStr">
         <is>
           <t>g__Enterococcus</t>
         </is>
       </c>
     </row>
     <row r="258">
-      <c r="A258" s="3" t="inlineStr">
+      <c r="A258" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT91330.fa</t>
         </is>
@@ -7415,14 +8177,17 @@
       <c r="F258" t="n">
         <v>0.1889650747871648</v>
       </c>
-      <c r="G258" t="inlineStr">
+      <c r="G258" t="n">
+        <v>0.3270757449398889</v>
+      </c>
+      <c r="H258" t="inlineStr">
         <is>
           <t>g__Enterococcus</t>
         </is>
       </c>
     </row>
     <row r="259">
-      <c r="A259" s="3" t="inlineStr">
+      <c r="A259" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT91385.fa</t>
         </is>
@@ -7442,14 +8207,17 @@
       <c r="F259" t="n">
         <v>0.1743085343719758</v>
       </c>
-      <c r="G259" t="inlineStr">
+      <c r="G259" t="n">
+        <v>0.3280823857943934</v>
+      </c>
+      <c r="H259" t="inlineStr">
         <is>
           <t>g__Enterococcus</t>
         </is>
       </c>
     </row>
     <row r="260">
-      <c r="A260" s="3" t="inlineStr">
+      <c r="A260" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT91468.fa</t>
         </is>
@@ -7469,14 +8237,17 @@
       <c r="F260" t="n">
         <v>0.2247037212041391</v>
       </c>
-      <c r="G260" t="inlineStr">
+      <c r="G260" t="n">
+        <v>0.3627084873243941</v>
+      </c>
+      <c r="H260" t="inlineStr">
         <is>
           <t>g__Enterococcus</t>
         </is>
       </c>
     </row>
     <row r="261">
-      <c r="A261" s="3" t="inlineStr">
+      <c r="A261" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT91470.fa</t>
         </is>
@@ -7496,14 +8267,17 @@
       <c r="F261" t="n">
         <v>0.1466740004476934</v>
       </c>
-      <c r="G261" t="inlineStr">
+      <c r="G261" t="n">
+        <v>0.4075214837309008</v>
+      </c>
+      <c r="H261" t="inlineStr">
         <is>
           <t>g__Enterococcus_A</t>
         </is>
       </c>
     </row>
     <row r="262">
-      <c r="A262" s="3" t="inlineStr">
+      <c r="A262" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT91486.fa</t>
         </is>
@@ -7523,14 +8297,17 @@
       <c r="F262" t="n">
         <v>0.2247037212041391</v>
       </c>
-      <c r="G262" t="inlineStr">
+      <c r="G262" t="n">
+        <v>0.3627084873243941</v>
+      </c>
+      <c r="H262" t="inlineStr">
         <is>
           <t>g__Enterococcus</t>
         </is>
       </c>
     </row>
     <row r="263">
-      <c r="A263" s="3" t="inlineStr">
+      <c r="A263" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT91490.fa</t>
         </is>
@@ -7550,14 +8327,17 @@
       <c r="F263" t="n">
         <v>0.2245647361515414</v>
       </c>
-      <c r="G263" t="inlineStr">
+      <c r="G263" t="n">
+        <v>0.3628333072073044</v>
+      </c>
+      <c r="H263" t="inlineStr">
         <is>
           <t>g__Enterococcus</t>
         </is>
       </c>
     </row>
     <row r="264">
-      <c r="A264" s="3" t="inlineStr">
+      <c r="A264" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT91491.fa</t>
         </is>
@@ -7577,14 +8357,17 @@
       <c r="F264" t="n">
         <v>0.2653410488880343</v>
       </c>
-      <c r="G264" t="inlineStr">
+      <c r="G264" t="n">
+        <v>0.3360687768472373</v>
+      </c>
+      <c r="H264" t="inlineStr">
         <is>
           <t>g__Enterococcus</t>
         </is>
       </c>
     </row>
     <row r="265">
-      <c r="A265" s="3" t="inlineStr">
+      <c r="A265" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT91492.fa</t>
         </is>
@@ -7604,14 +8387,17 @@
       <c r="F265" t="n">
         <v>0.1761814623549977</v>
       </c>
-      <c r="G265" t="inlineStr">
+      <c r="G265" t="n">
+        <v>0.3400659939171921</v>
+      </c>
+      <c r="H265" t="inlineStr">
         <is>
           <t>g__Enterococcus</t>
         </is>
       </c>
     </row>
     <row r="266">
-      <c r="A266" s="3" t="inlineStr">
+      <c r="A266" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT91496.fa</t>
         </is>
@@ -7631,14 +8417,17 @@
       <c r="F266" t="n">
         <v>0.2573547393820853</v>
       </c>
-      <c r="G266" t="inlineStr">
+      <c r="G266" t="n">
+        <v>0.336766784171901</v>
+      </c>
+      <c r="H266" t="inlineStr">
         <is>
           <t>g__Enterococcus</t>
         </is>
       </c>
     </row>
     <row r="267">
-      <c r="A267" s="3" t="inlineStr">
+      <c r="A267" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT91520.fa</t>
         </is>
@@ -7658,14 +8447,17 @@
       <c r="F267" t="n">
         <v>0.1875125827736377</v>
       </c>
-      <c r="G267" t="inlineStr">
+      <c r="G267" t="n">
+        <v>0.335602067064862</v>
+      </c>
+      <c r="H267" t="inlineStr">
         <is>
           <t>g__Enterococcus</t>
         </is>
       </c>
     </row>
     <row r="268">
-      <c r="A268" s="3" t="inlineStr">
+      <c r="A268" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT91536.fa</t>
         </is>
@@ -7685,14 +8477,17 @@
       <c r="F268" t="n">
         <v>0.1709312498846093</v>
       </c>
-      <c r="G268" t="inlineStr">
+      <c r="G268" t="n">
+        <v>0.3599065985805239</v>
+      </c>
+      <c r="H268" t="inlineStr">
         <is>
           <t>g__Enterococcus</t>
         </is>
       </c>
     </row>
     <row r="269">
-      <c r="A269" s="3" t="inlineStr">
+      <c r="A269" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT91546.fa</t>
         </is>
@@ -7712,14 +8507,17 @@
       <c r="F269" t="n">
         <v>0.1522701059440901</v>
       </c>
-      <c r="G269" t="inlineStr">
+      <c r="G269" t="n">
+        <v>0.341924400014099</v>
+      </c>
+      <c r="H269" t="inlineStr">
         <is>
           <t>g__Enterococcus</t>
         </is>
       </c>
     </row>
     <row r="270">
-      <c r="A270" s="3" t="inlineStr">
+      <c r="A270" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT91568.fa</t>
         </is>
@@ -7739,14 +8537,17 @@
       <c r="F270" t="n">
         <v>0.2300291799759371</v>
       </c>
-      <c r="G270" t="inlineStr">
+      <c r="G270" t="n">
+        <v>0.3281850461513032</v>
+      </c>
+      <c r="H270" t="inlineStr">
         <is>
           <t>g__Enterococcus</t>
         </is>
       </c>
     </row>
     <row r="271">
-      <c r="A271" s="3" t="inlineStr">
+      <c r="A271" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT91712.fa</t>
         </is>
@@ -7766,14 +8567,17 @@
       <c r="F271" t="n">
         <v>0.1819162221737871</v>
       </c>
-      <c r="G271" t="inlineStr">
+      <c r="G271" t="n">
+        <v>0.328459507041836</v>
+      </c>
+      <c r="H271" t="inlineStr">
         <is>
           <t>g__Enterococcus</t>
         </is>
       </c>
     </row>
     <row r="272">
-      <c r="A272" s="3" t="inlineStr">
+      <c r="A272" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT91717.fa</t>
         </is>
@@ -7793,14 +8597,17 @@
       <c r="F272" t="n">
         <v>0.2076508975003589</v>
       </c>
-      <c r="G272" t="inlineStr">
+      <c r="G272" t="n">
+        <v>0.3369061831326963</v>
+      </c>
+      <c r="H272" t="inlineStr">
         <is>
           <t>g__Enterococcus</t>
         </is>
       </c>
     </row>
     <row r="273">
-      <c r="A273" s="3" t="inlineStr">
+      <c r="A273" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT91736.fa</t>
         </is>
@@ -7820,14 +8627,17 @@
       <c r="F273" t="n">
         <v>0.1884399399298615</v>
       </c>
-      <c r="G273" t="inlineStr">
+      <c r="G273" t="n">
+        <v>0.322058741123924</v>
+      </c>
+      <c r="H273" t="inlineStr">
         <is>
           <t>g__Enterococcus_B</t>
         </is>
       </c>
     </row>
     <row r="274">
-      <c r="A274" s="3" t="inlineStr">
+      <c r="A274" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT91762.fa</t>
         </is>
@@ -7847,14 +8657,17 @@
       <c r="F274" t="n">
         <v>0.1682641790047687</v>
       </c>
-      <c r="G274" t="inlineStr">
+      <c r="G274" t="n">
+        <v>0.3307805703023468</v>
+      </c>
+      <c r="H274" t="inlineStr">
         <is>
           <t>g__Enterococcus_B</t>
         </is>
       </c>
     </row>
     <row r="275">
-      <c r="A275" s="3" t="inlineStr">
+      <c r="A275" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT91779.fa</t>
         </is>
@@ -7874,14 +8687,17 @@
       <c r="F275" t="n">
         <v>0.09935504715243822</v>
       </c>
-      <c r="G275" t="inlineStr">
+      <c r="G275" t="n">
+        <v>0.3007490386394523</v>
+      </c>
+      <c r="H275" t="inlineStr">
         <is>
           <t>g__Enterococcus</t>
         </is>
       </c>
     </row>
     <row r="276">
-      <c r="A276" s="3" t="inlineStr">
+      <c r="A276" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT91815.fa</t>
         </is>
@@ -7901,14 +8717,17 @@
       <c r="F276" t="n">
         <v>0.1676176828946035</v>
       </c>
-      <c r="G276" t="inlineStr">
+      <c r="G276" t="n">
+        <v>0.3243167106283766</v>
+      </c>
+      <c r="H276" t="inlineStr">
         <is>
           <t>g__Enterococcus</t>
         </is>
       </c>
     </row>
     <row r="277">
-      <c r="A277" s="3" t="inlineStr">
+      <c r="A277" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT91818.fa</t>
         </is>
@@ -7928,14 +8747,17 @@
       <c r="F277" t="n">
         <v>0.1676176828946035</v>
       </c>
-      <c r="G277" t="inlineStr">
+      <c r="G277" t="n">
+        <v>0.3243167106283766</v>
+      </c>
+      <c r="H277" t="inlineStr">
         <is>
           <t>g__Enterococcus</t>
         </is>
       </c>
     </row>
     <row r="278">
-      <c r="A278" s="3" t="inlineStr">
+      <c r="A278" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT91821.fa</t>
         </is>
@@ -7955,14 +8777,17 @@
       <c r="F278" t="n">
         <v>0.2479007186499398</v>
       </c>
-      <c r="G278" t="inlineStr">
+      <c r="G278" t="n">
+        <v>0.3407315446001268</v>
+      </c>
+      <c r="H278" t="inlineStr">
         <is>
           <t>g__Enterococcus</t>
         </is>
       </c>
     </row>
     <row r="279">
-      <c r="A279" s="3" t="inlineStr">
+      <c r="A279" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT91823.fa</t>
         </is>
@@ -7982,14 +8807,17 @@
       <c r="F279" t="n">
         <v>0.2078812013576465</v>
       </c>
-      <c r="G279" t="inlineStr">
+      <c r="G279" t="n">
+        <v>0.343455665267608</v>
+      </c>
+      <c r="H279" t="inlineStr">
         <is>
           <t>g__Enterococcus</t>
         </is>
       </c>
     </row>
     <row r="280">
-      <c r="A280" s="3" t="inlineStr">
+      <c r="A280" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT91833.fa</t>
         </is>
@@ -8009,14 +8837,17 @@
       <c r="F280" t="n">
         <v>0.2119115063233752</v>
       </c>
-      <c r="G280" t="inlineStr">
+      <c r="G280" t="n">
+        <v>0.2838511937636248</v>
+      </c>
+      <c r="H280" t="inlineStr">
         <is>
           <t>g__Enterococcus_B</t>
         </is>
       </c>
     </row>
     <row r="281">
-      <c r="A281" s="3" t="inlineStr">
+      <c r="A281" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT91860.fa</t>
         </is>
@@ -8036,14 +8867,17 @@
       <c r="F281" t="n">
         <v>0.1507876619390203</v>
       </c>
-      <c r="G281" t="inlineStr">
+      <c r="G281" t="n">
+        <v>0.2943352295969983</v>
+      </c>
+      <c r="H281" t="inlineStr">
         <is>
           <t>g__Enterococcus</t>
         </is>
       </c>
     </row>
     <row r="282">
-      <c r="A282" s="3" t="inlineStr">
+      <c r="A282" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT91882.fa</t>
         </is>
@@ -8063,14 +8897,17 @@
       <c r="F282" t="n">
         <v>0.1626551368310001</v>
       </c>
-      <c r="G282" t="inlineStr">
+      <c r="G282" t="n">
+        <v>0.3398117072330977</v>
+      </c>
+      <c r="H282" t="inlineStr">
         <is>
           <t>g__Enterococcus</t>
         </is>
       </c>
     </row>
     <row r="283">
-      <c r="A283" s="3" t="inlineStr">
+      <c r="A283" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT91886.fa</t>
         </is>
@@ -8090,14 +8927,17 @@
       <c r="F283" t="n">
         <v>0.2130747855501406</v>
       </c>
-      <c r="G283" t="inlineStr">
+      <c r="G283" t="n">
+        <v>0.3381242870611215</v>
+      </c>
+      <c r="H283" t="inlineStr">
         <is>
           <t>g__Enterococcus</t>
         </is>
       </c>
     </row>
     <row r="284">
-      <c r="A284" s="3" t="inlineStr">
+      <c r="A284" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT91911.fa</t>
         </is>
@@ -8117,14 +8957,17 @@
       <c r="F284" t="n">
         <v>0.1690122600008533</v>
       </c>
-      <c r="G284" t="inlineStr">
+      <c r="G284" t="n">
+        <v>0.2855417895845825</v>
+      </c>
+      <c r="H284" t="inlineStr">
         <is>
           <t>g__Enterococcus</t>
         </is>
       </c>
     </row>
     <row r="285">
-      <c r="A285" s="3" t="inlineStr">
+      <c r="A285" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT91912.fa</t>
         </is>
@@ -8144,14 +8987,17 @@
       <c r="F285" t="n">
         <v>0.1475382654208024</v>
       </c>
-      <c r="G285" t="inlineStr">
+      <c r="G285" t="n">
+        <v>0.3282577413436809</v>
+      </c>
+      <c r="H285" t="inlineStr">
         <is>
           <t>g__Enterococcus</t>
         </is>
       </c>
     </row>
     <row r="286">
-      <c r="A286" s="3" t="inlineStr">
+      <c r="A286" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT91923.fa</t>
         </is>
@@ -8171,14 +9017,17 @@
       <c r="F286" t="n">
         <v>0.1340350322953459</v>
       </c>
-      <c r="G286" t="inlineStr">
+      <c r="G286" t="n">
+        <v>0.3244770211625431</v>
+      </c>
+      <c r="H286" t="inlineStr">
         <is>
           <t>g__Enterococcus</t>
         </is>
       </c>
     </row>
     <row r="287">
-      <c r="A287" s="3" t="inlineStr">
+      <c r="A287" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT91926.fa</t>
         </is>
@@ -8198,14 +9047,17 @@
       <c r="F287" t="n">
         <v>0.2470193033246377</v>
       </c>
-      <c r="G287" t="inlineStr">
+      <c r="G287" t="n">
+        <v>0.3321151010862958</v>
+      </c>
+      <c r="H287" t="inlineStr">
         <is>
           <t>g__Enterococcus</t>
         </is>
       </c>
     </row>
     <row r="288">
-      <c r="A288" s="3" t="inlineStr">
+      <c r="A288" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT91932.fa</t>
         </is>
@@ -8225,14 +9077,17 @@
       <c r="F288" t="n">
         <v>0.14915066351374</v>
       </c>
-      <c r="G288" t="inlineStr">
+      <c r="G288" t="n">
+        <v>0.3517039413856188</v>
+      </c>
+      <c r="H288" t="inlineStr">
         <is>
           <t>g__Enterococcus</t>
         </is>
       </c>
     </row>
     <row r="289">
-      <c r="A289" s="3" t="inlineStr">
+      <c r="A289" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT91941.fa</t>
         </is>
@@ -8252,14 +9107,17 @@
       <c r="F289" t="n">
         <v>0.2094437805929524</v>
       </c>
-      <c r="G289" t="inlineStr">
+      <c r="G289" t="n">
+        <v>0.3586215206807555</v>
+      </c>
+      <c r="H289" t="inlineStr">
         <is>
           <t>g__Enterococcus</t>
         </is>
       </c>
     </row>
     <row r="290">
-      <c r="A290" s="3" t="inlineStr">
+      <c r="A290" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT91943.fa</t>
         </is>
@@ -8279,14 +9137,17 @@
       <c r="F290" t="n">
         <v>0.1066834249697875</v>
       </c>
-      <c r="G290" t="inlineStr">
+      <c r="G290" t="n">
+        <v>0.5247438224390616</v>
+      </c>
+      <c r="H290" t="inlineStr">
         <is>
           <t>g__Enterococcus_A</t>
         </is>
       </c>
     </row>
     <row r="291">
-      <c r="A291" s="3" t="inlineStr">
+      <c r="A291" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT91954.fa</t>
         </is>
@@ -8306,14 +9167,17 @@
       <c r="F291" t="n">
         <v>0.2132398524036092</v>
       </c>
-      <c r="G291" t="inlineStr">
+      <c r="G291" t="n">
+        <v>0.3682830751439161</v>
+      </c>
+      <c r="H291" t="inlineStr">
         <is>
           <t>g__Enterococcus</t>
         </is>
       </c>
     </row>
     <row r="292">
-      <c r="A292" s="3" t="inlineStr">
+      <c r="A292" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT91960.fa</t>
         </is>
@@ -8333,14 +9197,17 @@
       <c r="F292" t="n">
         <v>0.229152660320997</v>
       </c>
-      <c r="G292" t="inlineStr">
+      <c r="G292" t="n">
+        <v>0.2990931979356919</v>
+      </c>
+      <c r="H292" t="inlineStr">
         <is>
           <t>g__Enterococcus_B</t>
         </is>
       </c>
     </row>
     <row r="293">
-      <c r="A293" s="3" t="inlineStr">
+      <c r="A293" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT92006.fa</t>
         </is>
@@ -8360,14 +9227,17 @@
       <c r="F293" t="n">
         <v>0.1044295836445718</v>
       </c>
-      <c r="G293" t="inlineStr">
+      <c r="G293" t="n">
+        <v>0.3169563574801912</v>
+      </c>
+      <c r="H293" t="inlineStr">
         <is>
           <t>g__Enterococcus</t>
         </is>
       </c>
     </row>
     <row r="294">
-      <c r="A294" s="3" t="inlineStr">
+      <c r="A294" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT92066.fa</t>
         </is>
@@ -8387,14 +9257,17 @@
       <c r="F294" t="n">
         <v>0.2190964747046716</v>
       </c>
-      <c r="G294" t="inlineStr">
+      <c r="G294" t="n">
+        <v>0.3647946673515144</v>
+      </c>
+      <c r="H294" t="inlineStr">
         <is>
           <t>g__Enterococcus</t>
         </is>
       </c>
     </row>
     <row r="295">
-      <c r="A295" s="3" t="inlineStr">
+      <c r="A295" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT92111.fa</t>
         </is>
@@ -8414,14 +9287,17 @@
       <c r="F295" t="n">
         <v>0.2120174239264505</v>
       </c>
-      <c r="G295" t="inlineStr">
+      <c r="G295" t="n">
+        <v>0.3570489603420526</v>
+      </c>
+      <c r="H295" t="inlineStr">
         <is>
           <t>g__Enterococcus</t>
         </is>
       </c>
     </row>
     <row r="296">
-      <c r="A296" s="3" t="inlineStr">
+      <c r="A296" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT940.fa</t>
         </is>
@@ -8441,14 +9317,17 @@
       <c r="F296" t="n">
         <v>0.06241069499824551</v>
       </c>
-      <c r="G296" t="inlineStr">
+      <c r="G296" t="n">
+        <v>0.3712374546346814</v>
+      </c>
+      <c r="H296" t="inlineStr">
         <is>
           <t>g__Enterococcus_A</t>
         </is>
       </c>
     </row>
     <row r="297">
-      <c r="A297" s="3" t="inlineStr">
+      <c r="A297" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT945.fa</t>
         </is>
@@ -8468,14 +9347,17 @@
       <c r="F297" t="n">
         <v>0.2985841315446255</v>
       </c>
-      <c r="G297" t="inlineStr">
+      <c r="G297" t="n">
+        <v>0.2985841315446255</v>
+      </c>
+      <c r="H297" t="inlineStr">
         <is>
           <t>g__Enterococcus_D</t>
         </is>
       </c>
     </row>
     <row r="298">
-      <c r="A298" s="3" t="inlineStr">
+      <c r="A298" s="1" t="inlineStr">
         <is>
           <t>even_MAG-GUT984.fa</t>
         </is>
@@ -8495,7 +9377,10 @@
       <c r="F298" t="n">
         <v>0.08702404811487494</v>
       </c>
-      <c r="G298" t="inlineStr">
+      <c r="G298" t="n">
+        <v>0.66520478487612</v>
+      </c>
+      <c r="H298" t="inlineStr">
         <is>
           <t>g__Enterococcus_A</t>
         </is>

--- a/outputs-HGR-r202/f__Enterococcaceae.xlsx
+++ b/outputs-HGR-r202/f__Enterococcaceae.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H298"/>
+  <dimension ref="A1:I298"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -475,6 +475,11 @@
           <t>prediction</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>rejection-f</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -505,6 +510,11 @@
           <t>g__Enterococcus</t>
         </is>
       </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>g__Enterococcus(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -535,6 +545,11 @@
           <t>g__Enterococcus_A</t>
         </is>
       </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>g__Enterococcus_A(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -565,6 +580,11 @@
           <t>g__Enterococcus</t>
         </is>
       </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>g__Enterococcus(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -595,6 +615,11 @@
           <t>g__Enterococcus</t>
         </is>
       </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>g__Enterococcus(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -625,6 +650,11 @@
           <t>g__Enterococcus</t>
         </is>
       </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>g__Enterococcus(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -655,6 +685,11 @@
           <t>g__Enterococcus</t>
         </is>
       </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>g__Enterococcus(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -685,6 +720,11 @@
           <t>g__Enterococcus</t>
         </is>
       </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>g__Enterococcus(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -715,6 +755,11 @@
           <t>g__Enterococcus</t>
         </is>
       </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>g__Enterococcus(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -745,6 +790,11 @@
           <t>g__Enterococcus</t>
         </is>
       </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>g__Enterococcus(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -775,6 +825,11 @@
           <t>g__Enterococcus</t>
         </is>
       </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>g__Enterococcus(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -805,6 +860,11 @@
           <t>g__Enterococcus</t>
         </is>
       </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>g__Enterococcus(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -835,6 +895,11 @@
           <t>g__Enterococcus</t>
         </is>
       </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>g__Enterococcus(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -865,6 +930,11 @@
           <t>g__Enterococcus</t>
         </is>
       </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>g__Enterococcus(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -895,6 +965,11 @@
           <t>g__Enterococcus</t>
         </is>
       </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>g__Enterococcus(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -925,6 +1000,11 @@
           <t>g__Enterococcus</t>
         </is>
       </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>g__Enterococcus(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -955,6 +1035,11 @@
           <t>g__Enterococcus</t>
         </is>
       </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>g__Enterococcus(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -985,6 +1070,11 @@
           <t>g__Enterococcus</t>
         </is>
       </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>g__Enterococcus(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -1015,6 +1105,11 @@
           <t>g__Enterococcus</t>
         </is>
       </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>g__Enterococcus(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -1045,6 +1140,11 @@
           <t>g__Enterococcus</t>
         </is>
       </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>g__Enterococcus(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
@@ -1075,6 +1175,11 @@
           <t>g__Enterococcus_A</t>
         </is>
       </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>g__Enterococcus_A(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
@@ -1105,6 +1210,11 @@
           <t>g__Enterococcus</t>
         </is>
       </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>g__Enterococcus(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
@@ -1135,6 +1245,11 @@
           <t>g__Enterococcus</t>
         </is>
       </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>g__Enterococcus(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
@@ -1165,6 +1280,11 @@
           <t>g__Enterococcus</t>
         </is>
       </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>g__Enterococcus(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
@@ -1195,6 +1315,11 @@
           <t>g__Enterococcus_D</t>
         </is>
       </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>g__Enterococcus_D</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
@@ -1225,6 +1350,11 @@
           <t>g__Enterococcus_D</t>
         </is>
       </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>g__Enterococcus_D</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
@@ -1255,6 +1385,11 @@
           <t>g__Enterococcus_D</t>
         </is>
       </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>g__Enterococcus_D</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
@@ -1285,6 +1420,11 @@
           <t>g__Enterococcus_D</t>
         </is>
       </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>g__Enterococcus_D</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
@@ -1315,6 +1455,11 @@
           <t>g__Enterococcus_B</t>
         </is>
       </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>g__Enterococcus_B</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
@@ -1345,6 +1490,11 @@
           <t>g__Enterococcus</t>
         </is>
       </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>g__Enterococcus(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
@@ -1375,6 +1525,11 @@
           <t>g__Enterococcus_A</t>
         </is>
       </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>g__Enterococcus_A(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
@@ -1405,6 +1560,11 @@
           <t>g__Enterococcus</t>
         </is>
       </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>g__Enterococcus(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
@@ -1435,6 +1595,11 @@
           <t>g__Enterococcus_B</t>
         </is>
       </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>g__Enterococcus_B</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
@@ -1465,6 +1630,11 @@
           <t>g__Enterococcus</t>
         </is>
       </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>g__Enterococcus(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
@@ -1495,6 +1665,11 @@
           <t>g__Enterococcus</t>
         </is>
       </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>g__Enterococcus(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
@@ -1525,6 +1700,11 @@
           <t>g__Enterococcus_B</t>
         </is>
       </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>g__Enterococcus_B</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
@@ -1555,6 +1735,11 @@
           <t>g__Enterococcus_B</t>
         </is>
       </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>g__Enterococcus_B</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
@@ -1585,6 +1770,11 @@
           <t>g__Enterococcus_B</t>
         </is>
       </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>g__Enterococcus_B</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
@@ -1615,6 +1805,11 @@
           <t>g__Enterococcus</t>
         </is>
       </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>g__Enterococcus(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
@@ -1645,6 +1840,11 @@
           <t>g__Enterococcus_B</t>
         </is>
       </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>g__Enterococcus_B</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
@@ -1675,6 +1875,11 @@
           <t>g__Enterococcus</t>
         </is>
       </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>g__Enterococcus(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
@@ -1705,6 +1910,11 @@
           <t>g__Enterococcus_B</t>
         </is>
       </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>g__Enterococcus_B</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
@@ -1735,6 +1945,11 @@
           <t>g__Enterococcus</t>
         </is>
       </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>g__Enterococcus(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
@@ -1765,6 +1980,11 @@
           <t>g__Enterococcus</t>
         </is>
       </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>g__Enterococcus(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
@@ -1795,6 +2015,11 @@
           <t>g__Enterococcus</t>
         </is>
       </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>g__Enterococcus(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
@@ -1825,6 +2050,11 @@
           <t>g__Enterococcus_B</t>
         </is>
       </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>g__Enterococcus_B</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
@@ -1855,6 +2085,11 @@
           <t>g__Enterococcus</t>
         </is>
       </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>g__Enterococcus(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
@@ -1885,6 +2120,11 @@
           <t>g__Enterococcus_B</t>
         </is>
       </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>g__Enterococcus_B</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
@@ -1915,6 +2155,11 @@
           <t>g__Enterococcus</t>
         </is>
       </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>g__Enterococcus(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
@@ -1945,6 +2190,11 @@
           <t>g__Enterococcus</t>
         </is>
       </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>g__Enterococcus(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
@@ -1975,6 +2225,11 @@
           <t>g__Enterococcus_B</t>
         </is>
       </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>g__Enterococcus_B</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
@@ -2005,6 +2260,11 @@
           <t>g__Enterococcus</t>
         </is>
       </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>g__Enterococcus(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
@@ -2035,6 +2295,11 @@
           <t>g__Enterococcus_A</t>
         </is>
       </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>g__Enterococcus_A(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
@@ -2065,6 +2330,11 @@
           <t>g__Enterococcus_A</t>
         </is>
       </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>g__Enterococcus_A(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
@@ -2095,6 +2365,11 @@
           <t>g__Enterococcus</t>
         </is>
       </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>g__Enterococcus(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
@@ -2125,6 +2400,11 @@
           <t>g__Enterococcus</t>
         </is>
       </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>g__Enterococcus(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
@@ -2155,6 +2435,11 @@
           <t>g__Enterococcus</t>
         </is>
       </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>g__Enterococcus(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
@@ -2185,6 +2470,11 @@
           <t>g__Enterococcus</t>
         </is>
       </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>g__Enterococcus(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
@@ -2215,6 +2505,11 @@
           <t>g__Enterococcus</t>
         </is>
       </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>g__Enterococcus(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
@@ -2245,6 +2540,11 @@
           <t>g__Enterococcus</t>
         </is>
       </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>g__Enterococcus(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
@@ -2275,6 +2575,11 @@
           <t>g__Enterococcus</t>
         </is>
       </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>g__Enterococcus(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
@@ -2305,6 +2610,11 @@
           <t>g__Enterococcus</t>
         </is>
       </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>g__Enterococcus(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
@@ -2335,6 +2645,11 @@
           <t>g__Enterococcus</t>
         </is>
       </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>g__Enterococcus(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
@@ -2365,6 +2680,11 @@
           <t>g__Enterococcus</t>
         </is>
       </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>g__Enterococcus(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
@@ -2395,6 +2715,11 @@
           <t>g__Enterococcus</t>
         </is>
       </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>g__Enterococcus(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
@@ -2425,6 +2750,11 @@
           <t>g__Enterococcus</t>
         </is>
       </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>g__Enterococcus(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
@@ -2455,6 +2785,11 @@
           <t>g__Enterococcus</t>
         </is>
       </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>g__Enterococcus(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
@@ -2485,6 +2820,11 @@
           <t>g__Enterococcus</t>
         </is>
       </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>g__Enterococcus(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="inlineStr">
@@ -2515,6 +2855,11 @@
           <t>g__Enterococcus</t>
         </is>
       </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>g__Enterococcus(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="inlineStr">
@@ -2545,6 +2890,11 @@
           <t>g__Enterococcus_A</t>
         </is>
       </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>g__Enterococcus_A(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="inlineStr">
@@ -2575,6 +2925,11 @@
           <t>g__Enterococcus_B</t>
         </is>
       </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>g__Enterococcus_B</t>
+        </is>
+      </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="inlineStr">
@@ -2605,6 +2960,11 @@
           <t>g__Enterococcus_B</t>
         </is>
       </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>g__Enterococcus_B</t>
+        </is>
+      </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="inlineStr">
@@ -2635,6 +2995,11 @@
           <t>g__Enterococcus</t>
         </is>
       </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>g__Enterococcus(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="inlineStr">
@@ -2665,6 +3030,11 @@
           <t>g__Enterococcus</t>
         </is>
       </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>g__Enterococcus(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="inlineStr">
@@ -2695,6 +3065,11 @@
           <t>g__Enterococcus</t>
         </is>
       </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>g__Enterococcus(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="inlineStr">
@@ -2725,6 +3100,11 @@
           <t>g__Enterococcus</t>
         </is>
       </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>g__Enterococcus(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="inlineStr">
@@ -2755,6 +3135,11 @@
           <t>g__Enterococcus_D</t>
         </is>
       </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>g__Enterococcus_D</t>
+        </is>
+      </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="inlineStr">
@@ -2785,6 +3170,11 @@
           <t>g__Enterococcus_D</t>
         </is>
       </c>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>g__Enterococcus_D</t>
+        </is>
+      </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="inlineStr">
@@ -2815,6 +3205,11 @@
           <t>g__Enterococcus_D</t>
         </is>
       </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>g__Enterococcus_D(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="inlineStr">
@@ -2845,6 +3240,11 @@
           <t>g__Enterococcus_D</t>
         </is>
       </c>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>g__Enterococcus_D</t>
+        </is>
+      </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="inlineStr">
@@ -2875,6 +3275,11 @@
           <t>g__Enterococcus_A</t>
         </is>
       </c>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>g__Enterococcus_A(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="inlineStr">
@@ -2905,6 +3310,11 @@
           <t>g__Enterococcus_D</t>
         </is>
       </c>
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>g__Enterococcus_D</t>
+        </is>
+      </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="inlineStr">
@@ -2935,6 +3345,11 @@
           <t>g__Enterococcus</t>
         </is>
       </c>
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>g__Enterococcus(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="inlineStr">
@@ -2965,6 +3380,11 @@
           <t>g__Enterococcus</t>
         </is>
       </c>
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>g__Enterococcus(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="inlineStr">
@@ -2995,6 +3415,11 @@
           <t>g__Enterococcus</t>
         </is>
       </c>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>g__Enterococcus(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="inlineStr">
@@ -3025,6 +3450,11 @@
           <t>g__Enterococcus_A</t>
         </is>
       </c>
+      <c r="I86" t="inlineStr">
+        <is>
+          <t>g__Enterococcus_A(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="inlineStr">
@@ -3055,6 +3485,11 @@
           <t>g__Enterococcus_D</t>
         </is>
       </c>
+      <c r="I87" t="inlineStr">
+        <is>
+          <t>g__Enterococcus_D(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="inlineStr">
@@ -3085,6 +3520,11 @@
           <t>g__Enterococcus</t>
         </is>
       </c>
+      <c r="I88" t="inlineStr">
+        <is>
+          <t>g__Enterococcus(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="inlineStr">
@@ -3115,6 +3555,11 @@
           <t>g__Enterococcus_A</t>
         </is>
       </c>
+      <c r="I89" t="inlineStr">
+        <is>
+          <t>g__Enterococcus_A(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="inlineStr">
@@ -3145,6 +3590,11 @@
           <t>g__Enterococcus_A</t>
         </is>
       </c>
+      <c r="I90" t="inlineStr">
+        <is>
+          <t>g__Enterococcus_A(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="inlineStr">
@@ -3175,6 +3625,11 @@
           <t>g__Enterococcus</t>
         </is>
       </c>
+      <c r="I91" t="inlineStr">
+        <is>
+          <t>g__Enterococcus(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="inlineStr">
@@ -3205,6 +3660,11 @@
           <t>g__Enterococcus</t>
         </is>
       </c>
+      <c r="I92" t="inlineStr">
+        <is>
+          <t>g__Enterococcus(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="inlineStr">
@@ -3235,6 +3695,11 @@
           <t>g__Enterococcus</t>
         </is>
       </c>
+      <c r="I93" t="inlineStr">
+        <is>
+          <t>g__Enterococcus(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="inlineStr">
@@ -3265,6 +3730,11 @@
           <t>g__Enterococcus</t>
         </is>
       </c>
+      <c r="I94" t="inlineStr">
+        <is>
+          <t>g__Enterococcus(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="inlineStr">
@@ -3295,6 +3765,11 @@
           <t>g__Enterococcus</t>
         </is>
       </c>
+      <c r="I95" t="inlineStr">
+        <is>
+          <t>g__Enterococcus(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="inlineStr">
@@ -3325,6 +3800,11 @@
           <t>g__Enterococcus_B</t>
         </is>
       </c>
+      <c r="I96" t="inlineStr">
+        <is>
+          <t>g__Enterococcus_B</t>
+        </is>
+      </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="inlineStr">
@@ -3355,6 +3835,11 @@
           <t>g__Enterococcus_B</t>
         </is>
       </c>
+      <c r="I97" t="inlineStr">
+        <is>
+          <t>g__Enterococcus_B(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="inlineStr">
@@ -3385,6 +3870,11 @@
           <t>g__Enterococcus</t>
         </is>
       </c>
+      <c r="I98" t="inlineStr">
+        <is>
+          <t>g__Enterococcus(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="inlineStr">
@@ -3415,6 +3905,11 @@
           <t>g__Enterococcus</t>
         </is>
       </c>
+      <c r="I99" t="inlineStr">
+        <is>
+          <t>g__Enterococcus(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="inlineStr">
@@ -3445,6 +3940,11 @@
           <t>g__Enterococcus</t>
         </is>
       </c>
+      <c r="I100" t="inlineStr">
+        <is>
+          <t>g__Enterococcus(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="inlineStr">
@@ -3475,6 +3975,11 @@
           <t>g__Enterococcus_B</t>
         </is>
       </c>
+      <c r="I101" t="inlineStr">
+        <is>
+          <t>g__Enterococcus_B</t>
+        </is>
+      </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="inlineStr">
@@ -3505,6 +4010,11 @@
           <t>g__Enterococcus_B</t>
         </is>
       </c>
+      <c r="I102" t="inlineStr">
+        <is>
+          <t>g__Enterococcus_B(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="inlineStr">
@@ -3535,6 +4045,11 @@
           <t>g__Enterococcus</t>
         </is>
       </c>
+      <c r="I103" t="inlineStr">
+        <is>
+          <t>g__Enterococcus(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="inlineStr">
@@ -3565,6 +4080,11 @@
           <t>g__Enterococcus_A</t>
         </is>
       </c>
+      <c r="I104" t="inlineStr">
+        <is>
+          <t>g__Enterococcus_A(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="inlineStr">
@@ -3595,6 +4115,11 @@
           <t>g__Enterococcus</t>
         </is>
       </c>
+      <c r="I105" t="inlineStr">
+        <is>
+          <t>g__Enterococcus(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="inlineStr">
@@ -3625,6 +4150,11 @@
           <t>g__Enterococcus_A</t>
         </is>
       </c>
+      <c r="I106" t="inlineStr">
+        <is>
+          <t>g__Enterococcus_A(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="inlineStr">
@@ -3655,6 +4185,11 @@
           <t>g__Enterococcus_A</t>
         </is>
       </c>
+      <c r="I107" t="inlineStr">
+        <is>
+          <t>g__Enterococcus_A(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="inlineStr">
@@ -3685,6 +4220,11 @@
           <t>g__Enterococcus_B</t>
         </is>
       </c>
+      <c r="I108" t="inlineStr">
+        <is>
+          <t>g__Enterococcus_B(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="inlineStr">
@@ -3715,6 +4255,11 @@
           <t>g__Enterococcus</t>
         </is>
       </c>
+      <c r="I109" t="inlineStr">
+        <is>
+          <t>g__Enterococcus(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="inlineStr">
@@ -3745,6 +4290,11 @@
           <t>g__Enterococcus</t>
         </is>
       </c>
+      <c r="I110" t="inlineStr">
+        <is>
+          <t>g__Enterococcus(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="inlineStr">
@@ -3775,6 +4325,11 @@
           <t>g__Enterococcus</t>
         </is>
       </c>
+      <c r="I111" t="inlineStr">
+        <is>
+          <t>g__Enterococcus(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="inlineStr">
@@ -3805,6 +4360,11 @@
           <t>g__Enterococcus</t>
         </is>
       </c>
+      <c r="I112" t="inlineStr">
+        <is>
+          <t>g__Enterococcus(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="inlineStr">
@@ -3835,6 +4395,11 @@
           <t>g__Enterococcus_B</t>
         </is>
       </c>
+      <c r="I113" t="inlineStr">
+        <is>
+          <t>g__Enterococcus_B</t>
+        </is>
+      </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="inlineStr">
@@ -3865,6 +4430,11 @@
           <t>g__Enterococcus_A</t>
         </is>
       </c>
+      <c r="I114" t="inlineStr">
+        <is>
+          <t>g__Enterococcus_A(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="inlineStr">
@@ -3895,6 +4465,11 @@
           <t>g__Enterococcus_B</t>
         </is>
       </c>
+      <c r="I115" t="inlineStr">
+        <is>
+          <t>g__Enterococcus_B</t>
+        </is>
+      </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="inlineStr">
@@ -3925,6 +4500,11 @@
           <t>g__Enterococcus_A</t>
         </is>
       </c>
+      <c r="I116" t="inlineStr">
+        <is>
+          <t>g__Enterococcus_A(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="inlineStr">
@@ -3955,6 +4535,11 @@
           <t>g__Enterococcus_A</t>
         </is>
       </c>
+      <c r="I117" t="inlineStr">
+        <is>
+          <t>g__Enterococcus_A(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="inlineStr">
@@ -3985,6 +4570,11 @@
           <t>g__Enterococcus_A</t>
         </is>
       </c>
+      <c r="I118" t="inlineStr">
+        <is>
+          <t>g__Enterococcus_A(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="inlineStr">
@@ -4015,6 +4605,11 @@
           <t>g__Enterococcus_A</t>
         </is>
       </c>
+      <c r="I119" t="inlineStr">
+        <is>
+          <t>g__Enterococcus_A(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="inlineStr">
@@ -4045,6 +4640,11 @@
           <t>g__Enterococcus</t>
         </is>
       </c>
+      <c r="I120" t="inlineStr">
+        <is>
+          <t>g__Enterococcus(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="inlineStr">
@@ -4075,6 +4675,11 @@
           <t>g__Enterococcus_A</t>
         </is>
       </c>
+      <c r="I121" t="inlineStr">
+        <is>
+          <t>g__Enterococcus_A</t>
+        </is>
+      </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="inlineStr">
@@ -4105,6 +4710,11 @@
           <t>g__Enterococcus_A</t>
         </is>
       </c>
+      <c r="I122" t="inlineStr">
+        <is>
+          <t>g__Enterococcus_A(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="inlineStr">
@@ -4135,6 +4745,11 @@
           <t>g__Enterococcus</t>
         </is>
       </c>
+      <c r="I123" t="inlineStr">
+        <is>
+          <t>g__Enterococcus(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="inlineStr">
@@ -4165,6 +4780,11 @@
           <t>g__Enterococcus_B</t>
         </is>
       </c>
+      <c r="I124" t="inlineStr">
+        <is>
+          <t>g__Enterococcus_B(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="125">
       <c r="A125" s="1" t="inlineStr">
@@ -4195,6 +4815,11 @@
           <t>g__Enterococcus</t>
         </is>
       </c>
+      <c r="I125" t="inlineStr">
+        <is>
+          <t>g__Enterococcus</t>
+        </is>
+      </c>
     </row>
     <row r="126">
       <c r="A126" s="1" t="inlineStr">
@@ -4225,6 +4850,11 @@
           <t>g__Enterococcus_B</t>
         </is>
       </c>
+      <c r="I126" t="inlineStr">
+        <is>
+          <t>g__Enterococcus_B</t>
+        </is>
+      </c>
     </row>
     <row r="127">
       <c r="A127" s="1" t="inlineStr">
@@ -4255,6 +4885,11 @@
           <t>g__Enterococcus_A</t>
         </is>
       </c>
+      <c r="I127" t="inlineStr">
+        <is>
+          <t>g__Enterococcus_A(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="128">
       <c r="A128" s="1" t="inlineStr">
@@ -4285,6 +4920,11 @@
           <t>g__Enterococcus</t>
         </is>
       </c>
+      <c r="I128" t="inlineStr">
+        <is>
+          <t>g__Enterococcus(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="129">
       <c r="A129" s="1" t="inlineStr">
@@ -4315,6 +4955,11 @@
           <t>g__Enterococcus</t>
         </is>
       </c>
+      <c r="I129" t="inlineStr">
+        <is>
+          <t>g__Enterococcus(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="130">
       <c r="A130" s="1" t="inlineStr">
@@ -4345,6 +4990,11 @@
           <t>g__Enterococcus</t>
         </is>
       </c>
+      <c r="I130" t="inlineStr">
+        <is>
+          <t>g__Enterococcus(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="131">
       <c r="A131" s="1" t="inlineStr">
@@ -4375,6 +5025,11 @@
           <t>g__Enterococcus_B</t>
         </is>
       </c>
+      <c r="I131" t="inlineStr">
+        <is>
+          <t>g__Enterococcus_B</t>
+        </is>
+      </c>
     </row>
     <row r="132">
       <c r="A132" s="1" t="inlineStr">
@@ -4405,6 +5060,11 @@
           <t>g__Enterococcus</t>
         </is>
       </c>
+      <c r="I132" t="inlineStr">
+        <is>
+          <t>g__Enterococcus(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="133">
       <c r="A133" s="1" t="inlineStr">
@@ -4435,6 +5095,11 @@
           <t>g__Enterococcus</t>
         </is>
       </c>
+      <c r="I133" t="inlineStr">
+        <is>
+          <t>g__Enterococcus(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="134">
       <c r="A134" s="1" t="inlineStr">
@@ -4465,6 +5130,11 @@
           <t>g__Enterococcus_B</t>
         </is>
       </c>
+      <c r="I134" t="inlineStr">
+        <is>
+          <t>g__Enterococcus_B(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="135">
       <c r="A135" s="1" t="inlineStr">
@@ -4495,6 +5165,11 @@
           <t>g__Enterococcus_A</t>
         </is>
       </c>
+      <c r="I135" t="inlineStr">
+        <is>
+          <t>g__Enterococcus_A(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="136">
       <c r="A136" s="1" t="inlineStr">
@@ -4525,6 +5200,11 @@
           <t>g__Enterococcus_A</t>
         </is>
       </c>
+      <c r="I136" t="inlineStr">
+        <is>
+          <t>g__Enterococcus_A(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="137">
       <c r="A137" s="1" t="inlineStr">
@@ -4555,6 +5235,11 @@
           <t>g__Enterococcus</t>
         </is>
       </c>
+      <c r="I137" t="inlineStr">
+        <is>
+          <t>g__Enterococcus(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="138">
       <c r="A138" s="1" t="inlineStr">
@@ -4585,6 +5270,11 @@
           <t>g__Enterococcus</t>
         </is>
       </c>
+      <c r="I138" t="inlineStr">
+        <is>
+          <t>g__Enterococcus(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="139">
       <c r="A139" s="1" t="inlineStr">
@@ -4615,6 +5305,11 @@
           <t>g__Enterococcus</t>
         </is>
       </c>
+      <c r="I139" t="inlineStr">
+        <is>
+          <t>g__Enterococcus(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="140">
       <c r="A140" s="1" t="inlineStr">
@@ -4645,6 +5340,11 @@
           <t>g__Enterococcus</t>
         </is>
       </c>
+      <c r="I140" t="inlineStr">
+        <is>
+          <t>g__Enterococcus(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="141">
       <c r="A141" s="1" t="inlineStr">
@@ -4675,6 +5375,11 @@
           <t>g__Enterococcus_A</t>
         </is>
       </c>
+      <c r="I141" t="inlineStr">
+        <is>
+          <t>g__Enterococcus_A(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="142">
       <c r="A142" s="1" t="inlineStr">
@@ -4705,6 +5410,11 @@
           <t>g__Enterococcus</t>
         </is>
       </c>
+      <c r="I142" t="inlineStr">
+        <is>
+          <t>g__Enterococcus(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="143">
       <c r="A143" s="1" t="inlineStr">
@@ -4735,6 +5445,11 @@
           <t>g__Enterococcus_A</t>
         </is>
       </c>
+      <c r="I143" t="inlineStr">
+        <is>
+          <t>g__Enterococcus_A(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="144">
       <c r="A144" s="1" t="inlineStr">
@@ -4765,6 +5480,11 @@
           <t>g__Enterococcus_A</t>
         </is>
       </c>
+      <c r="I144" t="inlineStr">
+        <is>
+          <t>g__Enterococcus_A(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="145">
       <c r="A145" s="1" t="inlineStr">
@@ -4795,6 +5515,11 @@
           <t>g__Enterococcus</t>
         </is>
       </c>
+      <c r="I145" t="inlineStr">
+        <is>
+          <t>g__Enterococcus(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="146">
       <c r="A146" s="1" t="inlineStr">
@@ -4825,6 +5550,11 @@
           <t>g__Enterococcus</t>
         </is>
       </c>
+      <c r="I146" t="inlineStr">
+        <is>
+          <t>g__Enterococcus(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="147">
       <c r="A147" s="1" t="inlineStr">
@@ -4855,6 +5585,11 @@
           <t>g__Enterococcus_B</t>
         </is>
       </c>
+      <c r="I147" t="inlineStr">
+        <is>
+          <t>g__Enterococcus_B(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="148">
       <c r="A148" s="1" t="inlineStr">
@@ -4885,6 +5620,11 @@
           <t>g__Enterococcus</t>
         </is>
       </c>
+      <c r="I148" t="inlineStr">
+        <is>
+          <t>g__Enterococcus(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="149">
       <c r="A149" s="1" t="inlineStr">
@@ -4915,6 +5655,11 @@
           <t>g__Enterococcus</t>
         </is>
       </c>
+      <c r="I149" t="inlineStr">
+        <is>
+          <t>g__Enterococcus(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="150">
       <c r="A150" s="1" t="inlineStr">
@@ -4945,6 +5690,11 @@
           <t>g__Enterococcus_A</t>
         </is>
       </c>
+      <c r="I150" t="inlineStr">
+        <is>
+          <t>g__Enterococcus_A(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="151">
       <c r="A151" s="1" t="inlineStr">
@@ -4975,6 +5725,11 @@
           <t>g__Enterococcus</t>
         </is>
       </c>
+      <c r="I151" t="inlineStr">
+        <is>
+          <t>g__Enterococcus(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="152">
       <c r="A152" s="1" t="inlineStr">
@@ -5005,6 +5760,11 @@
           <t>g__Enterococcus_A</t>
         </is>
       </c>
+      <c r="I152" t="inlineStr">
+        <is>
+          <t>g__Enterococcus_A(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="153">
       <c r="A153" s="1" t="inlineStr">
@@ -5035,6 +5795,11 @@
           <t>g__Enterococcus</t>
         </is>
       </c>
+      <c r="I153" t="inlineStr">
+        <is>
+          <t>g__Enterococcus(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="154">
       <c r="A154" s="1" t="inlineStr">
@@ -5065,6 +5830,11 @@
           <t>g__Enterococcus_B</t>
         </is>
       </c>
+      <c r="I154" t="inlineStr">
+        <is>
+          <t>g__Enterococcus_B</t>
+        </is>
+      </c>
     </row>
     <row r="155">
       <c r="A155" s="1" t="inlineStr">
@@ -5095,6 +5865,11 @@
           <t>g__Enterococcus_A</t>
         </is>
       </c>
+      <c r="I155" t="inlineStr">
+        <is>
+          <t>g__Enterococcus_A(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="156">
       <c r="A156" s="1" t="inlineStr">
@@ -5125,6 +5900,11 @@
           <t>g__Enterococcus</t>
         </is>
       </c>
+      <c r="I156" t="inlineStr">
+        <is>
+          <t>g__Enterococcus(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="157">
       <c r="A157" s="1" t="inlineStr">
@@ -5155,6 +5935,11 @@
           <t>g__Enterococcus_A</t>
         </is>
       </c>
+      <c r="I157" t="inlineStr">
+        <is>
+          <t>g__Enterococcus_A(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="158">
       <c r="A158" s="1" t="inlineStr">
@@ -5185,6 +5970,11 @@
           <t>g__Enterococcus</t>
         </is>
       </c>
+      <c r="I158" t="inlineStr">
+        <is>
+          <t>g__Enterococcus(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="159">
       <c r="A159" s="1" t="inlineStr">
@@ -5215,6 +6005,11 @@
           <t>g__Enterococcus_A</t>
         </is>
       </c>
+      <c r="I159" t="inlineStr">
+        <is>
+          <t>g__Enterococcus_A(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="160">
       <c r="A160" s="1" t="inlineStr">
@@ -5245,6 +6040,11 @@
           <t>g__Enterococcus</t>
         </is>
       </c>
+      <c r="I160" t="inlineStr">
+        <is>
+          <t>g__Enterococcus(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="161">
       <c r="A161" s="1" t="inlineStr">
@@ -5275,6 +6075,11 @@
           <t>g__Enterococcus_A</t>
         </is>
       </c>
+      <c r="I161" t="inlineStr">
+        <is>
+          <t>g__Enterococcus_A(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="162">
       <c r="A162" s="1" t="inlineStr">
@@ -5305,6 +6110,11 @@
           <t>g__Enterococcus_A</t>
         </is>
       </c>
+      <c r="I162" t="inlineStr">
+        <is>
+          <t>g__Enterococcus_A(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="163">
       <c r="A163" s="1" t="inlineStr">
@@ -5335,6 +6145,11 @@
           <t>g__Enterococcus</t>
         </is>
       </c>
+      <c r="I163" t="inlineStr">
+        <is>
+          <t>g__Enterococcus(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="164">
       <c r="A164" s="1" t="inlineStr">
@@ -5365,6 +6180,11 @@
           <t>g__Enterococcus</t>
         </is>
       </c>
+      <c r="I164" t="inlineStr">
+        <is>
+          <t>g__Enterococcus(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="165">
       <c r="A165" s="1" t="inlineStr">
@@ -5395,6 +6215,11 @@
           <t>g__Enterococcus</t>
         </is>
       </c>
+      <c r="I165" t="inlineStr">
+        <is>
+          <t>g__Enterococcus(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="166">
       <c r="A166" s="1" t="inlineStr">
@@ -5425,6 +6250,11 @@
           <t>g__Enterococcus</t>
         </is>
       </c>
+      <c r="I166" t="inlineStr">
+        <is>
+          <t>g__Enterococcus(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="167">
       <c r="A167" s="1" t="inlineStr">
@@ -5455,6 +6285,11 @@
           <t>g__Enterococcus_B</t>
         </is>
       </c>
+      <c r="I167" t="inlineStr">
+        <is>
+          <t>g__Enterococcus_B</t>
+        </is>
+      </c>
     </row>
     <row r="168">
       <c r="A168" s="1" t="inlineStr">
@@ -5485,6 +6320,11 @@
           <t>g__Enterococcus_A</t>
         </is>
       </c>
+      <c r="I168" t="inlineStr">
+        <is>
+          <t>g__Enterococcus_A(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="169">
       <c r="A169" s="1" t="inlineStr">
@@ -5515,6 +6355,11 @@
           <t>g__Enterococcus_A</t>
         </is>
       </c>
+      <c r="I169" t="inlineStr">
+        <is>
+          <t>g__Enterococcus_A(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="170">
       <c r="A170" s="1" t="inlineStr">
@@ -5545,6 +6390,11 @@
           <t>g__Enterococcus_A</t>
         </is>
       </c>
+      <c r="I170" t="inlineStr">
+        <is>
+          <t>g__Enterococcus_A(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="171">
       <c r="A171" s="1" t="inlineStr">
@@ -5575,6 +6425,11 @@
           <t>g__Enterococcus</t>
         </is>
       </c>
+      <c r="I171" t="inlineStr">
+        <is>
+          <t>g__Enterococcus(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="172">
       <c r="A172" s="1" t="inlineStr">
@@ -5605,6 +6460,11 @@
           <t>g__Enterococcus_A</t>
         </is>
       </c>
+      <c r="I172" t="inlineStr">
+        <is>
+          <t>g__Enterococcus_A(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="173">
       <c r="A173" s="1" t="inlineStr">
@@ -5635,6 +6495,11 @@
           <t>g__Enterococcus_B</t>
         </is>
       </c>
+      <c r="I173" t="inlineStr">
+        <is>
+          <t>g__Enterococcus_B</t>
+        </is>
+      </c>
     </row>
     <row r="174">
       <c r="A174" s="1" t="inlineStr">
@@ -5665,6 +6530,11 @@
           <t>g__Enterococcus_A</t>
         </is>
       </c>
+      <c r="I174" t="inlineStr">
+        <is>
+          <t>g__Enterococcus_A(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="175">
       <c r="A175" s="1" t="inlineStr">
@@ -5695,6 +6565,11 @@
           <t>g__Enterococcus_A</t>
         </is>
       </c>
+      <c r="I175" t="inlineStr">
+        <is>
+          <t>g__Enterococcus_A(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="176">
       <c r="A176" s="1" t="inlineStr">
@@ -5725,6 +6600,11 @@
           <t>g__Enterococcus_A</t>
         </is>
       </c>
+      <c r="I176" t="inlineStr">
+        <is>
+          <t>g__Enterococcus_A(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="177">
       <c r="A177" s="1" t="inlineStr">
@@ -5755,6 +6635,11 @@
           <t>g__Enterococcus</t>
         </is>
       </c>
+      <c r="I177" t="inlineStr">
+        <is>
+          <t>g__Enterococcus(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="178">
       <c r="A178" s="1" t="inlineStr">
@@ -5785,6 +6670,11 @@
           <t>g__Enterococcus</t>
         </is>
       </c>
+      <c r="I178" t="inlineStr">
+        <is>
+          <t>g__Enterococcus(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="179">
       <c r="A179" s="1" t="inlineStr">
@@ -5815,6 +6705,11 @@
           <t>g__Enterococcus</t>
         </is>
       </c>
+      <c r="I179" t="inlineStr">
+        <is>
+          <t>g__Enterococcus(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="180">
       <c r="A180" s="1" t="inlineStr">
@@ -5845,6 +6740,11 @@
           <t>g__Enterococcus</t>
         </is>
       </c>
+      <c r="I180" t="inlineStr">
+        <is>
+          <t>g__Enterococcus(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="181">
       <c r="A181" s="1" t="inlineStr">
@@ -5875,6 +6775,11 @@
           <t>g__Enterococcus</t>
         </is>
       </c>
+      <c r="I181" t="inlineStr">
+        <is>
+          <t>g__Enterococcus(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="182">
       <c r="A182" s="1" t="inlineStr">
@@ -5905,6 +6810,11 @@
           <t>g__Enterococcus</t>
         </is>
       </c>
+      <c r="I182" t="inlineStr">
+        <is>
+          <t>g__Enterococcus(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="183">
       <c r="A183" s="1" t="inlineStr">
@@ -5935,6 +6845,11 @@
           <t>g__Enterococcus</t>
         </is>
       </c>
+      <c r="I183" t="inlineStr">
+        <is>
+          <t>g__Enterococcus(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="184">
       <c r="A184" s="1" t="inlineStr">
@@ -5965,6 +6880,11 @@
           <t>g__Enterococcus_D</t>
         </is>
       </c>
+      <c r="I184" t="inlineStr">
+        <is>
+          <t>g__Enterococcus_D</t>
+        </is>
+      </c>
     </row>
     <row r="185">
       <c r="A185" s="1" t="inlineStr">
@@ -5995,6 +6915,11 @@
           <t>g__Enterococcus_B</t>
         </is>
       </c>
+      <c r="I185" t="inlineStr">
+        <is>
+          <t>g__Enterococcus_B</t>
+        </is>
+      </c>
     </row>
     <row r="186">
       <c r="A186" s="1" t="inlineStr">
@@ -6025,6 +6950,11 @@
           <t>g__Enterococcus_A</t>
         </is>
       </c>
+      <c r="I186" t="inlineStr">
+        <is>
+          <t>g__Enterococcus_A(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="187">
       <c r="A187" s="1" t="inlineStr">
@@ -6055,6 +6985,11 @@
           <t>g__Enterococcus_B</t>
         </is>
       </c>
+      <c r="I187" t="inlineStr">
+        <is>
+          <t>g__Enterococcus_B</t>
+        </is>
+      </c>
     </row>
     <row r="188">
       <c r="A188" s="1" t="inlineStr">
@@ -6085,6 +7020,11 @@
           <t>g__Enterococcus_A</t>
         </is>
       </c>
+      <c r="I188" t="inlineStr">
+        <is>
+          <t>g__Enterococcus_A(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="189">
       <c r="A189" s="1" t="inlineStr">
@@ -6115,6 +7055,11 @@
           <t>g__Enterococcus_B</t>
         </is>
       </c>
+      <c r="I189" t="inlineStr">
+        <is>
+          <t>g__Enterococcus_B</t>
+        </is>
+      </c>
     </row>
     <row r="190">
       <c r="A190" s="1" t="inlineStr">
@@ -6145,6 +7090,11 @@
           <t>g__Enterococcus</t>
         </is>
       </c>
+      <c r="I190" t="inlineStr">
+        <is>
+          <t>g__Enterococcus(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="191">
       <c r="A191" s="1" t="inlineStr">
@@ -6175,6 +7125,11 @@
           <t>g__Enterococcus</t>
         </is>
       </c>
+      <c r="I191" t="inlineStr">
+        <is>
+          <t>g__Enterococcus(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="192">
       <c r="A192" s="1" t="inlineStr">
@@ -6205,6 +7160,11 @@
           <t>g__Enterococcus_B</t>
         </is>
       </c>
+      <c r="I192" t="inlineStr">
+        <is>
+          <t>g__Enterococcus_B</t>
+        </is>
+      </c>
     </row>
     <row r="193">
       <c r="A193" s="1" t="inlineStr">
@@ -6235,6 +7195,11 @@
           <t>g__Enterococcus</t>
         </is>
       </c>
+      <c r="I193" t="inlineStr">
+        <is>
+          <t>g__Enterococcus(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="194">
       <c r="A194" s="1" t="inlineStr">
@@ -6265,6 +7230,11 @@
           <t>g__Enterococcus</t>
         </is>
       </c>
+      <c r="I194" t="inlineStr">
+        <is>
+          <t>g__Enterococcus(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="195">
       <c r="A195" s="1" t="inlineStr">
@@ -6295,6 +7265,11 @@
           <t>g__Enterococcus</t>
         </is>
       </c>
+      <c r="I195" t="inlineStr">
+        <is>
+          <t>g__Enterococcus(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="196">
       <c r="A196" s="1" t="inlineStr">
@@ -6325,6 +7300,11 @@
           <t>g__Enterococcus_A</t>
         </is>
       </c>
+      <c r="I196" t="inlineStr">
+        <is>
+          <t>g__Enterococcus_A(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="197">
       <c r="A197" s="1" t="inlineStr">
@@ -6355,6 +7335,11 @@
           <t>g__Enterococcus_A</t>
         </is>
       </c>
+      <c r="I197" t="inlineStr">
+        <is>
+          <t>g__Enterococcus_A(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="198">
       <c r="A198" s="1" t="inlineStr">
@@ -6385,6 +7370,11 @@
           <t>g__Enterococcus_B</t>
         </is>
       </c>
+      <c r="I198" t="inlineStr">
+        <is>
+          <t>g__Enterococcus_B(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="199">
       <c r="A199" s="1" t="inlineStr">
@@ -6415,6 +7405,11 @@
           <t>g__Enterococcus</t>
         </is>
       </c>
+      <c r="I199" t="inlineStr">
+        <is>
+          <t>g__Enterococcus(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="200">
       <c r="A200" s="1" t="inlineStr">
@@ -6445,6 +7440,11 @@
           <t>g__Enterococcus_A</t>
         </is>
       </c>
+      <c r="I200" t="inlineStr">
+        <is>
+          <t>g__Enterococcus_A(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="201">
       <c r="A201" s="1" t="inlineStr">
@@ -6475,6 +7475,11 @@
           <t>g__Enterococcus</t>
         </is>
       </c>
+      <c r="I201" t="inlineStr">
+        <is>
+          <t>g__Enterococcus(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="202">
       <c r="A202" s="1" t="inlineStr">
@@ -6505,6 +7510,11 @@
           <t>g__Enterococcus</t>
         </is>
       </c>
+      <c r="I202" t="inlineStr">
+        <is>
+          <t>g__Enterococcus(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="203">
       <c r="A203" s="1" t="inlineStr">
@@ -6535,6 +7545,11 @@
           <t>g__Enterococcus</t>
         </is>
       </c>
+      <c r="I203" t="inlineStr">
+        <is>
+          <t>g__Enterococcus(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="204">
       <c r="A204" s="1" t="inlineStr">
@@ -6565,6 +7580,11 @@
           <t>g__Enterococcus</t>
         </is>
       </c>
+      <c r="I204" t="inlineStr">
+        <is>
+          <t>g__Enterococcus(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="205">
       <c r="A205" s="1" t="inlineStr">
@@ -6595,6 +7615,11 @@
           <t>g__Enterococcus_B</t>
         </is>
       </c>
+      <c r="I205" t="inlineStr">
+        <is>
+          <t>g__Enterococcus_B</t>
+        </is>
+      </c>
     </row>
     <row r="206">
       <c r="A206" s="1" t="inlineStr">
@@ -6625,6 +7650,11 @@
           <t>g__Enterococcus_B</t>
         </is>
       </c>
+      <c r="I206" t="inlineStr">
+        <is>
+          <t>g__Enterococcus_B</t>
+        </is>
+      </c>
     </row>
     <row r="207">
       <c r="A207" s="1" t="inlineStr">
@@ -6655,6 +7685,11 @@
           <t>g__Enterococcus_B</t>
         </is>
       </c>
+      <c r="I207" t="inlineStr">
+        <is>
+          <t>g__Enterococcus_B</t>
+        </is>
+      </c>
     </row>
     <row r="208">
       <c r="A208" s="1" t="inlineStr">
@@ -6685,6 +7720,11 @@
           <t>g__Enterococcus_B</t>
         </is>
       </c>
+      <c r="I208" t="inlineStr">
+        <is>
+          <t>g__Enterococcus_B</t>
+        </is>
+      </c>
     </row>
     <row r="209">
       <c r="A209" s="1" t="inlineStr">
@@ -6715,6 +7755,11 @@
           <t>g__Enterococcus_B</t>
         </is>
       </c>
+      <c r="I209" t="inlineStr">
+        <is>
+          <t>g__Enterococcus_B</t>
+        </is>
+      </c>
     </row>
     <row r="210">
       <c r="A210" s="1" t="inlineStr">
@@ -6745,6 +7790,11 @@
           <t>g__Enterococcus_B</t>
         </is>
       </c>
+      <c r="I210" t="inlineStr">
+        <is>
+          <t>g__Enterococcus_B</t>
+        </is>
+      </c>
     </row>
     <row r="211">
       <c r="A211" s="1" t="inlineStr">
@@ -6775,6 +7825,11 @@
           <t>g__Enterococcus_B</t>
         </is>
       </c>
+      <c r="I211" t="inlineStr">
+        <is>
+          <t>g__Enterococcus_B</t>
+        </is>
+      </c>
     </row>
     <row r="212">
       <c r="A212" s="1" t="inlineStr">
@@ -6805,6 +7860,11 @@
           <t>g__Enterococcus_B</t>
         </is>
       </c>
+      <c r="I212" t="inlineStr">
+        <is>
+          <t>g__Enterococcus_B</t>
+        </is>
+      </c>
     </row>
     <row r="213">
       <c r="A213" s="1" t="inlineStr">
@@ -6835,6 +7895,11 @@
           <t>g__Enterococcus_B</t>
         </is>
       </c>
+      <c r="I213" t="inlineStr">
+        <is>
+          <t>g__Enterococcus_B</t>
+        </is>
+      </c>
     </row>
     <row r="214">
       <c r="A214" s="1" t="inlineStr">
@@ -6865,6 +7930,11 @@
           <t>g__Enterococcus_B</t>
         </is>
       </c>
+      <c r="I214" t="inlineStr">
+        <is>
+          <t>g__Enterococcus_B</t>
+        </is>
+      </c>
     </row>
     <row r="215">
       <c r="A215" s="1" t="inlineStr">
@@ -6895,6 +7965,11 @@
           <t>g__Enterococcus_B</t>
         </is>
       </c>
+      <c r="I215" t="inlineStr">
+        <is>
+          <t>g__Enterococcus_B</t>
+        </is>
+      </c>
     </row>
     <row r="216">
       <c r="A216" s="1" t="inlineStr">
@@ -6925,6 +8000,11 @@
           <t>g__Enterococcus_B</t>
         </is>
       </c>
+      <c r="I216" t="inlineStr">
+        <is>
+          <t>g__Enterococcus_B</t>
+        </is>
+      </c>
     </row>
     <row r="217">
       <c r="A217" s="1" t="inlineStr">
@@ -6955,6 +8035,11 @@
           <t>g__Enterococcus_B</t>
         </is>
       </c>
+      <c r="I217" t="inlineStr">
+        <is>
+          <t>g__Enterococcus_B</t>
+        </is>
+      </c>
     </row>
     <row r="218">
       <c r="A218" s="1" t="inlineStr">
@@ -6985,6 +8070,11 @@
           <t>g__Enterococcus_B</t>
         </is>
       </c>
+      <c r="I218" t="inlineStr">
+        <is>
+          <t>g__Enterococcus_B</t>
+        </is>
+      </c>
     </row>
     <row r="219">
       <c r="A219" s="1" t="inlineStr">
@@ -7015,6 +8105,11 @@
           <t>g__Enterococcus_B</t>
         </is>
       </c>
+      <c r="I219" t="inlineStr">
+        <is>
+          <t>g__Enterococcus_B</t>
+        </is>
+      </c>
     </row>
     <row r="220">
       <c r="A220" s="1" t="inlineStr">
@@ -7045,6 +8140,11 @@
           <t>g__Enterococcus_B</t>
         </is>
       </c>
+      <c r="I220" t="inlineStr">
+        <is>
+          <t>g__Enterococcus_B</t>
+        </is>
+      </c>
     </row>
     <row r="221">
       <c r="A221" s="1" t="inlineStr">
@@ -7075,6 +8175,11 @@
           <t>g__Enterococcus_B</t>
         </is>
       </c>
+      <c r="I221" t="inlineStr">
+        <is>
+          <t>g__Enterococcus_B</t>
+        </is>
+      </c>
     </row>
     <row r="222">
       <c r="A222" s="1" t="inlineStr">
@@ -7105,6 +8210,11 @@
           <t>g__Enterococcus_B</t>
         </is>
       </c>
+      <c r="I222" t="inlineStr">
+        <is>
+          <t>g__Enterococcus_B</t>
+        </is>
+      </c>
     </row>
     <row r="223">
       <c r="A223" s="1" t="inlineStr">
@@ -7135,6 +8245,11 @@
           <t>g__Enterococcus_B</t>
         </is>
       </c>
+      <c r="I223" t="inlineStr">
+        <is>
+          <t>g__Enterococcus_B</t>
+        </is>
+      </c>
     </row>
     <row r="224">
       <c r="A224" s="1" t="inlineStr">
@@ -7165,6 +8280,11 @@
           <t>g__Enterococcus_B</t>
         </is>
       </c>
+      <c r="I224" t="inlineStr">
+        <is>
+          <t>g__Enterococcus_B</t>
+        </is>
+      </c>
     </row>
     <row r="225">
       <c r="A225" s="1" t="inlineStr">
@@ -7195,6 +8315,11 @@
           <t>g__Enterococcus_B</t>
         </is>
       </c>
+      <c r="I225" t="inlineStr">
+        <is>
+          <t>g__Enterococcus_B</t>
+        </is>
+      </c>
     </row>
     <row r="226">
       <c r="A226" s="1" t="inlineStr">
@@ -7225,6 +8350,11 @@
           <t>g__Enterococcus_B</t>
         </is>
       </c>
+      <c r="I226" t="inlineStr">
+        <is>
+          <t>g__Enterococcus_B</t>
+        </is>
+      </c>
     </row>
     <row r="227">
       <c r="A227" s="1" t="inlineStr">
@@ -7255,6 +8385,11 @@
           <t>g__Enterococcus_B</t>
         </is>
       </c>
+      <c r="I227" t="inlineStr">
+        <is>
+          <t>g__Enterococcus_B</t>
+        </is>
+      </c>
     </row>
     <row r="228">
       <c r="A228" s="1" t="inlineStr">
@@ -7285,6 +8420,11 @@
           <t>g__Enterococcus_B</t>
         </is>
       </c>
+      <c r="I228" t="inlineStr">
+        <is>
+          <t>g__Enterococcus_B</t>
+        </is>
+      </c>
     </row>
     <row r="229">
       <c r="A229" s="1" t="inlineStr">
@@ -7315,6 +8455,11 @@
           <t>g__Enterococcus_B</t>
         </is>
       </c>
+      <c r="I229" t="inlineStr">
+        <is>
+          <t>g__Enterococcus_B</t>
+        </is>
+      </c>
     </row>
     <row r="230">
       <c r="A230" s="1" t="inlineStr">
@@ -7345,6 +8490,11 @@
           <t>g__Enterococcus_B</t>
         </is>
       </c>
+      <c r="I230" t="inlineStr">
+        <is>
+          <t>g__Enterococcus_B</t>
+        </is>
+      </c>
     </row>
     <row r="231">
       <c r="A231" s="1" t="inlineStr">
@@ -7375,6 +8525,11 @@
           <t>g__Enterococcus_B</t>
         </is>
       </c>
+      <c r="I231" t="inlineStr">
+        <is>
+          <t>g__Enterococcus_B</t>
+        </is>
+      </c>
     </row>
     <row r="232">
       <c r="A232" s="1" t="inlineStr">
@@ -7405,6 +8560,11 @@
           <t>g__Enterococcus_B</t>
         </is>
       </c>
+      <c r="I232" t="inlineStr">
+        <is>
+          <t>g__Enterococcus_B</t>
+        </is>
+      </c>
     </row>
     <row r="233">
       <c r="A233" s="1" t="inlineStr">
@@ -7435,6 +8595,11 @@
           <t>g__Enterococcus_B</t>
         </is>
       </c>
+      <c r="I233" t="inlineStr">
+        <is>
+          <t>g__Enterococcus_B</t>
+        </is>
+      </c>
     </row>
     <row r="234">
       <c r="A234" s="1" t="inlineStr">
@@ -7465,6 +8630,11 @@
           <t>g__Enterococcus_B</t>
         </is>
       </c>
+      <c r="I234" t="inlineStr">
+        <is>
+          <t>g__Enterococcus_B</t>
+        </is>
+      </c>
     </row>
     <row r="235">
       <c r="A235" s="1" t="inlineStr">
@@ -7495,6 +8665,11 @@
           <t>g__Enterococcus_B</t>
         </is>
       </c>
+      <c r="I235" t="inlineStr">
+        <is>
+          <t>g__Enterococcus_B</t>
+        </is>
+      </c>
     </row>
     <row r="236">
       <c r="A236" s="1" t="inlineStr">
@@ -7525,6 +8700,11 @@
           <t>g__Enterococcus_B</t>
         </is>
       </c>
+      <c r="I236" t="inlineStr">
+        <is>
+          <t>g__Enterococcus_B</t>
+        </is>
+      </c>
     </row>
     <row r="237">
       <c r="A237" s="1" t="inlineStr">
@@ -7555,6 +8735,11 @@
           <t>g__Enterococcus_B</t>
         </is>
       </c>
+      <c r="I237" t="inlineStr">
+        <is>
+          <t>g__Enterococcus_B</t>
+        </is>
+      </c>
     </row>
     <row r="238">
       <c r="A238" s="1" t="inlineStr">
@@ -7585,6 +8770,11 @@
           <t>g__Enterococcus_B</t>
         </is>
       </c>
+      <c r="I238" t="inlineStr">
+        <is>
+          <t>g__Enterococcus_B</t>
+        </is>
+      </c>
     </row>
     <row r="239">
       <c r="A239" s="1" t="inlineStr">
@@ -7615,6 +8805,11 @@
           <t>g__Enterococcus_B</t>
         </is>
       </c>
+      <c r="I239" t="inlineStr">
+        <is>
+          <t>g__Enterococcus_B</t>
+        </is>
+      </c>
     </row>
     <row r="240">
       <c r="A240" s="1" t="inlineStr">
@@ -7645,6 +8840,11 @@
           <t>g__Enterococcus_B</t>
         </is>
       </c>
+      <c r="I240" t="inlineStr">
+        <is>
+          <t>g__Enterococcus_B</t>
+        </is>
+      </c>
     </row>
     <row r="241">
       <c r="A241" s="1" t="inlineStr">
@@ -7675,6 +8875,11 @@
           <t>g__Enterococcus_B</t>
         </is>
       </c>
+      <c r="I241" t="inlineStr">
+        <is>
+          <t>g__Enterococcus_B</t>
+        </is>
+      </c>
     </row>
     <row r="242">
       <c r="A242" s="1" t="inlineStr">
@@ -7705,6 +8910,11 @@
           <t>g__Enterococcus_B</t>
         </is>
       </c>
+      <c r="I242" t="inlineStr">
+        <is>
+          <t>g__Enterococcus_B</t>
+        </is>
+      </c>
     </row>
     <row r="243">
       <c r="A243" s="1" t="inlineStr">
@@ -7735,6 +8945,11 @@
           <t>g__Enterococcus_B</t>
         </is>
       </c>
+      <c r="I243" t="inlineStr">
+        <is>
+          <t>g__Enterococcus_B</t>
+        </is>
+      </c>
     </row>
     <row r="244">
       <c r="A244" s="1" t="inlineStr">
@@ -7765,6 +8980,11 @@
           <t>g__Enterococcus_B</t>
         </is>
       </c>
+      <c r="I244" t="inlineStr">
+        <is>
+          <t>g__Enterococcus_B</t>
+        </is>
+      </c>
     </row>
     <row r="245">
       <c r="A245" s="1" t="inlineStr">
@@ -7795,6 +9015,11 @@
           <t>g__Enterococcus_B</t>
         </is>
       </c>
+      <c r="I245" t="inlineStr">
+        <is>
+          <t>g__Enterococcus_B</t>
+        </is>
+      </c>
     </row>
     <row r="246">
       <c r="A246" s="1" t="inlineStr">
@@ -7825,6 +9050,11 @@
           <t>g__Enterococcus_B</t>
         </is>
       </c>
+      <c r="I246" t="inlineStr">
+        <is>
+          <t>g__Enterococcus_B</t>
+        </is>
+      </c>
     </row>
     <row r="247">
       <c r="A247" s="1" t="inlineStr">
@@ -7855,6 +9085,11 @@
           <t>g__Enterococcus_B</t>
         </is>
       </c>
+      <c r="I247" t="inlineStr">
+        <is>
+          <t>g__Enterococcus_B</t>
+        </is>
+      </c>
     </row>
     <row r="248">
       <c r="A248" s="1" t="inlineStr">
@@ -7885,6 +9120,11 @@
           <t>g__Enterococcus</t>
         </is>
       </c>
+      <c r="I248" t="inlineStr">
+        <is>
+          <t>g__Enterococcus(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="249">
       <c r="A249" s="1" t="inlineStr">
@@ -7915,6 +9155,11 @@
           <t>g__Enterococcus</t>
         </is>
       </c>
+      <c r="I249" t="inlineStr">
+        <is>
+          <t>g__Enterococcus(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="250">
       <c r="A250" s="1" t="inlineStr">
@@ -7945,6 +9190,11 @@
           <t>g__Enterococcus_B</t>
         </is>
       </c>
+      <c r="I250" t="inlineStr">
+        <is>
+          <t>g__Enterococcus_B(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="251">
       <c r="A251" s="1" t="inlineStr">
@@ -7975,6 +9225,11 @@
           <t>g__Enterococcus</t>
         </is>
       </c>
+      <c r="I251" t="inlineStr">
+        <is>
+          <t>g__Enterococcus(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="252">
       <c r="A252" s="1" t="inlineStr">
@@ -8005,6 +9260,11 @@
           <t>g__Enterococcus</t>
         </is>
       </c>
+      <c r="I252" t="inlineStr">
+        <is>
+          <t>g__Enterococcus(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="253">
       <c r="A253" s="1" t="inlineStr">
@@ -8035,6 +9295,11 @@
           <t>g__Enterococcus</t>
         </is>
       </c>
+      <c r="I253" t="inlineStr">
+        <is>
+          <t>g__Enterococcus(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="254">
       <c r="A254" s="1" t="inlineStr">
@@ -8065,6 +9330,11 @@
           <t>g__Enterococcus</t>
         </is>
       </c>
+      <c r="I254" t="inlineStr">
+        <is>
+          <t>g__Enterococcus(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="255">
       <c r="A255" s="1" t="inlineStr">
@@ -8095,6 +9365,11 @@
           <t>g__Enterococcus</t>
         </is>
       </c>
+      <c r="I255" t="inlineStr">
+        <is>
+          <t>g__Enterococcus(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="256">
       <c r="A256" s="1" t="inlineStr">
@@ -8125,6 +9400,11 @@
           <t>g__Enterococcus_A</t>
         </is>
       </c>
+      <c r="I256" t="inlineStr">
+        <is>
+          <t>g__Enterococcus_A(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="257">
       <c r="A257" s="1" t="inlineStr">
@@ -8155,6 +9435,11 @@
           <t>g__Enterococcus</t>
         </is>
       </c>
+      <c r="I257" t="inlineStr">
+        <is>
+          <t>g__Enterococcus(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="258">
       <c r="A258" s="1" t="inlineStr">
@@ -8185,6 +9470,11 @@
           <t>g__Enterococcus</t>
         </is>
       </c>
+      <c r="I258" t="inlineStr">
+        <is>
+          <t>g__Enterococcus(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="259">
       <c r="A259" s="1" t="inlineStr">
@@ -8215,6 +9505,11 @@
           <t>g__Enterococcus</t>
         </is>
       </c>
+      <c r="I259" t="inlineStr">
+        <is>
+          <t>g__Enterococcus(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="260">
       <c r="A260" s="1" t="inlineStr">
@@ -8245,6 +9540,11 @@
           <t>g__Enterococcus</t>
         </is>
       </c>
+      <c r="I260" t="inlineStr">
+        <is>
+          <t>g__Enterococcus(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="261">
       <c r="A261" s="1" t="inlineStr">
@@ -8275,6 +9575,11 @@
           <t>g__Enterococcus_A</t>
         </is>
       </c>
+      <c r="I261" t="inlineStr">
+        <is>
+          <t>g__Enterococcus_A(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="262">
       <c r="A262" s="1" t="inlineStr">
@@ -8305,6 +9610,11 @@
           <t>g__Enterococcus</t>
         </is>
       </c>
+      <c r="I262" t="inlineStr">
+        <is>
+          <t>g__Enterococcus(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="263">
       <c r="A263" s="1" t="inlineStr">
@@ -8335,6 +9645,11 @@
           <t>g__Enterococcus</t>
         </is>
       </c>
+      <c r="I263" t="inlineStr">
+        <is>
+          <t>g__Enterococcus(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="264">
       <c r="A264" s="1" t="inlineStr">
@@ -8365,6 +9680,11 @@
           <t>g__Enterococcus</t>
         </is>
       </c>
+      <c r="I264" t="inlineStr">
+        <is>
+          <t>g__Enterococcus(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="265">
       <c r="A265" s="1" t="inlineStr">
@@ -8395,6 +9715,11 @@
           <t>g__Enterococcus</t>
         </is>
       </c>
+      <c r="I265" t="inlineStr">
+        <is>
+          <t>g__Enterococcus(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="266">
       <c r="A266" s="1" t="inlineStr">
@@ -8425,6 +9750,11 @@
           <t>g__Enterococcus</t>
         </is>
       </c>
+      <c r="I266" t="inlineStr">
+        <is>
+          <t>g__Enterococcus(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="267">
       <c r="A267" s="1" t="inlineStr">
@@ -8455,6 +9785,11 @@
           <t>g__Enterococcus</t>
         </is>
       </c>
+      <c r="I267" t="inlineStr">
+        <is>
+          <t>g__Enterococcus(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="268">
       <c r="A268" s="1" t="inlineStr">
@@ -8485,6 +9820,11 @@
           <t>g__Enterococcus</t>
         </is>
       </c>
+      <c r="I268" t="inlineStr">
+        <is>
+          <t>g__Enterococcus(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="269">
       <c r="A269" s="1" t="inlineStr">
@@ -8515,6 +9855,11 @@
           <t>g__Enterococcus</t>
         </is>
       </c>
+      <c r="I269" t="inlineStr">
+        <is>
+          <t>g__Enterococcus(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="270">
       <c r="A270" s="1" t="inlineStr">
@@ -8545,6 +9890,11 @@
           <t>g__Enterococcus</t>
         </is>
       </c>
+      <c r="I270" t="inlineStr">
+        <is>
+          <t>g__Enterococcus(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="271">
       <c r="A271" s="1" t="inlineStr">
@@ -8575,6 +9925,11 @@
           <t>g__Enterococcus</t>
         </is>
       </c>
+      <c r="I271" t="inlineStr">
+        <is>
+          <t>g__Enterococcus(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="272">
       <c r="A272" s="1" t="inlineStr">
@@ -8605,6 +9960,11 @@
           <t>g__Enterococcus</t>
         </is>
       </c>
+      <c r="I272" t="inlineStr">
+        <is>
+          <t>g__Enterococcus(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="273">
       <c r="A273" s="1" t="inlineStr">
@@ -8635,6 +9995,11 @@
           <t>g__Enterococcus_B</t>
         </is>
       </c>
+      <c r="I273" t="inlineStr">
+        <is>
+          <t>g__Enterococcus_B(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="274">
       <c r="A274" s="1" t="inlineStr">
@@ -8665,6 +10030,11 @@
           <t>g__Enterococcus_B</t>
         </is>
       </c>
+      <c r="I274" t="inlineStr">
+        <is>
+          <t>g__Enterococcus_B(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="275">
       <c r="A275" s="1" t="inlineStr">
@@ -8695,6 +10065,11 @@
           <t>g__Enterococcus</t>
         </is>
       </c>
+      <c r="I275" t="inlineStr">
+        <is>
+          <t>g__Enterococcus(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="276">
       <c r="A276" s="1" t="inlineStr">
@@ -8725,6 +10100,11 @@
           <t>g__Enterococcus</t>
         </is>
       </c>
+      <c r="I276" t="inlineStr">
+        <is>
+          <t>g__Enterococcus(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="277">
       <c r="A277" s="1" t="inlineStr">
@@ -8755,6 +10135,11 @@
           <t>g__Enterococcus</t>
         </is>
       </c>
+      <c r="I277" t="inlineStr">
+        <is>
+          <t>g__Enterococcus(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="278">
       <c r="A278" s="1" t="inlineStr">
@@ -8785,6 +10170,11 @@
           <t>g__Enterococcus</t>
         </is>
       </c>
+      <c r="I278" t="inlineStr">
+        <is>
+          <t>g__Enterococcus(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="279">
       <c r="A279" s="1" t="inlineStr">
@@ -8815,6 +10205,11 @@
           <t>g__Enterococcus</t>
         </is>
       </c>
+      <c r="I279" t="inlineStr">
+        <is>
+          <t>g__Enterococcus(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="280">
       <c r="A280" s="1" t="inlineStr">
@@ -8845,6 +10240,11 @@
           <t>g__Enterococcus_B</t>
         </is>
       </c>
+      <c r="I280" t="inlineStr">
+        <is>
+          <t>g__Enterococcus_B(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="281">
       <c r="A281" s="1" t="inlineStr">
@@ -8875,6 +10275,11 @@
           <t>g__Enterococcus</t>
         </is>
       </c>
+      <c r="I281" t="inlineStr">
+        <is>
+          <t>g__Enterococcus(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="282">
       <c r="A282" s="1" t="inlineStr">
@@ -8905,6 +10310,11 @@
           <t>g__Enterococcus</t>
         </is>
       </c>
+      <c r="I282" t="inlineStr">
+        <is>
+          <t>g__Enterococcus(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="283">
       <c r="A283" s="1" t="inlineStr">
@@ -8935,6 +10345,11 @@
           <t>g__Enterococcus</t>
         </is>
       </c>
+      <c r="I283" t="inlineStr">
+        <is>
+          <t>g__Enterococcus(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="284">
       <c r="A284" s="1" t="inlineStr">
@@ -8965,6 +10380,11 @@
           <t>g__Enterococcus</t>
         </is>
       </c>
+      <c r="I284" t="inlineStr">
+        <is>
+          <t>g__Enterococcus(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="285">
       <c r="A285" s="1" t="inlineStr">
@@ -8995,6 +10415,11 @@
           <t>g__Enterococcus</t>
         </is>
       </c>
+      <c r="I285" t="inlineStr">
+        <is>
+          <t>g__Enterococcus(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="286">
       <c r="A286" s="1" t="inlineStr">
@@ -9025,6 +10450,11 @@
           <t>g__Enterococcus</t>
         </is>
       </c>
+      <c r="I286" t="inlineStr">
+        <is>
+          <t>g__Enterococcus(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="287">
       <c r="A287" s="1" t="inlineStr">
@@ -9055,6 +10485,11 @@
           <t>g__Enterococcus</t>
         </is>
       </c>
+      <c r="I287" t="inlineStr">
+        <is>
+          <t>g__Enterococcus(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="288">
       <c r="A288" s="1" t="inlineStr">
@@ -9085,6 +10520,11 @@
           <t>g__Enterococcus</t>
         </is>
       </c>
+      <c r="I288" t="inlineStr">
+        <is>
+          <t>g__Enterococcus(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="289">
       <c r="A289" s="1" t="inlineStr">
@@ -9115,6 +10555,11 @@
           <t>g__Enterococcus</t>
         </is>
       </c>
+      <c r="I289" t="inlineStr">
+        <is>
+          <t>g__Enterococcus(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="290">
       <c r="A290" s="1" t="inlineStr">
@@ -9145,6 +10590,11 @@
           <t>g__Enterococcus_A</t>
         </is>
       </c>
+      <c r="I290" t="inlineStr">
+        <is>
+          <t>g__Enterococcus_A(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="291">
       <c r="A291" s="1" t="inlineStr">
@@ -9175,6 +10625,11 @@
           <t>g__Enterococcus</t>
         </is>
       </c>
+      <c r="I291" t="inlineStr">
+        <is>
+          <t>g__Enterococcus(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="292">
       <c r="A292" s="1" t="inlineStr">
@@ -9205,6 +10660,11 @@
           <t>g__Enterococcus_B</t>
         </is>
       </c>
+      <c r="I292" t="inlineStr">
+        <is>
+          <t>g__Enterococcus_B(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="293">
       <c r="A293" s="1" t="inlineStr">
@@ -9235,6 +10695,11 @@
           <t>g__Enterococcus</t>
         </is>
       </c>
+      <c r="I293" t="inlineStr">
+        <is>
+          <t>g__Enterococcus(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="294">
       <c r="A294" s="1" t="inlineStr">
@@ -9265,6 +10730,11 @@
           <t>g__Enterococcus</t>
         </is>
       </c>
+      <c r="I294" t="inlineStr">
+        <is>
+          <t>g__Enterococcus(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="295">
       <c r="A295" s="1" t="inlineStr">
@@ -9295,6 +10765,11 @@
           <t>g__Enterococcus</t>
         </is>
       </c>
+      <c r="I295" t="inlineStr">
+        <is>
+          <t>g__Enterococcus(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="296">
       <c r="A296" s="1" t="inlineStr">
@@ -9325,6 +10800,11 @@
           <t>g__Enterococcus_A</t>
         </is>
       </c>
+      <c r="I296" t="inlineStr">
+        <is>
+          <t>g__Enterococcus_A(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="297">
       <c r="A297" s="1" t="inlineStr">
@@ -9355,6 +10835,11 @@
           <t>g__Enterococcus_D</t>
         </is>
       </c>
+      <c r="I297" t="inlineStr">
+        <is>
+          <t>g__Enterococcus_D(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="298">
       <c r="A298" s="1" t="inlineStr">
@@ -9383,6 +10868,11 @@
       <c r="H298" t="inlineStr">
         <is>
           <t>g__Enterococcus_A</t>
+        </is>
+      </c>
+      <c r="I298" t="inlineStr">
+        <is>
+          <t>g__Enterococcus_A(reject)</t>
         </is>
       </c>
     </row>

--- a/outputs-HGR-r202/f__Enterococcaceae.xlsx
+++ b/outputs-HGR-r202/f__Enterococcaceae.xlsx
@@ -547,7 +547,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>g__Enterococcus_A</t>
+          <t>g__Enterococcus_A(reject)</t>
         </is>
       </c>
     </row>
@@ -1177,7 +1177,7 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>g__Enterococcus_A</t>
+          <t>g__Enterococcus_A(reject)</t>
         </is>
       </c>
     </row>
@@ -1527,7 +1527,7 @@
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>g__Enterococcus_A</t>
+          <t>g__Enterococcus_A(reject)</t>
         </is>
       </c>
     </row>
@@ -2297,7 +2297,7 @@
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>g__Enterococcus_A</t>
+          <t>g__Enterococcus_A(reject)</t>
         </is>
       </c>
     </row>
@@ -2332,7 +2332,7 @@
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>g__Enterococcus_A</t>
+          <t>g__Enterococcus_A(reject)</t>
         </is>
       </c>
     </row>
@@ -2892,7 +2892,7 @@
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>g__Enterococcus_A</t>
+          <t>g__Enterococcus_A(reject)</t>
         </is>
       </c>
     </row>
@@ -3207,7 +3207,7 @@
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>g__Enterococcus_D</t>
+          <t>g__Enterococcus_D(reject)</t>
         </is>
       </c>
     </row>
@@ -3277,7 +3277,7 @@
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>g__Enterococcus_A</t>
+          <t>g__Enterococcus_A(reject)</t>
         </is>
       </c>
     </row>
@@ -3452,7 +3452,7 @@
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>g__Enterococcus_A</t>
+          <t>g__Enterococcus_A(reject)</t>
         </is>
       </c>
     </row>
@@ -3487,7 +3487,7 @@
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>g__Enterococcus_D</t>
+          <t>g__Enterococcus_D(reject)</t>
         </is>
       </c>
     </row>
@@ -3557,7 +3557,7 @@
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>g__Enterococcus_A</t>
+          <t>g__Enterococcus_A(reject)</t>
         </is>
       </c>
     </row>
@@ -3592,7 +3592,7 @@
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>g__Enterococcus_A</t>
+          <t>g__Enterococcus_A(reject)</t>
         </is>
       </c>
     </row>
@@ -3837,7 +3837,7 @@
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>g__Enterococcus_B</t>
+          <t>g__Enterococcus_B(reject)</t>
         </is>
       </c>
     </row>
@@ -4012,7 +4012,7 @@
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>g__Enterococcus_B</t>
+          <t>g__Enterococcus_B(reject)</t>
         </is>
       </c>
     </row>
@@ -4082,7 +4082,7 @@
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>g__Enterococcus_A</t>
+          <t>g__Enterococcus_A(reject)</t>
         </is>
       </c>
     </row>
@@ -4152,7 +4152,7 @@
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>g__Enterococcus_A</t>
+          <t>g__Enterococcus_A(reject)</t>
         </is>
       </c>
     </row>
@@ -4187,7 +4187,7 @@
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>g__Enterococcus_A</t>
+          <t>g__Enterococcus_A(reject)</t>
         </is>
       </c>
     </row>
@@ -4222,7 +4222,7 @@
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>g__Enterococcus_B</t>
+          <t>g__Enterococcus_B(reject)</t>
         </is>
       </c>
     </row>
@@ -4432,7 +4432,7 @@
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>g__Enterococcus_A</t>
+          <t>g__Enterococcus_A(reject)</t>
         </is>
       </c>
     </row>
@@ -4502,7 +4502,7 @@
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>g__Enterococcus_A</t>
+          <t>g__Enterococcus_A(reject)</t>
         </is>
       </c>
     </row>
@@ -4537,7 +4537,7 @@
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>g__Enterococcus_A</t>
+          <t>g__Enterococcus_A(reject)</t>
         </is>
       </c>
     </row>
@@ -4572,7 +4572,7 @@
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>g__Enterococcus_A</t>
+          <t>g__Enterococcus_A(reject)</t>
         </is>
       </c>
     </row>
@@ -4607,7 +4607,7 @@
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>g__Enterococcus_A</t>
+          <t>g__Enterococcus_A(reject)</t>
         </is>
       </c>
     </row>
@@ -4712,7 +4712,7 @@
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>g__Enterococcus_A</t>
+          <t>g__Enterococcus_A(reject)</t>
         </is>
       </c>
     </row>
@@ -4782,7 +4782,7 @@
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>g__Enterococcus_B</t>
+          <t>g__Enterococcus_B(reject)</t>
         </is>
       </c>
     </row>
@@ -4887,7 +4887,7 @@
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>g__Enterococcus_A</t>
+          <t>g__Enterococcus_A(reject)</t>
         </is>
       </c>
     </row>
@@ -5132,7 +5132,7 @@
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>g__Enterococcus_B</t>
+          <t>g__Enterococcus_B(reject)</t>
         </is>
       </c>
     </row>
@@ -5167,7 +5167,7 @@
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>g__Enterococcus_A</t>
+          <t>g__Enterococcus_A(reject)</t>
         </is>
       </c>
     </row>
@@ -5202,7 +5202,7 @@
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>g__Enterococcus_A</t>
+          <t>g__Enterococcus_A(reject)</t>
         </is>
       </c>
     </row>
@@ -5377,7 +5377,7 @@
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>g__Enterococcus_A</t>
+          <t>g__Enterococcus_A(reject)</t>
         </is>
       </c>
     </row>
@@ -5447,7 +5447,7 @@
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>g__Enterococcus_A</t>
+          <t>g__Enterococcus_A(reject)</t>
         </is>
       </c>
     </row>
@@ -5482,7 +5482,7 @@
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>g__Enterococcus_A</t>
+          <t>g__Enterococcus_A(reject)</t>
         </is>
       </c>
     </row>
@@ -5587,7 +5587,7 @@
       </c>
       <c r="I147" t="inlineStr">
         <is>
-          <t>g__Enterococcus_B</t>
+          <t>g__Enterococcus_B(reject)</t>
         </is>
       </c>
     </row>
@@ -5692,7 +5692,7 @@
       </c>
       <c r="I150" t="inlineStr">
         <is>
-          <t>g__Enterococcus_A</t>
+          <t>g__Enterococcus_A(reject)</t>
         </is>
       </c>
     </row>
@@ -5762,7 +5762,7 @@
       </c>
       <c r="I152" t="inlineStr">
         <is>
-          <t>g__Enterococcus_A</t>
+          <t>g__Enterococcus_A(reject)</t>
         </is>
       </c>
     </row>
@@ -5867,7 +5867,7 @@
       </c>
       <c r="I155" t="inlineStr">
         <is>
-          <t>g__Enterococcus_A</t>
+          <t>g__Enterococcus_A(reject)</t>
         </is>
       </c>
     </row>
@@ -5937,7 +5937,7 @@
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>g__Enterococcus_A</t>
+          <t>g__Enterococcus_A(reject)</t>
         </is>
       </c>
     </row>
@@ -6007,7 +6007,7 @@
       </c>
       <c r="I159" t="inlineStr">
         <is>
-          <t>g__Enterococcus_A</t>
+          <t>g__Enterococcus_A(reject)</t>
         </is>
       </c>
     </row>
@@ -6077,7 +6077,7 @@
       </c>
       <c r="I161" t="inlineStr">
         <is>
-          <t>g__Enterococcus_A</t>
+          <t>g__Enterococcus_A(reject)</t>
         </is>
       </c>
     </row>
@@ -6112,7 +6112,7 @@
       </c>
       <c r="I162" t="inlineStr">
         <is>
-          <t>g__Enterococcus_A</t>
+          <t>g__Enterococcus_A(reject)</t>
         </is>
       </c>
     </row>
@@ -6322,7 +6322,7 @@
       </c>
       <c r="I168" t="inlineStr">
         <is>
-          <t>g__Enterococcus_A</t>
+          <t>g__Enterococcus_A(reject)</t>
         </is>
       </c>
     </row>
@@ -6357,7 +6357,7 @@
       </c>
       <c r="I169" t="inlineStr">
         <is>
-          <t>g__Enterococcus_A</t>
+          <t>g__Enterococcus_A(reject)</t>
         </is>
       </c>
     </row>
@@ -6392,7 +6392,7 @@
       </c>
       <c r="I170" t="inlineStr">
         <is>
-          <t>g__Enterococcus_A</t>
+          <t>g__Enterococcus_A(reject)</t>
         </is>
       </c>
     </row>
@@ -6462,7 +6462,7 @@
       </c>
       <c r="I172" t="inlineStr">
         <is>
-          <t>g__Enterococcus_A</t>
+          <t>g__Enterococcus_A(reject)</t>
         </is>
       </c>
     </row>
@@ -6532,7 +6532,7 @@
       </c>
       <c r="I174" t="inlineStr">
         <is>
-          <t>g__Enterococcus_A</t>
+          <t>g__Enterococcus_A(reject)</t>
         </is>
       </c>
     </row>
@@ -6567,7 +6567,7 @@
       </c>
       <c r="I175" t="inlineStr">
         <is>
-          <t>g__Enterococcus_A</t>
+          <t>g__Enterococcus_A(reject)</t>
         </is>
       </c>
     </row>
@@ -6602,7 +6602,7 @@
       </c>
       <c r="I176" t="inlineStr">
         <is>
-          <t>g__Enterococcus_A</t>
+          <t>g__Enterococcus_A(reject)</t>
         </is>
       </c>
     </row>
@@ -6952,7 +6952,7 @@
       </c>
       <c r="I186" t="inlineStr">
         <is>
-          <t>g__Enterococcus_A</t>
+          <t>g__Enterococcus_A(reject)</t>
         </is>
       </c>
     </row>
@@ -7022,7 +7022,7 @@
       </c>
       <c r="I188" t="inlineStr">
         <is>
-          <t>g__Enterococcus_A</t>
+          <t>g__Enterococcus_A(reject)</t>
         </is>
       </c>
     </row>
@@ -7302,7 +7302,7 @@
       </c>
       <c r="I196" t="inlineStr">
         <is>
-          <t>g__Enterococcus_A</t>
+          <t>g__Enterococcus_A(reject)</t>
         </is>
       </c>
     </row>
@@ -7337,7 +7337,7 @@
       </c>
       <c r="I197" t="inlineStr">
         <is>
-          <t>g__Enterococcus_A</t>
+          <t>g__Enterococcus_A(reject)</t>
         </is>
       </c>
     </row>
@@ -7372,7 +7372,7 @@
       </c>
       <c r="I198" t="inlineStr">
         <is>
-          <t>g__Enterococcus_B</t>
+          <t>g__Enterococcus_B(reject)</t>
         </is>
       </c>
     </row>
@@ -7442,7 +7442,7 @@
       </c>
       <c r="I200" t="inlineStr">
         <is>
-          <t>g__Enterococcus_A</t>
+          <t>g__Enterococcus_A(reject)</t>
         </is>
       </c>
     </row>
@@ -9192,7 +9192,7 @@
       </c>
       <c r="I250" t="inlineStr">
         <is>
-          <t>g__Enterococcus_B</t>
+          <t>g__Enterococcus_B(reject)</t>
         </is>
       </c>
     </row>
@@ -9402,7 +9402,7 @@
       </c>
       <c r="I256" t="inlineStr">
         <is>
-          <t>g__Enterococcus_A</t>
+          <t>g__Enterococcus_A(reject)</t>
         </is>
       </c>
     </row>
@@ -9577,7 +9577,7 @@
       </c>
       <c r="I261" t="inlineStr">
         <is>
-          <t>g__Enterococcus_A</t>
+          <t>g__Enterococcus_A(reject)</t>
         </is>
       </c>
     </row>
@@ -9997,7 +9997,7 @@
       </c>
       <c r="I273" t="inlineStr">
         <is>
-          <t>g__Enterococcus_B</t>
+          <t>g__Enterococcus_B(reject)</t>
         </is>
       </c>
     </row>
@@ -10032,7 +10032,7 @@
       </c>
       <c r="I274" t="inlineStr">
         <is>
-          <t>g__Enterococcus_B</t>
+          <t>g__Enterococcus_B(reject)</t>
         </is>
       </c>
     </row>
@@ -10242,7 +10242,7 @@
       </c>
       <c r="I280" t="inlineStr">
         <is>
-          <t>g__Enterococcus_B</t>
+          <t>g__Enterococcus_B(reject)</t>
         </is>
       </c>
     </row>
@@ -10592,7 +10592,7 @@
       </c>
       <c r="I290" t="inlineStr">
         <is>
-          <t>g__Enterococcus_A</t>
+          <t>g__Enterococcus_A(reject)</t>
         </is>
       </c>
     </row>
@@ -10662,7 +10662,7 @@
       </c>
       <c r="I292" t="inlineStr">
         <is>
-          <t>g__Enterococcus_B</t>
+          <t>g__Enterococcus_B(reject)</t>
         </is>
       </c>
     </row>
@@ -10802,7 +10802,7 @@
       </c>
       <c r="I296" t="inlineStr">
         <is>
-          <t>g__Enterococcus_A</t>
+          <t>g__Enterococcus_A(reject)</t>
         </is>
       </c>
     </row>
@@ -10837,7 +10837,7 @@
       </c>
       <c r="I297" t="inlineStr">
         <is>
-          <t>g__Enterococcus_D</t>
+          <t>g__Enterococcus_D(reject)</t>
         </is>
       </c>
     </row>
@@ -10872,7 +10872,7 @@
       </c>
       <c r="I298" t="inlineStr">
         <is>
-          <t>g__Enterococcus_A</t>
+          <t>g__Enterococcus_A(reject)</t>
         </is>
       </c>
     </row>
